--- a/UTM_predictions.xlsx
+++ b/UTM_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,47 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>Tower_count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Data_type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>xOffset</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yOffset</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pulse_count</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>easting_error</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>northing_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>error_m</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>mean_distance_from_tower</t>
         </is>
       </c>
     </row>
@@ -488,13 +528,39 @@
         <v>7575847.978962188</v>
       </c>
       <c r="E2" t="n">
-        <v>423079.5113423349</v>
+        <v>423025.6823087003</v>
       </c>
       <c r="F2" t="n">
-        <v>7575868.275035648</v>
+        <v>7575942.382113514</v>
       </c>
       <c r="G2" t="n">
-        <v>158.4565877193145</v>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>94.23821051840787</v>
+      </c>
+      <c r="J2" t="n">
+        <v>51.77398968767375</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-210.9804243180552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94.4031513268128</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231.1378256059785</v>
+      </c>
+      <c r="O2" t="n">
+        <v>107.5238872525129</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +577,39 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E3" t="n">
-        <v>422995.6300890269</v>
+        <v>422966.0495288548</v>
       </c>
       <c r="F3" t="n">
-        <v>7575713.711952298</v>
+        <v>7575722.838257778</v>
       </c>
       <c r="G3" t="n">
-        <v>198.842065679484</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>184.100128134829</v>
+      </c>
+      <c r="J3" t="n">
+        <v>186.1592956110835</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-164.1684602800524</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-137.2439928334206</v>
+      </c>
+      <c r="N3" t="n">
+        <v>213.9794310665937</v>
+      </c>
+      <c r="O3" t="n">
+        <v>261.8169981526701</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +626,39 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E4" t="n">
-        <v>423002.7968523402</v>
+        <v>422967.8746710589</v>
       </c>
       <c r="F4" t="n">
-        <v>7575705.280618852</v>
+        <v>7575767.686940819</v>
       </c>
       <c r="G4" t="n">
-        <v>200.4986067214825</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>184.100128134829</v>
+      </c>
+      <c r="J4" t="n">
+        <v>186.1592956110835</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-162.3433180759312</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-92.39530979190022</v>
+      </c>
+      <c r="N4" t="n">
+        <v>186.7946631878014</v>
+      </c>
+      <c r="O4" t="n">
+        <v>261.8169981526701</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +675,39 @@
         <v>7565176.197829493</v>
       </c>
       <c r="E5" t="n">
-        <v>427284.2525408182</v>
+        <v>427282.5546145532</v>
       </c>
       <c r="F5" t="n">
-        <v>7565215.401372851</v>
+        <v>7565253.101919101</v>
       </c>
       <c r="G5" t="n">
-        <v>40.34998401826761</v>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>43.10756927717011</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-279.1666840068065</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.852120776078664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76.90408960729837</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77.30391192565551</v>
+      </c>
+      <c r="O5" t="n">
+        <v>282.4753086348294</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +724,39 @@
         <v>7565176.197829493</v>
       </c>
       <c r="E6" t="n">
-        <v>427470.4300880033</v>
+        <v>427459.7387564023</v>
       </c>
       <c r="F6" t="n">
-        <v>7565210.22870951</v>
+        <v>7565244.192226097</v>
       </c>
       <c r="G6" t="n">
-        <v>198.6640177189415</v>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-166.3145032228495</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-268.405204506591</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" t="n">
+        <v>185.0362626251299</v>
+      </c>
+      <c r="M6" t="n">
+        <v>67.99439660366625</v>
+      </c>
+      <c r="N6" t="n">
+        <v>197.1336005245496</v>
+      </c>
+      <c r="O6" t="n">
+        <v>315.7560257358331</v>
       </c>
     </row>
     <row r="7">
@@ -603,13 +773,39 @@
         <v>7565163.796759997</v>
       </c>
       <c r="E7" t="n">
-        <v>427461.5169246853</v>
+        <v>427411.3124028369</v>
       </c>
       <c r="F7" t="n">
-        <v>7565194.945029739</v>
+        <v>7565232.38332541</v>
       </c>
       <c r="G7" t="n">
-        <v>213.8102870022266</v>
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>-217.5573735308717</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-264.9512355024926</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>161.3247293677414</v>
+      </c>
+      <c r="M7" t="n">
+        <v>68.58656541258097</v>
+      </c>
+      <c r="N7" t="n">
+        <v>175.2991308040894</v>
+      </c>
+      <c r="O7" t="n">
+        <v>342.8270233980229</v>
       </c>
     </row>
     <row r="8">
@@ -626,13 +822,39 @@
         <v>7565163.796759997</v>
       </c>
       <c r="E8" t="n">
-        <v>427482.7867400942</v>
+        <v>427455.6570997795</v>
       </c>
       <c r="F8" t="n">
-        <v>7565206.122442159</v>
+        <v>7565245.878448943</v>
       </c>
       <c r="G8" t="n">
-        <v>236.6154449564876</v>
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-217.5573735308717</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-264.9512355024926</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23</v>
+      </c>
+      <c r="L8" t="n">
+        <v>205.6694263103418</v>
+      </c>
+      <c r="M8" t="n">
+        <v>82.08168894518167</v>
+      </c>
+      <c r="N8" t="n">
+        <v>221.4437097298514</v>
+      </c>
+      <c r="O8" t="n">
+        <v>342.8270233980229</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +871,39 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E9" t="n">
-        <v>423179.1332765851</v>
+        <v>423145.6941849037</v>
       </c>
       <c r="F9" t="n">
-        <v>7575787.672176244</v>
+        <v>7575854.502870478</v>
       </c>
       <c r="G9" t="n">
-        <v>87.38377547467074</v>
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-24.51832536516304</v>
+      </c>
+      <c r="J9" t="n">
+        <v>66.16995486104861</v>
+      </c>
+      <c r="K9" t="n">
+        <v>22</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15.47619576886063</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-5.579380133189261</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.45120415491604</v>
+      </c>
+      <c r="O9" t="n">
+        <v>70.56636029316806</v>
       </c>
     </row>
     <row r="10">
@@ -672,13 +920,39 @@
         <v>7575847.162318607</v>
       </c>
       <c r="E10" t="n">
-        <v>423193.1938506094</v>
+        <v>423154.4776781799</v>
       </c>
       <c r="F10" t="n">
-        <v>7575813.63334893</v>
+        <v>7575883.331977163</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5237377875579</v>
+        <v>4</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-63.70489524480945</v>
+      </c>
+      <c r="J10" t="n">
+        <v>53.25002285698429</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>63.44625892472686</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36.16965855658054</v>
+      </c>
+      <c r="N10" t="n">
+        <v>73.03199279523395</v>
+      </c>
+      <c r="O10" t="n">
+        <v>83.0293840301221</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +969,39 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E11" t="n">
-        <v>436776.6084256105</v>
+        <v>436767.0846829533</v>
       </c>
       <c r="F11" t="n">
-        <v>7551598.993633591</v>
+        <v>7551672.217565683</v>
       </c>
       <c r="G11" t="n">
-        <v>494.0521290199475</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>-332.7553784533908</v>
+      </c>
+      <c r="J11" t="n">
+        <v>374.6397789372131</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="n">
+        <v>395.6398810733226</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-209.4949109209701</v>
+      </c>
+      <c r="N11" t="n">
+        <v>447.6818437210717</v>
+      </c>
+      <c r="O11" t="n">
+        <v>501.0799395822819</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +1018,39 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E12" t="n">
-        <v>436744.1966810271</v>
+        <v>436708.2838374109</v>
       </c>
       <c r="F12" t="n">
-        <v>7551524.061783269</v>
+        <v>7551573.291329911</v>
       </c>
       <c r="G12" t="n">
-        <v>516.5829864121255</v>
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>-398.1717206200556</v>
+      </c>
+      <c r="J12" t="n">
+        <v>291.3290823537391</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>336.8390355309239</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-308.4211466927081</v>
+      </c>
+      <c r="N12" t="n">
+        <v>456.7101264310306</v>
+      </c>
+      <c r="O12" t="n">
+        <v>493.3693883152939</v>
       </c>
     </row>
     <row r="13">
@@ -741,13 +1067,39 @@
         <v>7551987.041595621</v>
       </c>
       <c r="E13" t="n">
-        <v>436711.5588585243</v>
+        <v>436662.3485549789</v>
       </c>
       <c r="F13" t="n">
-        <v>7551722.091128103</v>
+        <v>7551794.190833243</v>
       </c>
       <c r="G13" t="n">
-        <v>342.0774736542725</v>
+        <v>4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>-274.4329115062574</v>
+      </c>
+      <c r="J13" t="n">
+        <v>396.6582013710868</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26</v>
+      </c>
+      <c r="L13" t="n">
+        <v>167.1649439851753</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-192.8507623784244</v>
+      </c>
+      <c r="N13" t="n">
+        <v>255.2166433591397</v>
+      </c>
+      <c r="O13" t="n">
+        <v>482.3392495254216</v>
       </c>
     </row>
     <row r="14">
@@ -764,13 +1116,39 @@
         <v>7551987.041595621</v>
       </c>
       <c r="E14" t="n">
-        <v>436571.5549104433</v>
+        <v>436535.1796849946</v>
       </c>
       <c r="F14" t="n">
-        <v>7551709.559444305</v>
+        <v>7551791.628159024</v>
       </c>
       <c r="G14" t="n">
-        <v>287.8001384274006</v>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>-72.8823435062659</v>
+      </c>
+      <c r="J14" t="n">
+        <v>403.1119886212982</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>39.99607400089735</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-195.4134365972131</v>
+      </c>
+      <c r="N14" t="n">
+        <v>199.4645260145731</v>
+      </c>
+      <c r="O14" t="n">
+        <v>409.6475452937354</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +1165,39 @@
         <v>7576072.825867338</v>
       </c>
       <c r="E15" t="n">
-        <v>423323.599292662</v>
+        <v>423265.1892461217</v>
       </c>
       <c r="F15" t="n">
-        <v>7575921.224283237</v>
+        <v>7576008.464180694</v>
       </c>
       <c r="G15" t="n">
-        <v>183.9820345722959</v>
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>-157.0653137245099</v>
+      </c>
+      <c r="J15" t="n">
+        <v>253.6686340047357</v>
+      </c>
+      <c r="K15" t="n">
+        <v>33</v>
+      </c>
+      <c r="L15" t="n">
+        <v>45.83173367957352</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-64.36168664414436</v>
+      </c>
+      <c r="N15" t="n">
+        <v>79.01249597218394</v>
+      </c>
+      <c r="O15" t="n">
+        <v>298.3576522450987</v>
       </c>
     </row>
     <row r="16">
@@ -810,13 +1214,39 @@
         <v>7576072.825867338</v>
       </c>
       <c r="E16" t="n">
-        <v>423317.3913018228</v>
+        <v>423286.2846640596</v>
       </c>
       <c r="F16" t="n">
-        <v>7575901.6112285</v>
+        <v>7576002.53986731</v>
       </c>
       <c r="G16" t="n">
-        <v>197.2943902208856</v>
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>-74.92409695783863</v>
+      </c>
+      <c r="J16" t="n">
+        <v>316.1562575381249</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>66.92715161747765</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-70.2860000282526</v>
+      </c>
+      <c r="N16" t="n">
+        <v>97.05341531136534</v>
+      </c>
+      <c r="O16" t="n">
+        <v>324.9129106167694</v>
       </c>
     </row>
     <row r="17">
@@ -833,13 +1263,39 @@
         <v>7575845.202202614</v>
       </c>
       <c r="E17" t="n">
-        <v>423373.160230627</v>
+        <v>423377.5696117773</v>
       </c>
       <c r="F17" t="n">
-        <v>7575802.157352917</v>
+        <v>7575836.835523252</v>
       </c>
       <c r="G17" t="n">
-        <v>277.4426409614576</v>
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>421.1023855909589</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-147.361201385657</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-269.6737448137137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-8.366679362021387</v>
+      </c>
+      <c r="N17" t="n">
+        <v>269.8035025076562</v>
+      </c>
+      <c r="O17" t="n">
+        <v>446.1418415977376</v>
       </c>
     </row>
     <row r="18">
@@ -856,13 +1312,39 @@
         <v>7575845.202202614</v>
       </c>
       <c r="E18" t="n">
-        <v>423469.0595068804</v>
+        <v>423454.1802985745</v>
       </c>
       <c r="F18" t="n">
-        <v>7575735.25664971</v>
+        <v>7575762.310054448</v>
       </c>
       <c r="G18" t="n">
-        <v>209.3740884185497</v>
+        <v>6</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>270.820530424302</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26.04496928102647</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-193.0630580164725</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-82.89214816596359</v>
+      </c>
+      <c r="N18" t="n">
+        <v>210.1058128616148</v>
+      </c>
+      <c r="O18" t="n">
+        <v>272.0700279783679</v>
       </c>
     </row>
     <row r="19">
@@ -879,13 +1361,39 @@
         <v>7572501.991928468</v>
       </c>
       <c r="E19" t="n">
-        <v>431437.4732246047</v>
+        <v>431433.1868564912</v>
       </c>
       <c r="F19" t="n">
-        <v>7572543.657441078</v>
+        <v>7572579.077282846</v>
       </c>
       <c r="G19" t="n">
-        <v>351.5597508526884</v>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>476.2433221854735</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-272.5395030328073</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-353.3683691942715</v>
+      </c>
+      <c r="M19" t="n">
+        <v>77.08535437844694</v>
+      </c>
+      <c r="N19" t="n">
+        <v>361.6785260513399</v>
+      </c>
+      <c r="O19" t="n">
+        <v>548.712568326648</v>
       </c>
     </row>
     <row r="20">
@@ -902,13 +1410,39 @@
         <v>7572390.860727692</v>
       </c>
       <c r="E20" t="n">
-        <v>431418.0369431145</v>
+        <v>431414.5397421601</v>
       </c>
       <c r="F20" t="n">
-        <v>7572526.699659521</v>
+        <v>7572563.999543196</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6238639801489</v>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>93.10092225670815</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-383.6707038083114</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11.12691640341654</v>
+      </c>
+      <c r="M20" t="n">
+        <v>173.1388155035675</v>
+      </c>
+      <c r="N20" t="n">
+        <v>173.4959875692432</v>
+      </c>
+      <c r="O20" t="n">
+        <v>394.8050033697833</v>
       </c>
     </row>
     <row r="21">
@@ -925,13 +1459,39 @@
         <v>7572390.860727692</v>
       </c>
       <c r="E21" t="n">
-        <v>431420.2467804839</v>
+        <v>431412.0416900642</v>
       </c>
       <c r="F21" t="n">
-        <v>7572533.518362626</v>
+        <v>7572571.995411389</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6474254445085</v>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>93.10092225670815</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-383.6707038083114</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.628864307538606</v>
+      </c>
+      <c r="M21" t="n">
+        <v>181.1346836965531</v>
+      </c>
+      <c r="N21" t="n">
+        <v>181.340097433216</v>
+      </c>
+      <c r="O21" t="n">
+        <v>394.8050033697833</v>
       </c>
     </row>
     <row r="22">
@@ -948,13 +1508,39 @@
         <v>7572805.177943617</v>
       </c>
       <c r="E22" t="n">
-        <v>431773.3752193212</v>
+        <v>431790.4629148571</v>
       </c>
       <c r="F22" t="n">
-        <v>7572902.722191515</v>
+        <v>7572945.152842052</v>
       </c>
       <c r="G22" t="n">
-        <v>238.7299664127614</v>
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>14.341414667957</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-208.0218473831192</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>234.9801381891593</v>
+      </c>
+      <c r="M22" t="n">
+        <v>139.9748984351754</v>
+      </c>
+      <c r="N22" t="n">
+        <v>273.5116771462127</v>
+      </c>
+      <c r="O22" t="n">
+        <v>208.515623307617</v>
       </c>
     </row>
     <row r="23">
@@ -971,13 +1557,39 @@
         <v>7572805.177943617</v>
       </c>
       <c r="E23" t="n">
-        <v>431364.3581852812</v>
+        <v>431363.173523435</v>
       </c>
       <c r="F23" t="n">
-        <v>7572650.639159113</v>
+        <v>7572687.89390554</v>
       </c>
       <c r="G23" t="n">
-        <v>245.786178107538</v>
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>331.2382213346427</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-47.10749204984555</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-192.3092532330193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-117.2840380771086</v>
+      </c>
+      <c r="N23" t="n">
+        <v>225.2518467553911</v>
+      </c>
+      <c r="O23" t="n">
+        <v>334.5711808870633</v>
       </c>
     </row>
     <row r="24">
@@ -994,13 +1606,39 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E24" t="n">
-        <v>431568.2923813678</v>
+        <v>431584.230696297</v>
       </c>
       <c r="F24" t="n">
-        <v>7572922.129904328</v>
+        <v>7572966.260456187</v>
       </c>
       <c r="G24" t="n">
-        <v>121.6166896418571</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>-58.20607255597133</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-4.439718383364379</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>101.295406852907</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-42.49961643014103</v>
+      </c>
+      <c r="N24" t="n">
+        <v>109.8497921991893</v>
+      </c>
+      <c r="O24" t="n">
+        <v>58.37514866546023</v>
       </c>
     </row>
     <row r="25">
@@ -1017,13 +1655,39 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E25" t="n">
-        <v>431348.0006413591</v>
+        <v>431322.946400095</v>
       </c>
       <c r="F25" t="n">
-        <v>7572924.384503757</v>
+        <v>7572967.389777073</v>
       </c>
       <c r="G25" t="n">
-        <v>159.1433186605247</v>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>186.3096789440315</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1.736544883344322</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-159.9888893491006</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-41.37029554415494</v>
+      </c>
+      <c r="N25" t="n">
+        <v>165.2511605664829</v>
+      </c>
+      <c r="O25" t="n">
+        <v>186.3177717137041</v>
       </c>
     </row>
     <row r="26">
@@ -1040,13 +1704,39 @@
         <v>7573004.870924478</v>
       </c>
       <c r="E26" t="n">
-        <v>431348.0934121099</v>
+        <v>431305.0151047051</v>
       </c>
       <c r="F26" t="n">
-        <v>7572636.722819019</v>
+        <v>7572676.080947467</v>
       </c>
       <c r="G26" t="n">
-        <v>516.2706459971032</v>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>399.7239796809154</v>
+      </c>
+      <c r="J26" t="n">
+        <v>230.3394929780625</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-405.0207784758531</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-328.7899770112708</v>
+      </c>
+      <c r="N26" t="n">
+        <v>521.6748795756396</v>
+      </c>
+      <c r="O26" t="n">
+        <v>461.3410256603457</v>
       </c>
     </row>
     <row r="27">
@@ -1063,13 +1753,39 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E27" t="n">
-        <v>431323.7556635942</v>
+        <v>431247.6539450613</v>
       </c>
       <c r="F27" t="n">
-        <v>7572925.549516606</v>
+        <v>7572972.810458456</v>
       </c>
       <c r="G27" t="n">
-        <v>488.8600082006251</v>
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>266.8439817810431</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-20.52558114286512</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-560.3313987197471</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-19.86375140119344</v>
+      </c>
+      <c r="N27" t="n">
+        <v>560.6833732249928</v>
+      </c>
+      <c r="O27" t="n">
+        <v>267.6322291765587</v>
       </c>
     </row>
     <row r="28">
@@ -1086,13 +1802,39 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E28" t="n">
-        <v>431365.8464695585</v>
+        <v>431281.4424766515</v>
       </c>
       <c r="F28" t="n">
-        <v>7572939.200176129</v>
+        <v>7572998.750388363</v>
       </c>
       <c r="G28" t="n">
-        <v>445.3608159481275</v>
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>266.8439817810431</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-20.52558114286512</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-526.5428671296104</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.076178506016731</v>
+      </c>
+      <c r="N28" t="n">
+        <v>526.5779247844592</v>
+      </c>
+      <c r="O28" t="n">
+        <v>267.6322291765587</v>
       </c>
     </row>
     <row r="29">
@@ -1109,13 +1851,39 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E29" t="n">
-        <v>431770.5788889981</v>
+        <v>431790.7808905513</v>
       </c>
       <c r="F29" t="n">
-        <v>7572907.590299229</v>
+        <v>7572949.228332879</v>
       </c>
       <c r="G29" t="n">
-        <v>92.94361036253768</v>
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>266.8439817810431</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-20.52558114286512</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-17.20445322978776</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-43.44587697833776</v>
+      </c>
+      <c r="N29" t="n">
+        <v>46.72833655666349</v>
+      </c>
+      <c r="O29" t="n">
+        <v>267.6322291765587</v>
       </c>
     </row>
     <row r="30">
@@ -1132,13 +1900,39 @@
         <v>7573092.847894013</v>
       </c>
       <c r="E30" t="n">
-        <v>431777.7469900263</v>
+        <v>431778.0679654556</v>
       </c>
       <c r="F30" t="n">
-        <v>7573178.315765153</v>
+        <v>7573266.244096642</v>
       </c>
       <c r="G30" t="n">
-        <v>97.80004427129845</v>
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>189.0652066745097</v>
+      </c>
+      <c r="J30" t="n">
+        <v>79.64810301270336</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>47.86139678105246</v>
+      </c>
+      <c r="M30" t="n">
+        <v>173.3962026294321</v>
+      </c>
+      <c r="N30" t="n">
+        <v>179.8803946741846</v>
+      </c>
+      <c r="O30" t="n">
+        <v>205.1571901942442</v>
       </c>
     </row>
     <row r="31">
@@ -1155,13 +1949,39 @@
         <v>7573092.847894013</v>
       </c>
       <c r="E31" t="n">
-        <v>431582.8925619047</v>
+        <v>431611.8049909251</v>
       </c>
       <c r="F31" t="n">
-        <v>7572965.484516541</v>
+        <v>7572965.60206464</v>
       </c>
       <c r="G31" t="n">
-        <v>194.737891822637</v>
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>189.0652066745097</v>
+      </c>
+      <c r="J31" t="n">
+        <v>79.64810301270336</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-118.401577749406</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-127.2458293726668</v>
+      </c>
+      <c r="N31" t="n">
+        <v>173.8114918706081</v>
+      </c>
+      <c r="O31" t="n">
+        <v>205.1571901942442</v>
       </c>
     </row>
     <row r="32">
@@ -1178,13 +1998,39 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E32" t="n">
-        <v>431291.8440166414</v>
+        <v>431268.8559112379</v>
       </c>
       <c r="F32" t="n">
-        <v>7572888.241886548</v>
+        <v>7572970.082420326</v>
       </c>
       <c r="G32" t="n">
-        <v>315.5351748291515</v>
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>308.6221839225036</v>
+      </c>
+      <c r="J32" t="n">
+        <v>239.5995056064179</v>
+      </c>
+      <c r="K32" t="n">
+        <v>16</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-264.0108280178974</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-121.8025209475309</v>
+      </c>
+      <c r="N32" t="n">
+        <v>290.7534546998015</v>
+      </c>
+      <c r="O32" t="n">
+        <v>390.7116270293674</v>
       </c>
     </row>
     <row r="33">
@@ -1201,13 +2047,39 @@
         <v>7573096.091231987</v>
       </c>
       <c r="E33" t="n">
-        <v>431266.5991450728</v>
+        <v>431231.6945888386</v>
       </c>
       <c r="F33" t="n">
-        <v>7572871.71389537</v>
+        <v>7572935.92054079</v>
       </c>
       <c r="G33" t="n">
-        <v>293.7067571620664</v>
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>231.8762771936599</v>
+      </c>
+      <c r="J33" t="n">
+        <v>243.8057963199293</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-224.4262436883873</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-160.1706911968067</v>
+      </c>
+      <c r="N33" t="n">
+        <v>275.7204910313019</v>
+      </c>
+      <c r="O33" t="n">
+        <v>336.4637785028068</v>
       </c>
     </row>
     <row r="34">
@@ -1224,13 +2096,39 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E34" t="n">
-        <v>431605.9590779334</v>
+        <v>431507.3833640189</v>
       </c>
       <c r="F34" t="n">
-        <v>7572902.340374523</v>
+        <v>7572955.479027668</v>
       </c>
       <c r="G34" t="n">
-        <v>203.149286875438</v>
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>-8.274622744182125</v>
+      </c>
+      <c r="J34" t="n">
+        <v>78.68515027314425</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-25.4833752369741</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-136.4059136053547</v>
+      </c>
+      <c r="N34" t="n">
+        <v>138.7659024399724</v>
+      </c>
+      <c r="O34" t="n">
+        <v>79.11903851201573</v>
       </c>
     </row>
     <row r="35">
@@ -1247,13 +2145,39 @@
         <v>7573096.091231987</v>
       </c>
       <c r="E35" t="n">
-        <v>431506.6219809712</v>
+        <v>431523.0984508288</v>
       </c>
       <c r="F35" t="n">
-        <v>7572914.265147813</v>
+        <v>7572957.545316711</v>
       </c>
       <c r="G35" t="n">
-        <v>188.7090111264359</v>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>159.495222026977</v>
+      </c>
+      <c r="J35" t="n">
+        <v>85.59461448667571</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>66.97761830181116</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-138.5459152758121</v>
+      </c>
+      <c r="N35" t="n">
+        <v>153.8862306803166</v>
+      </c>
+      <c r="O35" t="n">
+        <v>181.0115020614915</v>
       </c>
     </row>
     <row r="36">
@@ -1270,13 +2194,39 @@
         <v>7572813.902893568</v>
       </c>
       <c r="E36" t="n">
-        <v>431405.9700678293</v>
+        <v>431413.7071900296</v>
       </c>
       <c r="F36" t="n">
-        <v>7572843.386643607</v>
+        <v>7572880.913389263</v>
       </c>
       <c r="G36" t="n">
-        <v>139.2124733232668</v>
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>45.67103365593357</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-38.38254209856192</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>143.7916010403424</v>
+      </c>
+      <c r="M36" t="n">
+        <v>67.01049569435418</v>
+      </c>
+      <c r="N36" t="n">
+        <v>158.6393112155623</v>
+      </c>
+      <c r="O36" t="n">
+        <v>59.65788173535241</v>
       </c>
     </row>
     <row r="37">
@@ -1293,13 +2243,39 @@
         <v>7572652.685400154</v>
       </c>
       <c r="E37" t="n">
-        <v>431298.4029110712</v>
+        <v>431269.270088117</v>
       </c>
       <c r="F37" t="n">
-        <v>7572703.406132533</v>
+        <v>7572744.172608607</v>
       </c>
       <c r="G37" t="n">
-        <v>223.7228077931017</v>
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>-143.7391018741764</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-199.6000355125094</v>
+      </c>
+      <c r="K37" t="n">
+        <v>16</v>
+      </c>
+      <c r="L37" t="n">
+        <v>188.764634657884</v>
+      </c>
+      <c r="M37" t="n">
+        <v>91.48720845207572</v>
+      </c>
+      <c r="N37" t="n">
+        <v>209.7665288073338</v>
+      </c>
+      <c r="O37" t="n">
+        <v>245.9697208686262</v>
       </c>
     </row>
     <row r="38">
@@ -1316,13 +2292,39 @@
         <v>7572623.03781987</v>
       </c>
       <c r="E38" t="n">
-        <v>431292.6741932032</v>
+        <v>431279.1243903688</v>
       </c>
       <c r="F38" t="n">
-        <v>7572653.014889337</v>
+        <v>7572687.2383101</v>
       </c>
       <c r="G38" t="n">
-        <v>311.0723334530321</v>
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>-241.1949282519054</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-229.2476157971347</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14</v>
+      </c>
+      <c r="L38" t="n">
+        <v>296.0747632873245</v>
+      </c>
+      <c r="M38" t="n">
+        <v>64.20049022976309</v>
+      </c>
+      <c r="N38" t="n">
+        <v>302.9553901177319</v>
+      </c>
+      <c r="O38" t="n">
+        <v>332.7603683780754</v>
       </c>
     </row>
     <row r="39">
@@ -1339,13 +2341,39 @@
         <v>7572590.608830938</v>
       </c>
       <c r="E39" t="n">
-        <v>431142.2086155873</v>
+        <v>431150.8232137692</v>
       </c>
       <c r="F39" t="n">
-        <v>7572720.4334179</v>
+        <v>7572736.14748924</v>
       </c>
       <c r="G39" t="n">
-        <v>290.3422882358803</v>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>-183.2877885459748</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-181.2194270621985</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>268.3148503152188</v>
+      </c>
+      <c r="M39" t="n">
+        <v>145.5386583022773</v>
+      </c>
+      <c r="N39" t="n">
+        <v>305.2447541893313</v>
+      </c>
+      <c r="O39" t="n">
+        <v>257.7496734718115</v>
       </c>
     </row>
     <row r="40">
@@ -1362,13 +2390,39 @@
         <v>7572746.256459491</v>
       </c>
       <c r="E40" t="n">
-        <v>431319.8058413125</v>
+        <v>431287.092257861</v>
       </c>
       <c r="F40" t="n">
-        <v>7572675.480024645</v>
+        <v>7572721.055291928</v>
       </c>
       <c r="G40" t="n">
-        <v>489.6332430121207</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>493.9848138184752</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-28.27497200900689</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-517.2044594574836</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-25.20116756297648</v>
+      </c>
+      <c r="N40" t="n">
+        <v>517.8180681757301</v>
+      </c>
+      <c r="O40" t="n">
+        <v>494.7933612381877</v>
       </c>
     </row>
     <row r="41">
@@ -1385,13 +2439,39 @@
         <v>7572921.351016466</v>
       </c>
       <c r="E41" t="n">
-        <v>431089.4841122238</v>
+        <v>431086.2969431083</v>
       </c>
       <c r="F41" t="n">
-        <v>7572840.834096195</v>
+        <v>7572923.069305482</v>
       </c>
       <c r="G41" t="n">
-        <v>82.89081722924037</v>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>43.38347065393464</v>
+      </c>
+      <c r="J41" t="n">
+        <v>149.5227584652603</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-22.88267954561161</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.718289016745985</v>
+      </c>
+      <c r="N41" t="n">
+        <v>22.94710309237795</v>
+      </c>
+      <c r="O41" t="n">
+        <v>155.6893728712444</v>
       </c>
     </row>
     <row r="42">
@@ -1408,13 +2488,39 @@
         <v>7572921.351016466</v>
       </c>
       <c r="E42" t="n">
-        <v>431350.5496132493</v>
+        <v>431346.2798285324</v>
       </c>
       <c r="F42" t="n">
-        <v>7572855.324750225</v>
+        <v>7572924.886625099</v>
       </c>
       <c r="G42" t="n">
-        <v>250.2377673207602</v>
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>-115.0649326794082</v>
+      </c>
+      <c r="J42" t="n">
+        <v>69.06558079862346</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>237.1002058784943</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.535608633421361</v>
+      </c>
+      <c r="N42" t="n">
+        <v>237.1265656902092</v>
+      </c>
+      <c r="O42" t="n">
+        <v>134.2013158786751</v>
       </c>
     </row>
     <row r="43">
@@ -1431,13 +2537,39 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E43" t="n">
-        <v>431254.7070996727</v>
+        <v>431220.1188091224</v>
       </c>
       <c r="F43" t="n">
-        <v>7572781.339627792</v>
+        <v>7572858.084946941</v>
       </c>
       <c r="G43" t="n">
-        <v>178.70953681747</v>
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>-139.7856702014687</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-16.60757092169176</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13</v>
+      </c>
+      <c r="L43" t="n">
+        <v>135.6599239905481</v>
+      </c>
+      <c r="M43" t="n">
+        <v>22.40708219539374</v>
+      </c>
+      <c r="N43" t="n">
+        <v>137.4979720200717</v>
+      </c>
+      <c r="O43" t="n">
+        <v>140.7687643108115</v>
       </c>
     </row>
     <row r="44">
@@ -1454,13 +2586,39 @@
         <v>7572694.685036717</v>
       </c>
       <c r="E44" t="n">
-        <v>431257.4884518349</v>
+        <v>431313.710084635</v>
       </c>
       <c r="F44" t="n">
-        <v>7572705.550627619</v>
+        <v>7572772.092890647</v>
       </c>
       <c r="G44" t="n">
-        <v>65.31077768101595</v>
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>113.605411995668</v>
+      </c>
+      <c r="J44" t="n">
+        <v>158.8219647165388</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>120.6222276393673</v>
+      </c>
+      <c r="M44" t="n">
+        <v>77.40785393025726</v>
+      </c>
+      <c r="N44" t="n">
+        <v>143.3237511746445</v>
+      </c>
+      <c r="O44" t="n">
+        <v>195.2705971495119</v>
       </c>
     </row>
     <row r="45">
@@ -1477,13 +2635,39 @@
         <v>7572694.685036717</v>
       </c>
       <c r="E45" t="n">
-        <v>431263.5826368246</v>
+        <v>431336.2597023135</v>
       </c>
       <c r="F45" t="n">
-        <v>7572700.316701582</v>
+        <v>7572788.245947513</v>
       </c>
       <c r="G45" t="n">
-        <v>70.71937239737532</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>113.605411995668</v>
+      </c>
+      <c r="J45" t="n">
+        <v>158.8219647165388</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>143.1718453178764</v>
+      </c>
+      <c r="M45" t="n">
+        <v>93.56091079581529</v>
+      </c>
+      <c r="N45" t="n">
+        <v>171.0316383616448</v>
+      </c>
+      <c r="O45" t="n">
+        <v>195.2705971495119</v>
       </c>
     </row>
     <row r="46">
@@ -1500,13 +2684,39 @@
         <v>7572415.858964764</v>
       </c>
       <c r="E46" t="n">
-        <v>431093.4826803908</v>
+        <v>431058.2690539076</v>
       </c>
       <c r="F46" t="n">
-        <v>7572536.347637722</v>
+        <v>7572575.429103224</v>
       </c>
       <c r="G46" t="n">
-        <v>142.604293726597</v>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>-48.59233026552829</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-355.9692932367325</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
+      <c r="L46" t="n">
+        <v>41.06523217313224</v>
+      </c>
+      <c r="M46" t="n">
+        <v>159.5701384600252</v>
+      </c>
+      <c r="N46" t="n">
+        <v>164.7694825554322</v>
+      </c>
+      <c r="O46" t="n">
+        <v>359.2705836665354</v>
       </c>
     </row>
     <row r="47">
@@ -1523,13 +2733,39 @@
         <v>7572676.276017517</v>
       </c>
       <c r="E47" t="n">
-        <v>431120.0520493584</v>
+        <v>431096.2191490381</v>
       </c>
       <c r="F47" t="n">
-        <v>7572631.59273998</v>
+        <v>7572709.234544504</v>
       </c>
       <c r="G47" t="n">
-        <v>57.72866081992478</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4.018229711218737</v>
+      </c>
+      <c r="J47" t="n">
+        <v>140.4129455164075</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>12.7184743268881</v>
+      </c>
+      <c r="M47" t="n">
+        <v>32.95852698665112</v>
+      </c>
+      <c r="N47" t="n">
+        <v>35.3273844253084</v>
+      </c>
+      <c r="O47" t="n">
+        <v>140.4704290539676</v>
       </c>
     </row>
     <row r="48">
@@ -1546,13 +2782,39 @@
         <v>7572746.432346389</v>
       </c>
       <c r="E48" t="n">
-        <v>431390.1328754784</v>
+        <v>431374.0567588518</v>
       </c>
       <c r="F48" t="n">
-        <v>7572840.780162408</v>
+        <v>7572913.845748976</v>
       </c>
       <c r="G48" t="n">
-        <v>424.1343058157308</v>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>-333.6864632415818</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-28.09908511163667</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>397.4313185933861</v>
+      </c>
+      <c r="M48" t="n">
+        <v>167.4134025871754</v>
+      </c>
+      <c r="N48" t="n">
+        <v>431.2527105592418</v>
+      </c>
+      <c r="O48" t="n">
+        <v>334.8674578617434</v>
       </c>
     </row>
     <row r="49">
@@ -1569,13 +2831,39 @@
         <v>7572746.432346389</v>
       </c>
       <c r="E49" t="n">
-        <v>431267.3111977528</v>
+        <v>431312.661616175</v>
       </c>
       <c r="F49" t="n">
-        <v>7572726.473184311</v>
+        <v>7572788.261977591</v>
       </c>
       <c r="G49" t="n">
-        <v>291.3701730804862</v>
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>-102.857004741556</v>
+      </c>
+      <c r="J49" t="n">
+        <v>210.5692743882537</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>336.0361759166117</v>
+      </c>
+      <c r="M49" t="n">
+        <v>41.82963120192289</v>
+      </c>
+      <c r="N49" t="n">
+        <v>338.6296348094019</v>
+      </c>
+      <c r="O49" t="n">
+        <v>234.3479949579261</v>
       </c>
     </row>
     <row r="50">
@@ -1592,13 +2880,39 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E50" t="n">
-        <v>437179.8514605076</v>
+        <v>437189.3084151151</v>
       </c>
       <c r="F50" t="n">
-        <v>7551739.156889814</v>
+        <v>7551784.801466458</v>
       </c>
       <c r="G50" t="n">
-        <v>84.86537984119461</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>296.6810217248276</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-82.08894705399871</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-73.23815560975345</v>
+      </c>
+      <c r="M50" t="n">
+        <v>26.57492951210588</v>
+      </c>
+      <c r="N50" t="n">
+        <v>77.91055330115334</v>
+      </c>
+      <c r="O50" t="n">
+        <v>307.828237626313</v>
       </c>
     </row>
     <row r="51">
@@ -1615,13 +2929,39 @@
         <v>7551781.86694753</v>
       </c>
       <c r="E51" t="n">
-        <v>436558.5136834616</v>
+        <v>436509.878433174</v>
       </c>
       <c r="F51" t="n">
-        <v>7551695.267309791</v>
+        <v>7551782.195697963</v>
       </c>
       <c r="G51" t="n">
-        <v>86.70767372442094</v>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>-5.225213577097747</v>
+      </c>
+      <c r="J51" t="n">
+        <v>197.9373405301012</v>
+      </c>
+      <c r="K51" t="n">
+        <v>23</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-52.96230774890864</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3287504334002733</v>
+      </c>
+      <c r="N51" t="n">
+        <v>52.96332805760576</v>
+      </c>
+      <c r="O51" t="n">
+        <v>198.0062969530402</v>
       </c>
     </row>
     <row r="52">
@@ -1638,13 +2978,39 @@
         <v>7551866.216828501</v>
       </c>
       <c r="E52" t="n">
-        <v>436585.7541705463</v>
+        <v>436541.0945547818</v>
       </c>
       <c r="F52" t="n">
-        <v>7551726.011675996</v>
+        <v>7551806.167716309</v>
       </c>
       <c r="G52" t="n">
-        <v>174.999623870221</v>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>-87.03706058615353</v>
+      </c>
+      <c r="J52" t="n">
+        <v>282.2872215011157</v>
+      </c>
+      <c r="K52" t="n">
+        <v>17</v>
+      </c>
+      <c r="L52" t="n">
+        <v>60.06566086795647</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-60.04911219142377</v>
+      </c>
+      <c r="N52" t="n">
+        <v>84.93397135706392</v>
+      </c>
+      <c r="O52" t="n">
+        <v>295.4006183783266</v>
       </c>
     </row>
     <row r="53">
@@ -1661,13 +3027,39 @@
         <v>7551908.838392975</v>
       </c>
       <c r="E53" t="n">
-        <v>436560.1640020368</v>
+        <v>436520.0610799966</v>
       </c>
       <c r="F53" t="n">
-        <v>7551707.933737479</v>
+        <v>7551771.236793852</v>
       </c>
       <c r="G53" t="n">
-        <v>226.8736238088353</v>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>-100.1690335157327</v>
+      </c>
+      <c r="J53" t="n">
+        <v>303.5980037380941</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21</v>
+      </c>
+      <c r="L53" t="n">
+        <v>65.29613194195554</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-137.6015991223976</v>
+      </c>
+      <c r="N53" t="n">
+        <v>152.3081906123971</v>
+      </c>
+      <c r="O53" t="n">
+        <v>319.6960793460436</v>
       </c>
     </row>
     <row r="54">
@@ -1684,13 +3076,39 @@
         <v>7551908.838392975</v>
       </c>
       <c r="E54" t="n">
-        <v>436560.0041328621</v>
+        <v>436523.2484372615</v>
       </c>
       <c r="F54" t="n">
-        <v>7551664.903712273</v>
+        <v>7551745.558030308</v>
       </c>
       <c r="G54" t="n">
-        <v>265.6678649520751</v>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>-113.3010064453119</v>
+      </c>
+      <c r="J54" t="n">
+        <v>324.9087859750725</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15</v>
+      </c>
+      <c r="L54" t="n">
+        <v>68.48348920681747</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-163.2803626665846</v>
+      </c>
+      <c r="N54" t="n">
+        <v>177.060625567831</v>
+      </c>
+      <c r="O54" t="n">
+        <v>344.0971334744248</v>
       </c>
     </row>
     <row r="55">
@@ -1707,13 +3125,39 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E55" t="n">
-        <v>436512.2004396527</v>
+        <v>436500.8537975427</v>
       </c>
       <c r="F55" t="n">
-        <v>7551770.971040326</v>
+        <v>7551819.522089334</v>
       </c>
       <c r="G55" t="n">
-        <v>148.2854950407947</v>
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>-81.15404622070491</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6.718504159711301</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18</v>
+      </c>
+      <c r="L55" t="n">
+        <v>106.7386927634361</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-41.13976282533258</v>
+      </c>
+      <c r="N55" t="n">
+        <v>114.3924325214384</v>
+      </c>
+      <c r="O55" t="n">
+        <v>81.43167391216005</v>
       </c>
     </row>
     <row r="56">
@@ -1730,13 +3174,39 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E56" t="n">
-        <v>436512.8975462395</v>
+        <v>436514.1404129114</v>
       </c>
       <c r="F56" t="n">
-        <v>7551765.810624401</v>
+        <v>7551816.852327294</v>
       </c>
       <c r="G56" t="n">
-        <v>152.0066571125761</v>
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>-81.15404622070491</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.718504159711301</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14</v>
+      </c>
+      <c r="L56" t="n">
+        <v>120.0253081320552</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-43.809524865821</v>
+      </c>
+      <c r="N56" t="n">
+        <v>127.7706893663949</v>
+      </c>
+      <c r="O56" t="n">
+        <v>81.43167391216005</v>
       </c>
     </row>
     <row r="57">
@@ -1753,13 +3223,39 @@
         <v>7575149.158908479</v>
       </c>
       <c r="E57" t="n">
-        <v>423315.3077024168</v>
+        <v>423293.5538763229</v>
       </c>
       <c r="F57" t="n">
-        <v>7575382.697156216</v>
+        <v>7575414.786842282</v>
       </c>
       <c r="G57" t="n">
-        <v>240.4288985438691</v>
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>147.8664187494045</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-518.6668505209187</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-78.9022477598628</v>
+      </c>
+      <c r="M57" t="n">
+        <v>265.6279338030145</v>
+      </c>
+      <c r="N57" t="n">
+        <v>277.0988342054463</v>
+      </c>
+      <c r="O57" t="n">
+        <v>539.3327169967192</v>
       </c>
     </row>
     <row r="58">
@@ -1776,13 +3272,39 @@
         <v>7575149.158908479</v>
       </c>
       <c r="E58" t="n">
-        <v>423442.0599937154</v>
+        <v>423431.3330541292</v>
       </c>
       <c r="F58" t="n">
-        <v>7574961.317106573</v>
+        <v>7575071.795440517</v>
       </c>
       <c r="G58" t="n">
-        <v>200.3228424597174</v>
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>-16.46394691726891</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-261.9084235206246</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>58.87693004647736</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-77.36346796154976</v>
+      </c>
+      <c r="N58" t="n">
+        <v>97.21933484001792</v>
+      </c>
+      <c r="O58" t="n">
+        <v>262.4253872230229</v>
       </c>
     </row>
     <row r="59">
@@ -1799,13 +3321,39 @@
         <v>7575836.075107425</v>
       </c>
       <c r="E59" t="n">
-        <v>423209.1782281829</v>
+        <v>423195.3764387257</v>
       </c>
       <c r="F59" t="n">
-        <v>7575736.269192704</v>
+        <v>7575800.996575016</v>
       </c>
       <c r="G59" t="n">
-        <v>157.4777048435122</v>
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>-137.2228350338216</v>
+      </c>
+      <c r="J59" t="n">
+        <v>168.2493484256168</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8</v>
+      </c>
+      <c r="L59" t="n">
+        <v>108.0095684262342</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-35.07853240985423</v>
+      </c>
+      <c r="N59" t="n">
+        <v>113.5630675336421</v>
+      </c>
+      <c r="O59" t="n">
+        <v>217.1127580322354</v>
       </c>
     </row>
     <row r="60">
@@ -1822,13 +3370,39 @@
         <v>7575836.075107425</v>
       </c>
       <c r="E60" t="n">
-        <v>423157.8578678691</v>
+        <v>423106.845709916</v>
       </c>
       <c r="F60" t="n">
-        <v>7575762.142407943</v>
+        <v>7575857.090426375</v>
       </c>
       <c r="G60" t="n">
-        <v>102.151969100891</v>
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>-137.2228350338216</v>
+      </c>
+      <c r="J60" t="n">
+        <v>168.2493484256168</v>
+      </c>
+      <c r="K60" t="n">
+        <v>5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>19.47883961646585</v>
+      </c>
+      <c r="M60" t="n">
+        <v>21.01531894970685</v>
+      </c>
+      <c r="N60" t="n">
+        <v>28.65429851456684</v>
+      </c>
+      <c r="O60" t="n">
+        <v>217.1127580322354</v>
       </c>
     </row>
     <row r="61">
@@ -1845,13 +3419,39 @@
         <v>7575872.132090149</v>
       </c>
       <c r="E61" t="n">
-        <v>423150.6998909563</v>
+        <v>423115.5032406058</v>
       </c>
       <c r="F61" t="n">
-        <v>7575830.494352623</v>
+        <v>7575895.245210839</v>
       </c>
       <c r="G61" t="n">
-        <v>62.46883698000239</v>
+        <v>4</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>-50.6052372217091</v>
+      </c>
+      <c r="J61" t="n">
+        <v>78.21979439863935</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11.37216332752723</v>
+      </c>
+      <c r="M61" t="n">
+        <v>23.11312068998814</v>
+      </c>
+      <c r="N61" t="n">
+        <v>25.75931766910593</v>
+      </c>
+      <c r="O61" t="n">
+        <v>93.16236509466076</v>
       </c>
     </row>
     <row r="62">
@@ -1868,13 +3468,39 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E62" t="n">
-        <v>423144.7400534208</v>
+        <v>423107.9804291514</v>
       </c>
       <c r="F62" t="n">
-        <v>7575830.574197408</v>
+        <v>7575889.964414094</v>
       </c>
       <c r="G62" t="n">
-        <v>109.5428556687558</v>
+        <v>4</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>-76.82806229971175</v>
+      </c>
+      <c r="J62" t="n">
+        <v>86.3392638694495</v>
+      </c>
+      <c r="K62" t="n">
+        <v>34</v>
+      </c>
+      <c r="L62" t="n">
+        <v>56.29500202910276</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.593385003507137</v>
+      </c>
+      <c r="N62" t="n">
+        <v>56.3175472586128</v>
+      </c>
+      <c r="O62" t="n">
+        <v>115.572573053674</v>
       </c>
     </row>
     <row r="63">
@@ -1891,13 +3517,39 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E63" t="n">
-        <v>423169.1940497511</v>
+        <v>423121.9514665289</v>
       </c>
       <c r="F63" t="n">
-        <v>7575686.692292611</v>
+        <v>7575729.253264703</v>
       </c>
       <c r="G63" t="n">
-        <v>233.4150576545888</v>
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>-172.9042782110434</v>
+      </c>
+      <c r="J63" t="n">
+        <v>220.5452700903018</v>
+      </c>
+      <c r="K63" t="n">
+        <v>8</v>
+      </c>
+      <c r="L63" t="n">
+        <v>70.2660394065897</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-159.1177643872797</v>
+      </c>
+      <c r="N63" t="n">
+        <v>173.9418846554627</v>
+      </c>
+      <c r="O63" t="n">
+        <v>280.2429402908949</v>
       </c>
     </row>
     <row r="64">
@@ -1914,13 +3566,39 @@
         <v>7575724.973998199</v>
       </c>
       <c r="E64" t="n">
-        <v>423162.0473517477</v>
+        <v>423124.5556996916</v>
       </c>
       <c r="F64" t="n">
-        <v>7575706.85953982</v>
+        <v>7575767.38644795</v>
       </c>
       <c r="G64" t="n">
-        <v>182.1525846299767</v>
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>-173.9385985726403</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-68.93829755065963</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11</v>
+      </c>
+      <c r="L64" t="n">
+        <v>143.7579837642843</v>
+      </c>
+      <c r="M64" t="n">
+        <v>42.41244975104928</v>
+      </c>
+      <c r="N64" t="n">
+        <v>149.883867677137</v>
+      </c>
+      <c r="O64" t="n">
+        <v>187.1019105797624</v>
       </c>
     </row>
     <row r="65">
@@ -1937,13 +3615,39 @@
         <v>7575724.973998199</v>
       </c>
       <c r="E65" t="n">
-        <v>423180.4999983373</v>
+        <v>423144.0034166845</v>
       </c>
       <c r="F65" t="n">
-        <v>7575719.766423668</v>
+        <v>7575753.713859773</v>
       </c>
       <c r="G65" t="n">
-        <v>199.7701690249073</v>
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>-173.9385985726403</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-68.93829755065963</v>
+      </c>
+      <c r="K65" t="n">
+        <v>36</v>
+      </c>
+      <c r="L65" t="n">
+        <v>163.2057007571566</v>
+      </c>
+      <c r="M65" t="n">
+        <v>28.73986157402396</v>
+      </c>
+      <c r="N65" t="n">
+        <v>165.7168681906842</v>
+      </c>
+      <c r="O65" t="n">
+        <v>187.1019105797624</v>
       </c>
     </row>
     <row r="66">
@@ -1960,13 +3664,39 @@
         <v>7575541.591092365</v>
       </c>
       <c r="E66" t="n">
-        <v>423252.5294518216</v>
+        <v>423242.5262102267</v>
       </c>
       <c r="F66" t="n">
-        <v>7575607.310773112</v>
+        <v>7575692.562526561</v>
       </c>
       <c r="G66" t="n">
-        <v>88.1127591836505</v>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>26.31822148064384</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.9040511348284781</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>48.68902274605352</v>
+      </c>
+      <c r="M66" t="n">
+        <v>150.9714341964573</v>
+      </c>
+      <c r="N66" t="n">
+        <v>158.6284806688286</v>
+      </c>
+      <c r="O66" t="n">
+        <v>26.33374432849623</v>
       </c>
     </row>
     <row r="67">
@@ -1983,13 +3713,39 @@
         <v>7575541.591092365</v>
       </c>
       <c r="E67" t="n">
-        <v>423340.048119606</v>
+        <v>423316.6785055696</v>
       </c>
       <c r="F67" t="n">
-        <v>7575703.845050786</v>
+        <v>7575761.682466467</v>
       </c>
       <c r="G67" t="n">
-        <v>218.4124165339228</v>
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>-30.75251785267998</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-126.2346666349719</v>
+      </c>
+      <c r="K67" t="n">
+        <v>8</v>
+      </c>
+      <c r="L67" t="n">
+        <v>122.8413180889911</v>
+      </c>
+      <c r="M67" t="n">
+        <v>220.0913741020486</v>
+      </c>
+      <c r="N67" t="n">
+        <v>252.0519834954063</v>
+      </c>
+      <c r="O67" t="n">
+        <v>129.9265500762715</v>
       </c>
     </row>
     <row r="68">
@@ -2006,13 +3762,39 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E68" t="n">
-        <v>427790.9005824669</v>
+        <v>427777.9623258082</v>
       </c>
       <c r="F68" t="n">
-        <v>7565486.919893349</v>
+        <v>7565566.442674324</v>
       </c>
       <c r="G68" t="n">
-        <v>186.8744475067055</v>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>274.0756993947434</v>
+      </c>
+      <c r="J68" t="n">
+        <v>76.05552996462211</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-199.608543086506</v>
+      </c>
+      <c r="M68" t="n">
+        <v>88.25566685944796</v>
+      </c>
+      <c r="N68" t="n">
+        <v>218.2490165061996</v>
+      </c>
+      <c r="O68" t="n">
+        <v>284.4326504410443</v>
       </c>
     </row>
     <row r="69">
@@ -2029,13 +3811,39 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E69" t="n">
-        <v>427747.7739673099</v>
+        <v>427797.474988509</v>
       </c>
       <c r="F69" t="n">
-        <v>7565370.40194415</v>
+        <v>7565425.402649338</v>
       </c>
       <c r="G69" t="n">
-        <v>253.8192976345074</v>
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>435.7356528947518</v>
+      </c>
+      <c r="J69" t="n">
+        <v>122.5741374644761</v>
+      </c>
+      <c r="K69" t="n">
+        <v>12</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-180.0958803857211</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-52.78435812611133</v>
+      </c>
+      <c r="N69" t="n">
+        <v>187.6718268539355</v>
+      </c>
+      <c r="O69" t="n">
+        <v>452.6477420453745</v>
       </c>
     </row>
     <row r="70">
@@ -2052,13 +3860,39 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E70" t="n">
-        <v>427763.4302232714</v>
+        <v>427729.5136118883</v>
       </c>
       <c r="F70" t="n">
-        <v>7565467.189339504</v>
+        <v>7565551.670539733</v>
       </c>
       <c r="G70" t="n">
-        <v>214.4228644724026</v>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>274.0756993947434</v>
+      </c>
+      <c r="J70" t="n">
+        <v>76.05552996462211</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-248.0572570064687</v>
+      </c>
+      <c r="M70" t="n">
+        <v>73.48353226855397</v>
+      </c>
+      <c r="N70" t="n">
+        <v>258.7126441986106</v>
+      </c>
+      <c r="O70" t="n">
+        <v>284.4326504410443</v>
       </c>
     </row>
     <row r="71">
@@ -2075,13 +3909,39 @@
         <v>7565591.934012871</v>
       </c>
       <c r="E71" t="n">
-        <v>427690.8909502297</v>
+        <v>427707.1398403673</v>
       </c>
       <c r="F71" t="n">
-        <v>7565389.550591412</v>
+        <v>7565440.346366088</v>
       </c>
       <c r="G71" t="n">
-        <v>304.8244704610994</v>
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>406.3681776431719</v>
+      </c>
+      <c r="J71" t="n">
+        <v>179.4476401678597</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-211.6960780243389</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-151.5876467833295</v>
+      </c>
+      <c r="N71" t="n">
+        <v>260.3728943423152</v>
+      </c>
+      <c r="O71" t="n">
+        <v>444.2257887188071</v>
       </c>
     </row>
     <row r="72">
@@ -2098,13 +3958,39 @@
         <v>7565591.934012871</v>
       </c>
       <c r="E72" t="n">
-        <v>427724.221471925</v>
+        <v>427755.017581784</v>
       </c>
       <c r="F72" t="n">
-        <v>7565419.935294956</v>
+        <v>7565489.021678251</v>
       </c>
       <c r="G72" t="n">
-        <v>259.72743739929</v>
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>377.000702391592</v>
+      </c>
+      <c r="J72" t="n">
+        <v>236.3211428712433</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-163.8183366075973</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-102.9123346200213</v>
+      </c>
+      <c r="N72" t="n">
+        <v>193.4616138302978</v>
+      </c>
+      <c r="O72" t="n">
+        <v>444.9463025711353</v>
       </c>
     </row>
     <row r="73">
@@ -2121,13 +4007,39 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E73" t="n">
-        <v>427964.2607119582</v>
+        <v>427992.8235918519</v>
       </c>
       <c r="F73" t="n">
-        <v>7565080.120783175</v>
+        <v>7565120.556686485</v>
       </c>
       <c r="G73" t="n">
-        <v>175.8789805690302</v>
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>297.7440272764652</v>
+      </c>
+      <c r="J73" t="n">
+        <v>60.63800723012537</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-48.39208942459663</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-117.7138627450913</v>
+      </c>
+      <c r="N73" t="n">
+        <v>127.2727299984107</v>
+      </c>
+      <c r="O73" t="n">
+        <v>303.8560081677655</v>
       </c>
     </row>
     <row r="74">
@@ -2144,13 +4056,39 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E74" t="n">
-        <v>427903.0737425125</v>
+        <v>427904.5589743911</v>
       </c>
       <c r="F74" t="n">
-        <v>7565296.901594999</v>
+        <v>7565340.258823538</v>
       </c>
       <c r="G74" t="n">
-        <v>150.0692999031749</v>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>337.7205117764533</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-163.8609282695688</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-136.6567068853765</v>
+      </c>
+      <c r="M74" t="n">
+        <v>101.9882743079215</v>
+      </c>
+      <c r="N74" t="n">
+        <v>170.5188072708214</v>
+      </c>
+      <c r="O74" t="n">
+        <v>375.373877471401</v>
       </c>
     </row>
     <row r="75">
@@ -2167,13 +4105,39 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E75" t="n">
-        <v>427279.7491998182</v>
+        <v>427296.5822019416</v>
       </c>
       <c r="F75" t="n">
-        <v>7565347.45993519</v>
+        <v>7565421.356375471</v>
       </c>
       <c r="G75" t="n">
-        <v>176.0500398821428</v>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>139.2685535975033</v>
+      </c>
+      <c r="J75" t="n">
+        <v>42.73341436171904</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-74.28127615584526</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-76.7415523910895</v>
+      </c>
+      <c r="N75" t="n">
+        <v>106.8034355755248</v>
+      </c>
+      <c r="O75" t="n">
+        <v>145.6772965295246</v>
       </c>
     </row>
     <row r="76">
@@ -2190,13 +4154,39 @@
         <v>7565398.099551905</v>
       </c>
       <c r="E76" t="n">
-        <v>427550.0439047629</v>
+        <v>427557.462343337</v>
       </c>
       <c r="F76" t="n">
-        <v>7565215.851575344</v>
+        <v>7565251.949895181</v>
       </c>
       <c r="G76" t="n">
-        <v>279.6915303313694</v>
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>-64.33933372531708</v>
+      </c>
+      <c r="J76" t="n">
+        <v>35.31236223814388</v>
+      </c>
+      <c r="K76" t="n">
+        <v>10</v>
+      </c>
+      <c r="L76" t="n">
+        <v>219.5811760623474</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-146.1496567241848</v>
+      </c>
+      <c r="N76" t="n">
+        <v>263.7718996434621</v>
+      </c>
+      <c r="O76" t="n">
+        <v>73.39286607740301</v>
       </c>
     </row>
     <row r="77">
@@ -2213,13 +4203,39 @@
         <v>7565270.725648553</v>
       </c>
       <c r="E77" t="n">
-        <v>427448.5584739938</v>
+        <v>427436.4542370318</v>
       </c>
       <c r="F77" t="n">
-        <v>7565309.952697766</v>
+        <v>7565337.455825068</v>
       </c>
       <c r="G77" t="n">
-        <v>88.13039263206031</v>
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>-5.930012976129849</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-241.7274981134882</v>
+      </c>
+      <c r="K77" t="n">
+        <v>12</v>
+      </c>
+      <c r="L77" t="n">
+        <v>66.81473867461318</v>
+      </c>
+      <c r="M77" t="n">
+        <v>66.73017651494592</v>
+      </c>
+      <c r="N77" t="n">
+        <v>94.43053405478915</v>
+      </c>
+      <c r="O77" t="n">
+        <v>241.8002241481664</v>
       </c>
     </row>
     <row r="78">
@@ -2236,13 +4252,39 @@
         <v>7565270.725648553</v>
       </c>
       <c r="E78" t="n">
-        <v>427472.8747225726</v>
+        <v>427444.9014081386</v>
       </c>
       <c r="F78" t="n">
-        <v>7565298.899701835</v>
+        <v>7565327.954858038</v>
       </c>
       <c r="G78" t="n">
-        <v>107.0106947791178</v>
+        <v>4</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>-97.90554864279693</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-158.0223469468765</v>
+      </c>
+      <c r="K78" t="n">
+        <v>31</v>
+      </c>
+      <c r="L78" t="n">
+        <v>75.26190978143131</v>
+      </c>
+      <c r="M78" t="n">
+        <v>57.22920948453248</v>
+      </c>
+      <c r="N78" t="n">
+        <v>94.5491273474949</v>
+      </c>
+      <c r="O78" t="n">
+        <v>185.8939444673927</v>
       </c>
     </row>
     <row r="79">
@@ -2259,13 +4301,39 @@
         <v>7572348.301898369</v>
       </c>
       <c r="E79" t="n">
-        <v>431239.6303092148</v>
+        <v>431201.0965409491</v>
       </c>
       <c r="F79" t="n">
-        <v>7572572.038847861</v>
+        <v>7572597.497068916</v>
       </c>
       <c r="G79" t="n">
-        <v>258.1018846892434</v>
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>-113.293538594211</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-503.9835372983168</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" t="n">
+        <v>90.14552421000553</v>
+      </c>
+      <c r="M79" t="n">
+        <v>249.1951705468819</v>
+      </c>
+      <c r="N79" t="n">
+        <v>264.9989595432145</v>
+      </c>
+      <c r="O79" t="n">
+        <v>516.5605789788085</v>
       </c>
     </row>
     <row r="80">
@@ -2282,13 +4350,39 @@
         <v>7572348.301898369</v>
       </c>
       <c r="E80" t="n">
-        <v>431279.2176078173</v>
+        <v>431270.2855047782</v>
       </c>
       <c r="F80" t="n">
-        <v>7572555.315429234</v>
+        <v>7572595.390387976</v>
       </c>
       <c r="G80" t="n">
-        <v>266.7737761370101</v>
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>-113.293538594211</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-503.9835372983168</v>
+      </c>
+      <c r="K80" t="n">
+        <v>17</v>
+      </c>
+      <c r="L80" t="n">
+        <v>159.3344880390796</v>
+      </c>
+      <c r="M80" t="n">
+        <v>247.0884896069765</v>
+      </c>
+      <c r="N80" t="n">
+        <v>294.007144088256</v>
+      </c>
+      <c r="O80" t="n">
+        <v>516.5605789788085</v>
       </c>
     </row>
     <row r="81">
@@ -2305,13 +4399,39 @@
         <v>7572544.059087206</v>
       </c>
       <c r="E81" t="n">
-        <v>431408.7452624234</v>
+        <v>431385.8316112248</v>
       </c>
       <c r="F81" t="n">
-        <v>7572731.558899718</v>
+        <v>7572770.149222875</v>
       </c>
       <c r="G81" t="n">
-        <v>643.5850722055716</v>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>-517.2334060344147</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-230.4723442946561</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>592.7531137592159</v>
+      </c>
+      <c r="M81" t="n">
+        <v>226.0901356693357</v>
+      </c>
+      <c r="N81" t="n">
+        <v>634.4076002998581</v>
+      </c>
+      <c r="O81" t="n">
+        <v>566.2578015379886</v>
       </c>
     </row>
     <row r="82">
@@ -2328,13 +4448,39 @@
         <v>7572782.828654669</v>
       </c>
       <c r="E82" t="n">
-        <v>431384.6333318017</v>
+        <v>431355.9994852355</v>
       </c>
       <c r="F82" t="n">
-        <v>7572865.132606626</v>
+        <v>7572917.026576593</v>
       </c>
       <c r="G82" t="n">
-        <v>621.2067458800277</v>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>-527.7226422659878</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-227.6679628309794</v>
+      </c>
+      <c r="K82" t="n">
+        <v>7</v>
+      </c>
+      <c r="L82" t="n">
+        <v>587.0965170015115</v>
+      </c>
+      <c r="M82" t="n">
+        <v>134.1979219233617</v>
+      </c>
+      <c r="N82" t="n">
+        <v>602.2386591077119</v>
+      </c>
+      <c r="O82" t="n">
+        <v>574.7381042351411</v>
       </c>
     </row>
     <row r="83">
@@ -2351,13 +4497,39 @@
         <v>7572917.148530746</v>
       </c>
       <c r="E83" t="n">
-        <v>431314.0367677883</v>
+        <v>431274.9637946862</v>
       </c>
       <c r="F83" t="n">
-        <v>7572920.776433967</v>
+        <v>7572963.408421503</v>
       </c>
       <c r="G83" t="n">
-        <v>559.157686676441</v>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>-541.734760060237</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-93.34808675432578</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>520.0729442464653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>46.25989075750113</v>
+      </c>
+      <c r="N83" t="n">
+        <v>522.1262728785854</v>
+      </c>
+      <c r="O83" t="n">
+        <v>549.7184875535984</v>
       </c>
     </row>
     <row r="84">
@@ -2374,13 +4546,39 @@
         <v>7572917.148530746</v>
       </c>
       <c r="E84" t="n">
-        <v>431773.1436246464</v>
+        <v>431790.5551108671</v>
       </c>
       <c r="F84" t="n">
-        <v>7572903.201434761</v>
+        <v>7572945.70894343</v>
       </c>
       <c r="G84" t="n">
-        <v>1018.348287014705</v>
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>-786.2505115602398</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-96.05126025434583</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1035.664260427293</v>
+      </c>
+      <c r="M84" t="n">
+        <v>28.56041268445551</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1036.057989448042</v>
+      </c>
+      <c r="O84" t="n">
+        <v>792.0957716874816</v>
       </c>
     </row>
     <row r="85">
@@ -2397,13 +4595,39 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E85" t="n">
-        <v>431282.2439221451</v>
+        <v>431258.7862089032</v>
       </c>
       <c r="F85" t="n">
-        <v>7572901.830456562</v>
+        <v>7572952.465236921</v>
       </c>
       <c r="G85" t="n">
-        <v>356.3389612275458</v>
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>-273.4449055805453</v>
+      </c>
+      <c r="J85" t="n">
+        <v>180.3966528571521</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11</v>
+      </c>
+      <c r="L85" t="n">
+        <v>307.9865591503913</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-80.21685160323977</v>
+      </c>
+      <c r="N85" t="n">
+        <v>318.2616280647632</v>
+      </c>
+      <c r="O85" t="n">
+        <v>327.5897873103146</v>
       </c>
     </row>
     <row r="86">
@@ -2420,13 +4644,39 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E86" t="n">
-        <v>431060.3313357671</v>
+        <v>431010.8432340642</v>
       </c>
       <c r="F86" t="n">
-        <v>7572842.855802052</v>
+        <v>7572901.926672589</v>
       </c>
       <c r="G86" t="n">
-        <v>219.160236532591</v>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>-114.9965022472024</v>
+      </c>
+      <c r="J86" t="n">
+        <v>260.8538305237889</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10</v>
+      </c>
+      <c r="L86" t="n">
+        <v>60.04358431138098</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-130.7554159350693</v>
+      </c>
+      <c r="N86" t="n">
+        <v>143.8826286016172</v>
+      </c>
+      <c r="O86" t="n">
+        <v>285.0770359534847</v>
       </c>
     </row>
     <row r="87">
@@ -2443,13 +4693,39 @@
         <v>7575605.639993751</v>
       </c>
       <c r="E87" t="n">
-        <v>423172.6524004299</v>
+        <v>423126.251788381</v>
       </c>
       <c r="F87" t="n">
-        <v>7575687.119141016</v>
+        <v>7575765.310177988</v>
       </c>
       <c r="G87" t="n">
-        <v>188.7019113995257</v>
+        <v>4</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>-152.2883791314816</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-188.2723019984551</v>
+      </c>
+      <c r="K87" t="n">
+        <v>25</v>
+      </c>
+      <c r="L87" t="n">
+        <v>123.803853012505</v>
+      </c>
+      <c r="M87" t="n">
+        <v>159.6701842369512</v>
+      </c>
+      <c r="N87" t="n">
+        <v>202.0444548979355</v>
+      </c>
+      <c r="O87" t="n">
+        <v>242.1532781489678</v>
       </c>
     </row>
     <row r="88">
@@ -2466,13 +4742,39 @@
         <v>7575605.639993751</v>
       </c>
       <c r="E88" t="n">
-        <v>423026.8263027693</v>
+        <v>422961.2458311391</v>
       </c>
       <c r="F88" t="n">
-        <v>7575613.706966971</v>
+        <v>7575651.108194004</v>
       </c>
       <c r="G88" t="n">
-        <v>25.67841221831835</v>
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>-74.22712696481419</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-315.8872899152339</v>
+      </c>
+      <c r="K88" t="n">
+        <v>9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-41.20210422942182</v>
+      </c>
+      <c r="M88" t="n">
+        <v>45.4682002523914</v>
+      </c>
+      <c r="N88" t="n">
+        <v>61.35935647579515</v>
+      </c>
+      <c r="O88" t="n">
+        <v>324.4910573612802</v>
       </c>
     </row>
     <row r="89">
@@ -2489,13 +4791,39 @@
         <v>7575904.614235371</v>
       </c>
       <c r="E89" t="n">
-        <v>423255.4511253414</v>
+        <v>423250.7975705314</v>
       </c>
       <c r="F89" t="n">
-        <v>7575882.055541337</v>
+        <v>7575946.1233838</v>
       </c>
       <c r="G89" t="n">
-        <v>29.26168470700878</v>
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>119.3521796293062</v>
+      </c>
+      <c r="J89" t="n">
+        <v>110.7019396214746</v>
+      </c>
+      <c r="K89" t="n">
+        <v>23</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-23.29092359787319</v>
+      </c>
+      <c r="M89" t="n">
+        <v>41.50914842821658</v>
+      </c>
+      <c r="N89" t="n">
+        <v>47.5970222312035</v>
+      </c>
+      <c r="O89" t="n">
+        <v>162.7877827670823</v>
       </c>
     </row>
     <row r="90">
@@ -2512,13 +4840,39 @@
         <v>7576007.847545639</v>
       </c>
       <c r="E90" t="n">
-        <v>423235.5626080343</v>
+        <v>423210.8814295595</v>
       </c>
       <c r="F90" t="n">
-        <v>7575897.593304322</v>
+        <v>7575979.549876652</v>
       </c>
       <c r="G90" t="n">
-        <v>114.0939028088829</v>
+        <v>4</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>84.30616464734443</v>
+      </c>
+      <c r="J90" t="n">
+        <v>152.5510682385149</v>
+      </c>
+      <c r="K90" t="n">
+        <v>25</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-54.03115172637627</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-28.29766898695379</v>
+      </c>
+      <c r="N90" t="n">
+        <v>60.99281455199375</v>
+      </c>
+      <c r="O90" t="n">
+        <v>174.2967521735766</v>
       </c>
     </row>
     <row r="91">
@@ -2535,13 +4889,39 @@
         <v>7576007.847545639</v>
       </c>
       <c r="E91" t="n">
-        <v>423191.3336005158</v>
+        <v>423162.6596193761</v>
       </c>
       <c r="F91" t="n">
-        <v>7575869.675766632</v>
+        <v>7575943.787899032</v>
       </c>
       <c r="G91" t="n">
-        <v>156.541709857267</v>
+        <v>4</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>110.1762667858711</v>
+      </c>
+      <c r="J91" t="n">
+        <v>213.9352498888038</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-102.2529619098059</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-64.05964660644531</v>
+      </c>
+      <c r="N91" t="n">
+        <v>120.6619515119446</v>
+      </c>
+      <c r="O91" t="n">
+        <v>240.6389430409309</v>
       </c>
     </row>
     <row r="92">
@@ -2558,13 +4938,39 @@
         <v>7576025.385855958</v>
       </c>
       <c r="E92" t="n">
-        <v>423417.2539348046</v>
+        <v>423401.5610573199</v>
       </c>
       <c r="F92" t="n">
-        <v>7575948.246203124</v>
+        <v>7576007.66048206</v>
       </c>
       <c r="G92" t="n">
-        <v>82.01658756927849</v>
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>12.97083948785439</v>
+      </c>
+      <c r="J92" t="n">
+        <v>206.2286226244954</v>
+      </c>
+      <c r="K92" t="n">
+        <v>25</v>
+      </c>
+      <c r="L92" t="n">
+        <v>12.16739166533807</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-17.7253738977015</v>
+      </c>
+      <c r="N92" t="n">
+        <v>21.49963487483116</v>
+      </c>
+      <c r="O92" t="n">
+        <v>206.6361233342714</v>
       </c>
     </row>
     <row r="93">
@@ -2581,13 +4987,39 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E93" t="n">
-        <v>423409.2108288447</v>
+        <v>423378.463949723</v>
       </c>
       <c r="F93" t="n">
-        <v>7575984.006960386</v>
+        <v>7576071.836731023</v>
       </c>
       <c r="G93" t="n">
-        <v>387.0842957537346</v>
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>-83.5398736096613</v>
+      </c>
+      <c r="J93" t="n">
+        <v>321.3130269235699</v>
+      </c>
+      <c r="K93" t="n">
+        <v>21</v>
+      </c>
+      <c r="L93" t="n">
+        <v>188.6257393468404</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-231.0901351161301</v>
+      </c>
+      <c r="N93" t="n">
+        <v>298.2990447388886</v>
+      </c>
+      <c r="O93" t="n">
+        <v>331.9954393564841</v>
       </c>
     </row>
     <row r="94">
@@ -2604,13 +5036,39 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E94" t="n">
-        <v>423209.3944437907</v>
+        <v>423174.7878220479</v>
       </c>
       <c r="F94" t="n">
-        <v>7576011.168341853</v>
+        <v>7576113.156312625</v>
       </c>
       <c r="G94" t="n">
-        <v>292.4132055144472</v>
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>-34.43758862384129</v>
+      </c>
+      <c r="J94" t="n">
+        <v>469.0181234727303</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-15.0503883282654</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-189.7705535143614</v>
+      </c>
+      <c r="N94" t="n">
+        <v>190.3664286842055</v>
+      </c>
+      <c r="O94" t="n">
+        <v>470.2807115501403</v>
       </c>
     </row>
     <row r="95">
@@ -2627,13 +5085,39 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E95" t="n">
-        <v>423148.5132709313</v>
+        <v>423118.4161760178</v>
       </c>
       <c r="F95" t="n">
-        <v>7575837.455711587</v>
+        <v>7575894.258052614</v>
       </c>
       <c r="G95" t="n">
-        <v>331.7760054311083</v>
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>-258.4314104373722</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-115.6515740118921</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>300.172524121881</v>
+      </c>
+      <c r="M95" t="n">
+        <v>88.38234295882285</v>
+      </c>
+      <c r="N95" t="n">
+        <v>312.9136986208692</v>
+      </c>
+      <c r="O95" t="n">
+        <v>283.1290880006463</v>
       </c>
     </row>
     <row r="96">
@@ -2650,13 +5134,39 @@
         <v>7573226.258340454</v>
       </c>
       <c r="E96" t="n">
-        <v>425399.4148320387</v>
+        <v>425375.37870684</v>
       </c>
       <c r="F96" t="n">
-        <v>7573118.036515702</v>
+        <v>7573205.423857284</v>
       </c>
       <c r="G96" t="n">
-        <v>154.6431845886553</v>
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>-85.7578042105888</v>
+      </c>
+      <c r="J96" t="n">
+        <v>75.03360245376825</v>
+      </c>
+      <c r="K96" t="n">
+        <v>7</v>
+      </c>
+      <c r="L96" t="n">
+        <v>86.42903305054642</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-20.83448316995054</v>
+      </c>
+      <c r="N96" t="n">
+        <v>88.90474364740837</v>
+      </c>
+      <c r="O96" t="n">
+        <v>113.9492978487003</v>
       </c>
     </row>
     <row r="97">
@@ -2673,13 +5183,39 @@
         <v>7573226.258340454</v>
       </c>
       <c r="E97" t="n">
-        <v>425363.1003648022</v>
+        <v>425284.8412910143</v>
       </c>
       <c r="F97" t="n">
-        <v>7573122.992368563</v>
+        <v>7573194.00643668</v>
       </c>
       <c r="G97" t="n">
-        <v>127.1305861238232</v>
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Simulated BTFS</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>-85.7578042105888</v>
+      </c>
+      <c r="J97" t="n">
+        <v>75.03360245376825</v>
+      </c>
+      <c r="K97" t="n">
+        <v>13</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-4.108382775157224</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-32.25190377421677</v>
+      </c>
+      <c r="N97" t="n">
+        <v>32.51252229662514</v>
+      </c>
+      <c r="O97" t="n">
+        <v>113.9492978487003</v>
       </c>
     </row>
     <row r="98">
@@ -2696,13 +5232,39 @@
         <v>7565814.059521397</v>
       </c>
       <c r="E98" t="n">
-        <v>427428.871277773</v>
+        <v>427355.9611997204</v>
       </c>
       <c r="F98" t="n">
-        <v>7565537.266026036</v>
+        <v>7565584.131809376</v>
       </c>
       <c r="G98" t="n">
-        <v>281.1759762894787</v>
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>-284.0972865829244</v>
+      </c>
+      <c r="J98" t="n">
+        <v>187.4291083971038</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-23.46019869664451</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-229.9277120204642</v>
+      </c>
+      <c r="N98" t="n">
+        <v>231.1214695303134</v>
+      </c>
+      <c r="O98" t="n">
+        <v>340.3541375072641</v>
       </c>
     </row>
     <row r="99">
@@ -2719,13 +5281,39 @@
         <v>7565891.102134027</v>
       </c>
       <c r="E99" t="n">
-        <v>427419.1720885193</v>
+        <v>427359.0502998797</v>
       </c>
       <c r="F99" t="n">
-        <v>7565574.096462187</v>
+        <v>7565691.275805155</v>
       </c>
       <c r="G99" t="n">
-        <v>317.1117691772918</v>
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>-40.17063121881802</v>
+      </c>
+      <c r="J99" t="n">
+        <v>462.3541385265999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-68.32411590148695</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-199.8263288717717</v>
+      </c>
+      <c r="N99" t="n">
+        <v>211.1841531083459</v>
+      </c>
+      <c r="O99" t="n">
+        <v>464.0959265337206</v>
       </c>
     </row>
     <row r="100">
@@ -2742,13 +5330,39 @@
         <v>7565891.102134027</v>
       </c>
       <c r="E100" t="n">
-        <v>427416.8927005528</v>
+        <v>427358.0291428751</v>
       </c>
       <c r="F100" t="n">
-        <v>7565614.510999608</v>
+        <v>7565709.928337192</v>
       </c>
       <c r="G100" t="n">
-        <v>276.7896710377215</v>
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>-40.17063121881802</v>
+      </c>
+      <c r="J100" t="n">
+        <v>462.3541385265999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>20</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-69.34527290606638</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-181.1737968344241</v>
+      </c>
+      <c r="N100" t="n">
+        <v>193.9915243865515</v>
+      </c>
+      <c r="O100" t="n">
+        <v>464.0959265337206</v>
       </c>
     </row>
     <row r="101">
@@ -2765,13 +5379,39 @@
         <v>7565192.332038814</v>
       </c>
       <c r="E101" t="n">
-        <v>427446.2053138354</v>
+        <v>427390.2349863444</v>
       </c>
       <c r="F101" t="n">
-        <v>7565191.382732072</v>
+        <v>7565245.835429333</v>
       </c>
       <c r="G101" t="n">
-        <v>201.4091084268613</v>
+        <v>4</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>-222.74660438305</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-236.4159566857852</v>
+      </c>
+      <c r="K101" t="n">
+        <v>35</v>
+      </c>
+      <c r="L101" t="n">
+        <v>145.4365437274682</v>
+      </c>
+      <c r="M101" t="n">
+        <v>53.50339051894844</v>
+      </c>
+      <c r="N101" t="n">
+        <v>154.9658060619016</v>
+      </c>
+      <c r="O101" t="n">
+        <v>324.8208034283427</v>
       </c>
     </row>
     <row r="102">
@@ -2788,13 +5428,39 @@
         <v>7565192.332038814</v>
       </c>
       <c r="E102" t="n">
-        <v>427243.4908290667</v>
+        <v>427244.763229111</v>
       </c>
       <c r="F102" t="n">
-        <v>7565177.904832453</v>
+        <v>7565220.742206266</v>
       </c>
       <c r="G102" t="n">
-        <v>14.48634310648561</v>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>13.2035181169631</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-263.032474685926</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.03521350590744987</v>
+      </c>
+      <c r="M102" t="n">
+        <v>28.41016745194793</v>
+      </c>
+      <c r="N102" t="n">
+        <v>28.41018927495415</v>
+      </c>
+      <c r="O102" t="n">
+        <v>263.3636566234363</v>
       </c>
     </row>
     <row r="103">
@@ -2811,13 +5477,39 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E103" t="n">
-        <v>436813.7146590597</v>
+        <v>436726.0827492982</v>
       </c>
       <c r="F103" t="n">
-        <v>7551418.800725922</v>
+        <v>7551457.249872087</v>
       </c>
       <c r="G103" t="n">
-        <v>398.0587763739603</v>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>178.9477000336046</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-267.8692857990973</v>
+      </c>
+      <c r="K103" t="n">
+        <v>15</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-271.5306457353872</v>
+      </c>
+      <c r="M103" t="n">
+        <v>391.4817853858694</v>
+      </c>
+      <c r="N103" t="n">
+        <v>476.4314010037377</v>
+      </c>
+      <c r="O103" t="n">
+        <v>322.1431880729987</v>
       </c>
     </row>
     <row r="104">
@@ -2834,13 +5526,39 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E104" t="n">
-        <v>436777.4035285902</v>
+        <v>436689.583412978</v>
       </c>
       <c r="F104" t="n">
-        <v>7551503.379022012</v>
+        <v>7551601.758040641</v>
       </c>
       <c r="G104" t="n">
-        <v>489.8935761802244</v>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>178.9477000336046</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-267.8692857990973</v>
+      </c>
+      <c r="K104" t="n">
+        <v>13</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-308.0299820555956</v>
+      </c>
+      <c r="M104" t="n">
+        <v>535.9899539398029</v>
+      </c>
+      <c r="N104" t="n">
+        <v>618.1971373029502</v>
+      </c>
+      <c r="O104" t="n">
+        <v>322.1431880729987</v>
       </c>
     </row>
     <row r="105">
@@ -2857,13 +5575,39 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E105" t="n">
-        <v>436947.264481293</v>
+        <v>436844.6477881774</v>
       </c>
       <c r="F105" t="n">
-        <v>7551429.790935762</v>
+        <v>7551643.607589955</v>
       </c>
       <c r="G105" t="n">
-        <v>367.4882960772072</v>
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>21.14476303360425</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-287.5907922992483</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-152.9656068562181</v>
+      </c>
+      <c r="M105" t="n">
+        <v>577.8395032547414</v>
+      </c>
+      <c r="N105" t="n">
+        <v>597.7432294912066</v>
+      </c>
+      <c r="O105" t="n">
+        <v>288.3670661137583</v>
       </c>
     </row>
     <row r="106">
@@ -2880,13 +5624,39 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E106" t="n">
-        <v>436941.4913178546</v>
+        <v>436898.9523290814</v>
       </c>
       <c r="F106" t="n">
-        <v>7551524.640774709</v>
+        <v>7551642.532909618</v>
       </c>
       <c r="G106" t="n">
-        <v>462.2919330325906</v>
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>21.14476303360425</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-287.5907922992483</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-98.66106595215388</v>
+      </c>
+      <c r="M106" t="n">
+        <v>576.7648229170591</v>
+      </c>
+      <c r="N106" t="n">
+        <v>585.1424329933369</v>
+      </c>
+      <c r="O106" t="n">
+        <v>288.3670661137583</v>
       </c>
     </row>
     <row r="107">
@@ -2903,13 +5673,39 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E107" t="n">
-        <v>436686.650881536</v>
+        <v>436644.2774855206</v>
       </c>
       <c r="F107" t="n">
-        <v>7550921.380281395</v>
+        <v>7550958.543047065</v>
       </c>
       <c r="G107" t="n">
-        <v>187.0519275746577</v>
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>BTFS</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>177.5685471660108</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-283.2143761767074</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-194.1538196453475</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-72.15844275802374</v>
+      </c>
+      <c r="N107" t="n">
+        <v>207.1292990963401</v>
+      </c>
+      <c r="O107" t="n">
+        <v>334.2767892268462</v>
       </c>
     </row>
   </sheetData>

--- a/UTM_predictions.xlsx
+++ b/UTM_predictions.xlsx
@@ -480,17 +480,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Signal_count</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>xOffset</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>yOffset</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>pulse_count</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -528,10 +528,10 @@
         <v>7575847.978962188</v>
       </c>
       <c r="E2" t="n">
-        <v>423025.6823087003</v>
+        <v>422929.4216962529</v>
       </c>
       <c r="F2" t="n">
-        <v>7575942.382113514</v>
+        <v>7575892.534768647</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -542,22 +542,22 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
         <v>94.23821051840787</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>51.77398968767375</v>
       </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
       <c r="L2" t="n">
-        <v>-210.9804243180552</v>
+        <v>-307.2410367655102</v>
       </c>
       <c r="M2" t="n">
-        <v>94.4031513268128</v>
+        <v>44.55580645892769</v>
       </c>
       <c r="N2" t="n">
-        <v>231.1378256059785</v>
+        <v>310.4549477169772</v>
       </c>
       <c r="O2" t="n">
         <v>107.5238872525129</v>
@@ -577,10 +577,10 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E3" t="n">
-        <v>422966.0495288548</v>
+        <v>422905.5306992298</v>
       </c>
       <c r="F3" t="n">
-        <v>7575722.838257778</v>
+        <v>7575767.560966399</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>184.100128134829</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>186.1592956110835</v>
       </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
       <c r="L3" t="n">
-        <v>-164.1684602800524</v>
+        <v>-224.6872899050359</v>
       </c>
       <c r="M3" t="n">
-        <v>-137.2439928334206</v>
+        <v>-92.5212842123583</v>
       </c>
       <c r="N3" t="n">
-        <v>213.9794310665937</v>
+        <v>242.9908769422704</v>
       </c>
       <c r="O3" t="n">
         <v>261.8169981526701</v>
@@ -626,10 +626,10 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E4" t="n">
-        <v>422967.8746710589</v>
+        <v>422907.3642690231</v>
       </c>
       <c r="F4" t="n">
-        <v>7575767.686940819</v>
+        <v>7575782.541948587</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -640,22 +640,22 @@
         </is>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
         <v>184.100128134829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>186.1592956110835</v>
       </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
       <c r="L4" t="n">
-        <v>-162.3433180759312</v>
+        <v>-222.8537201117724</v>
       </c>
       <c r="M4" t="n">
-        <v>-92.39530979190022</v>
+        <v>-77.54030202422291</v>
       </c>
       <c r="N4" t="n">
-        <v>186.7946631878014</v>
+        <v>235.9582145331328</v>
       </c>
       <c r="O4" t="n">
         <v>261.8169981526701</v>
@@ -675,10 +675,10 @@
         <v>7565176.197829493</v>
       </c>
       <c r="E5" t="n">
-        <v>427282.5546145532</v>
+        <v>427118.5964035043</v>
       </c>
       <c r="F5" t="n">
-        <v>7565253.101919101</v>
+        <v>7565274.257205669</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -689,22 +689,22 @@
         </is>
       </c>
       <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
         <v>43.10756927717011</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-279.1666840068065</v>
       </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
       <c r="L5" t="n">
-        <v>7.852120776078664</v>
+        <v>-156.106090272835</v>
       </c>
       <c r="M5" t="n">
-        <v>76.90408960729837</v>
+        <v>98.05937617551535</v>
       </c>
       <c r="N5" t="n">
-        <v>77.30391192565551</v>
+        <v>184.3495393978562</v>
       </c>
       <c r="O5" t="n">
         <v>282.4753086348294</v>
@@ -724,10 +724,10 @@
         <v>7565176.197829493</v>
       </c>
       <c r="E6" t="n">
-        <v>427459.7387564023</v>
+        <v>427322.4081238439</v>
       </c>
       <c r="F6" t="n">
-        <v>7565244.192226097</v>
+        <v>7565263.418398031</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -738,22 +738,22 @@
         </is>
       </c>
       <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
         <v>-166.3145032228495</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>-268.405204506591</v>
       </c>
-      <c r="K6" t="n">
-        <v>12</v>
-      </c>
       <c r="L6" t="n">
-        <v>185.0362626251299</v>
+        <v>47.70563006674638</v>
       </c>
       <c r="M6" t="n">
-        <v>67.99439660366625</v>
+        <v>87.2205685377121</v>
       </c>
       <c r="N6" t="n">
-        <v>197.1336005245496</v>
+        <v>99.41455987986362</v>
       </c>
       <c r="O6" t="n">
         <v>315.7560257358331</v>
@@ -773,10 +773,10 @@
         <v>7565163.796759997</v>
       </c>
       <c r="E7" t="n">
-        <v>427411.3124028369</v>
+        <v>427303.2644845223</v>
       </c>
       <c r="F7" t="n">
-        <v>7565232.38332541</v>
+        <v>7565267.903984649</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
         <v>-217.5573735308717</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-264.9512355024926</v>
       </c>
-      <c r="K7" t="n">
-        <v>12</v>
-      </c>
       <c r="L7" t="n">
-        <v>161.3247293677414</v>
+        <v>53.27681105321972</v>
       </c>
       <c r="M7" t="n">
-        <v>68.58656541258097</v>
+        <v>104.1072246516123</v>
       </c>
       <c r="N7" t="n">
-        <v>175.2991308040894</v>
+        <v>116.9475644067107</v>
       </c>
       <c r="O7" t="n">
         <v>342.8270233980229</v>
@@ -822,10 +822,10 @@
         <v>7565163.796759997</v>
       </c>
       <c r="E8" t="n">
-        <v>427455.6570997795</v>
+        <v>427330.4190902835</v>
       </c>
       <c r="F8" t="n">
-        <v>7565245.878448943</v>
+        <v>7565278.269375864</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
         <v>-217.5573735308717</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-264.9512355024926</v>
       </c>
-      <c r="K8" t="n">
-        <v>23</v>
-      </c>
       <c r="L8" t="n">
-        <v>205.6694263103418</v>
+        <v>80.4314168143319</v>
       </c>
       <c r="M8" t="n">
-        <v>82.08168894518167</v>
+        <v>114.4726158669218</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4437097298514</v>
+        <v>139.9042265057658</v>
       </c>
       <c r="O8" t="n">
         <v>342.8270233980229</v>
@@ -871,10 +871,10 @@
         <v>7575860.082250611</v>
       </c>
       <c r="E9" t="n">
-        <v>423145.6941849037</v>
+        <v>422994.6960646797</v>
       </c>
       <c r="F9" t="n">
-        <v>7575854.502870478</v>
+        <v>7575854.111107016</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="I9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J9" t="n">
         <v>-24.51832536516304</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>66.16995486104861</v>
       </c>
-      <c r="K9" t="n">
-        <v>22</v>
-      </c>
       <c r="L9" t="n">
-        <v>15.47619576886063</v>
+        <v>-135.5219244551845</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.579380133189261</v>
+        <v>-5.971143594942987</v>
       </c>
       <c r="N9" t="n">
-        <v>16.45120415491604</v>
+        <v>135.6534060164659</v>
       </c>
       <c r="O9" t="n">
         <v>70.56636029316806</v>
@@ -920,10 +920,10 @@
         <v>7575847.162318607</v>
       </c>
       <c r="E10" t="n">
-        <v>423154.4776781799</v>
+        <v>422984.5128941429</v>
       </c>
       <c r="F10" t="n">
-        <v>7575883.331977163</v>
+        <v>7575879.59733122</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
         <v>-63.70489524480945</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>53.25002285698429</v>
       </c>
-      <c r="K10" t="n">
-        <v>13</v>
-      </c>
       <c r="L10" t="n">
-        <v>63.44625892472686</v>
+        <v>-106.5185251123039</v>
       </c>
       <c r="M10" t="n">
-        <v>36.16965855658054</v>
+        <v>32.43501261342317</v>
       </c>
       <c r="N10" t="n">
-        <v>73.03199279523395</v>
+        <v>111.3473225332942</v>
       </c>
       <c r="O10" t="n">
         <v>83.0293840301221</v>
@@ -969,10 +969,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E11" t="n">
-        <v>436767.0846829533</v>
+        <v>436590.4945302333</v>
       </c>
       <c r="F11" t="n">
-        <v>7551672.217565683</v>
+        <v>7551646.790586882</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
         <v>-332.7553784533908</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>374.6397789372131</v>
       </c>
-      <c r="K11" t="n">
-        <v>16</v>
-      </c>
       <c r="L11" t="n">
-        <v>395.6398810733226</v>
+        <v>219.0497283533332</v>
       </c>
       <c r="M11" t="n">
-        <v>-209.4949109209701</v>
+        <v>-234.9218897214159</v>
       </c>
       <c r="N11" t="n">
-        <v>447.6818437210717</v>
+        <v>321.2025494325196</v>
       </c>
       <c r="O11" t="n">
         <v>501.0799395822819</v>
@@ -1018,10 +1018,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E12" t="n">
-        <v>436708.2838374109</v>
+        <v>436604.237315722</v>
       </c>
       <c r="F12" t="n">
-        <v>7551573.291329911</v>
+        <v>7551584.704621998</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
         <v>-398.1717206200556</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>291.3290823537391</v>
       </c>
-      <c r="K12" t="n">
-        <v>15</v>
-      </c>
       <c r="L12" t="n">
-        <v>336.8390355309239</v>
+        <v>232.7925138421124</v>
       </c>
       <c r="M12" t="n">
-        <v>-308.4211466927081</v>
+        <v>-297.0078546060249</v>
       </c>
       <c r="N12" t="n">
-        <v>456.7101264310306</v>
+        <v>377.3672219451548</v>
       </c>
       <c r="O12" t="n">
         <v>493.3693883152939</v>
@@ -1067,10 +1067,10 @@
         <v>7551987.041595621</v>
       </c>
       <c r="E13" t="n">
-        <v>436662.3485549789</v>
+        <v>436576.8154016315</v>
       </c>
       <c r="F13" t="n">
-        <v>7551794.190833243</v>
+        <v>7551776.614554156</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1081,22 +1081,22 @@
         </is>
       </c>
       <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
         <v>-274.4329115062574</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>396.6582013710868</v>
       </c>
-      <c r="K13" t="n">
-        <v>26</v>
-      </c>
       <c r="L13" t="n">
-        <v>167.1649439851753</v>
+        <v>81.63179063779535</v>
       </c>
       <c r="M13" t="n">
-        <v>-192.8507623784244</v>
+        <v>-210.4270414654166</v>
       </c>
       <c r="N13" t="n">
-        <v>255.2166433591397</v>
+        <v>225.7062006738428</v>
       </c>
       <c r="O13" t="n">
         <v>482.3392495254216</v>
@@ -1116,10 +1116,10 @@
         <v>7551987.041595621</v>
       </c>
       <c r="E14" t="n">
-        <v>436535.1796849946</v>
+        <v>436438.3026240706</v>
       </c>
       <c r="F14" t="n">
-        <v>7551791.628159024</v>
+        <v>7551786.525645075</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
         <v>-72.8823435062659</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>403.1119886212982</v>
       </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
       <c r="L14" t="n">
-        <v>39.99607400089735</v>
+        <v>-56.88098692317726</v>
       </c>
       <c r="M14" t="n">
-        <v>-195.4134365972131</v>
+        <v>-200.5159505456686</v>
       </c>
       <c r="N14" t="n">
-        <v>199.4645260145731</v>
+        <v>208.4276687404714</v>
       </c>
       <c r="O14" t="n">
         <v>409.6475452937354</v>
@@ -1165,10 +1165,10 @@
         <v>7576072.825867338</v>
       </c>
       <c r="E15" t="n">
-        <v>423265.1892461217</v>
+        <v>423181.259640191</v>
       </c>
       <c r="F15" t="n">
-        <v>7576008.464180694</v>
+        <v>7575977.333821244</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1179,22 +1179,22 @@
         </is>
       </c>
       <c r="I15" t="n">
+        <v>33</v>
+      </c>
+      <c r="J15" t="n">
         <v>-157.0653137245099</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>253.6686340047357</v>
       </c>
-      <c r="K15" t="n">
-        <v>33</v>
-      </c>
       <c r="L15" t="n">
-        <v>45.83173367957352</v>
+        <v>-38.09787225112086</v>
       </c>
       <c r="M15" t="n">
-        <v>-64.36168664414436</v>
+        <v>-95.49204609449953</v>
       </c>
       <c r="N15" t="n">
-        <v>79.01249597218394</v>
+        <v>102.8113745525112</v>
       </c>
       <c r="O15" t="n">
         <v>298.3576522450987</v>
@@ -1214,10 +1214,10 @@
         <v>7576072.825867338</v>
       </c>
       <c r="E16" t="n">
-        <v>423286.2846640596</v>
+        <v>423134.4380169228</v>
       </c>
       <c r="F16" t="n">
-        <v>7576002.53986731</v>
+        <v>7575961.018013688</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1228,22 +1228,22 @@
         </is>
       </c>
       <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
         <v>-74.92409695783863</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>316.1562575381249</v>
       </c>
-      <c r="K16" t="n">
-        <v>9</v>
-      </c>
       <c r="L16" t="n">
-        <v>66.92715161747765</v>
+        <v>-84.91949551936705</v>
       </c>
       <c r="M16" t="n">
-        <v>-70.2860000282526</v>
+        <v>-111.8078536503017</v>
       </c>
       <c r="N16" t="n">
-        <v>97.05341531136534</v>
+        <v>140.4005586069766</v>
       </c>
       <c r="O16" t="n">
         <v>324.9129106167694</v>
@@ -1263,10 +1263,10 @@
         <v>7575845.202202614</v>
       </c>
       <c r="E17" t="n">
-        <v>423377.5696117773</v>
+        <v>423091.2514568504</v>
       </c>
       <c r="F17" t="n">
-        <v>7575836.835523252</v>
+        <v>7575857.576489893</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1277,22 +1277,22 @@
         </is>
       </c>
       <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
         <v>421.1023855909589</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>-147.361201385657</v>
       </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
       <c r="L17" t="n">
-        <v>-269.6737448137137</v>
+        <v>-555.991899740533</v>
       </c>
       <c r="M17" t="n">
-        <v>-8.366679362021387</v>
+        <v>12.37428727839142</v>
       </c>
       <c r="N17" t="n">
-        <v>269.8035025076562</v>
+        <v>556.1295852251839</v>
       </c>
       <c r="O17" t="n">
         <v>446.1418415977376</v>
@@ -1312,10 +1312,10 @@
         <v>7575845.202202614</v>
       </c>
       <c r="E18" t="n">
-        <v>423454.1802985745</v>
+        <v>423237.1617167944</v>
       </c>
       <c r="F18" t="n">
-        <v>7575762.310054448</v>
+        <v>7575796.300503424</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
         <v>270.820530424302</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>26.04496928102647</v>
       </c>
-      <c r="K18" t="n">
-        <v>32</v>
-      </c>
       <c r="L18" t="n">
-        <v>-193.0630580164725</v>
+        <v>-410.0816397965536</v>
       </c>
       <c r="M18" t="n">
-        <v>-82.89214816596359</v>
+        <v>-48.90169919002801</v>
       </c>
       <c r="N18" t="n">
-        <v>210.1058128616148</v>
+        <v>412.9870790737918</v>
       </c>
       <c r="O18" t="n">
         <v>272.0700279783679</v>
@@ -1361,10 +1361,10 @@
         <v>7572501.991928468</v>
       </c>
       <c r="E19" t="n">
-        <v>431433.1868564912</v>
+        <v>431192.052656269</v>
       </c>
       <c r="F19" t="n">
-        <v>7572579.077282846</v>
+        <v>7572608.611690141</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
         <v>476.2433221854735</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>-272.5395030328073</v>
       </c>
-      <c r="K19" t="n">
-        <v>3</v>
-      </c>
       <c r="L19" t="n">
-        <v>-353.3683691942715</v>
+        <v>-594.5025694164797</v>
       </c>
       <c r="M19" t="n">
-        <v>77.08535437844694</v>
+        <v>106.6197616737336</v>
       </c>
       <c r="N19" t="n">
-        <v>361.6785260513399</v>
+        <v>603.9876477397199</v>
       </c>
       <c r="O19" t="n">
         <v>548.712568326648</v>
@@ -1410,10 +1410,10 @@
         <v>7572390.860727692</v>
       </c>
       <c r="E20" t="n">
-        <v>431414.5397421601</v>
+        <v>431163.5049112105</v>
       </c>
       <c r="F20" t="n">
-        <v>7572563.999543196</v>
+        <v>7572587.163780149</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1424,22 +1424,22 @@
         </is>
       </c>
       <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
         <v>93.10092225670815</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>-383.6707038083114</v>
       </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
       <c r="L20" t="n">
-        <v>11.12691640341654</v>
+        <v>-239.9079145462019</v>
       </c>
       <c r="M20" t="n">
-        <v>173.1388155035675</v>
+        <v>196.3030524570495</v>
       </c>
       <c r="N20" t="n">
-        <v>173.4959875692432</v>
+        <v>309.9849929687933</v>
       </c>
       <c r="O20" t="n">
         <v>394.8050033697833</v>
@@ -1459,10 +1459,10 @@
         <v>7572390.860727692</v>
       </c>
       <c r="E21" t="n">
-        <v>431412.0416900642</v>
+        <v>431178.9544734561</v>
       </c>
       <c r="F21" t="n">
-        <v>7572571.995411389</v>
+        <v>7572598.017681791</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
         <v>93.10092225670815</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>-383.6707038083114</v>
       </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
       <c r="L21" t="n">
-        <v>8.628864307538606</v>
+        <v>-224.4583523005713</v>
       </c>
       <c r="M21" t="n">
-        <v>181.1346836965531</v>
+        <v>207.1569540994242</v>
       </c>
       <c r="N21" t="n">
-        <v>181.340097433216</v>
+        <v>305.4432116601027</v>
       </c>
       <c r="O21" t="n">
         <v>394.8050033697833</v>
@@ -1508,10 +1508,10 @@
         <v>7572805.177943617</v>
       </c>
       <c r="E22" t="n">
-        <v>431790.4629148571</v>
+        <v>431402.9801723582</v>
       </c>
       <c r="F22" t="n">
-        <v>7572945.152842052</v>
+        <v>7572953.127210335</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
         <v>14.341414667957</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>-208.0218473831192</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" t="n">
-        <v>234.9801381891593</v>
+        <v>-152.5026043097605</v>
       </c>
       <c r="M22" t="n">
-        <v>139.9748984351754</v>
+        <v>147.9492667177692</v>
       </c>
       <c r="N22" t="n">
-        <v>273.5116771462127</v>
+        <v>212.4759512123313</v>
       </c>
       <c r="O22" t="n">
         <v>208.515623307617</v>
@@ -1557,10 +1557,10 @@
         <v>7572805.177943617</v>
       </c>
       <c r="E23" t="n">
-        <v>431363.173523435</v>
+        <v>431076.4382983509</v>
       </c>
       <c r="F23" t="n">
-        <v>7572687.89390554</v>
+        <v>7572710.497802707</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
         <v>331.2382213346427</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>-47.10749204984555</v>
       </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
       <c r="L23" t="n">
-        <v>-192.3092532330193</v>
+        <v>-479.0444783170824</v>
       </c>
       <c r="M23" t="n">
-        <v>-117.2840380771086</v>
+        <v>-94.68014090973884</v>
       </c>
       <c r="N23" t="n">
-        <v>225.2518467553911</v>
+        <v>488.3113159540475</v>
       </c>
       <c r="O23" t="n">
         <v>334.5711808870633</v>
@@ -1606,10 +1606,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E24" t="n">
-        <v>431584.230696297</v>
+        <v>431460.3041068692</v>
       </c>
       <c r="F24" t="n">
-        <v>7572966.260456187</v>
+        <v>7572973.385662021</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
         <v>-58.20607255597133</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>-4.439718383364379</v>
       </c>
-      <c r="K24" t="n">
-        <v>5</v>
-      </c>
       <c r="L24" t="n">
-        <v>101.295406852907</v>
+        <v>-22.63118257484166</v>
       </c>
       <c r="M24" t="n">
-        <v>-42.49961643014103</v>
+        <v>-35.37441059574485</v>
       </c>
       <c r="N24" t="n">
-        <v>109.8497921991893</v>
+        <v>41.99427758316795</v>
       </c>
       <c r="O24" t="n">
         <v>58.37514866546023</v>
@@ -1655,10 +1655,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E25" t="n">
-        <v>431322.946400095</v>
+        <v>431108.5982423377</v>
       </c>
       <c r="F25" t="n">
-        <v>7572967.389777073</v>
+        <v>7572974.934867049</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1669,22 +1669,22 @@
         </is>
       </c>
       <c r="I25" t="n">
+        <v>22</v>
+      </c>
+      <c r="J25" t="n">
         <v>186.3096789440315</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>-1.736544883344322</v>
       </c>
-      <c r="K25" t="n">
-        <v>22</v>
-      </c>
       <c r="L25" t="n">
-        <v>-159.9888893491006</v>
+        <v>-374.3370471063536</v>
       </c>
       <c r="M25" t="n">
-        <v>-41.37029554415494</v>
+        <v>-33.82520556822419</v>
       </c>
       <c r="N25" t="n">
-        <v>165.2511605664829</v>
+        <v>375.8621680457306</v>
       </c>
       <c r="O25" t="n">
         <v>186.3177717137041</v>
@@ -1704,10 +1704,10 @@
         <v>7573004.870924478</v>
       </c>
       <c r="E26" t="n">
-        <v>431305.0151047051</v>
+        <v>431099.5086371948</v>
       </c>
       <c r="F26" t="n">
-        <v>7572676.080947467</v>
+        <v>7572693.418454994</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1718,22 +1718,22 @@
         </is>
       </c>
       <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
         <v>399.7239796809154</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>230.3394929780625</v>
       </c>
-      <c r="K26" t="n">
-        <v>9</v>
-      </c>
       <c r="L26" t="n">
-        <v>-405.0207784758531</v>
+        <v>-610.527245986159</v>
       </c>
       <c r="M26" t="n">
-        <v>-328.7899770112708</v>
+        <v>-311.4524694839492</v>
       </c>
       <c r="N26" t="n">
-        <v>521.6748795756396</v>
+        <v>685.3803023424982</v>
       </c>
       <c r="O26" t="n">
         <v>461.3410256603457</v>
@@ -1753,10 +1753,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E27" t="n">
-        <v>431247.6539450613</v>
+        <v>431125.1135429495</v>
       </c>
       <c r="F27" t="n">
-        <v>7572972.810458456</v>
+        <v>7572975.119677508</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1767,22 +1767,22 @@
         </is>
       </c>
       <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
         <v>266.8439817810431</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>-20.52558114286512</v>
       </c>
-      <c r="K27" t="n">
-        <v>4</v>
-      </c>
       <c r="L27" t="n">
-        <v>-560.3313987197471</v>
+        <v>-682.8718008315773</v>
       </c>
       <c r="M27" t="n">
-        <v>-19.86375140119344</v>
+        <v>-17.55453234910965</v>
       </c>
       <c r="N27" t="n">
-        <v>560.6833732249928</v>
+        <v>683.0974000660208</v>
       </c>
       <c r="O27" t="n">
         <v>267.6322291765587</v>
@@ -1802,10 +1802,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E28" t="n">
-        <v>431281.4424766515</v>
+        <v>431197.5318128642</v>
       </c>
       <c r="F28" t="n">
-        <v>7572998.750388363</v>
+        <v>7573011.94211207</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
         <v>266.8439817810431</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-20.52558114286512</v>
       </c>
-      <c r="K28" t="n">
-        <v>2</v>
-      </c>
       <c r="L28" t="n">
-        <v>-526.5428671296104</v>
+        <v>-610.4535309168859</v>
       </c>
       <c r="M28" t="n">
-        <v>6.076178506016731</v>
+        <v>19.26790221221745</v>
       </c>
       <c r="N28" t="n">
-        <v>526.5779247844592</v>
+        <v>610.7575341037989</v>
       </c>
       <c r="O28" t="n">
         <v>267.6322291765587</v>
@@ -1851,10 +1851,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E29" t="n">
-        <v>431790.7808905513</v>
+        <v>431408.8405889848</v>
       </c>
       <c r="F29" t="n">
-        <v>7572949.228332879</v>
+        <v>7572956.216618959</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
         <v>266.8439817810431</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>-20.52558114286512</v>
       </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
       <c r="L29" t="n">
-        <v>-17.20445322978776</v>
+        <v>-399.1447547962307</v>
       </c>
       <c r="M29" t="n">
-        <v>-43.44587697833776</v>
+        <v>-36.45759089849889</v>
       </c>
       <c r="N29" t="n">
-        <v>46.72833655666349</v>
+        <v>400.8063013669639</v>
       </c>
       <c r="O29" t="n">
         <v>267.6322291765587</v>
@@ -1900,10 +1900,10 @@
         <v>7573092.847894013</v>
       </c>
       <c r="E30" t="n">
-        <v>431778.0679654556</v>
+        <v>431463.1441867669</v>
       </c>
       <c r="F30" t="n">
-        <v>7573266.244096642</v>
+        <v>7573182.757693918</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
         <v>189.0652066745097</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>79.64810301270336</v>
       </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
       <c r="L30" t="n">
-        <v>47.86139678105246</v>
+        <v>-267.062381907599</v>
       </c>
       <c r="M30" t="n">
-        <v>173.3962026294321</v>
+        <v>89.90979990549386</v>
       </c>
       <c r="N30" t="n">
-        <v>179.8803946741846</v>
+        <v>281.790858526685</v>
       </c>
       <c r="O30" t="n">
         <v>205.1571901942442</v>
@@ -1949,10 +1949,10 @@
         <v>7573092.847894013</v>
       </c>
       <c r="E31" t="n">
-        <v>431611.8049909251</v>
+        <v>431449.6361264243</v>
       </c>
       <c r="F31" t="n">
-        <v>7572965.60206464</v>
+        <v>7573000.484460911</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1963,22 +1963,22 @@
         </is>
       </c>
       <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
         <v>189.0652066745097</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>79.64810301270336</v>
       </c>
-      <c r="K31" t="n">
-        <v>8</v>
-      </c>
       <c r="L31" t="n">
-        <v>-118.401577749406</v>
+        <v>-280.5704422502313</v>
       </c>
       <c r="M31" t="n">
-        <v>-127.2458293726668</v>
+        <v>-92.36343310214579</v>
       </c>
       <c r="N31" t="n">
-        <v>173.8114918706081</v>
+        <v>295.3824247292058</v>
       </c>
       <c r="O31" t="n">
         <v>205.1571901942442</v>
@@ -1998,10 +1998,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E32" t="n">
-        <v>431268.8559112379</v>
+        <v>431090.5470620791</v>
       </c>
       <c r="F32" t="n">
-        <v>7572970.082420326</v>
+        <v>7572938.637998964</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2012,22 +2012,22 @@
         </is>
       </c>
       <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
         <v>308.6221839225036</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>239.5995056064179</v>
       </c>
-      <c r="K32" t="n">
-        <v>16</v>
-      </c>
       <c r="L32" t="n">
-        <v>-264.0108280178974</v>
+        <v>-442.3196771767107</v>
       </c>
       <c r="M32" t="n">
-        <v>-121.8025209475309</v>
+        <v>-153.2469423096627</v>
       </c>
       <c r="N32" t="n">
-        <v>290.7534546998015</v>
+        <v>468.1146463687829</v>
       </c>
       <c r="O32" t="n">
         <v>390.7116270293674</v>
@@ -2047,10 +2047,10 @@
         <v>7573096.091231987</v>
       </c>
       <c r="E33" t="n">
-        <v>431231.6945888386</v>
+        <v>431012.7156210584</v>
       </c>
       <c r="F33" t="n">
-        <v>7572935.92054079</v>
+        <v>7572925.527824722</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
         <v>231.8762771936599</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>243.8057963199293</v>
       </c>
-      <c r="K33" t="n">
-        <v>14</v>
-      </c>
       <c r="L33" t="n">
-        <v>-224.4262436883873</v>
+        <v>-443.4052114685765</v>
       </c>
       <c r="M33" t="n">
-        <v>-160.1706911968067</v>
+        <v>-170.5634072646499</v>
       </c>
       <c r="N33" t="n">
-        <v>275.7204910313019</v>
+        <v>475.0790012779136</v>
       </c>
       <c r="O33" t="n">
         <v>336.4637785028068</v>
@@ -2096,10 +2096,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E34" t="n">
-        <v>431507.3833640189</v>
+        <v>431278.4674837589</v>
       </c>
       <c r="F34" t="n">
-        <v>7572955.479027668</v>
+        <v>7572974.277890894</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2110,22 +2110,22 @@
         </is>
       </c>
       <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
         <v>-8.274622744182125</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>78.68515027314425</v>
       </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
       <c r="L34" t="n">
-        <v>-25.4833752369741</v>
+        <v>-254.3992554969736</v>
       </c>
       <c r="M34" t="n">
-        <v>-136.4059136053547</v>
+        <v>-117.6070503797382</v>
       </c>
       <c r="N34" t="n">
-        <v>138.7659024399724</v>
+        <v>280.2684418489473</v>
       </c>
       <c r="O34" t="n">
         <v>79.11903851201573</v>
@@ -2145,10 +2145,10 @@
         <v>7573096.091231987</v>
       </c>
       <c r="E35" t="n">
-        <v>431523.0984508288</v>
+        <v>431140.4594933506</v>
       </c>
       <c r="F35" t="n">
-        <v>7572957.545316711</v>
+        <v>7572962.600901874</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="I35" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
         <v>159.495222026977</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>85.59461448667571</v>
       </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
       <c r="L35" t="n">
-        <v>66.97761830181116</v>
+        <v>-315.6613391764113</v>
       </c>
       <c r="M35" t="n">
-        <v>-138.5459152758121</v>
+        <v>-133.490330113098</v>
       </c>
       <c r="N35" t="n">
-        <v>153.8862306803166</v>
+        <v>342.7269310753814</v>
       </c>
       <c r="O35" t="n">
         <v>181.0115020614915</v>
@@ -2194,10 +2194,10 @@
         <v>7572813.902893568</v>
       </c>
       <c r="E36" t="n">
-        <v>431413.7071900296</v>
+        <v>431055.0071856662</v>
       </c>
       <c r="F36" t="n">
-        <v>7572880.913389263</v>
+        <v>7572882.5463971</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2208,22 +2208,22 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
         <v>45.67103365593357</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>-38.38254209856192</v>
       </c>
-      <c r="K36" t="n">
-        <v>14</v>
-      </c>
       <c r="L36" t="n">
-        <v>143.7916010403424</v>
+        <v>-214.9084033230902</v>
       </c>
       <c r="M36" t="n">
-        <v>67.01049569435418</v>
+        <v>68.64350353181362</v>
       </c>
       <c r="N36" t="n">
-        <v>158.6393112155623</v>
+        <v>225.6048589813661</v>
       </c>
       <c r="O36" t="n">
         <v>59.65788173535241</v>
@@ -2243,10 +2243,10 @@
         <v>7572652.685400154</v>
       </c>
       <c r="E37" t="n">
-        <v>431269.270088117</v>
+        <v>431072.4227874079</v>
       </c>
       <c r="F37" t="n">
-        <v>7572744.172608607</v>
+        <v>7572769.885350593</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2257,22 +2257,22 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
         <v>-143.7391018741764</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>-199.6000355125094</v>
       </c>
-      <c r="K37" t="n">
-        <v>16</v>
-      </c>
       <c r="L37" t="n">
-        <v>188.764634657884</v>
+        <v>-8.082666051224805</v>
       </c>
       <c r="M37" t="n">
-        <v>91.48720845207572</v>
+        <v>117.1999504389241</v>
       </c>
       <c r="N37" t="n">
-        <v>209.7665288073338</v>
+        <v>117.4783293777278</v>
       </c>
       <c r="O37" t="n">
         <v>245.9697208686262</v>
@@ -2292,10 +2292,10 @@
         <v>7572623.03781987</v>
       </c>
       <c r="E38" t="n">
-        <v>431279.1243903688</v>
+        <v>431041.5629296858</v>
       </c>
       <c r="F38" t="n">
-        <v>7572687.2383101</v>
+        <v>7572744.594523313</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2306,22 +2306,22 @@
         </is>
       </c>
       <c r="I38" t="n">
+        <v>14</v>
+      </c>
+      <c r="J38" t="n">
         <v>-241.1949282519054</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>-229.2476157971347</v>
       </c>
-      <c r="K38" t="n">
-        <v>14</v>
-      </c>
       <c r="L38" t="n">
-        <v>296.0747632873245</v>
+        <v>58.5133026043186</v>
       </c>
       <c r="M38" t="n">
-        <v>64.20049022976309</v>
+        <v>121.556703443639</v>
       </c>
       <c r="N38" t="n">
-        <v>302.9553901177319</v>
+        <v>134.9067779385059</v>
       </c>
       <c r="O38" t="n">
         <v>332.7603683780754</v>
@@ -2341,10 +2341,10 @@
         <v>7572590.608830938</v>
       </c>
       <c r="E39" t="n">
-        <v>431150.8232137692</v>
+        <v>430981.8167123946</v>
       </c>
       <c r="F39" t="n">
-        <v>7572736.14748924</v>
+        <v>7572712.000420481</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2355,22 +2355,22 @@
         </is>
       </c>
       <c r="I39" t="n">
+        <v>7</v>
+      </c>
+      <c r="J39" t="n">
         <v>-183.2877885459748</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>-181.2194270621985</v>
       </c>
-      <c r="K39" t="n">
-        <v>7</v>
-      </c>
       <c r="L39" t="n">
-        <v>268.3148503152188</v>
+        <v>99.30834894056898</v>
       </c>
       <c r="M39" t="n">
-        <v>145.5386583022773</v>
+        <v>121.3915895428509</v>
       </c>
       <c r="N39" t="n">
-        <v>305.2447541893313</v>
+        <v>156.8377065027469</v>
       </c>
       <c r="O39" t="n">
         <v>257.7496734718115</v>
@@ -2390,10 +2390,10 @@
         <v>7572746.256459491</v>
       </c>
       <c r="E40" t="n">
-        <v>431287.092257861</v>
+        <v>431048.0824554404</v>
       </c>
       <c r="F40" t="n">
-        <v>7572721.055291928</v>
+        <v>7572732.916720573</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2404,22 +2404,22 @@
         </is>
       </c>
       <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
         <v>493.9848138184752</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>-28.27497200900689</v>
       </c>
-      <c r="K40" t="n">
-        <v>3</v>
-      </c>
       <c r="L40" t="n">
-        <v>-517.2044594574836</v>
+        <v>-756.214261878049</v>
       </c>
       <c r="M40" t="n">
-        <v>-25.20116756297648</v>
+        <v>-13.33973891846836</v>
       </c>
       <c r="N40" t="n">
-        <v>517.8180681757301</v>
+        <v>756.3319102762856</v>
       </c>
       <c r="O40" t="n">
         <v>494.7933612381877</v>
@@ -2439,10 +2439,10 @@
         <v>7572921.351016466</v>
       </c>
       <c r="E41" t="n">
-        <v>431086.2969431083</v>
+        <v>430943.4154606452</v>
       </c>
       <c r="F41" t="n">
-        <v>7572923.069305482</v>
+        <v>7572888.82385478</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2453,22 +2453,22 @@
         </is>
       </c>
       <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
         <v>43.38347065393464</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>149.5227584652603</v>
       </c>
-      <c r="K41" t="n">
-        <v>10</v>
-      </c>
       <c r="L41" t="n">
-        <v>-22.88267954561161</v>
+        <v>-165.7641620087088</v>
       </c>
       <c r="M41" t="n">
-        <v>1.718289016745985</v>
+        <v>-32.52716168574989</v>
       </c>
       <c r="N41" t="n">
-        <v>22.94710309237795</v>
+        <v>168.925349352252</v>
       </c>
       <c r="O41" t="n">
         <v>155.6893728712444</v>
@@ -2488,10 +2488,10 @@
         <v>7572921.351016466</v>
       </c>
       <c r="E42" t="n">
-        <v>431346.2798285324</v>
+        <v>431051.2603681271</v>
       </c>
       <c r="F42" t="n">
-        <v>7572924.886625099</v>
+        <v>7572916.688331604</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2502,22 +2502,22 @@
         </is>
       </c>
       <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
         <v>-115.0649326794082</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>69.06558079862346</v>
       </c>
-      <c r="K42" t="n">
-        <v>4</v>
-      </c>
       <c r="L42" t="n">
-        <v>237.1002058784943</v>
+        <v>-57.91925452678697</v>
       </c>
       <c r="M42" t="n">
-        <v>3.535608633421361</v>
+        <v>-4.662684861570597</v>
       </c>
       <c r="N42" t="n">
-        <v>237.1265656902092</v>
+        <v>58.10663193695753</v>
       </c>
       <c r="O42" t="n">
         <v>134.2013158786751</v>
@@ -2537,10 +2537,10 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E43" t="n">
-        <v>431220.1188091224</v>
+        <v>431050.1873706384</v>
       </c>
       <c r="F43" t="n">
-        <v>7572858.084946941</v>
+        <v>7572843.147565912</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2551,22 +2551,22 @@
         </is>
       </c>
       <c r="I43" t="n">
+        <v>13</v>
+      </c>
+      <c r="J43" t="n">
         <v>-139.7856702014687</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>-16.60757092169176</v>
       </c>
-      <c r="K43" t="n">
-        <v>13</v>
-      </c>
       <c r="L43" t="n">
-        <v>135.6599239905481</v>
+        <v>-34.2715144935064</v>
       </c>
       <c r="M43" t="n">
-        <v>22.40708219539374</v>
+        <v>7.469701166264713</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4979720200717</v>
+        <v>35.07610498889402</v>
       </c>
       <c r="O43" t="n">
         <v>140.7687643108115</v>
@@ -2586,10 +2586,10 @@
         <v>7572694.685036717</v>
       </c>
       <c r="E44" t="n">
-        <v>431313.710084635</v>
+        <v>431024.3166748408</v>
       </c>
       <c r="F44" t="n">
-        <v>7572772.092890647</v>
+        <v>7572724.345819612</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2600,22 +2600,22 @@
         </is>
       </c>
       <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
         <v>113.605411995668</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>158.8219647165388</v>
       </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
       <c r="L44" t="n">
-        <v>120.6222276393673</v>
+        <v>-168.7711821548874</v>
       </c>
       <c r="M44" t="n">
-        <v>77.40785393025726</v>
+        <v>29.66078289505094</v>
       </c>
       <c r="N44" t="n">
-        <v>143.3237511746445</v>
+        <v>171.3577368195131</v>
       </c>
       <c r="O44" t="n">
         <v>195.2705971495119</v>
@@ -2635,10 +2635,10 @@
         <v>7572694.685036717</v>
       </c>
       <c r="E45" t="n">
-        <v>431336.2597023135</v>
+        <v>431066.7340267522</v>
       </c>
       <c r="F45" t="n">
-        <v>7572788.245947513</v>
+        <v>7572763.613591891</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2649,22 +2649,22 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>7</v>
+      </c>
+      <c r="J45" t="n">
         <v>113.605411995668</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>158.8219647165388</v>
       </c>
-      <c r="K45" t="n">
-        <v>7</v>
-      </c>
       <c r="L45" t="n">
-        <v>143.1718453178764</v>
+        <v>-126.3538302434026</v>
       </c>
       <c r="M45" t="n">
-        <v>93.56091079581529</v>
+        <v>68.9285551737994</v>
       </c>
       <c r="N45" t="n">
-        <v>171.0316383616448</v>
+        <v>143.9320538849013</v>
       </c>
       <c r="O45" t="n">
         <v>195.2705971495119</v>
@@ -2684,10 +2684,10 @@
         <v>7572415.858964764</v>
       </c>
       <c r="E46" t="n">
-        <v>431058.2690539076</v>
+        <v>430974.1637358938</v>
       </c>
       <c r="F46" t="n">
-        <v>7572575.429103224</v>
+        <v>7572602.965394608</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
         <v>-48.59233026552829</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>-355.9692932367325</v>
       </c>
-      <c r="K46" t="n">
-        <v>11</v>
-      </c>
       <c r="L46" t="n">
-        <v>41.06523217313224</v>
+        <v>-43.04008584067924</v>
       </c>
       <c r="M46" t="n">
-        <v>159.5701384600252</v>
+        <v>187.1064298441634</v>
       </c>
       <c r="N46" t="n">
-        <v>164.7694825554322</v>
+        <v>191.9928776757145</v>
       </c>
       <c r="O46" t="n">
         <v>359.2705836665354</v>
@@ -2733,10 +2733,10 @@
         <v>7572676.276017517</v>
       </c>
       <c r="E47" t="n">
-        <v>431096.2191490381</v>
+        <v>430998.9125736402</v>
       </c>
       <c r="F47" t="n">
-        <v>7572709.234544504</v>
+        <v>7572702.882140082</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="I47" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" t="n">
         <v>4.018229711218737</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>140.4129455164075</v>
       </c>
-      <c r="K47" t="n">
-        <v>6</v>
-      </c>
       <c r="L47" t="n">
-        <v>12.7184743268881</v>
+        <v>-84.58810107101453</v>
       </c>
       <c r="M47" t="n">
-        <v>32.95852698665112</v>
+        <v>26.60612256545573</v>
       </c>
       <c r="N47" t="n">
-        <v>35.3273844253084</v>
+        <v>88.67374245383029</v>
       </c>
       <c r="O47" t="n">
         <v>140.4704290539676</v>
@@ -2782,10 +2782,10 @@
         <v>7572746.432346389</v>
       </c>
       <c r="E48" t="n">
-        <v>431374.0567588518</v>
+        <v>431145.2005827315</v>
       </c>
       <c r="F48" t="n">
-        <v>7572913.845748976</v>
+        <v>7572883.336620798</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2796,22 +2796,22 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
         <v>-333.6864632415818</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>-28.09908511163667</v>
       </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
       <c r="L48" t="n">
-        <v>397.4313185933861</v>
+        <v>168.5751424730988</v>
       </c>
       <c r="M48" t="n">
-        <v>167.4134025871754</v>
+        <v>136.9042744096369</v>
       </c>
       <c r="N48" t="n">
-        <v>431.2527105592418</v>
+        <v>217.1643594410803</v>
       </c>
       <c r="O48" t="n">
         <v>334.8674578617434</v>
@@ -2831,10 +2831,10 @@
         <v>7572746.432346389</v>
       </c>
       <c r="E49" t="n">
-        <v>431312.661616175</v>
+        <v>430988.5243815317</v>
       </c>
       <c r="F49" t="n">
-        <v>7572788.261977591</v>
+        <v>7572766.423764644</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2845,22 +2845,22 @@
         </is>
       </c>
       <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
         <v>-102.857004741556</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>210.5692743882537</v>
       </c>
-      <c r="K49" t="n">
-        <v>3</v>
-      </c>
       <c r="L49" t="n">
-        <v>336.0361759166117</v>
+        <v>11.89894127327716</v>
       </c>
       <c r="M49" t="n">
-        <v>41.82963120192289</v>
+        <v>19.99141825549304</v>
       </c>
       <c r="N49" t="n">
-        <v>338.6296348094019</v>
+        <v>23.26459987386328</v>
       </c>
       <c r="O49" t="n">
         <v>234.3479949579261</v>
@@ -2880,10 +2880,10 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E50" t="n">
-        <v>437189.3084151151</v>
+        <v>436780.030281305</v>
       </c>
       <c r="F50" t="n">
-        <v>7551784.801466458</v>
+        <v>7551789.420644226</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2894,22 +2894,22 @@
         </is>
       </c>
       <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
         <v>296.6810217248276</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>-82.08894705399871</v>
       </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
       <c r="L50" t="n">
-        <v>-73.23815560975345</v>
+        <v>-482.5162894198438</v>
       </c>
       <c r="M50" t="n">
-        <v>26.57492951210588</v>
+        <v>31.19410727918148</v>
       </c>
       <c r="N50" t="n">
-        <v>77.91055330115334</v>
+        <v>483.5235691095518</v>
       </c>
       <c r="O50" t="n">
         <v>307.828237626313</v>
@@ -2929,10 +2929,10 @@
         <v>7551781.86694753</v>
       </c>
       <c r="E51" t="n">
-        <v>436509.878433174</v>
+        <v>436433.0161587871</v>
       </c>
       <c r="F51" t="n">
-        <v>7551782.195697963</v>
+        <v>7551744.484426768</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2943,22 +2943,22 @@
         </is>
       </c>
       <c r="I51" t="n">
+        <v>23</v>
+      </c>
+      <c r="J51" t="n">
         <v>-5.225213577097747</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>197.9373405301012</v>
       </c>
-      <c r="K51" t="n">
-        <v>23</v>
-      </c>
       <c r="L51" t="n">
-        <v>-52.96230774890864</v>
+        <v>-129.8245821358287</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3287504334002733</v>
+        <v>-37.38252076227218</v>
       </c>
       <c r="N51" t="n">
-        <v>52.96332805760576</v>
+        <v>135.0995003147097</v>
       </c>
       <c r="O51" t="n">
         <v>198.0062969530402</v>
@@ -2978,10 +2978,10 @@
         <v>7551866.216828501</v>
       </c>
       <c r="E52" t="n">
-        <v>436541.0945547818</v>
+        <v>436462.8406599791</v>
       </c>
       <c r="F52" t="n">
-        <v>7551806.167716309</v>
+        <v>7551807.473864922</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2992,22 +2992,22 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>17</v>
+      </c>
+      <c r="J52" t="n">
         <v>-87.03706058615353</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>282.2872215011157</v>
       </c>
-      <c r="K52" t="n">
-        <v>17</v>
-      </c>
       <c r="L52" t="n">
-        <v>60.06566086795647</v>
+        <v>-18.18823393469211</v>
       </c>
       <c r="M52" t="n">
-        <v>-60.04911219142377</v>
+        <v>-58.74296357855201</v>
       </c>
       <c r="N52" t="n">
-        <v>84.93397135706392</v>
+        <v>61.49428935807107</v>
       </c>
       <c r="O52" t="n">
         <v>295.4006183783266</v>
@@ -3027,10 +3027,10 @@
         <v>7551908.838392975</v>
       </c>
       <c r="E53" t="n">
-        <v>436520.0610799966</v>
+        <v>436437.886806085</v>
       </c>
       <c r="F53" t="n">
-        <v>7551771.236793852</v>
+        <v>7551775.217852176</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3041,22 +3041,22 @@
         </is>
       </c>
       <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
         <v>-100.1690335157327</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>303.5980037380941</v>
       </c>
-      <c r="K53" t="n">
-        <v>21</v>
-      </c>
       <c r="L53" t="n">
-        <v>65.29613194195554</v>
+        <v>-16.8781419696752</v>
       </c>
       <c r="M53" t="n">
-        <v>-137.6015991223976</v>
+        <v>-133.6205407986417</v>
       </c>
       <c r="N53" t="n">
-        <v>152.3081906123971</v>
+        <v>134.6822950490152</v>
       </c>
       <c r="O53" t="n">
         <v>319.6960793460436</v>
@@ -3076,10 +3076,10 @@
         <v>7551908.838392975</v>
       </c>
       <c r="E54" t="n">
-        <v>436523.2484372615</v>
+        <v>436435.4663464344</v>
       </c>
       <c r="F54" t="n">
-        <v>7551745.558030308</v>
+        <v>7551721.347339455</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
         <v>-113.3010064453119</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>324.9087859750725</v>
       </c>
-      <c r="K54" t="n">
-        <v>15</v>
-      </c>
       <c r="L54" t="n">
-        <v>68.48348920681747</v>
+        <v>-19.29860162030673</v>
       </c>
       <c r="M54" t="n">
-        <v>-163.2803626665846</v>
+        <v>-187.4910535197705</v>
       </c>
       <c r="N54" t="n">
-        <v>177.060625567831</v>
+        <v>188.4816467841173</v>
       </c>
       <c r="O54" t="n">
         <v>344.0971334744248</v>
@@ -3125,10 +3125,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E55" t="n">
-        <v>436500.8537975427</v>
+        <v>436360.555939321</v>
       </c>
       <c r="F55" t="n">
-        <v>7551819.522089334</v>
+        <v>7551819.336279258</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3139,22 +3139,22 @@
         </is>
       </c>
       <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
         <v>-81.15404622070491</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>6.718504159711301</v>
       </c>
-      <c r="K55" t="n">
-        <v>18</v>
-      </c>
       <c r="L55" t="n">
-        <v>106.7386927634361</v>
+        <v>-33.55916545831133</v>
       </c>
       <c r="M55" t="n">
-        <v>-41.13976282533258</v>
+        <v>-41.32557290140539</v>
       </c>
       <c r="N55" t="n">
-        <v>114.3924325214384</v>
+        <v>53.23551973905851</v>
       </c>
       <c r="O55" t="n">
         <v>81.43167391216005</v>
@@ -3174,10 +3174,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E56" t="n">
-        <v>436514.1404129114</v>
+        <v>436380.9435667571</v>
       </c>
       <c r="F56" t="n">
-        <v>7551816.852327294</v>
+        <v>7551817.509278595</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3188,22 +3188,22 @@
         </is>
       </c>
       <c r="I56" t="n">
+        <v>14</v>
+      </c>
+      <c r="J56" t="n">
         <v>-81.15404622070491</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>6.718504159711301</v>
       </c>
-      <c r="K56" t="n">
-        <v>14</v>
-      </c>
       <c r="L56" t="n">
-        <v>120.0253081320552</v>
+        <v>-13.17153802223038</v>
       </c>
       <c r="M56" t="n">
-        <v>-43.809524865821</v>
+        <v>-43.15257356502116</v>
       </c>
       <c r="N56" t="n">
-        <v>127.7706893663949</v>
+        <v>45.11800105451951</v>
       </c>
       <c r="O56" t="n">
         <v>81.43167391216005</v>
@@ -3223,10 +3223,10 @@
         <v>7575149.158908479</v>
       </c>
       <c r="E57" t="n">
-        <v>423293.5538763229</v>
+        <v>423104.3511651941</v>
       </c>
       <c r="F57" t="n">
-        <v>7575414.786842282</v>
+        <v>7575462.59818994</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3237,22 +3237,22 @@
         </is>
       </c>
       <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
         <v>147.8664187494045</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>-518.6668505209187</v>
       </c>
-      <c r="K57" t="n">
-        <v>9</v>
-      </c>
       <c r="L57" t="n">
-        <v>-78.9022477598628</v>
+        <v>-268.104958888609</v>
       </c>
       <c r="M57" t="n">
-        <v>265.6279338030145</v>
+        <v>313.4392814608291</v>
       </c>
       <c r="N57" t="n">
-        <v>277.0988342054463</v>
+        <v>412.4614553426096</v>
       </c>
       <c r="O57" t="n">
         <v>539.3327169967192</v>
@@ -3272,10 +3272,10 @@
         <v>7575149.158908479</v>
       </c>
       <c r="E58" t="n">
-        <v>423431.3330541292</v>
+        <v>423355.0194228279</v>
       </c>
       <c r="F58" t="n">
-        <v>7575071.795440517</v>
+        <v>7575128.241844313</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3286,22 +3286,22 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
         <v>-16.46394691726891</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>-261.9084235206246</v>
       </c>
-      <c r="K58" t="n">
-        <v>3</v>
-      </c>
       <c r="L58" t="n">
-        <v>58.87693004647736</v>
+        <v>-17.43670125486096</v>
       </c>
       <c r="M58" t="n">
-        <v>-77.36346796154976</v>
+        <v>-20.9170641656965</v>
       </c>
       <c r="N58" t="n">
-        <v>97.21933484001792</v>
+        <v>27.2316382901054</v>
       </c>
       <c r="O58" t="n">
         <v>262.4253872230229</v>
@@ -3321,10 +3321,10 @@
         <v>7575836.075107425</v>
       </c>
       <c r="E59" t="n">
-        <v>423195.3764387257</v>
+        <v>423000.358064144</v>
       </c>
       <c r="F59" t="n">
-        <v>7575800.996575016</v>
+        <v>7575776.00039832</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3335,22 +3335,22 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
         <v>-137.2228350338216</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>168.2493484256168</v>
       </c>
-      <c r="K59" t="n">
-        <v>8</v>
-      </c>
       <c r="L59" t="n">
-        <v>108.0095684262342</v>
+        <v>-87.00880615552887</v>
       </c>
       <c r="M59" t="n">
-        <v>-35.07853240985423</v>
+        <v>-60.07470910530537</v>
       </c>
       <c r="N59" t="n">
-        <v>113.5630675336421</v>
+        <v>105.733168980682</v>
       </c>
       <c r="O59" t="n">
         <v>217.1127580322354</v>
@@ -3370,10 +3370,10 @@
         <v>7575836.075107425</v>
       </c>
       <c r="E60" t="n">
-        <v>423106.845709916</v>
+        <v>422961.2529867164</v>
       </c>
       <c r="F60" t="n">
-        <v>7575857.090426375</v>
+        <v>7575820.003250331</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3384,22 +3384,22 @@
         </is>
       </c>
       <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
         <v>-137.2228350338216</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>168.2493484256168</v>
       </c>
-      <c r="K60" t="n">
-        <v>5</v>
-      </c>
       <c r="L60" t="n">
-        <v>19.47883961646585</v>
+        <v>-126.113883583108</v>
       </c>
       <c r="M60" t="n">
-        <v>21.01531894970685</v>
+        <v>-16.07185709476471</v>
       </c>
       <c r="N60" t="n">
-        <v>28.65429851456684</v>
+        <v>127.1338516009338</v>
       </c>
       <c r="O60" t="n">
         <v>217.1127580322354</v>
@@ -3419,10 +3419,10 @@
         <v>7575872.132090149</v>
       </c>
       <c r="E61" t="n">
-        <v>423115.5032406058</v>
+        <v>423024.5461998343</v>
       </c>
       <c r="F61" t="n">
-        <v>7575895.245210839</v>
+        <v>7575898.21663372</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3433,22 +3433,22 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>29</v>
+      </c>
+      <c r="J61" t="n">
         <v>-50.6052372217091</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>78.21979439863935</v>
       </c>
-      <c r="K61" t="n">
-        <v>29</v>
-      </c>
       <c r="L61" t="n">
-        <v>11.37216332752723</v>
+        <v>-79.58487744402373</v>
       </c>
       <c r="M61" t="n">
-        <v>23.11312068998814</v>
+        <v>26.08454357180744</v>
       </c>
       <c r="N61" t="n">
-        <v>25.75931766910593</v>
+        <v>83.7505589899542</v>
       </c>
       <c r="O61" t="n">
         <v>93.16236509466076</v>
@@ -3468,10 +3468,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E62" t="n">
-        <v>423107.9804291514</v>
+        <v>422988.030632578</v>
       </c>
       <c r="F62" t="n">
-        <v>7575889.964414094</v>
+        <v>7575880.178104856</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3482,22 +3482,22 @@
         </is>
       </c>
       <c r="I62" t="n">
+        <v>34</v>
+      </c>
+      <c r="J62" t="n">
         <v>-76.82806229971175</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>86.3392638694495</v>
       </c>
-      <c r="K62" t="n">
-        <v>34</v>
-      </c>
       <c r="L62" t="n">
-        <v>56.29500202910276</v>
+        <v>-63.6547945443308</v>
       </c>
       <c r="M62" t="n">
-        <v>1.593385003507137</v>
+        <v>-8.192924234084785</v>
       </c>
       <c r="N62" t="n">
-        <v>56.3175472586128</v>
+        <v>64.1798790586771</v>
       </c>
       <c r="O62" t="n">
         <v>115.572573053674</v>
@@ -3517,10 +3517,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E63" t="n">
-        <v>423121.9514665289</v>
+        <v>422987.8436192265</v>
       </c>
       <c r="F63" t="n">
-        <v>7575729.253264703</v>
+        <v>7575750.308610443</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
         <v>-172.9042782110434</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>220.5452700903018</v>
       </c>
-      <c r="K63" t="n">
-        <v>8</v>
-      </c>
       <c r="L63" t="n">
-        <v>70.2660394065897</v>
+        <v>-63.84180789574748</v>
       </c>
       <c r="M63" t="n">
-        <v>-159.1177643872797</v>
+        <v>-138.0624186471105</v>
       </c>
       <c r="N63" t="n">
-        <v>173.9418846554627</v>
+        <v>152.1085397934236</v>
       </c>
       <c r="O63" t="n">
         <v>280.2429402908949</v>
@@ -3566,10 +3566,10 @@
         <v>7575724.973998199</v>
       </c>
       <c r="E64" t="n">
-        <v>423124.5556996916</v>
+        <v>423029.3010347371</v>
       </c>
       <c r="F64" t="n">
-        <v>7575767.38644795</v>
+        <v>7575779.605787101</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3580,22 +3580,22 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
         <v>-173.9385985726403</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>-68.93829755065963</v>
       </c>
-      <c r="K64" t="n">
-        <v>11</v>
-      </c>
       <c r="L64" t="n">
-        <v>143.7579837642843</v>
+        <v>48.50331880978774</v>
       </c>
       <c r="M64" t="n">
-        <v>42.41244975104928</v>
+        <v>54.63178890198469</v>
       </c>
       <c r="N64" t="n">
-        <v>149.883867677137</v>
+        <v>73.0561721841141</v>
       </c>
       <c r="O64" t="n">
         <v>187.1019105797624</v>
@@ -3615,10 +3615,10 @@
         <v>7575724.973998199</v>
       </c>
       <c r="E65" t="n">
-        <v>423144.0034166845</v>
+        <v>423028.5659315081</v>
       </c>
       <c r="F65" t="n">
-        <v>7575753.713859773</v>
+        <v>7575812.794232118</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3629,22 +3629,22 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>36</v>
+      </c>
+      <c r="J65" t="n">
         <v>-173.9385985726403</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>-68.93829755065963</v>
       </c>
-      <c r="K65" t="n">
-        <v>36</v>
-      </c>
       <c r="L65" t="n">
-        <v>163.2057007571566</v>
+        <v>47.76821558072697</v>
       </c>
       <c r="M65" t="n">
-        <v>28.73986157402396</v>
+        <v>87.82023391872644</v>
       </c>
       <c r="N65" t="n">
-        <v>165.7168681906842</v>
+        <v>99.97097531437132</v>
       </c>
       <c r="O65" t="n">
         <v>187.1019105797624</v>
@@ -3664,10 +3664,10 @@
         <v>7575541.591092365</v>
       </c>
       <c r="E66" t="n">
-        <v>423242.5262102267</v>
+        <v>423002.9329751595</v>
       </c>
       <c r="F66" t="n">
-        <v>7575692.562526561</v>
+        <v>7575664.7227125</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3678,22 +3678,22 @@
         </is>
       </c>
       <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
         <v>26.31822148064384</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>-0.9040511348284781</v>
       </c>
-      <c r="K66" t="n">
-        <v>2</v>
-      </c>
       <c r="L66" t="n">
-        <v>48.68902274605352</v>
+        <v>-190.9042123211548</v>
       </c>
       <c r="M66" t="n">
-        <v>150.9714341964573</v>
+        <v>123.1316201351583</v>
       </c>
       <c r="N66" t="n">
-        <v>158.6284806688286</v>
+        <v>227.1691311755835</v>
       </c>
       <c r="O66" t="n">
         <v>26.33374432849623</v>
@@ -3713,10 +3713,10 @@
         <v>7575541.591092365</v>
       </c>
       <c r="E67" t="n">
-        <v>423316.6785055696</v>
+        <v>423060.8449199191</v>
       </c>
       <c r="F67" t="n">
-        <v>7575761.682466467</v>
+        <v>7575757.913740343</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
         <v>-30.75251785267998</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>-126.2346666349719</v>
       </c>
-      <c r="K67" t="n">
-        <v>8</v>
-      </c>
       <c r="L67" t="n">
-        <v>122.8413180889911</v>
+        <v>-132.9922675615526</v>
       </c>
       <c r="M67" t="n">
-        <v>220.0913741020486</v>
+        <v>216.3226479785517</v>
       </c>
       <c r="N67" t="n">
-        <v>252.0519834954063</v>
+        <v>253.9339112045022</v>
       </c>
       <c r="O67" t="n">
         <v>129.9265500762715</v>
@@ -3762,10 +3762,10 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E68" t="n">
-        <v>427777.9623258082</v>
+        <v>427552.2392053191</v>
       </c>
       <c r="F68" t="n">
-        <v>7565566.442674324</v>
+        <v>7565539.318257879</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
         <v>274.0756993947434</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>76.05552996462211</v>
       </c>
-      <c r="K68" t="n">
-        <v>4</v>
-      </c>
       <c r="L68" t="n">
-        <v>-199.608543086506</v>
+        <v>-425.3316635756055</v>
       </c>
       <c r="M68" t="n">
-        <v>88.25566685944796</v>
+        <v>61.13125041406602</v>
       </c>
       <c r="N68" t="n">
-        <v>218.2490165061996</v>
+        <v>429.7022850965297</v>
       </c>
       <c r="O68" t="n">
         <v>284.4326504410443</v>
@@ -3811,10 +3811,10 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E69" t="n">
-        <v>427797.474988509</v>
+        <v>427478.3515002818</v>
       </c>
       <c r="F69" t="n">
-        <v>7565425.402649338</v>
+        <v>7565400.541617088</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3825,22 +3825,22 @@
         </is>
       </c>
       <c r="I69" t="n">
+        <v>12</v>
+      </c>
+      <c r="J69" t="n">
         <v>435.7356528947518</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>122.5741374644761</v>
       </c>
-      <c r="K69" t="n">
-        <v>12</v>
-      </c>
       <c r="L69" t="n">
-        <v>-180.0958803857211</v>
+        <v>-499.2193686129758</v>
       </c>
       <c r="M69" t="n">
-        <v>-52.78435812611133</v>
+        <v>-77.64539037644863</v>
       </c>
       <c r="N69" t="n">
-        <v>187.6718268539355</v>
+        <v>505.2215203700742</v>
       </c>
       <c r="O69" t="n">
         <v>452.6477420453745</v>
@@ -3860,10 +3860,10 @@
         <v>7565478.187007464</v>
       </c>
       <c r="E70" t="n">
-        <v>427729.5136118883</v>
+        <v>427480.6989351795</v>
       </c>
       <c r="F70" t="n">
-        <v>7565551.670539733</v>
+        <v>7565527.292592304</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3874,22 +3874,22 @@
         </is>
       </c>
       <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
         <v>274.0756993947434</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>76.05552996462211</v>
       </c>
-      <c r="K70" t="n">
-        <v>5</v>
-      </c>
       <c r="L70" t="n">
-        <v>-248.0572570064687</v>
+        <v>-496.8719337152434</v>
       </c>
       <c r="M70" t="n">
-        <v>73.48353226855397</v>
+        <v>49.10558483935893</v>
       </c>
       <c r="N70" t="n">
-        <v>258.7126441986106</v>
+        <v>499.2925765283725</v>
       </c>
       <c r="O70" t="n">
         <v>284.4326504410443</v>
@@ -3909,10 +3909,10 @@
         <v>7565591.934012871</v>
       </c>
       <c r="E71" t="n">
-        <v>427707.1398403673</v>
+        <v>427446.3046168807</v>
       </c>
       <c r="F71" t="n">
-        <v>7565440.346366088</v>
+        <v>7565433.094507</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="I71" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" t="n">
         <v>406.3681776431719</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>179.4476401678597</v>
       </c>
-      <c r="K71" t="n">
-        <v>15</v>
-      </c>
       <c r="L71" t="n">
-        <v>-211.6960780243389</v>
+        <v>-472.5313015109277</v>
       </c>
       <c r="M71" t="n">
-        <v>-151.5876467833295</v>
+        <v>-158.8395058708265</v>
       </c>
       <c r="N71" t="n">
-        <v>260.3728943423152</v>
+        <v>498.5136101781973</v>
       </c>
       <c r="O71" t="n">
         <v>444.2257887188071</v>
@@ -3958,10 +3958,10 @@
         <v>7565591.934012871</v>
       </c>
       <c r="E72" t="n">
-        <v>427755.017581784</v>
+        <v>427497.6373568491</v>
       </c>
       <c r="F72" t="n">
-        <v>7565489.021678251</v>
+        <v>7565459.148473684</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3972,22 +3972,22 @@
         </is>
       </c>
       <c r="I72" t="n">
+        <v>13</v>
+      </c>
+      <c r="J72" t="n">
         <v>377.000702391592</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>236.3211428712433</v>
       </c>
-      <c r="K72" t="n">
-        <v>13</v>
-      </c>
       <c r="L72" t="n">
-        <v>-163.8183366075973</v>
+        <v>-421.1985615424928</v>
       </c>
       <c r="M72" t="n">
-        <v>-102.9123346200213</v>
+        <v>-132.7855391874909</v>
       </c>
       <c r="N72" t="n">
-        <v>193.4616138302978</v>
+        <v>441.6335898262018</v>
       </c>
       <c r="O72" t="n">
         <v>444.9463025711353</v>
@@ -4007,10 +4007,10 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E73" t="n">
-        <v>427992.8235918519</v>
+        <v>427612.4276293316</v>
       </c>
       <c r="F73" t="n">
-        <v>7565120.556686485</v>
+        <v>7565128.776939565</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4021,22 +4021,22 @@
         </is>
       </c>
       <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
         <v>297.7440272764652</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>60.63800723012537</v>
       </c>
-      <c r="K73" t="n">
-        <v>1</v>
-      </c>
       <c r="L73" t="n">
-        <v>-48.39208942459663</v>
+        <v>-428.7880519448663</v>
       </c>
       <c r="M73" t="n">
-        <v>-117.7138627450913</v>
+        <v>-109.4936096649617</v>
       </c>
       <c r="N73" t="n">
-        <v>127.2727299984107</v>
+        <v>442.5472223934259</v>
       </c>
       <c r="O73" t="n">
         <v>303.8560081677655</v>
@@ -4056,10 +4056,10 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E74" t="n">
-        <v>427904.5589743911</v>
+        <v>427503.259152571</v>
       </c>
       <c r="F74" t="n">
-        <v>7565340.258823538</v>
+        <v>7565350.380394334</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4070,22 +4070,22 @@
         </is>
       </c>
       <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
         <v>337.7205117764533</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>-163.8609282695688</v>
       </c>
-      <c r="K74" t="n">
-        <v>4</v>
-      </c>
       <c r="L74" t="n">
-        <v>-136.6567068853765</v>
+        <v>-537.9565287054866</v>
       </c>
       <c r="M74" t="n">
-        <v>101.9882743079215</v>
+        <v>112.109845103696</v>
       </c>
       <c r="N74" t="n">
-        <v>170.5188072708214</v>
+        <v>549.514189212646</v>
       </c>
       <c r="O74" t="n">
         <v>375.373877471401</v>
@@ -4105,10 +4105,10 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E75" t="n">
-        <v>427296.5822019416</v>
+        <v>427111.8478646372</v>
       </c>
       <c r="F75" t="n">
-        <v>7565421.356375471</v>
+        <v>7565411.785095869</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4119,22 +4119,22 @@
         </is>
       </c>
       <c r="I75" t="n">
+        <v>8</v>
+      </c>
+      <c r="J75" t="n">
         <v>139.2685535975033</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>42.73341436171904</v>
       </c>
-      <c r="K75" t="n">
-        <v>8</v>
-      </c>
       <c r="L75" t="n">
-        <v>-74.28127615584526</v>
+        <v>-259.0156134603312</v>
       </c>
       <c r="M75" t="n">
-        <v>-76.7415523910895</v>
+        <v>-86.31283199321479</v>
       </c>
       <c r="N75" t="n">
-        <v>106.8034355755248</v>
+        <v>273.0183015530656</v>
       </c>
       <c r="O75" t="n">
         <v>145.6772965295246</v>
@@ -4154,10 +4154,10 @@
         <v>7565398.099551905</v>
       </c>
       <c r="E76" t="n">
-        <v>427557.462343337</v>
+        <v>427310.796944766</v>
       </c>
       <c r="F76" t="n">
-        <v>7565251.949895181</v>
+        <v>7565264.693984066</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4168,22 +4168,22 @@
         </is>
       </c>
       <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
         <v>-64.33933372531708</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>35.31236223814388</v>
       </c>
-      <c r="K76" t="n">
-        <v>10</v>
-      </c>
       <c r="L76" t="n">
-        <v>219.5811760623474</v>
+        <v>-27.0842225086526</v>
       </c>
       <c r="M76" t="n">
-        <v>-146.1496567241848</v>
+        <v>-133.4055678388104</v>
       </c>
       <c r="N76" t="n">
-        <v>263.7718996434621</v>
+        <v>136.1271487958726</v>
       </c>
       <c r="O76" t="n">
         <v>73.39286607740301</v>
@@ -4203,10 +4203,10 @@
         <v>7565270.725648553</v>
       </c>
       <c r="E77" t="n">
-        <v>427436.4542370318</v>
+        <v>427284.068774253</v>
       </c>
       <c r="F77" t="n">
-        <v>7565337.455825068</v>
+        <v>7565365.224996843</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4217,22 +4217,22 @@
         </is>
       </c>
       <c r="I77" t="n">
+        <v>12</v>
+      </c>
+      <c r="J77" t="n">
         <v>-5.930012976129849</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>-241.7274981134882</v>
       </c>
-      <c r="K77" t="n">
-        <v>12</v>
-      </c>
       <c r="L77" t="n">
-        <v>66.81473867461318</v>
+        <v>-85.57072410424007</v>
       </c>
       <c r="M77" t="n">
-        <v>66.73017651494592</v>
+        <v>94.49934829026461</v>
       </c>
       <c r="N77" t="n">
-        <v>94.43053405478915</v>
+        <v>127.4851977721677</v>
       </c>
       <c r="O77" t="n">
         <v>241.8002241481664</v>
@@ -4252,10 +4252,10 @@
         <v>7565270.725648553</v>
       </c>
       <c r="E78" t="n">
-        <v>427444.9014081386</v>
+        <v>427345.0672706498</v>
       </c>
       <c r="F78" t="n">
-        <v>7565327.954858038</v>
+        <v>7565353.876867291</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4266,22 +4266,22 @@
         </is>
       </c>
       <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
         <v>-97.90554864279693</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>-158.0223469468765</v>
       </c>
-      <c r="K78" t="n">
-        <v>31</v>
-      </c>
       <c r="L78" t="n">
-        <v>75.26190978143131</v>
+        <v>-24.57222770736553</v>
       </c>
       <c r="M78" t="n">
-        <v>57.22920948453248</v>
+        <v>83.15121873747557</v>
       </c>
       <c r="N78" t="n">
-        <v>94.5491273474949</v>
+        <v>86.70593723632847</v>
       </c>
       <c r="O78" t="n">
         <v>185.8939444673927</v>
@@ -4301,10 +4301,10 @@
         <v>7572348.301898369</v>
       </c>
       <c r="E79" t="n">
-        <v>431201.0965409491</v>
+        <v>431104.8027401033</v>
       </c>
       <c r="F79" t="n">
-        <v>7572597.497068916</v>
+        <v>7572647.614030305</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4315,22 +4315,22 @@
         </is>
       </c>
       <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
         <v>-113.293538594211</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>-503.9835372983168</v>
       </c>
-      <c r="K79" t="n">
-        <v>6</v>
-      </c>
       <c r="L79" t="n">
-        <v>90.14552421000553</v>
+        <v>-6.148276635853108</v>
       </c>
       <c r="M79" t="n">
-        <v>249.1951705468819</v>
+        <v>299.3121319366619</v>
       </c>
       <c r="N79" t="n">
-        <v>264.9989595432145</v>
+        <v>299.3752722421488</v>
       </c>
       <c r="O79" t="n">
         <v>516.5605789788085</v>
@@ -4350,10 +4350,10 @@
         <v>7572348.301898369</v>
       </c>
       <c r="E80" t="n">
-        <v>431270.2855047782</v>
+        <v>431160.3649338915</v>
       </c>
       <c r="F80" t="n">
-        <v>7572595.390387976</v>
+        <v>7572648.887064032</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4364,22 +4364,22 @@
         </is>
       </c>
       <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
         <v>-113.293538594211</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>-503.9835372983168</v>
       </c>
-      <c r="K80" t="n">
-        <v>17</v>
-      </c>
       <c r="L80" t="n">
-        <v>159.3344880390796</v>
+        <v>49.41391715238569</v>
       </c>
       <c r="M80" t="n">
-        <v>247.0884896069765</v>
+        <v>300.5851656636223</v>
       </c>
       <c r="N80" t="n">
-        <v>294.007144088256</v>
+        <v>304.6197252729542</v>
       </c>
       <c r="O80" t="n">
         <v>516.5605789788085</v>
@@ -4399,10 +4399,10 @@
         <v>7572544.059087206</v>
       </c>
       <c r="E81" t="n">
-        <v>431385.8316112248</v>
+        <v>431154.6446219621</v>
       </c>
       <c r="F81" t="n">
-        <v>7572770.149222875</v>
+        <v>7572746.761403404</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
         <v>-517.2334060344147</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>-230.4723442946561</v>
       </c>
-      <c r="K81" t="n">
-        <v>3</v>
-      </c>
       <c r="L81" t="n">
-        <v>592.7531137592159</v>
+        <v>361.5661244965158</v>
       </c>
       <c r="M81" t="n">
-        <v>226.0901356693357</v>
+        <v>202.702316198498</v>
       </c>
       <c r="N81" t="n">
-        <v>634.4076002998581</v>
+        <v>414.509699977776</v>
       </c>
       <c r="O81" t="n">
         <v>566.2578015379886</v>
@@ -4448,10 +4448,10 @@
         <v>7572782.828654669</v>
       </c>
       <c r="E82" t="n">
-        <v>431355.9994852355</v>
+        <v>431115.6188748151</v>
       </c>
       <c r="F82" t="n">
-        <v>7572917.026576593</v>
+        <v>7572922.812081367</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
         <v>-527.7226422659878</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>-227.6679628309794</v>
       </c>
-      <c r="K82" t="n">
-        <v>7</v>
-      </c>
       <c r="L82" t="n">
-        <v>587.0965170015115</v>
+        <v>346.7159065810265</v>
       </c>
       <c r="M82" t="n">
-        <v>134.1979219233617</v>
+        <v>139.9834266975522</v>
       </c>
       <c r="N82" t="n">
-        <v>602.2386591077119</v>
+        <v>373.9081165557818</v>
       </c>
       <c r="O82" t="n">
         <v>574.7381042351411</v>
@@ -4497,10 +4497,10 @@
         <v>7572917.148530746</v>
       </c>
       <c r="E83" t="n">
-        <v>431274.9637946862</v>
+        <v>431033.383336746</v>
       </c>
       <c r="F83" t="n">
-        <v>7572963.408421503</v>
+        <v>7572981.07163736</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4511,22 +4511,22 @@
         </is>
       </c>
       <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
         <v>-541.734760060237</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>-93.34808675432578</v>
       </c>
-      <c r="K83" t="n">
-        <v>4</v>
-      </c>
       <c r="L83" t="n">
-        <v>520.0729442464653</v>
+        <v>278.4924863062333</v>
       </c>
       <c r="M83" t="n">
-        <v>46.25989075750113</v>
+        <v>63.92310661450028</v>
       </c>
       <c r="N83" t="n">
-        <v>522.1262728785854</v>
+        <v>285.734541993572</v>
       </c>
       <c r="O83" t="n">
         <v>549.7184875535984</v>
@@ -4546,10 +4546,10 @@
         <v>7572917.148530746</v>
       </c>
       <c r="E84" t="n">
-        <v>431790.5551108671</v>
+        <v>431404.4827214448</v>
       </c>
       <c r="F84" t="n">
-        <v>7572945.70894343</v>
+        <v>7572952.036769534</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4560,22 +4560,22 @@
         </is>
       </c>
       <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
         <v>-786.2505115602398</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>-96.05126025434583</v>
       </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
       <c r="L84" t="n">
-        <v>1035.664260427293</v>
+        <v>649.5918710050173</v>
       </c>
       <c r="M84" t="n">
-        <v>28.56041268445551</v>
+        <v>34.88823878858238</v>
       </c>
       <c r="N84" t="n">
-        <v>1036.057989448042</v>
+        <v>650.5280840068076</v>
       </c>
       <c r="O84" t="n">
         <v>792.0957716874816</v>
@@ -4595,10 +4595,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E85" t="n">
-        <v>431258.7862089032</v>
+        <v>431078.2992414319</v>
       </c>
       <c r="F85" t="n">
-        <v>7572952.465236921</v>
+        <v>7572958.388844892</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4609,22 +4609,22 @@
         </is>
       </c>
       <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
         <v>-273.4449055805453</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>180.3966528571521</v>
       </c>
-      <c r="K85" t="n">
-        <v>11</v>
-      </c>
       <c r="L85" t="n">
-        <v>307.9865591503913</v>
+        <v>127.4995916791377</v>
       </c>
       <c r="M85" t="n">
-        <v>-80.21685160323977</v>
+        <v>-74.29324363172054</v>
       </c>
       <c r="N85" t="n">
-        <v>318.2616280647632</v>
+        <v>147.5656868234246</v>
       </c>
       <c r="O85" t="n">
         <v>327.5897873103146</v>
@@ -4644,10 +4644,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E86" t="n">
-        <v>431010.8432340642</v>
+        <v>430942.7977914501</v>
       </c>
       <c r="F86" t="n">
-        <v>7572901.926672589</v>
+        <v>7572897.181138175</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4658,22 +4658,22 @@
         </is>
       </c>
       <c r="I86" t="n">
+        <v>10</v>
+      </c>
+      <c r="J86" t="n">
         <v>-114.9965022472024</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>260.8538305237889</v>
       </c>
-      <c r="K86" t="n">
-        <v>10</v>
-      </c>
       <c r="L86" t="n">
-        <v>60.04358431138098</v>
+        <v>-8.001858302741311</v>
       </c>
       <c r="M86" t="n">
-        <v>-130.7554159350693</v>
+        <v>-135.5009503494948</v>
       </c>
       <c r="N86" t="n">
-        <v>143.8826286016172</v>
+        <v>135.7370151503023</v>
       </c>
       <c r="O86" t="n">
         <v>285.0770359534847</v>
@@ -4693,10 +4693,10 @@
         <v>7575605.639993751</v>
       </c>
       <c r="E87" t="n">
-        <v>423126.251788381</v>
+        <v>423033.4813019908</v>
       </c>
       <c r="F87" t="n">
-        <v>7575765.310177988</v>
+        <v>7575760.40226939</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="I87" t="n">
+        <v>25</v>
+      </c>
+      <c r="J87" t="n">
         <v>-152.2883791314816</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>-188.2723019984551</v>
       </c>
-      <c r="K87" t="n">
-        <v>25</v>
-      </c>
       <c r="L87" t="n">
-        <v>123.803853012505</v>
+        <v>31.03336662228685</v>
       </c>
       <c r="M87" t="n">
-        <v>159.6701842369512</v>
+        <v>154.7622756389901</v>
       </c>
       <c r="N87" t="n">
-        <v>202.0444548979355</v>
+        <v>157.8430606801326</v>
       </c>
       <c r="O87" t="n">
         <v>242.1532781489678</v>
@@ -4742,10 +4742,10 @@
         <v>7575605.639993751</v>
       </c>
       <c r="E88" t="n">
-        <v>422961.2458311391</v>
+        <v>422870.485180217</v>
       </c>
       <c r="F88" t="n">
-        <v>7575651.108194004</v>
+        <v>7575706.955194927</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4756,22 +4756,22 @@
         </is>
       </c>
       <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
         <v>-74.22712696481419</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>-315.8872899152339</v>
       </c>
-      <c r="K88" t="n">
-        <v>9</v>
-      </c>
       <c r="L88" t="n">
-        <v>-41.20210422942182</v>
+        <v>-131.9627551515005</v>
       </c>
       <c r="M88" t="n">
-        <v>45.4682002523914</v>
+        <v>101.3152011753991</v>
       </c>
       <c r="N88" t="n">
-        <v>61.35935647579515</v>
+        <v>166.3698853049627</v>
       </c>
       <c r="O88" t="n">
         <v>324.4910573612802</v>
@@ -4791,10 +4791,10 @@
         <v>7575904.614235371</v>
       </c>
       <c r="E89" t="n">
-        <v>423250.7975705314</v>
+        <v>423044.5008479396</v>
       </c>
       <c r="F89" t="n">
-        <v>7575946.1233838</v>
+        <v>7575938.216857686</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -4805,22 +4805,22 @@
         </is>
       </c>
       <c r="I89" t="n">
+        <v>23</v>
+      </c>
+      <c r="J89" t="n">
         <v>119.3521796293062</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>110.7019396214746</v>
       </c>
-      <c r="K89" t="n">
-        <v>23</v>
-      </c>
       <c r="L89" t="n">
-        <v>-23.29092359787319</v>
+        <v>-229.5876461897278</v>
       </c>
       <c r="M89" t="n">
-        <v>41.50914842821658</v>
+        <v>33.60262231435627</v>
       </c>
       <c r="N89" t="n">
-        <v>47.5970222312035</v>
+        <v>232.033668913244</v>
       </c>
       <c r="O89" t="n">
         <v>162.7877827670823</v>
@@ -4840,10 +4840,10 @@
         <v>7576007.847545639</v>
       </c>
       <c r="E90" t="n">
-        <v>423210.8814295595</v>
+        <v>423015.6786257161</v>
       </c>
       <c r="F90" t="n">
-        <v>7575979.549876652</v>
+        <v>7575962.531963262</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4854,22 +4854,22 @@
         </is>
       </c>
       <c r="I90" t="n">
+        <v>25</v>
+      </c>
+      <c r="J90" t="n">
         <v>84.30616464734443</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>152.5510682385149</v>
       </c>
-      <c r="K90" t="n">
-        <v>25</v>
-      </c>
       <c r="L90" t="n">
-        <v>-54.03115172637627</v>
+        <v>-249.2339555697981</v>
       </c>
       <c r="M90" t="n">
-        <v>-28.29766898695379</v>
+        <v>-45.31558237690479</v>
       </c>
       <c r="N90" t="n">
-        <v>60.99281455199375</v>
+        <v>253.3200872712745</v>
       </c>
       <c r="O90" t="n">
         <v>174.2967521735766</v>
@@ -4889,10 +4889,10 @@
         <v>7576007.847545639</v>
       </c>
       <c r="E91" t="n">
-        <v>423162.6596193761</v>
+        <v>422966.9393067525</v>
       </c>
       <c r="F91" t="n">
-        <v>7575943.787899032</v>
+        <v>7575928.040522625</v>
       </c>
       <c r="G91" t="n">
         <v>4</v>
@@ -4903,22 +4903,22 @@
         </is>
       </c>
       <c r="I91" t="n">
+        <v>7</v>
+      </c>
+      <c r="J91" t="n">
         <v>110.1762667858711</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>213.9352498888038</v>
       </c>
-      <c r="K91" t="n">
-        <v>7</v>
-      </c>
       <c r="L91" t="n">
-        <v>-102.2529619098059</v>
+        <v>-297.973274533404</v>
       </c>
       <c r="M91" t="n">
-        <v>-64.05964660644531</v>
+        <v>-79.80702301394194</v>
       </c>
       <c r="N91" t="n">
-        <v>120.6619515119446</v>
+        <v>308.4756607230257</v>
       </c>
       <c r="O91" t="n">
         <v>240.6389430409309</v>
@@ -4938,10 +4938,10 @@
         <v>7576025.385855958</v>
       </c>
       <c r="E92" t="n">
-        <v>423401.5610573199</v>
+        <v>423265.6349984349</v>
       </c>
       <c r="F92" t="n">
-        <v>7576007.66048206</v>
+        <v>7575992.668856658</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -4952,22 +4952,22 @@
         </is>
       </c>
       <c r="I92" t="n">
+        <v>25</v>
+      </c>
+      <c r="J92" t="n">
         <v>12.97083948785439</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>206.2286226244954</v>
       </c>
-      <c r="K92" t="n">
-        <v>25</v>
-      </c>
       <c r="L92" t="n">
-        <v>12.16739166533807</v>
+        <v>-123.758667219663</v>
       </c>
       <c r="M92" t="n">
-        <v>-17.7253738977015</v>
+        <v>-32.71699929982424</v>
       </c>
       <c r="N92" t="n">
-        <v>21.49963487483116</v>
+        <v>128.0101939502163</v>
       </c>
       <c r="O92" t="n">
         <v>206.6361233342714</v>
@@ -4987,10 +4987,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E93" t="n">
-        <v>423378.463949723</v>
+        <v>423222.7672142403</v>
       </c>
       <c r="F93" t="n">
-        <v>7576071.836731023</v>
+        <v>7576042.32844073</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -5001,22 +5001,22 @@
         </is>
       </c>
       <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
         <v>-83.5398736096613</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>321.3130269235699</v>
       </c>
-      <c r="K93" t="n">
-        <v>21</v>
-      </c>
       <c r="L93" t="n">
-        <v>188.6257393468404</v>
+        <v>32.9290038641775</v>
       </c>
       <c r="M93" t="n">
-        <v>-231.0901351161301</v>
+        <v>-260.5984254088253</v>
       </c>
       <c r="N93" t="n">
-        <v>298.2990447388886</v>
+        <v>262.6706276328705</v>
       </c>
       <c r="O93" t="n">
         <v>331.9954393564841</v>
@@ -5036,10 +5036,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E94" t="n">
-        <v>423174.7878220479</v>
+        <v>423071.5945426901</v>
       </c>
       <c r="F94" t="n">
-        <v>7576113.156312625</v>
+        <v>7576070.275467589</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5050,22 +5050,22 @@
         </is>
       </c>
       <c r="I94" t="n">
+        <v>5</v>
+      </c>
+      <c r="J94" t="n">
         <v>-34.43758862384129</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>469.0181234727303</v>
       </c>
-      <c r="K94" t="n">
-        <v>5</v>
-      </c>
       <c r="L94" t="n">
-        <v>-15.0503883282654</v>
+        <v>-118.2436676860088</v>
       </c>
       <c r="M94" t="n">
-        <v>-189.7705535143614</v>
+        <v>-232.6513985497877</v>
       </c>
       <c r="N94" t="n">
-        <v>190.3664286842055</v>
+        <v>260.9755509525968</v>
       </c>
       <c r="O94" t="n">
         <v>470.2807115501403</v>
@@ -5085,10 +5085,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E95" t="n">
-        <v>423118.4161760178</v>
+        <v>422928.7731044</v>
       </c>
       <c r="F95" t="n">
-        <v>7575894.258052614</v>
+        <v>7575902.532022701</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5099,22 +5099,22 @@
         </is>
       </c>
       <c r="I95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J95" t="n">
         <v>-258.4314104373722</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>-115.6515740118921</v>
       </c>
-      <c r="K95" t="n">
-        <v>5</v>
-      </c>
       <c r="L95" t="n">
-        <v>300.172524121881</v>
+        <v>110.5294525040081</v>
       </c>
       <c r="M95" t="n">
-        <v>88.38234295882285</v>
+        <v>96.65631304588169</v>
       </c>
       <c r="N95" t="n">
-        <v>312.9136986208692</v>
+        <v>146.8305238104777</v>
       </c>
       <c r="O95" t="n">
         <v>283.1290880006463</v>
@@ -5134,10 +5134,10 @@
         <v>7573226.258340454</v>
       </c>
       <c r="E96" t="n">
-        <v>425375.37870684</v>
+        <v>425269.5650574765</v>
       </c>
       <c r="F96" t="n">
-        <v>7573205.423857284</v>
+        <v>7573181.469860784</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5148,22 +5148,22 @@
         </is>
       </c>
       <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
         <v>-85.7578042105888</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>75.03360245376825</v>
       </c>
-      <c r="K96" t="n">
-        <v>7</v>
-      </c>
       <c r="L96" t="n">
-        <v>86.42903305054642</v>
+        <v>-19.38461631292012</v>
       </c>
       <c r="M96" t="n">
-        <v>-20.83448316995054</v>
+        <v>-44.7884796699509</v>
       </c>
       <c r="N96" t="n">
-        <v>88.90474364740837</v>
+        <v>48.80339394698625</v>
       </c>
       <c r="O96" t="n">
         <v>113.9492978487003</v>
@@ -5183,10 +5183,10 @@
         <v>7573226.258340454</v>
       </c>
       <c r="E97" t="n">
-        <v>425284.8412910143</v>
+        <v>425223.8728061374</v>
       </c>
       <c r="F97" t="n">
-        <v>7573194.00643668</v>
+        <v>7573145.753406737</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5197,22 +5197,22 @@
         </is>
       </c>
       <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
         <v>-85.7578042105888</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>75.03360245376825</v>
       </c>
-      <c r="K97" t="n">
-        <v>13</v>
-      </c>
       <c r="L97" t="n">
-        <v>-4.108382775157224</v>
+        <v>-65.07686765200924</v>
       </c>
       <c r="M97" t="n">
-        <v>-32.25190377421677</v>
+        <v>-80.50493371672928</v>
       </c>
       <c r="N97" t="n">
-        <v>32.51252229662514</v>
+        <v>103.5183223208921</v>
       </c>
       <c r="O97" t="n">
         <v>113.9492978487003</v>
@@ -5232,10 +5232,10 @@
         <v>7565814.059521397</v>
       </c>
       <c r="E98" t="n">
-        <v>427355.9611997204</v>
+        <v>427223.0389179844</v>
       </c>
       <c r="F98" t="n">
-        <v>7565584.131809376</v>
+        <v>7565590.937624942</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5246,22 +5246,22 @@
         </is>
       </c>
       <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
         <v>-284.0972865829244</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>187.4291083971038</v>
       </c>
-      <c r="K98" t="n">
-        <v>2</v>
-      </c>
       <c r="L98" t="n">
-        <v>-23.46019869664451</v>
+        <v>-156.3824804326869</v>
       </c>
       <c r="M98" t="n">
-        <v>-229.9277120204642</v>
+        <v>-223.1218964550644</v>
       </c>
       <c r="N98" t="n">
-        <v>231.1214695303134</v>
+        <v>272.4680914602372</v>
       </c>
       <c r="O98" t="n">
         <v>340.3541375072641</v>
@@ -5281,10 +5281,10 @@
         <v>7565891.102134027</v>
       </c>
       <c r="E99" t="n">
-        <v>427359.0502998797</v>
+        <v>427246.2866582701</v>
       </c>
       <c r="F99" t="n">
-        <v>7565691.275805155</v>
+        <v>7565636.764275149</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5295,22 +5295,22 @@
         </is>
       </c>
       <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
         <v>-40.17063121881802</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>462.3541385265999</v>
       </c>
-      <c r="K99" t="n">
-        <v>7</v>
-      </c>
       <c r="L99" t="n">
-        <v>-68.32411590148695</v>
+        <v>-181.0877575110644</v>
       </c>
       <c r="M99" t="n">
-        <v>-199.8263288717717</v>
+        <v>-254.3378588780761</v>
       </c>
       <c r="N99" t="n">
-        <v>211.1841531083459</v>
+        <v>312.2187092072962</v>
       </c>
       <c r="O99" t="n">
         <v>464.0959265337206</v>
@@ -5330,10 +5330,10 @@
         <v>7565891.102134027</v>
       </c>
       <c r="E100" t="n">
-        <v>427358.0291428751</v>
+        <v>427273.6325878617</v>
       </c>
       <c r="F100" t="n">
-        <v>7565709.928337192</v>
+        <v>7565657.45644977</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5344,22 +5344,22 @@
         </is>
       </c>
       <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
         <v>-40.17063121881802</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>462.3541385265999</v>
       </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
       <c r="L100" t="n">
-        <v>-69.34527290606638</v>
+        <v>-153.7418279194972</v>
       </c>
       <c r="M100" t="n">
-        <v>-181.1737968344241</v>
+        <v>-233.6456842562184</v>
       </c>
       <c r="N100" t="n">
-        <v>193.9915243865515</v>
+        <v>279.6906423597056</v>
       </c>
       <c r="O100" t="n">
         <v>464.0959265337206</v>
@@ -5379,10 +5379,10 @@
         <v>7565192.332038814</v>
       </c>
       <c r="E101" t="n">
-        <v>427390.2349863444</v>
+        <v>427320.1009519732</v>
       </c>
       <c r="F101" t="n">
-        <v>7565245.835429333</v>
+        <v>7565253.449588256</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5393,22 +5393,22 @@
         </is>
       </c>
       <c r="I101" t="n">
+        <v>35</v>
+      </c>
+      <c r="J101" t="n">
         <v>-222.74660438305</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>-236.4159566857852</v>
       </c>
-      <c r="K101" t="n">
-        <v>35</v>
-      </c>
       <c r="L101" t="n">
-        <v>145.4365437274682</v>
+        <v>75.3025093562901</v>
       </c>
       <c r="M101" t="n">
-        <v>53.50339051894844</v>
+        <v>61.11754944175482</v>
       </c>
       <c r="N101" t="n">
-        <v>154.9658060619016</v>
+        <v>96.98362111779237</v>
       </c>
       <c r="O101" t="n">
         <v>324.8208034283427</v>
@@ -5428,10 +5428,10 @@
         <v>7565192.332038814</v>
       </c>
       <c r="E102" t="n">
-        <v>427244.763229111</v>
+        <v>427095.8098342621</v>
       </c>
       <c r="F102" t="n">
-        <v>7565220.742206266</v>
+        <v>7565283.073892737</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5442,22 +5442,22 @@
         </is>
       </c>
       <c r="I102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" t="n">
         <v>13.2035181169631</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>-263.032474685926</v>
       </c>
-      <c r="K102" t="n">
-        <v>6</v>
-      </c>
       <c r="L102" t="n">
-        <v>-0.03521350590744987</v>
+        <v>-148.9886083548772</v>
       </c>
       <c r="M102" t="n">
-        <v>28.41016745194793</v>
+        <v>90.74185392260551</v>
       </c>
       <c r="N102" t="n">
-        <v>28.41018927495415</v>
+        <v>174.4468098671755</v>
       </c>
       <c r="O102" t="n">
         <v>263.3636566234363</v>
@@ -5477,10 +5477,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E103" t="n">
-        <v>436726.0827492982</v>
+        <v>436660.0723309941</v>
       </c>
       <c r="F103" t="n">
-        <v>7551457.249872087</v>
+        <v>7551414.852396524</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="I103" t="n">
+        <v>15</v>
+      </c>
+      <c r="J103" t="n">
         <v>178.9477000336046</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>-267.8692857990973</v>
       </c>
-      <c r="K103" t="n">
-        <v>15</v>
-      </c>
       <c r="L103" t="n">
-        <v>-271.5306457353872</v>
+        <v>-337.541064039513</v>
       </c>
       <c r="M103" t="n">
-        <v>391.4817853858694</v>
+        <v>349.0843098228797</v>
       </c>
       <c r="N103" t="n">
-        <v>476.4314010037377</v>
+        <v>485.5860637183103</v>
       </c>
       <c r="O103" t="n">
         <v>322.1431880729987</v>
@@ -5526,10 +5526,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E104" t="n">
-        <v>436689.583412978</v>
+        <v>436632.7806896442</v>
       </c>
       <c r="F104" t="n">
-        <v>7551601.758040641</v>
+        <v>7551563.490888475</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="I104" t="n">
+        <v>13</v>
+      </c>
+      <c r="J104" t="n">
         <v>178.9477000336046</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>-267.8692857990973</v>
       </c>
-      <c r="K104" t="n">
-        <v>13</v>
-      </c>
       <c r="L104" t="n">
-        <v>-308.0299820555956</v>
+        <v>-364.8327053894172</v>
       </c>
       <c r="M104" t="n">
-        <v>535.9899539398029</v>
+        <v>497.7228017747402</v>
       </c>
       <c r="N104" t="n">
-        <v>618.1971373029502</v>
+        <v>617.1149733463438</v>
       </c>
       <c r="O104" t="n">
         <v>322.1431880729987</v>
@@ -5575,10 +5575,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E105" t="n">
-        <v>436844.6477881774</v>
+        <v>436808.687536062</v>
       </c>
       <c r="F105" t="n">
-        <v>7551643.607589955</v>
+        <v>7551501.161970879</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5589,22 +5589,22 @@
         </is>
       </c>
       <c r="I105" t="n">
+        <v>7</v>
+      </c>
+      <c r="J105" t="n">
         <v>21.14476303360425</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>-287.5907922992483</v>
       </c>
-      <c r="K105" t="n">
-        <v>7</v>
-      </c>
       <c r="L105" t="n">
-        <v>-152.9656068562181</v>
+        <v>-188.9258589715464</v>
       </c>
       <c r="M105" t="n">
-        <v>577.8395032547414</v>
+        <v>435.393884178251</v>
       </c>
       <c r="N105" t="n">
-        <v>597.7432294912066</v>
+        <v>474.6164920943655</v>
       </c>
       <c r="O105" t="n">
         <v>288.3670661137583</v>
@@ -5624,10 +5624,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E106" t="n">
-        <v>436898.9523290814</v>
+        <v>436783.5764873434</v>
       </c>
       <c r="F106" t="n">
-        <v>7551642.532909618</v>
+        <v>7551583.561448447</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5638,22 +5638,22 @@
         </is>
       </c>
       <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
         <v>21.14476303360425</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>-287.5907922992483</v>
       </c>
-      <c r="K106" t="n">
-        <v>1</v>
-      </c>
       <c r="L106" t="n">
-        <v>-98.66106595215388</v>
+        <v>-214.036907690228</v>
       </c>
       <c r="M106" t="n">
-        <v>576.7648229170591</v>
+        <v>517.7933617467061</v>
       </c>
       <c r="N106" t="n">
-        <v>585.1424329933369</v>
+        <v>560.2872150268561</v>
       </c>
       <c r="O106" t="n">
         <v>288.3670661137583</v>
@@ -5673,10 +5673,10 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E107" t="n">
-        <v>436644.2774855206</v>
+        <v>436543.8078584584</v>
       </c>
       <c r="F107" t="n">
-        <v>7550958.543047065</v>
+        <v>7550992.657419866</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5687,22 +5687,22 @@
         </is>
       </c>
       <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
         <v>177.5685471660108</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>-283.2143761767074</v>
       </c>
-      <c r="K107" t="n">
-        <v>1</v>
-      </c>
       <c r="L107" t="n">
-        <v>-194.1538196453475</v>
+        <v>-294.6234467076138</v>
       </c>
       <c r="M107" t="n">
-        <v>-72.15844275802374</v>
+        <v>-38.0440699569881</v>
       </c>
       <c r="N107" t="n">
-        <v>207.1292990963401</v>
+        <v>297.0695652684171</v>
       </c>
       <c r="O107" t="n">
         <v>334.2767892268462</v>

--- a/UTM_predictions.xlsx
+++ b/UTM_predictions.xlsx
@@ -528,10 +528,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E2" t="n">
-        <v>423127.6488187231</v>
+        <v>423078.5670261455</v>
       </c>
       <c r="F2" t="n">
-        <v>7575948.388278145</v>
+        <v>7575923.443573439</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -551,13 +551,13 @@
         <v>49.1766725871712</v>
       </c>
       <c r="L2" t="n">
-        <v>-75.56137578753987</v>
+        <v>-124.6431683651172</v>
       </c>
       <c r="M2" t="n">
-        <v>103.0066330581903</v>
+        <v>78.06192835234106</v>
       </c>
       <c r="N2" t="n">
-        <v>127.749316886199</v>
+        <v>147.0699972060276</v>
       </c>
       <c r="O2" t="n">
         <v>78.18723072556141</v>
@@ -577,10 +577,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E3" t="n">
-        <v>423077.2741161379</v>
+        <v>423045.2970824868</v>
       </c>
       <c r="F3" t="n">
-        <v>7575742.400859289</v>
+        <v>7575761.875066478</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -600,13 +600,13 @@
         <v>49.1766725871712</v>
       </c>
       <c r="L3" t="n">
-        <v>-125.9360783727025</v>
+        <v>-157.9131120238453</v>
       </c>
       <c r="M3" t="n">
-        <v>-102.9807857982814</v>
+        <v>-83.50657860934734</v>
       </c>
       <c r="N3" t="n">
-        <v>162.6804784832126</v>
+        <v>178.6334224609007</v>
       </c>
       <c r="O3" t="n">
         <v>78.18723072556141</v>
@@ -626,10 +626,10 @@
         <v>7565190.14474496</v>
       </c>
       <c r="E4" t="n">
-        <v>427413.8439742167</v>
+        <v>427414.1388457234</v>
       </c>
       <c r="F4" t="n">
-        <v>7565268.976399239</v>
+        <v>7565271.700783777</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -649,13 +649,13 @@
         <v>-238.6032505403273</v>
       </c>
       <c r="L4" t="n">
-        <v>115.2594814683544</v>
+        <v>115.554352975043</v>
       </c>
       <c r="M4" t="n">
-        <v>78.8316542794928</v>
+        <v>81.5560388173908</v>
       </c>
       <c r="N4" t="n">
-        <v>139.639456403967</v>
+        <v>141.436190414846</v>
       </c>
       <c r="O4" t="n">
         <v>292.3682268329195</v>
@@ -675,10 +675,10 @@
         <v>7565190.14474496</v>
       </c>
       <c r="E5" t="n">
-        <v>427372.1097566608</v>
+        <v>427355.6353443302</v>
       </c>
       <c r="F5" t="n">
-        <v>7565195.047933325</v>
+        <v>7565183.392725361</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -698,13 +698,13 @@
         <v>-238.6032505403273</v>
       </c>
       <c r="L5" t="n">
-        <v>73.52526391245192</v>
+        <v>57.05085158185102</v>
       </c>
       <c r="M5" t="n">
-        <v>4.903188365511596</v>
+        <v>-6.752019599080086</v>
       </c>
       <c r="N5" t="n">
-        <v>73.6885723131029</v>
+        <v>57.44901596094362</v>
       </c>
       <c r="O5" t="n">
         <v>292.3682268329195</v>
@@ -724,10 +724,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E6" t="n">
-        <v>423345.2175137642</v>
+        <v>423353.5116568918</v>
       </c>
       <c r="F6" t="n">
-        <v>7575958.59723224</v>
+        <v>7575975.130855825</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -747,13 +747,13 @@
         <v>51.46934933727607</v>
       </c>
       <c r="L6" t="n">
-        <v>142.0073192535783</v>
+        <v>150.3014623811468</v>
       </c>
       <c r="M6" t="n">
-        <v>113.2155871530995</v>
+        <v>129.7492107376456</v>
       </c>
       <c r="N6" t="n">
-        <v>181.6145586014755</v>
+        <v>198.5582717515271</v>
       </c>
       <c r="O6" t="n">
         <v>70.70226986800864</v>
@@ -773,10 +773,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E7" t="n">
-        <v>423134.9902547081</v>
+        <v>423137.5854939703</v>
       </c>
       <c r="F7" t="n">
-        <v>7575850.502899003</v>
+        <v>7575829.747756956</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -796,13 +796,13 @@
         <v>51.46934933727607</v>
       </c>
       <c r="L7" t="n">
-        <v>-68.21993980254047</v>
+        <v>-65.62470054038567</v>
       </c>
       <c r="M7" t="n">
-        <v>5.121253916062415</v>
+        <v>-15.63388813100755</v>
       </c>
       <c r="N7" t="n">
-        <v>68.41189537160207</v>
+        <v>67.46124649832787</v>
       </c>
       <c r="O7" t="n">
         <v>70.70226986800864</v>
@@ -822,10 +822,10 @@
         <v>7575873.846506964</v>
       </c>
       <c r="E8" t="n">
-        <v>423173.3200592548</v>
+        <v>423202.3045262014</v>
       </c>
       <c r="F8" t="n">
-        <v>7575905.551938306</v>
+        <v>7575888.929046118</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -845,13 +845,13 @@
         <v>79.93421121453866</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.43744338338729</v>
+        <v>18.54702356329653</v>
       </c>
       <c r="M8" t="n">
-        <v>31.70543134119362</v>
+        <v>15.08253915328532</v>
       </c>
       <c r="N8" t="n">
-        <v>33.37925404967219</v>
+        <v>23.90554476199741</v>
       </c>
       <c r="O8" t="n">
         <v>85.03944663178758</v>
@@ -871,10 +871,10 @@
         <v>7575799.685660966</v>
       </c>
       <c r="E9" t="n">
-        <v>423072.1473831444</v>
+        <v>423085.2376868458</v>
       </c>
       <c r="F9" t="n">
-        <v>7575687.593898818</v>
+        <v>7575631.643760839</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -894,13 +894,13 @@
         <v>8.066041965968907</v>
       </c>
       <c r="L9" t="n">
-        <v>-66.83305308315903</v>
+        <v>-53.74274938175222</v>
       </c>
       <c r="M9" t="n">
-        <v>-112.0917621478438</v>
+        <v>-168.0419001262635</v>
       </c>
       <c r="N9" t="n">
-        <v>130.503716904252</v>
+        <v>176.4266513573132</v>
       </c>
       <c r="O9" t="n">
         <v>29.20368380048389</v>
@@ -920,10 +920,10 @@
         <v>7575799.685660966</v>
       </c>
       <c r="E10" t="n">
-        <v>423085.8327601275</v>
+        <v>423058.2304140095</v>
       </c>
       <c r="F10" t="n">
-        <v>7575828.344453873</v>
+        <v>7575825.042518184</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>-118.8013290343806</v>
       </c>
       <c r="L10" t="n">
-        <v>-53.1476761000813</v>
+        <v>-80.75002221803879</v>
       </c>
       <c r="M10" t="n">
-        <v>28.65879290737212</v>
+        <v>25.3568572178483</v>
       </c>
       <c r="N10" t="n">
-        <v>60.38213217291018</v>
+        <v>84.63767657597947</v>
       </c>
       <c r="O10" t="n">
         <v>232.409373769579</v>
@@ -969,10 +969,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E11" t="n">
-        <v>436728.956544196</v>
+        <v>436728.6144300997</v>
       </c>
       <c r="F11" t="n">
-        <v>7551742.193259683</v>
+        <v>7551692.749935652</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>374.6397789372131</v>
       </c>
       <c r="L11" t="n">
-        <v>357.51174231607</v>
+        <v>357.1696282197954</v>
       </c>
       <c r="M11" t="n">
-        <v>-139.5192169202492</v>
+        <v>-188.9625409515575</v>
       </c>
       <c r="N11" t="n">
-        <v>383.7711007669957</v>
+        <v>404.0754696904229</v>
       </c>
       <c r="O11" t="n">
         <v>501.0799395822819</v>
@@ -1018,10 +1018,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E12" t="n">
-        <v>436655.0930400374</v>
+        <v>436672.2016220834</v>
       </c>
       <c r="F12" t="n">
-        <v>7551596.455663999</v>
+        <v>7551533.199732701</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -1041,13 +1041,13 @@
         <v>291.3290823537391</v>
       </c>
       <c r="L12" t="n">
-        <v>283.6482381575042</v>
+        <v>300.7568202034454</v>
       </c>
       <c r="M12" t="n">
-        <v>-285.2568126050755</v>
+        <v>-348.5127439023927</v>
       </c>
       <c r="N12" t="n">
-        <v>402.2782272848773</v>
+        <v>460.3431302422817</v>
       </c>
       <c r="O12" t="n">
         <v>493.3693883152939</v>
@@ -1067,10 +1067,10 @@
         <v>7551175.717375342</v>
       </c>
       <c r="E13" t="n">
-        <v>436815.3626360837</v>
+        <v>436855.8192415875</v>
       </c>
       <c r="F13" t="n">
-        <v>7551347.7963609</v>
+        <v>7551338.74790269</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>-138.1984906578436</v>
       </c>
       <c r="L13" t="n">
-        <v>-24.64986015472095</v>
+        <v>15.80674534913851</v>
       </c>
       <c r="M13" t="n">
-        <v>172.0789855578914</v>
+        <v>163.0305273476988</v>
       </c>
       <c r="N13" t="n">
-        <v>173.8355339862374</v>
+        <v>163.7950122738824</v>
       </c>
       <c r="O13" t="n">
         <v>226.2596993081239</v>
@@ -1116,10 +1116,10 @@
         <v>7551175.717375342</v>
       </c>
       <c r="E14" t="n">
-        <v>436764.9588795751</v>
+        <v>436768.2080330563</v>
       </c>
       <c r="F14" t="n">
-        <v>7551333.445113176</v>
+        <v>7551311.339026383</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1139,13 +1139,13 @@
         <v>-157.9199971579947</v>
       </c>
       <c r="L14" t="n">
-        <v>-75.05361666326644</v>
+        <v>-71.80446318205213</v>
       </c>
       <c r="M14" t="n">
-        <v>157.7277378346771</v>
+        <v>135.6216510413215</v>
       </c>
       <c r="N14" t="n">
-        <v>174.674224362615</v>
+        <v>153.457203037318</v>
       </c>
       <c r="O14" t="n">
         <v>159.356240622995</v>
@@ -1165,10 +1165,10 @@
         <v>7575991.503320962</v>
       </c>
       <c r="E15" t="n">
-        <v>423564.9736150475</v>
+        <v>423576.5032011128</v>
       </c>
       <c r="F15" t="n">
-        <v>7575974.535060006</v>
+        <v>7575953.662054488</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1188,13 +1188,13 @@
         <v>172.3460876288203</v>
       </c>
       <c r="L15" t="n">
-        <v>429.1956472908496</v>
+        <v>440.7252333562355</v>
       </c>
       <c r="M15" t="n">
-        <v>-16.96826095599681</v>
+        <v>-37.84126647468656</v>
       </c>
       <c r="N15" t="n">
-        <v>429.5309366428478</v>
+        <v>442.3468014638701</v>
       </c>
       <c r="O15" t="n">
         <v>295.9951381360138</v>
@@ -1214,10 +1214,10 @@
         <v>7575991.503320962</v>
       </c>
       <c r="E16" t="n">
-        <v>423131.0679915174</v>
+        <v>423139.2488383075</v>
       </c>
       <c r="F16" t="n">
-        <v>7576060.035267306</v>
+        <v>7576021.202765297</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1237,13 +1237,13 @@
         <v>197.591025212314</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.709976239246316</v>
+        <v>3.470870550838299</v>
       </c>
       <c r="M16" t="n">
-        <v>68.5319463443011</v>
+        <v>29.69944433495402</v>
       </c>
       <c r="N16" t="n">
-        <v>68.69360629572762</v>
+        <v>29.90157079796493</v>
       </c>
       <c r="O16" t="n">
         <v>198.4984437110167</v>
@@ -1263,10 +1263,10 @@
         <v>7576139.073012095</v>
       </c>
       <c r="E17" t="n">
-        <v>423535.3769312144</v>
+        <v>423532.2933577883</v>
       </c>
       <c r="F17" t="n">
-        <v>7576011.596126598</v>
+        <v>7575977.837116087</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -1286,13 +1286,13 @@
         <v>290.8689230948686</v>
       </c>
       <c r="L17" t="n">
-        <v>-38.35505572933471</v>
+        <v>-41.43862915539648</v>
       </c>
       <c r="M17" t="n">
-        <v>-127.4768854966387</v>
+        <v>-161.2358960080892</v>
       </c>
       <c r="N17" t="n">
-        <v>133.1219990682363</v>
+        <v>166.475746425147</v>
       </c>
       <c r="O17" t="n">
         <v>311.4175416521936</v>
@@ -1312,10 +1312,10 @@
         <v>7576139.073012095</v>
       </c>
       <c r="E18" t="n">
-        <v>423541.294780854</v>
+        <v>423559.1807201523</v>
       </c>
       <c r="F18" t="n">
-        <v>7576006.415389378</v>
+        <v>7575984.737861137</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1335,13 +1335,13 @@
         <v>319.9157787615744</v>
       </c>
       <c r="L18" t="n">
-        <v>-32.43720608972944</v>
+        <v>-14.55126679135719</v>
       </c>
       <c r="M18" t="n">
-        <v>-132.6576227173209</v>
+        <v>-154.3351509580389</v>
       </c>
       <c r="N18" t="n">
-        <v>136.5657980752086</v>
+        <v>155.0196058131806</v>
       </c>
       <c r="O18" t="n">
         <v>375.8683418793818</v>
@@ -1361,10 +1361,10 @@
         <v>7576078.907450005</v>
       </c>
       <c r="E19" t="n">
-        <v>423285.7809126838</v>
+        <v>423301.1074041504</v>
       </c>
       <c r="F19" t="n">
-        <v>7575988.071650603</v>
+        <v>7575967.060583315</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1384,13 +1384,13 @@
         <v>231.7180640054867</v>
       </c>
       <c r="L19" t="n">
-        <v>-367.6702376646572</v>
+        <v>-352.343746197992</v>
       </c>
       <c r="M19" t="n">
-        <v>-90.83579940255731</v>
+        <v>-111.8468666905537</v>
       </c>
       <c r="N19" t="n">
-        <v>378.7248950326439</v>
+        <v>369.6699028502719</v>
       </c>
       <c r="O19" t="n">
         <v>450.737986047245</v>
@@ -1410,10 +1410,10 @@
         <v>7576078.907450005</v>
       </c>
       <c r="E20" t="n">
-        <v>423567.7078320417</v>
+        <v>423564.2986237979</v>
       </c>
       <c r="F20" t="n">
-        <v>7575869.014129656</v>
+        <v>7575862.796868904</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1433,13 +1433,13 @@
         <v>259.7502166720417</v>
       </c>
       <c r="L20" t="n">
-        <v>-85.74331830674782</v>
+        <v>-89.15252655051881</v>
       </c>
       <c r="M20" t="n">
-        <v>-209.8933203490451</v>
+        <v>-216.1105811009184</v>
       </c>
       <c r="N20" t="n">
-        <v>226.7313885667336</v>
+        <v>233.7775785958046</v>
       </c>
       <c r="O20" t="n">
         <v>379.7563264253996</v>
@@ -1459,10 +1459,10 @@
         <v>7575777.812245356</v>
       </c>
       <c r="E21" t="n">
-        <v>423100.6801893633</v>
+        <v>423129.7949695459</v>
       </c>
       <c r="F21" t="n">
-        <v>7575745.071519847</v>
+        <v>7575715.610932454</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-13.80737364385277</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.739436230331194</v>
+        <v>27.37534395232797</v>
       </c>
       <c r="M21" t="n">
-        <v>-32.74072550889105</v>
+        <v>-62.20131290145218</v>
       </c>
       <c r="N21" t="n">
-        <v>32.78689898797899</v>
+        <v>67.95890510575211</v>
       </c>
       <c r="O21" t="n">
         <v>66.08694357596609</v>
@@ -1508,10 +1508,10 @@
         <v>7575777.812245356</v>
       </c>
       <c r="E22" t="n">
-        <v>423210.2916531118</v>
+        <v>423156.1429416027</v>
       </c>
       <c r="F22" t="n">
-        <v>7575872.733263986</v>
+        <v>7575874.071536951</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-140.6747446442023</v>
       </c>
       <c r="L22" t="n">
-        <v>107.8720275182277</v>
+        <v>53.72331600915641</v>
       </c>
       <c r="M22" t="n">
-        <v>94.92101863026619</v>
+        <v>96.25929159484804</v>
       </c>
       <c r="N22" t="n">
-        <v>143.6884619539809</v>
+        <v>110.2363184316388</v>
       </c>
       <c r="O22" t="n">
         <v>275.0137022353057</v>
@@ -1557,10 +1557,10 @@
         <v>7572588.418815132</v>
       </c>
       <c r="E23" t="n">
-        <v>431564.2597984492</v>
+        <v>431573.1829613493</v>
       </c>
       <c r="F23" t="n">
-        <v>7572648.863221186</v>
+        <v>7572627.86799368</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>52.55574313178658</v>
       </c>
       <c r="L23" t="n">
-        <v>-268.0819614329957</v>
+        <v>-259.1587985329679</v>
       </c>
       <c r="M23" t="n">
-        <v>60.44440605398268</v>
+        <v>39.44917854759842</v>
       </c>
       <c r="N23" t="n">
-        <v>274.8116887415471</v>
+        <v>262.1440835592742</v>
       </c>
       <c r="O23" t="n">
         <v>754.6914960042363</v>
@@ -1606,10 +1606,10 @@
         <v>7572588.418815132</v>
       </c>
       <c r="E24" t="n">
-        <v>431684.9857930312</v>
+        <v>431581.5454415124</v>
       </c>
       <c r="F24" t="n">
-        <v>7572621.502035769</v>
+        <v>7572683.221778878</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>52.55574313178658</v>
       </c>
       <c r="L24" t="n">
-        <v>-147.355966851057</v>
+        <v>-250.7963183698594</v>
       </c>
       <c r="M24" t="n">
-        <v>33.08322063647211</v>
+        <v>94.80296374578029</v>
       </c>
       <c r="N24" t="n">
-        <v>151.0241055404445</v>
+        <v>268.1163837643265</v>
       </c>
       <c r="O24" t="n">
         <v>754.6914960042363</v>
@@ -1655,10 +1655,10 @@
         <v>7572432.194261415</v>
       </c>
       <c r="E25" t="n">
-        <v>431337.7221721574</v>
+        <v>431343.8920045323</v>
       </c>
       <c r="F25" t="n">
-        <v>7572493.076667845</v>
+        <v>7572489.716513563</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>-342.3371700854041</v>
       </c>
       <c r="L25" t="n">
-        <v>-152.768838052405</v>
+        <v>-146.5990056775045</v>
       </c>
       <c r="M25" t="n">
-        <v>60.88240643031895</v>
+        <v>57.52225214801729</v>
       </c>
       <c r="N25" t="n">
-        <v>164.4535961681243</v>
+        <v>157.4804049963457</v>
       </c>
       <c r="O25" t="n">
         <v>386.858176231054</v>
@@ -1704,10 +1704,10 @@
         <v>7572432.194261415</v>
       </c>
       <c r="E26" t="n">
-        <v>431491.5116865657</v>
+        <v>431463.8377862002</v>
       </c>
       <c r="F26" t="n">
-        <v>7572831.900540603</v>
+        <v>7572833.734863682</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1727,13 +1727,13 @@
         <v>-339.633996585384</v>
       </c>
       <c r="L26" t="n">
-        <v>1.020676355925389</v>
+        <v>-26.65322400961304</v>
       </c>
       <c r="M26" t="n">
-        <v>399.7062791883945</v>
+        <v>401.5406022667885</v>
       </c>
       <c r="N26" t="n">
-        <v>399.7075823684789</v>
+        <v>402.4242159946166</v>
       </c>
       <c r="O26" t="n">
         <v>543.7986522844539</v>
@@ -1753,10 +1753,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E27" t="n">
-        <v>431343.3847510753</v>
+        <v>431360.949949498</v>
       </c>
       <c r="F27" t="n">
-        <v>7572553.4685775</v>
+        <v>7572556.145744511</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L27" t="n">
-        <v>-55.68773995118681</v>
+        <v>-38.12254152848618</v>
       </c>
       <c r="M27" t="n">
-        <v>-52.56012560799718</v>
+        <v>-49.88295859657228</v>
       </c>
       <c r="N27" t="n">
-        <v>76.57474247295546</v>
+        <v>62.78246356219623</v>
       </c>
       <c r="O27" t="n">
         <v>327.2017929472251</v>
@@ -1802,10 +1802,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E28" t="n">
-        <v>431893.717958565</v>
+        <v>431822.4865063087</v>
       </c>
       <c r="F28" t="n">
-        <v>7572623.390796538</v>
+        <v>7572616.57535896</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L28" t="n">
-        <v>494.6454675385612</v>
+        <v>423.4140152822365</v>
       </c>
       <c r="M28" t="n">
-        <v>17.36209343001246</v>
+        <v>10.54665585234761</v>
       </c>
       <c r="N28" t="n">
-        <v>494.9500791440631</v>
+        <v>423.5453461993106</v>
       </c>
       <c r="O28" t="n">
         <v>327.2017929472251</v>
@@ -1851,10 +1851,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E29" t="n">
-        <v>431564.2597984492</v>
+        <v>431573.1829613493</v>
       </c>
       <c r="F29" t="n">
-        <v>7572648.863221186</v>
+        <v>7572627.86799368</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1874,13 +1874,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L29" t="n">
-        <v>165.1873074227478</v>
+        <v>174.1104703227757</v>
       </c>
       <c r="M29" t="n">
-        <v>42.83451807871461</v>
+        <v>21.83929057233036</v>
       </c>
       <c r="N29" t="n">
-        <v>170.6506445127388</v>
+        <v>175.4748144000181</v>
       </c>
       <c r="O29" t="n">
         <v>327.2017929472251</v>
@@ -1900,10 +1900,10 @@
         <v>7572811.891299687</v>
       </c>
       <c r="E30" t="n">
-        <v>431403.7214930956</v>
+        <v>431428.360636994</v>
       </c>
       <c r="F30" t="n">
-        <v>7572763.201128758</v>
+        <v>7572736.86083356</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-40.39413597962508</v>
       </c>
       <c r="L30" t="n">
-        <v>-66.02181356342044</v>
+        <v>-41.382669665094</v>
       </c>
       <c r="M30" t="n">
-        <v>-48.69017092883587</v>
+        <v>-75.03046612720937</v>
       </c>
       <c r="N30" t="n">
-        <v>82.03421610085819</v>
+        <v>85.68603267672394</v>
       </c>
       <c r="O30" t="n">
         <v>248.7997651205121</v>
@@ -1949,10 +1949,10 @@
         <v>7572811.891299687</v>
       </c>
       <c r="E31" t="n">
-        <v>431403.4761698825</v>
+        <v>431407.3418239824</v>
       </c>
       <c r="F31" t="n">
-        <v>7572854.335458882</v>
+        <v>7572848.735938698</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1972,13 +1972,13 @@
         <v>-198.6053178128786</v>
       </c>
       <c r="L31" t="n">
-        <v>-66.26713677658699</v>
+        <v>-62.40148267662153</v>
       </c>
       <c r="M31" t="n">
-        <v>42.44415919482708</v>
+        <v>36.84463901072741</v>
       </c>
       <c r="N31" t="n">
-        <v>78.6945999819728</v>
+        <v>72.46704398601831</v>
       </c>
       <c r="O31" t="n">
         <v>263.4650052416124</v>
@@ -1998,10 +1998,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E32" t="n">
-        <v>431359.0415229737</v>
+        <v>431429.1654762634</v>
       </c>
       <c r="F32" t="n">
-        <v>7572998.312960179</v>
+        <v>7572988.280392429</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2021,13 +2021,13 @@
         <v>-1.736544883344322</v>
       </c>
       <c r="L32" t="n">
-        <v>-123.8937664703699</v>
+        <v>-53.76981318066828</v>
       </c>
       <c r="M32" t="n">
-        <v>-10.44711243826896</v>
+        <v>-20.4796801880002</v>
       </c>
       <c r="N32" t="n">
-        <v>124.3334529742996</v>
+        <v>57.53790150923768</v>
       </c>
       <c r="O32" t="n">
         <v>186.3177717137041</v>
@@ -2047,10 +2047,10 @@
         <v>7573010.178347088</v>
       </c>
       <c r="E33" t="n">
-        <v>431308.4569446451</v>
+        <v>431321.994604104</v>
       </c>
       <c r="F33" t="n">
-        <v>7572861.959518205</v>
+        <v>7572860.576207945</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2070,13 +2070,13 @@
         <v>235.6469155880623</v>
       </c>
       <c r="L33" t="n">
-        <v>-246.4492235940415</v>
+        <v>-232.9115641352255</v>
       </c>
       <c r="M33" t="n">
-        <v>-148.2188288830221</v>
+        <v>-149.6021391432732</v>
       </c>
       <c r="N33" t="n">
-        <v>287.5865800859985</v>
+        <v>276.8187073594567</v>
       </c>
       <c r="O33" t="n">
         <v>339.6407266060326</v>
@@ -2096,10 +2096,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E34" t="n">
-        <v>431556.9461874601</v>
+        <v>431559.3632616213</v>
       </c>
       <c r="F34" t="n">
-        <v>7572988.944086461</v>
+        <v>7572992.838871538</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-4.439718383364379</v>
       </c>
       <c r="L34" t="n">
-        <v>74.01089801604394</v>
+        <v>76.42797217727639</v>
       </c>
       <c r="M34" t="n">
-        <v>-19.8159861555323</v>
+        <v>-15.92120107915252</v>
       </c>
       <c r="N34" t="n">
-        <v>76.61779383705527</v>
+        <v>78.0686849827339</v>
       </c>
       <c r="O34" t="n">
         <v>58.37514866546023</v>
@@ -2145,10 +2145,10 @@
         <v>7573010.178347088</v>
       </c>
       <c r="E35" t="n">
-        <v>431407.7672119565</v>
+        <v>431410.8811740221</v>
       </c>
       <c r="F35" t="n">
-        <v>7573037.564253531</v>
+        <v>7573008.06072898</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2168,13 +2168,13 @@
         <v>-0.3182704118080437</v>
       </c>
       <c r="L35" t="n">
-        <v>-147.1389562826953</v>
+        <v>-144.0249942170922</v>
       </c>
       <c r="M35" t="n">
-        <v>27.38590644299984</v>
+        <v>-2.117618108168244</v>
       </c>
       <c r="N35" t="n">
-        <v>149.6658288577111</v>
+        <v>144.0405611822083</v>
       </c>
       <c r="O35" t="n">
         <v>258.2807538360374</v>
@@ -2194,10 +2194,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E36" t="n">
-        <v>431646.4721563709</v>
+        <v>431625.8138198419</v>
       </c>
       <c r="F36" t="n">
-        <v>7573009.078015353</v>
+        <v>7573016.970387177</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2217,13 +2217,13 @@
         <v>-2.505089542518059</v>
       </c>
       <c r="L36" t="n">
-        <v>25.57012911571655</v>
+        <v>4.91179258673219</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8283102102577686</v>
+        <v>8.720682034268975</v>
       </c>
       <c r="N36" t="n">
-        <v>25.58354159999809</v>
+        <v>10.00879620923011</v>
       </c>
       <c r="O36" t="n">
         <v>220.7867586573993</v>
@@ -2243,10 +2243,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E37" t="n">
-        <v>431457.1673985641</v>
+        <v>431423.7878298023</v>
       </c>
       <c r="F37" t="n">
-        <v>7572843.728121244</v>
+        <v>7572851.192490887</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2266,13 +2266,13 @@
         <v>155.9642694753905</v>
       </c>
       <c r="L37" t="n">
-        <v>-163.7346286911634</v>
+        <v>-197.1141974529019</v>
       </c>
       <c r="M37" t="n">
-        <v>-164.521583897993</v>
+        <v>-157.0572142554447</v>
       </c>
       <c r="N37" t="n">
-        <v>232.1128609123964</v>
+        <v>252.0336790732188</v>
       </c>
       <c r="O37" t="n">
         <v>426.2182579201024</v>
@@ -2292,10 +2292,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E38" t="n">
-        <v>431271.1165537863</v>
+        <v>431270.807153857</v>
       </c>
       <c r="F38" t="n">
-        <v>7573034.536094138</v>
+        <v>7573007.026914005</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2315,13 +2315,13 @@
         <v>-4.950085857883096</v>
       </c>
       <c r="L38" t="n">
-        <v>-349.7854734689463</v>
+        <v>-350.0948733981932</v>
       </c>
       <c r="M38" t="n">
-        <v>26.28638899605721</v>
+        <v>-1.222791137173772</v>
       </c>
       <c r="N38" t="n">
-        <v>350.7717943283738</v>
+        <v>350.0970088387818</v>
       </c>
       <c r="O38" t="n">
         <v>79.91412310693956</v>
@@ -2341,10 +2341,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E39" t="n">
-        <v>431182.5148955236</v>
+        <v>431198.7382709545</v>
       </c>
       <c r="F39" t="n">
-        <v>7573003.306315312</v>
+        <v>7572989.380434804</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L39" t="n">
-        <v>-625.4704482574598</v>
+        <v>-609.2470728266053</v>
       </c>
       <c r="M39" t="n">
-        <v>10.63210545480251</v>
+        <v>-3.293775053694844</v>
       </c>
       <c r="N39" t="n">
-        <v>625.5608070441991</v>
+        <v>609.2559763366226</v>
       </c>
       <c r="O39" t="n">
         <v>267.6322291765587</v>
@@ -2390,10 +2390,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E40" t="n">
-        <v>431194.0805247679</v>
+        <v>431198.7668130188</v>
       </c>
       <c r="F40" t="n">
-        <v>7572977.229867951</v>
+        <v>7572978.159810477</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L40" t="n">
-        <v>-613.9048190131434</v>
+        <v>-609.2185307623004</v>
       </c>
       <c r="M40" t="n">
-        <v>-15.44434190634638</v>
+        <v>-14.51439938042313</v>
       </c>
       <c r="N40" t="n">
-        <v>614.0990591952414</v>
+        <v>609.3914062518032</v>
       </c>
       <c r="O40" t="n">
         <v>267.6322291765587</v>
@@ -2439,10 +2439,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E41" t="n">
-        <v>431232.8101322232</v>
+        <v>431172.7515213756</v>
       </c>
       <c r="F41" t="n">
-        <v>7572949.64109678</v>
+        <v>7572919.322711043</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L41" t="n">
-        <v>-575.1752115578856</v>
+        <v>-635.2338224054547</v>
       </c>
       <c r="M41" t="n">
-        <v>-43.03311307728291</v>
+        <v>-73.3514988142997</v>
       </c>
       <c r="N41" t="n">
-        <v>576.7827778390932</v>
+        <v>639.45480802489</v>
       </c>
       <c r="O41" t="n">
         <v>267.6322291765587</v>
@@ -2488,10 +2488,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E42" t="n">
-        <v>431422.8944435609</v>
+        <v>431447.76615669</v>
       </c>
       <c r="F42" t="n">
-        <v>7573067.581206219</v>
+        <v>7573059.902991344</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>81.3883237731643</v>
       </c>
       <c r="L42" t="n">
-        <v>-109.9722956949845</v>
+        <v>-85.10058256587945</v>
       </c>
       <c r="M42" t="n">
-        <v>-24.30373505409807</v>
+        <v>-31.98194992914796</v>
       </c>
       <c r="N42" t="n">
-        <v>112.6258290003004</v>
+        <v>90.91179392313515</v>
       </c>
       <c r="O42" t="n">
         <v>249.8678253846014</v>
@@ -2537,10 +2537,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E43" t="n">
-        <v>431487.7071994896</v>
+        <v>431498.191169219</v>
       </c>
       <c r="F43" t="n">
-        <v>7573063.182220836</v>
+        <v>7573001.221903446</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2560,13 +2560,13 @@
         <v>239.5995056064179</v>
       </c>
       <c r="L43" t="n">
-        <v>-45.15953976620222</v>
+        <v>-34.67557003680849</v>
       </c>
       <c r="M43" t="n">
-        <v>-28.70272043719888</v>
+        <v>-90.66303782723844</v>
       </c>
       <c r="N43" t="n">
-        <v>53.50915989240715</v>
+        <v>97.06792253592779</v>
       </c>
       <c r="O43" t="n">
         <v>390.7116270293674</v>
@@ -2586,10 +2586,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E44" t="n">
-        <v>431654.5468742641</v>
+        <v>431682.3739984427</v>
       </c>
       <c r="F44" t="n">
-        <v>7572772.954120012</v>
+        <v>7572756.564538092</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2609,13 +2609,13 @@
         <v>78.68515027314425</v>
       </c>
       <c r="L44" t="n">
-        <v>121.6801350082969</v>
+        <v>149.5072591868229</v>
       </c>
       <c r="M44" t="n">
-        <v>-318.9308212613687</v>
+        <v>-335.3204031810164</v>
       </c>
       <c r="N44" t="n">
-        <v>341.3545429697523</v>
+        <v>367.1405634617827</v>
       </c>
       <c r="O44" t="n">
         <v>79.11903851201573</v>
@@ -2635,10 +2635,10 @@
         <v>7573097.266546663</v>
       </c>
       <c r="E45" t="n">
-        <v>431609.5237310472</v>
+        <v>431590.1321231126</v>
       </c>
       <c r="F45" t="n">
-        <v>7573189.583017542</v>
+        <v>7573149.754730494</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>244.9811109959458</v>
       </c>
       <c r="L45" t="n">
-        <v>341.8711519360659</v>
+        <v>322.4795440014568</v>
       </c>
       <c r="M45" t="n">
-        <v>92.31647087913007</v>
+        <v>52.48818383086473</v>
       </c>
       <c r="N45" t="n">
-        <v>354.1161042958508</v>
+        <v>326.7232249798752</v>
       </c>
       <c r="O45" t="n">
         <v>248.7971086510134</v>
@@ -2684,10 +2684,10 @@
         <v>7573097.266546663</v>
       </c>
       <c r="E46" t="n">
-        <v>431501.6676691401</v>
+        <v>431494.4406450361</v>
       </c>
       <c r="F46" t="n">
-        <v>7573129.636403996</v>
+        <v>7573091.148151097</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2707,13 +2707,13 @@
         <v>244.9811109959458</v>
       </c>
       <c r="L46" t="n">
-        <v>234.01509002893</v>
+        <v>226.7880659248913</v>
       </c>
       <c r="M46" t="n">
-        <v>32.3698573326692</v>
+        <v>-6.118395566008985</v>
       </c>
       <c r="N46" t="n">
-        <v>236.243243342504</v>
+        <v>226.8705833955892</v>
       </c>
       <c r="O46" t="n">
         <v>248.7971086510134</v>
@@ -2733,10 +2733,10 @@
         <v>7572724.478707412</v>
       </c>
       <c r="E47" t="n">
-        <v>431082.4146470254</v>
+        <v>431087.983816359</v>
       </c>
       <c r="F47" t="n">
-        <v>7572673.291484335</v>
+        <v>7572637.381977076</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2756,13 +2756,13 @@
         <v>-47.34955058805645</v>
       </c>
       <c r="L47" t="n">
-        <v>-191.0904579538619</v>
+        <v>-185.5212886202498</v>
       </c>
       <c r="M47" t="n">
-        <v>-51.18722307682037</v>
+        <v>-87.0967303365469</v>
       </c>
       <c r="N47" t="n">
-        <v>197.8274372460323</v>
+        <v>204.9487471702016</v>
       </c>
       <c r="O47" t="n">
         <v>213.0375297656174</v>
@@ -2782,10 +2782,10 @@
         <v>7572724.478707412</v>
       </c>
       <c r="E48" t="n">
-        <v>430978.1971519697</v>
+        <v>430982.2689927752</v>
       </c>
       <c r="F48" t="n">
-        <v>7572712.460051375</v>
+        <v>7572682.783141512</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2805,13 +2805,13 @@
         <v>-47.34955058805645</v>
       </c>
       <c r="L48" t="n">
-        <v>-295.3079530096147</v>
+        <v>-291.2361122040311</v>
       </c>
       <c r="M48" t="n">
-        <v>-12.01865603774786</v>
+        <v>-41.69556589983404</v>
       </c>
       <c r="N48" t="n">
-        <v>295.5524237824527</v>
+        <v>294.2056989037201</v>
       </c>
       <c r="O48" t="n">
         <v>213.0375297656174</v>
@@ -2831,10 +2831,10 @@
         <v>7572713.370176846</v>
       </c>
       <c r="E49" t="n">
-        <v>431252.6307694678</v>
+        <v>431254.2182293824</v>
       </c>
       <c r="F49" t="n">
-        <v>7572517.695162885</v>
+        <v>7572502.762897204</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2854,13 +2854,13 @@
         <v>177.5071048457175</v>
       </c>
       <c r="L49" t="n">
-        <v>-11.83524934115121</v>
+        <v>-10.24778942659032</v>
       </c>
       <c r="M49" t="n">
-        <v>-195.6750139612705</v>
+        <v>-210.6072796424851</v>
       </c>
       <c r="N49" t="n">
-        <v>196.0326100823804</v>
+        <v>210.8564521814299</v>
       </c>
       <c r="O49" t="n">
         <v>256.3741306174417</v>
@@ -2880,10 +2880,10 @@
         <v>7572713.370176846</v>
       </c>
       <c r="E50" t="n">
-        <v>431485.1495668347</v>
+        <v>431526.4789429475</v>
       </c>
       <c r="F50" t="n">
-        <v>7572532.225068397</v>
+        <v>7572523.371481149</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2903,13 +2903,13 @@
         <v>177.5071048457175</v>
       </c>
       <c r="L50" t="n">
-        <v>220.6835480257287</v>
+        <v>262.012924138573</v>
       </c>
       <c r="M50" t="n">
-        <v>-181.1451084492728</v>
+        <v>-189.9986956967041</v>
       </c>
       <c r="N50" t="n">
-        <v>285.5079310357646</v>
+        <v>323.6514742467495</v>
       </c>
       <c r="O50" t="n">
         <v>256.3741306174417</v>
@@ -2929,10 +2929,10 @@
         <v>7572708.605144259</v>
       </c>
       <c r="E51" t="n">
-        <v>431968.2822237887</v>
+        <v>431987.2174370969</v>
       </c>
       <c r="F51" t="n">
-        <v>7572626.663900402</v>
+        <v>7572590.006013445</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2952,13 +2952,13 @@
         <v>172.7420722581446</v>
       </c>
       <c r="L51" t="n">
-        <v>244.6796692584758</v>
+        <v>263.6148825667333</v>
       </c>
       <c r="M51" t="n">
-        <v>-81.94124385621399</v>
+        <v>-118.5991308139637</v>
       </c>
       <c r="N51" t="n">
-        <v>258.035865710836</v>
+        <v>289.0649756378317</v>
       </c>
       <c r="O51" t="n">
         <v>666.8812030858763</v>
@@ -2978,10 +2978,10 @@
         <v>7572895.116790422</v>
       </c>
       <c r="E52" t="n">
-        <v>431689.4475158335</v>
+        <v>431659.7714047306</v>
       </c>
       <c r="F52" t="n">
-        <v>7573005.925314629</v>
+        <v>7573001.820899831</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>-115.3798270779662</v>
       </c>
       <c r="L52" t="n">
-        <v>95.31904465804109</v>
+        <v>65.64293355506379</v>
       </c>
       <c r="M52" t="n">
-        <v>110.808524207212</v>
+        <v>106.7041094088927</v>
       </c>
       <c r="N52" t="n">
-        <v>146.1651439690802</v>
+        <v>125.2787359868364</v>
       </c>
       <c r="O52" t="n">
         <v>319.0931785648741</v>
@@ -3027,10 +3027,10 @@
         <v>7572925.248191401</v>
       </c>
       <c r="E53" t="n">
-        <v>431780.1039232748</v>
+        <v>431778.6216853223</v>
       </c>
       <c r="F53" t="n">
-        <v>7573015.284828978</v>
+        <v>7572970.887775124</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3050,13 +3050,13 @@
         <v>-85.24842609884217</v>
       </c>
       <c r="L53" t="n">
-        <v>614.76433020283</v>
+        <v>613.2820922503015</v>
       </c>
       <c r="M53" t="n">
-        <v>90.03663757629693</v>
+        <v>45.63958372268826</v>
       </c>
       <c r="N53" t="n">
-        <v>621.3226036414414</v>
+        <v>614.9779640582967</v>
       </c>
       <c r="O53" t="n">
         <v>156.5353395385589</v>
@@ -3076,10 +3076,10 @@
         <v>7572897.190743474</v>
       </c>
       <c r="E54" t="n">
-        <v>431495.1666539655</v>
+        <v>431485.640384702</v>
       </c>
       <c r="F54" t="n">
-        <v>7572969.858155548</v>
+        <v>7572935.039131017</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3099,13 +3099,13 @@
         <v>-114.3428505519405</v>
       </c>
       <c r="L54" t="n">
-        <v>-15.41054865374463</v>
+        <v>-24.9368179172161</v>
       </c>
       <c r="M54" t="n">
-        <v>72.66741207335144</v>
+        <v>37.84838754311204</v>
       </c>
       <c r="N54" t="n">
-        <v>74.28349606236699</v>
+        <v>45.32488640305665</v>
       </c>
       <c r="O54" t="n">
         <v>280.1262247509526</v>
@@ -3125,10 +3125,10 @@
         <v>7572897.190743474</v>
       </c>
       <c r="E55" t="n">
-        <v>431470.5724531114</v>
+        <v>431472.6824886345</v>
       </c>
       <c r="F55" t="n">
-        <v>7572984.954210997</v>
+        <v>7572968.759890504</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3148,13 +3148,13 @@
         <v>-113.3058740259148</v>
       </c>
       <c r="L55" t="n">
-        <v>-40.00474950781791</v>
+        <v>-37.89471398468595</v>
       </c>
       <c r="M55" t="n">
-        <v>87.76346752233803</v>
+        <v>71.56914702989161</v>
       </c>
       <c r="N55" t="n">
-        <v>96.45105605812587</v>
+        <v>80.98241879918996</v>
       </c>
       <c r="O55" t="n">
         <v>242.1022611606921</v>
@@ -3174,10 +3174,10 @@
         <v>7572838.982630525</v>
       </c>
       <c r="E56" t="n">
-        <v>431110.1226199355</v>
+        <v>431128.5256189479</v>
       </c>
       <c r="F56" t="n">
-        <v>7572806.543590663</v>
+        <v>7572756.126800856</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3197,13 +3197,13 @@
         <v>67.15437252447009</v>
       </c>
       <c r="L56" t="n">
-        <v>-72.4244399832096</v>
+        <v>-54.02144097088603</v>
       </c>
       <c r="M56" t="n">
-        <v>-32.43903986178339</v>
+        <v>-82.85582966916263</v>
       </c>
       <c r="N56" t="n">
-        <v>79.35736143569733</v>
+        <v>98.91109439661567</v>
       </c>
       <c r="O56" t="n">
         <v>134.6866149586132</v>
@@ -3223,10 +3223,10 @@
         <v>7572838.982630525</v>
       </c>
       <c r="E57" t="n">
-        <v>431344.0694461676</v>
+        <v>431332.9242936096</v>
       </c>
       <c r="F57" t="n">
-        <v>7573009.477917594</v>
+        <v>7572972.011183403</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>-13.30280514216671</v>
       </c>
       <c r="L57" t="n">
-        <v>161.5223862488638</v>
+        <v>150.377233690815</v>
       </c>
       <c r="M57" t="n">
-        <v>170.4952870691195</v>
+        <v>133.028552878648</v>
       </c>
       <c r="N57" t="n">
-        <v>234.8576679018776</v>
+        <v>200.7732758448924</v>
       </c>
       <c r="O57" t="n">
         <v>43.76809052837175</v>
@@ -3272,10 +3272,10 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E58" t="n">
-        <v>431302.4875480323</v>
+        <v>431308.0001016723</v>
       </c>
       <c r="F58" t="n">
-        <v>7572889.695234165</v>
+        <v>7572865.558560899</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3295,13 +3295,13 @@
         <v>-16.60757092169176</v>
       </c>
       <c r="L58" t="n">
-        <v>218.0286629004404</v>
+        <v>223.5412165403832</v>
       </c>
       <c r="M58" t="n">
-        <v>54.01736941933632</v>
+        <v>29.88069615419954</v>
       </c>
       <c r="N58" t="n">
-        <v>224.6205111852854</v>
+        <v>225.5294470684794</v>
       </c>
       <c r="O58" t="n">
         <v>140.7687643108115</v>
@@ -3321,10 +3321,10 @@
         <v>7572900.330810694</v>
       </c>
       <c r="E59" t="n">
-        <v>431448.7174213105</v>
+        <v>431478.9143147684</v>
       </c>
       <c r="F59" t="n">
-        <v>7572966.962546356</v>
+        <v>7572974.28554637</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3344,13 +3344,13 @@
         <v>-110.1658068061806</v>
       </c>
       <c r="L59" t="n">
-        <v>107.6136198267341</v>
+        <v>137.8105132845812</v>
       </c>
       <c r="M59" t="n">
-        <v>66.63173566199839</v>
+        <v>73.95473567582667</v>
       </c>
       <c r="N59" t="n">
-        <v>126.5720323355175</v>
+        <v>156.4002573547791</v>
       </c>
       <c r="O59" t="n">
         <v>118.8057846337766</v>
@@ -3370,10 +3370,10 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E60" t="n">
-        <v>431434.071077354</v>
+        <v>431481.5963135737</v>
       </c>
       <c r="F60" t="n">
-        <v>7572997.137014732</v>
+        <v>7572962.528926465</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3393,13 +3393,13 @@
         <v>-16.60757092169176</v>
       </c>
       <c r="L60" t="n">
-        <v>349.6121922220918</v>
+        <v>397.1374284417834</v>
       </c>
       <c r="M60" t="n">
-        <v>161.4591499865055</v>
+        <v>126.8510617194697</v>
       </c>
       <c r="N60" t="n">
-        <v>385.0944586263242</v>
+        <v>416.9044601928712</v>
       </c>
       <c r="O60" t="n">
         <v>140.7687643108115</v>
@@ -3419,10 +3419,10 @@
         <v>7572900.330810694</v>
       </c>
       <c r="E61" t="n">
-        <v>431473.6967475626</v>
+        <v>431458.2838305371</v>
       </c>
       <c r="F61" t="n">
-        <v>7572993.240306089</v>
+        <v>7572993.931262863</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3442,13 +3442,13 @@
         <v>-110.1658068061806</v>
       </c>
       <c r="L61" t="n">
-        <v>132.5929460788029</v>
+        <v>117.1800290532992</v>
       </c>
       <c r="M61" t="n">
-        <v>92.90949539467692</v>
+        <v>93.60045216884464</v>
       </c>
       <c r="N61" t="n">
-        <v>161.9044893891143</v>
+        <v>149.9740105989842</v>
       </c>
       <c r="O61" t="n">
         <v>118.8057846337766</v>
@@ -3468,10 +3468,10 @@
         <v>7572764.126975277</v>
       </c>
       <c r="E62" t="n">
-        <v>431475.4532652451</v>
+        <v>431495.5987206724</v>
       </c>
       <c r="F62" t="n">
-        <v>7573191.113507978</v>
+        <v>7573164.270031508</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3491,13 +3491,13 @@
         <v>-10.40445622289553</v>
       </c>
       <c r="L62" t="n">
-        <v>299.189740666654</v>
+        <v>319.335196093889</v>
       </c>
       <c r="M62" t="n">
-        <v>426.9865327002481</v>
+        <v>400.1430562306195</v>
       </c>
       <c r="N62" t="n">
-        <v>521.3751049173327</v>
+        <v>511.9467090566197</v>
       </c>
       <c r="O62" t="n">
         <v>134.4515548470226</v>
@@ -3517,10 +3517,10 @@
         <v>7572764.126975277</v>
       </c>
       <c r="E63" t="n">
-        <v>431190.7870053401</v>
+        <v>431197.7550020618</v>
       </c>
       <c r="F63" t="n">
-        <v>7572633.858008796</v>
+        <v>7572640.573876415</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3540,13 +3540,13 @@
         <v>228.2639032769948</v>
       </c>
       <c r="L63" t="n">
-        <v>14.52348076162161</v>
+        <v>21.49147748330142</v>
       </c>
       <c r="M63" t="n">
-        <v>-130.2689664810896</v>
+        <v>-123.5530988620594</v>
       </c>
       <c r="N63" t="n">
-        <v>131.0760661657361</v>
+        <v>125.4083404037908</v>
       </c>
       <c r="O63" t="n">
         <v>247.9334324040024</v>
@@ -3566,10 +3566,10 @@
         <v>7572571.746698914</v>
       </c>
       <c r="E64" t="n">
-        <v>431101.4789169083</v>
+        <v>431110.9615175441</v>
       </c>
       <c r="F64" t="n">
-        <v>7572602.90689563</v>
+        <v>7572602.593794607</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>35.88362691365182</v>
       </c>
       <c r="L64" t="n">
-        <v>-50.21816722548101</v>
+        <v>-40.73556658963207</v>
       </c>
       <c r="M64" t="n">
-        <v>31.16019671596587</v>
+        <v>30.84709569253027</v>
       </c>
       <c r="N64" t="n">
-        <v>59.10010303598519</v>
+        <v>51.09725724579029</v>
       </c>
       <c r="O64" t="n">
         <v>80.63863085208803</v>
@@ -3615,10 +3615,10 @@
         <v>7572571.746698914</v>
       </c>
       <c r="E65" t="n">
-        <v>431091.5352480169</v>
+        <v>431112.4566815916</v>
       </c>
       <c r="F65" t="n">
-        <v>7572874.449967128</v>
+        <v>7572824.474957219</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3638,13 +3638,13 @@
         <v>35.88362691365182</v>
       </c>
       <c r="L65" t="n">
-        <v>-60.16183611686574</v>
+        <v>-39.24040254217107</v>
       </c>
       <c r="M65" t="n">
-        <v>302.7032682141289</v>
+        <v>252.7282583052292</v>
       </c>
       <c r="N65" t="n">
-        <v>308.6239056075655</v>
+        <v>255.7564891408746</v>
       </c>
       <c r="O65" t="n">
         <v>80.63863085208803</v>
@@ -3664,10 +3664,10 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E66" t="n">
-        <v>437130.4901249759</v>
+        <v>437168.4616861833</v>
       </c>
       <c r="F66" t="n">
-        <v>7551803.261949539</v>
+        <v>7551807.012100852</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3687,13 +3687,13 @@
         <v>-82.08894705399871</v>
       </c>
       <c r="L66" t="n">
-        <v>-132.0564457488945</v>
+        <v>-94.08488454151666</v>
       </c>
       <c r="M66" t="n">
-        <v>45.03541259281337</v>
+        <v>48.78556390572339</v>
       </c>
       <c r="N66" t="n">
-        <v>139.5245256262699</v>
+        <v>105.9811150384348</v>
       </c>
       <c r="O66" t="n">
         <v>307.828237626313</v>
@@ -3713,10 +3713,10 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E67" t="n">
-        <v>437199.4286264525</v>
+        <v>437196.5675510662</v>
       </c>
       <c r="F67" t="n">
-        <v>7551856.983387974</v>
+        <v>7551862.400827857</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3736,13 +3736,13 @@
         <v>-82.08894705399871</v>
       </c>
       <c r="L67" t="n">
-        <v>-63.11794427229324</v>
+        <v>-65.97901965858182</v>
       </c>
       <c r="M67" t="n">
-        <v>98.75685102771968</v>
+        <v>104.1742909103632</v>
       </c>
       <c r="N67" t="n">
-        <v>117.2040550240116</v>
+        <v>123.3106399374543</v>
       </c>
       <c r="O67" t="n">
         <v>307.828237626313</v>
@@ -3762,10 +3762,10 @@
         <v>7551656.590566898</v>
       </c>
       <c r="E68" t="n">
-        <v>436976.2011117074</v>
+        <v>436972.5584072375</v>
       </c>
       <c r="F68" t="n">
-        <v>7551761.513285391</v>
+        <v>7551715.349832088</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3785,13 +3785,13 @@
         <v>154.0604905644432</v>
       </c>
       <c r="L68" t="n">
-        <v>-88.33817053033272</v>
+        <v>-91.980875000183</v>
       </c>
       <c r="M68" t="n">
-        <v>104.9227184932679</v>
+        <v>58.7592651899904</v>
       </c>
       <c r="N68" t="n">
-        <v>137.1583363440359</v>
+        <v>109.1472977744612</v>
       </c>
       <c r="O68" t="n">
         <v>249.9352273960128</v>
@@ -3811,10 +3811,10 @@
         <v>7551656.590566898</v>
       </c>
       <c r="E69" t="n">
-        <v>436902.0889594172</v>
+        <v>436901.9815308369</v>
       </c>
       <c r="F69" t="n">
-        <v>7551640.676066505</v>
+        <v>7551596.068623727</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3834,13 +3834,13 @@
         <v>59.7533853976056</v>
       </c>
       <c r="L69" t="n">
-        <v>-162.450322820514</v>
+        <v>-162.5577514008037</v>
       </c>
       <c r="M69" t="n">
-        <v>-15.91450039297342</v>
+        <v>-60.52194317057729</v>
       </c>
       <c r="N69" t="n">
-        <v>163.2279960890507</v>
+        <v>173.4587217341004</v>
       </c>
       <c r="O69" t="n">
         <v>110.8550100644146</v>
@@ -3860,10 +3860,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E70" t="n">
-        <v>437142.0086824864</v>
+        <v>437163.8086714132</v>
       </c>
       <c r="F70" t="n">
-        <v>7551827.32519981</v>
+        <v>7551773.747882385</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3883,13 +3883,13 @@
         <v>-3.104766381904483</v>
       </c>
       <c r="L70" t="n">
-        <v>205.0247938591056</v>
+        <v>226.8247827859013</v>
       </c>
       <c r="M70" t="n">
-        <v>147.890729191713</v>
+        <v>94.31341176666319</v>
       </c>
       <c r="N70" t="n">
-        <v>252.798010035335</v>
+        <v>245.6511789610208</v>
       </c>
       <c r="O70" t="n">
         <v>131.1528658289487</v>
@@ -3909,10 +3909,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E71" t="n">
-        <v>437150.1954629092</v>
+        <v>437172.8755321009</v>
       </c>
       <c r="F71" t="n">
-        <v>7551858.158956966</v>
+        <v>7551850.276129906</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-3.104766381904483</v>
       </c>
       <c r="L71" t="n">
-        <v>213.2115742819151</v>
+        <v>235.8916434735875</v>
       </c>
       <c r="M71" t="n">
-        <v>178.7244863482192</v>
+        <v>170.8416592879221</v>
       </c>
       <c r="N71" t="n">
-        <v>278.2114617125027</v>
+        <v>291.2588882917061</v>
       </c>
       <c r="O71" t="n">
         <v>131.1528658289487</v>
@@ -3958,10 +3958,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E72" t="n">
-        <v>436840.5270468239</v>
+        <v>436831.0762098479</v>
       </c>
       <c r="F72" t="n">
-        <v>7551764.68622436</v>
+        <v>7551703.351837537</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3981,13 +3981,13 @@
         <v>176.904394284822</v>
       </c>
       <c r="L72" t="n">
-        <v>-96.45684180338867</v>
+        <v>-105.9076787794475</v>
       </c>
       <c r="M72" t="n">
-        <v>85.25175374187529</v>
+        <v>23.91736691910774</v>
       </c>
       <c r="N72" t="n">
-        <v>128.7314407856499</v>
+        <v>108.5747524279648</v>
       </c>
       <c r="O72" t="n">
         <v>189.9761707271458</v>
@@ -4007,10 +4007,10 @@
         <v>7551621.677978849</v>
       </c>
       <c r="E73" t="n">
-        <v>436531.4852370548</v>
+        <v>436573.4861788786</v>
       </c>
       <c r="F73" t="n">
-        <v>7552177.590887354</v>
+        <v>7552101.432851181</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4030,13 +4030,13 @@
         <v>307.762112849392</v>
       </c>
       <c r="L73" t="n">
-        <v>-164.7263966192841</v>
+        <v>-122.7254547955235</v>
       </c>
       <c r="M73" t="n">
-        <v>555.9129085047171</v>
+        <v>479.7548723323271</v>
       </c>
       <c r="N73" t="n">
-        <v>579.8050944803327</v>
+        <v>495.2032661255129</v>
       </c>
       <c r="O73" t="n">
         <v>309.7855082423109</v>
@@ -4056,10 +4056,10 @@
         <v>7551621.677978849</v>
       </c>
       <c r="E74" t="n">
-        <v>436806.0564083065</v>
+        <v>436821.9380179661</v>
       </c>
       <c r="F74" t="n">
-        <v>7552023.789754514</v>
+        <v>7551991.829654825</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4079,13 +4079,13 @@
         <v>44.56230384903029</v>
       </c>
       <c r="L74" t="n">
-        <v>109.8447746323654</v>
+        <v>125.7263842920074</v>
       </c>
       <c r="M74" t="n">
-        <v>402.1117756646127</v>
+        <v>370.1516759758815</v>
       </c>
       <c r="N74" t="n">
-        <v>416.8450007403027</v>
+        <v>390.9212029743277</v>
       </c>
       <c r="O74" t="n">
         <v>125.3415805943317</v>
@@ -4105,10 +4105,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E75" t="n">
-        <v>436465.4512436059</v>
+        <v>436435.2932259033</v>
       </c>
       <c r="F75" t="n">
-        <v>7551744.662549108</v>
+        <v>7551776.048545738</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L75" t="n">
-        <v>71.33613882656209</v>
+        <v>41.17812112398678</v>
       </c>
       <c r="M75" t="n">
-        <v>-115.9993030512705</v>
+        <v>-84.61330642178655</v>
       </c>
       <c r="N75" t="n">
-        <v>136.1788640394061</v>
+        <v>94.10127142036323</v>
       </c>
       <c r="O75" t="n">
         <v>81.43167391216005</v>
@@ -4154,10 +4154,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E76" t="n">
-        <v>436426.0654116787</v>
+        <v>436432.0904209253</v>
       </c>
       <c r="F76" t="n">
-        <v>7551752.781158051</v>
+        <v>7551790.235237506</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L76" t="n">
-        <v>31.95030689943815</v>
+        <v>37.9753161460394</v>
       </c>
       <c r="M76" t="n">
-        <v>-107.8806941080838</v>
+        <v>-70.42661465331912</v>
       </c>
       <c r="N76" t="n">
-        <v>112.5125160691478</v>
+        <v>80.01270329090715</v>
       </c>
       <c r="O76" t="n">
         <v>81.43167391216005</v>
@@ -4203,10 +4203,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E77" t="n">
-        <v>436447.5354684781</v>
+        <v>436432.9332531295</v>
       </c>
       <c r="F77" t="n">
-        <v>7551725.744676208</v>
+        <v>7551756.689673586</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4226,13 +4226,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L77" t="n">
-        <v>53.42036369879497</v>
+        <v>38.81814835022669</v>
       </c>
       <c r="M77" t="n">
-        <v>-134.9171759514138</v>
+        <v>-103.9721785737202</v>
       </c>
       <c r="N77" t="n">
-        <v>145.1081652575632</v>
+        <v>110.9822623607293</v>
       </c>
       <c r="O77" t="n">
         <v>81.43167391216005</v>
@@ -4252,10 +4252,10 @@
         <v>7572493.236638571</v>
       </c>
       <c r="E78" t="n">
-        <v>425449.250770477</v>
+        <v>425441.2310195445</v>
       </c>
       <c r="F78" t="n">
-        <v>7572561.490305783</v>
+        <v>7572527.154053349</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-412.293681928888</v>
       </c>
       <c r="L78" t="n">
-        <v>-167.6171371780802</v>
+        <v>-175.6368881106027</v>
       </c>
       <c r="M78" t="n">
-        <v>68.25366721209139</v>
+        <v>33.9174147779122</v>
       </c>
       <c r="N78" t="n">
-        <v>180.9808491627616</v>
+        <v>178.881825489325</v>
       </c>
       <c r="O78" t="n">
         <v>478.1128851638249</v>
@@ -4301,10 +4301,10 @@
         <v>7572493.236638571</v>
       </c>
       <c r="E79" t="n">
-        <v>425361.5017275828</v>
+        <v>425326.7952183071</v>
       </c>
       <c r="F79" t="n">
-        <v>7572674.570490625</v>
+        <v>7572689.362062474</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4324,13 +4324,13 @@
         <v>-166.5992644289508</v>
       </c>
       <c r="L79" t="n">
-        <v>-255.3661800722475</v>
+        <v>-290.0726893479587</v>
       </c>
       <c r="M79" t="n">
-        <v>181.3338520536199</v>
+        <v>196.1254239026457</v>
       </c>
       <c r="N79" t="n">
-        <v>313.1993803079688</v>
+        <v>350.1533192853522</v>
       </c>
       <c r="O79" t="n">
         <v>293.8117658722834</v>
@@ -4350,10 +4350,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E80" t="n">
-        <v>423186.0155438496</v>
+        <v>423192.4685568436</v>
       </c>
       <c r="F80" t="n">
-        <v>7575854.954741614</v>
+        <v>7575819.077254251</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>94.45873334025964</v>
       </c>
       <c r="L80" t="n">
-        <v>134.330116727273</v>
+        <v>140.7831297212979</v>
       </c>
       <c r="M80" t="n">
-        <v>-33.41628747619689</v>
+        <v>-69.29377483949065</v>
       </c>
       <c r="N80" t="n">
-        <v>138.424089408797</v>
+        <v>156.9124496196201</v>
       </c>
       <c r="O80" t="n">
         <v>139.7924808191794</v>
@@ -4399,10 +4399,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E81" t="n">
-        <v>423068.0646991109</v>
+        <v>423085.9348731439</v>
       </c>
       <c r="F81" t="n">
-        <v>7575786.256920765</v>
+        <v>7575773.618005523</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>94.45873334025964</v>
       </c>
       <c r="L81" t="n">
-        <v>16.37927198864054</v>
+        <v>34.24944602162577</v>
       </c>
       <c r="M81" t="n">
-        <v>-102.1141083249822</v>
+        <v>-114.7530235666782</v>
       </c>
       <c r="N81" t="n">
-        <v>103.4193969711875</v>
+        <v>119.7550874513599</v>
       </c>
       <c r="O81" t="n">
         <v>139.7924808191794</v>
@@ -4448,10 +4448,10 @@
         <v>7575826.05698428</v>
       </c>
       <c r="E82" t="n">
-        <v>422930.8602853806</v>
+        <v>422918.08377909</v>
       </c>
       <c r="F82" t="n">
-        <v>7575849.055546694</v>
+        <v>7575816.244358095</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4471,13 +4471,13 @@
         <v>-95.47029938641936</v>
       </c>
       <c r="L82" t="n">
-        <v>-99.43731171399122</v>
+        <v>-112.2138180045877</v>
       </c>
       <c r="M82" t="n">
-        <v>22.99856241419911</v>
+        <v>-9.812626184895635</v>
       </c>
       <c r="N82" t="n">
-        <v>102.0622987886578</v>
+        <v>112.6420373742025</v>
       </c>
       <c r="O82" t="n">
         <v>106.138811689697</v>
@@ -4497,10 +4497,10 @@
         <v>7575826.05698428</v>
       </c>
       <c r="E83" t="n">
-        <v>422899.4425172207</v>
+        <v>422873.3561650333</v>
       </c>
       <c r="F83" t="n">
-        <v>7575909.253421656</v>
+        <v>7575886.118649274</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4520,13 +4520,13 @@
         <v>-95.47029938641936</v>
       </c>
       <c r="L83" t="n">
-        <v>-130.8550798738725</v>
+        <v>-156.9414320613141</v>
       </c>
       <c r="M83" t="n">
-        <v>83.19643737562001</v>
+        <v>60.06166499387473</v>
       </c>
       <c r="N83" t="n">
-        <v>155.0635325303568</v>
+        <v>168.0417111888965</v>
       </c>
       <c r="O83" t="n">
         <v>106.138811689697</v>
@@ -4546,10 +4546,10 @@
         <v>7575872.449505922</v>
       </c>
       <c r="E84" t="n">
-        <v>423025.0693044444</v>
+        <v>423010.5339001071</v>
       </c>
       <c r="F84" t="n">
-        <v>7575885.482012344</v>
+        <v>7575841.030465642</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4569,13 +4569,13 @@
         <v>78.53721017250791</v>
       </c>
       <c r="L84" t="n">
-        <v>83.51449025579495</v>
+        <v>68.97908591851592</v>
       </c>
       <c r="M84" t="n">
-        <v>13.03250642120838</v>
+        <v>-31.41904028039426</v>
       </c>
       <c r="N84" t="n">
-        <v>84.52524064623601</v>
+        <v>75.7975618756635</v>
       </c>
       <c r="O84" t="n">
         <v>227.1881278955588</v>
@@ -4595,10 +4595,10 @@
         <v>7575872.449505922</v>
       </c>
       <c r="E85" t="n">
-        <v>423032.8977041704</v>
+        <v>423042.2106358422</v>
       </c>
       <c r="F85" t="n">
-        <v>7575855.655272293</v>
+        <v>7575806.724269613</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4618,13 +4618,13 @@
         <v>120.0621082559228</v>
       </c>
       <c r="L85" t="n">
-        <v>91.3428899817518</v>
+        <v>100.6558216536068</v>
       </c>
       <c r="M85" t="n">
-        <v>-16.79423362948</v>
+        <v>-65.72523630969226</v>
       </c>
       <c r="N85" t="n">
-        <v>92.87394593436832</v>
+        <v>120.2139805543748</v>
       </c>
       <c r="O85" t="n">
         <v>193.580203088337</v>
@@ -4644,10 +4644,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E86" t="n">
-        <v>423069.6963444542</v>
+        <v>423064.9577778354</v>
       </c>
       <c r="F86" t="n">
-        <v>7575811.873583182</v>
+        <v>7575787.565048248</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -4667,13 +4667,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L86" t="n">
-        <v>121.2724292402272</v>
+        <v>116.533862621407</v>
       </c>
       <c r="M86" t="n">
-        <v>13.88797188643366</v>
+        <v>-10.42056304775178</v>
       </c>
       <c r="N86" t="n">
-        <v>122.0650558388611</v>
+        <v>116.9988430357204</v>
       </c>
       <c r="O86" t="n">
         <v>206.3526059895852</v>
@@ -4693,10 +4693,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E87" t="n">
-        <v>423052.0129280302</v>
+        <v>423037.4153194992</v>
       </c>
       <c r="F87" t="n">
-        <v>7575754.328174155</v>
+        <v>7575735.915998206</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4716,13 +4716,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L87" t="n">
-        <v>103.5890128162573</v>
+        <v>88.99140428518876</v>
       </c>
       <c r="M87" t="n">
-        <v>-43.65743714012206</v>
+        <v>-62.06961308978498</v>
       </c>
       <c r="N87" t="n">
-        <v>112.4128791281961</v>
+        <v>108.4993405775607</v>
       </c>
       <c r="O87" t="n">
         <v>206.3526059895852</v>
@@ -4742,10 +4742,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E88" t="n">
-        <v>423125.2575099267</v>
+        <v>423118.3443315195</v>
       </c>
       <c r="F88" t="n">
-        <v>7575738.671459909</v>
+        <v>7575706.261283303</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4765,13 +4765,13 @@
         <v>255.4904677956365</v>
       </c>
       <c r="L88" t="n">
-        <v>176.8335947127198</v>
+        <v>169.9204163055401</v>
       </c>
       <c r="M88" t="n">
-        <v>-59.31415138673037</v>
+        <v>-91.72432799264789</v>
       </c>
       <c r="N88" t="n">
-        <v>186.5161890393175</v>
+        <v>193.0966085231714</v>
       </c>
       <c r="O88" t="n">
         <v>336.5680026582601</v>
@@ -4791,10 +4791,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E89" t="n">
-        <v>423082.803273587</v>
+        <v>423104.6383677852</v>
       </c>
       <c r="F89" t="n">
-        <v>7575784.095962991</v>
+        <v>7575766.967510928</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -4814,13 +4814,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L89" t="n">
-        <v>134.3793583730585</v>
+        <v>156.2144525712356</v>
       </c>
       <c r="M89" t="n">
-        <v>-13.88964830432087</v>
+        <v>-31.01810036692768</v>
       </c>
       <c r="N89" t="n">
-        <v>135.0952785510012</v>
+        <v>159.2641759546183</v>
       </c>
       <c r="O89" t="n">
         <v>206.3526059895852</v>
@@ -4840,10 +4840,10 @@
         <v>7575587.294272878</v>
       </c>
       <c r="E90" t="n">
-        <v>423332.70428587</v>
+        <v>423323.6027014913</v>
       </c>
       <c r="F90" t="n">
-        <v>7575739.642852657</v>
+        <v>7575699.220219634</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4863,13 +4863,13 @@
         <v>44.79912937851623</v>
       </c>
       <c r="L90" t="n">
-        <v>232.9753215144156</v>
+        <v>223.8737371357856</v>
       </c>
       <c r="M90" t="n">
-        <v>152.348579778336</v>
+        <v>111.9259467562661</v>
       </c>
       <c r="N90" t="n">
-        <v>278.3659285818243</v>
+        <v>250.2935631142546</v>
       </c>
       <c r="O90" t="n">
         <v>81.25543868584539</v>
@@ -4889,10 +4889,10 @@
         <v>7575587.294272878</v>
       </c>
       <c r="E91" t="n">
-        <v>423205.8811231774</v>
+        <v>423218.4320294851</v>
       </c>
       <c r="F91" t="n">
-        <v>7575458.583398015</v>
+        <v>7575434.574772829</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>-331.192717121914</v>
       </c>
       <c r="L91" t="n">
-        <v>106.1521588218748</v>
+        <v>118.7030651295208</v>
       </c>
       <c r="M91" t="n">
-        <v>-128.7108748629689</v>
+        <v>-152.7195000490174</v>
       </c>
       <c r="N91" t="n">
-        <v>166.8375561153285</v>
+        <v>193.4261186250841</v>
       </c>
       <c r="O91" t="n">
         <v>408.4246281378758</v>
@@ -4938,10 +4938,10 @@
         <v>7565333.55192534</v>
       </c>
       <c r="E92" t="n">
-        <v>427829.5332006134</v>
+        <v>427845.9830695579</v>
       </c>
       <c r="F92" t="n">
-        <v>7565457.215772416</v>
+        <v>7565448.736149863</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4961,13 +4961,13 @@
         <v>-22.06094466025631</v>
       </c>
       <c r="L92" t="n">
-        <v>-230.1366528061917</v>
+        <v>-213.6867838617181</v>
       </c>
       <c r="M92" t="n">
-        <v>123.6638470757753</v>
+        <v>115.1842245236039</v>
       </c>
       <c r="N92" t="n">
-        <v>261.2577769912666</v>
+        <v>242.7538818974243</v>
       </c>
       <c r="O92" t="n">
         <v>518.3043478409027</v>
@@ -4987,10 +4987,10 @@
         <v>7565333.55192534</v>
       </c>
       <c r="E93" t="n">
-        <v>427696.0797255745</v>
+        <v>427709.1946059003</v>
       </c>
       <c r="F93" t="n">
-        <v>7565432.864099796</v>
+        <v>7565433.987898625</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>-22.06094466025631</v>
       </c>
       <c r="L93" t="n">
-        <v>-363.5901278451202</v>
+        <v>-350.4752475193236</v>
       </c>
       <c r="M93" t="n">
-        <v>99.31217445619404</v>
+        <v>100.4359732856974</v>
       </c>
       <c r="N93" t="n">
-        <v>376.9093910499556</v>
+        <v>364.5823416645086</v>
       </c>
       <c r="O93" t="n">
         <v>518.3043478409027</v>
@@ -5036,10 +5036,10 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E94" t="n">
-        <v>427668.221217945</v>
+        <v>427680.1408076626</v>
       </c>
       <c r="F94" t="n">
-        <v>7565339.334704493</v>
+        <v>7565339.236061756</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5059,13 +5059,13 @@
         <v>-117.3423207697148</v>
       </c>
       <c r="L94" t="n">
-        <v>-372.9944633314153</v>
+        <v>-361.0748736138339</v>
       </c>
       <c r="M94" t="n">
-        <v>101.0641552628949</v>
+        <v>100.9655125252903</v>
       </c>
       <c r="N94" t="n">
-        <v>386.4438292364015</v>
+        <v>374.9254580243127</v>
       </c>
       <c r="O94" t="n">
         <v>512.9815487357787</v>
@@ -5085,10 +5085,10 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E95" t="n">
-        <v>427169.166615938</v>
+        <v>427162.2240700615</v>
       </c>
       <c r="F95" t="n">
-        <v>7565496.106843799</v>
+        <v>7565455.831009674</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5108,13 +5108,13 @@
         <v>42.73341436171904</v>
       </c>
       <c r="L95" t="n">
-        <v>-201.6968621595297</v>
+        <v>-208.6394080360187</v>
       </c>
       <c r="M95" t="n">
-        <v>-1.991084062494338</v>
+        <v>-42.26691818796098</v>
       </c>
       <c r="N95" t="n">
-        <v>201.7066895785667</v>
+        <v>212.8776525582902</v>
       </c>
       <c r="O95" t="n">
         <v>145.6772965295246</v>
@@ -5134,10 +5134,10 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E96" t="n">
-        <v>427286.1236771463</v>
+        <v>427365.6796553645</v>
       </c>
       <c r="F96" t="n">
-        <v>7565518.751307177</v>
+        <v>7565466.453537584</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5157,13 +5157,13 @@
         <v>235.5222728615627</v>
       </c>
       <c r="L96" t="n">
-        <v>-84.73980095115257</v>
+        <v>-5.183822732942645</v>
       </c>
       <c r="M96" t="n">
-        <v>20.65337931551039</v>
+        <v>-31.64439027756453</v>
       </c>
       <c r="N96" t="n">
-        <v>87.2203871946881</v>
+        <v>32.06617305144774</v>
       </c>
       <c r="O96" t="n">
         <v>280.5008121935434</v>
@@ -5183,10 +5183,10 @@
         <v>7572626.735138185</v>
       </c>
       <c r="E97" t="n">
-        <v>431301.5292957801</v>
+        <v>431332.252198318</v>
       </c>
       <c r="F97" t="n">
-        <v>7572744.427270468</v>
+        <v>7572730.557547295</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5206,13 +5206,13 @@
         <v>-225.5502974816287</v>
       </c>
       <c r="L97" t="n">
-        <v>53.9322045915178</v>
+        <v>84.65510712948162</v>
       </c>
       <c r="M97" t="n">
-        <v>117.6921322830021</v>
+        <v>103.8224091092125</v>
       </c>
       <c r="N97" t="n">
-        <v>129.4608848008579</v>
+        <v>133.9611130005446</v>
       </c>
       <c r="O97" t="n">
         <v>226.7559869659887</v>
@@ -5232,10 +5232,10 @@
         <v>7572626.735138185</v>
       </c>
       <c r="E98" t="n">
-        <v>431267.6524230411</v>
+        <v>431273.8629192272</v>
       </c>
       <c r="F98" t="n">
-        <v>7572654.37952643</v>
+        <v>7572642.211960799</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5255,13 +5255,13 @@
         <v>-225.5502974816287</v>
       </c>
       <c r="L98" t="n">
-        <v>20.05533185257809</v>
+        <v>26.26582803862402</v>
       </c>
       <c r="M98" t="n">
-        <v>27.64438824448735</v>
+        <v>15.47682261373848</v>
       </c>
       <c r="N98" t="n">
-        <v>34.15301651580697</v>
+        <v>30.48648488710521</v>
       </c>
       <c r="O98" t="n">
         <v>226.7559869659887</v>
@@ -5281,10 +5281,10 @@
         <v>7572381.708633943</v>
       </c>
       <c r="E99" t="n">
-        <v>431087.9728790699</v>
+        <v>431183.7998903205</v>
       </c>
       <c r="F99" t="n">
-        <v>7572214.840838771</v>
+        <v>7572226.346652228</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5304,13 +5304,13 @@
         <v>-154.1544380579144</v>
       </c>
       <c r="L99" t="n">
-        <v>-119.5900223479257</v>
+        <v>-23.76301109726774</v>
       </c>
       <c r="M99" t="n">
-        <v>-166.8677951712161</v>
+        <v>-155.3619817141443</v>
       </c>
       <c r="N99" t="n">
-        <v>205.2964551824515</v>
+        <v>157.1687820737789</v>
       </c>
       <c r="O99" t="n">
         <v>200.4200441301869</v>
@@ -5330,10 +5330,10 @@
         <v>7572381.708633943</v>
       </c>
       <c r="E100" t="n">
-        <v>431043.6312337448</v>
+        <v>431018.5604767881</v>
       </c>
       <c r="F100" t="n">
-        <v>7572212.904887406</v>
+        <v>7572200.30157765</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5353,13 +5353,13 @@
         <v>-154.1544380579144</v>
       </c>
       <c r="L100" t="n">
-        <v>-163.9316676729941</v>
+        <v>-189.002424629638</v>
       </c>
       <c r="M100" t="n">
-        <v>-168.8037465363741</v>
+        <v>-181.407056292519</v>
       </c>
       <c r="N100" t="n">
-        <v>235.3046886714445</v>
+        <v>261.9741143483438</v>
       </c>
       <c r="O100" t="n">
         <v>200.4200441301869</v>
@@ -5379,10 +5379,10 @@
         <v>7572334.391199527</v>
       </c>
       <c r="E101" t="n">
-        <v>431001.1429465031</v>
+        <v>430992.8318475721</v>
       </c>
       <c r="F101" t="n">
-        <v>7572067.22740338</v>
+        <v>7572035.805038097</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5402,13 +5402,13 @@
         <v>-201.4718724731356</v>
       </c>
       <c r="L101" t="n">
-        <v>110.2872281110031</v>
+        <v>101.976129179995</v>
       </c>
       <c r="M101" t="n">
-        <v>-267.1637961473316</v>
+        <v>-298.5861614299938</v>
       </c>
       <c r="N101" t="n">
-        <v>289.032466439778</v>
+        <v>315.5199307809784</v>
       </c>
       <c r="O101" t="n">
         <v>275.9908646832791</v>
@@ -5428,10 +5428,10 @@
         <v>7573039.895545706</v>
       </c>
       <c r="E102" t="n">
-        <v>431126.957210023</v>
+        <v>431144.5437129373</v>
       </c>
       <c r="F102" t="n">
-        <v>7572973.059225675</v>
+        <v>7572973.690386735</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5451,13 +5451,13 @@
         <v>187.6101100392019</v>
       </c>
       <c r="L102" t="n">
-        <v>374.6686441713246</v>
+        <v>392.2551470856415</v>
       </c>
       <c r="M102" t="n">
-        <v>-66.8363200314343</v>
+        <v>-66.20515897125006</v>
       </c>
       <c r="N102" t="n">
-        <v>380.5833503984678</v>
+        <v>397.8029958278177</v>
       </c>
       <c r="O102" t="n">
         <v>507.877947342251</v>
@@ -5477,10 +5477,10 @@
         <v>7573039.895545706</v>
       </c>
       <c r="E103" t="n">
-        <v>431205.3111029945</v>
+        <v>431179.9674622333</v>
       </c>
       <c r="F103" t="n">
-        <v>7572982.805324784</v>
+        <v>7572965.216276006</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5500,13 +5500,13 @@
         <v>187.6101100392019</v>
       </c>
       <c r="L103" t="n">
-        <v>453.0225371428533</v>
+        <v>427.6788963816944</v>
       </c>
       <c r="M103" t="n">
-        <v>-57.09022092167288</v>
+        <v>-74.67926970031112</v>
       </c>
       <c r="N103" t="n">
-        <v>456.6056421949178</v>
+        <v>434.1500106336931</v>
       </c>
       <c r="O103" t="n">
         <v>507.877947342251</v>
@@ -5526,10 +5526,10 @@
         <v>7573153.018649977</v>
       </c>
       <c r="E104" t="n">
-        <v>431763.736135628</v>
+        <v>431720.1195185881</v>
       </c>
       <c r="F104" t="n">
-        <v>7573164.955410942</v>
+        <v>7573119.337876296</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5549,13 +5549,13 @@
         <v>142.522032476496</v>
       </c>
       <c r="L104" t="n">
-        <v>961.960696948634</v>
+        <v>918.3440799087402</v>
       </c>
       <c r="M104" t="n">
-        <v>11.9367609648034</v>
+        <v>-33.68077368102968</v>
       </c>
       <c r="N104" t="n">
-        <v>962.0347544326205</v>
+        <v>918.9615027949666</v>
       </c>
       <c r="O104" t="n">
         <v>514.965263189863</v>
@@ -5575,10 +5575,10 @@
         <v>7573153.018649977</v>
       </c>
       <c r="E105" t="n">
-        <v>430968.1066195201</v>
+        <v>430972.687336524</v>
       </c>
       <c r="F105" t="n">
-        <v>7573296.048104458</v>
+        <v>7573236.214113474</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5598,13 +5598,13 @@
         <v>381.1903919763863</v>
       </c>
       <c r="L105" t="n">
-        <v>166.3311808407889</v>
+        <v>170.9118978446932</v>
       </c>
       <c r="M105" t="n">
-        <v>143.0294544808567</v>
+        <v>83.19546349719167</v>
       </c>
       <c r="N105" t="n">
-        <v>219.3706602282599</v>
+        <v>190.0851440049626</v>
       </c>
       <c r="O105" t="n">
         <v>463.6949988920165</v>
@@ -5624,10 +5624,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E106" t="n">
-        <v>431606.3466635974</v>
+        <v>431578.3518045131</v>
       </c>
       <c r="F106" t="n">
-        <v>7573269.723579822</v>
+        <v>7573236.473676497</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5647,13 +5647,13 @@
         <v>214.785443269182</v>
       </c>
       <c r="L106" t="n">
-        <v>732.9089805854601</v>
+        <v>704.9141215010895</v>
       </c>
       <c r="M106" t="n">
-        <v>44.44151905272156</v>
+        <v>11.1916157277301</v>
       </c>
       <c r="N106" t="n">
-        <v>734.2551480504115</v>
+        <v>705.0029581173756</v>
       </c>
       <c r="O106" t="n">
         <v>474.5743446626212</v>
@@ -5673,10 +5673,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E107" t="n">
-        <v>431252.2102917007</v>
+        <v>431245.2913764391</v>
       </c>
       <c r="F107" t="n">
-        <v>7573013.134767897</v>
+        <v>7573007.049047557</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>372.9966251024355</v>
       </c>
       <c r="L107" t="n">
-        <v>378.7726086887415</v>
+        <v>371.8536934271106</v>
       </c>
       <c r="M107" t="n">
-        <v>-212.1472928719595</v>
+        <v>-218.2330132126808</v>
       </c>
       <c r="N107" t="n">
-        <v>434.1372628164685</v>
+        <v>431.1621706171236</v>
       </c>
       <c r="O107" t="n">
         <v>512.0468181774938</v>
@@ -5722,10 +5722,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E108" t="n">
-        <v>431001.7140538248</v>
+        <v>431008.3597396368</v>
       </c>
       <c r="F108" t="n">
-        <v>7573435.995315834</v>
+        <v>7573380.661272394</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>217.4886167692021</v>
       </c>
       <c r="L108" t="n">
-        <v>128.2763708127895</v>
+        <v>134.9220566247823</v>
       </c>
       <c r="M108" t="n">
-        <v>210.713255064562</v>
+        <v>155.3792116250843</v>
       </c>
       <c r="N108" t="n">
-        <v>246.6878658726518</v>
+        <v>205.7830429580962</v>
       </c>
       <c r="O108" t="n">
         <v>281.469438654499</v>
@@ -5771,10 +5771,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E109" t="n">
-        <v>431265.3997668493</v>
+        <v>431262.5869343264</v>
       </c>
       <c r="F109" t="n">
-        <v>7573047.386383469</v>
+        <v>7573004.939517484</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5794,13 +5794,13 @@
         <v>372.9966251024355</v>
       </c>
       <c r="L109" t="n">
-        <v>391.9620838373085</v>
+        <v>389.1492513144622</v>
       </c>
       <c r="M109" t="n">
-        <v>-177.8956773001701</v>
+        <v>-220.3425432853401</v>
       </c>
       <c r="N109" t="n">
-        <v>430.4429662198831</v>
+        <v>447.2001522585367</v>
       </c>
       <c r="O109" t="n">
         <v>512.0468181774938</v>
@@ -5820,10 +5820,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E110" t="n">
-        <v>431460.0905157411</v>
+        <v>431456.3774510286</v>
       </c>
       <c r="F110" t="n">
-        <v>7573091.346464834</v>
+        <v>7573057.736577378</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5843,13 +5843,13 @@
         <v>180.3966528571521</v>
       </c>
       <c r="L110" t="n">
-        <v>509.2908659883542</v>
+        <v>505.5778012758237</v>
       </c>
       <c r="M110" t="n">
-        <v>58.66437631007284</v>
+        <v>25.05448885355145</v>
       </c>
       <c r="N110" t="n">
-        <v>512.6584586515837</v>
+        <v>506.1982225913175</v>
       </c>
       <c r="O110" t="n">
         <v>327.5897873103146</v>
@@ -5869,10 +5869,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E111" t="n">
-        <v>431039.8704120284</v>
+        <v>431007.8683533936</v>
       </c>
       <c r="F111" t="n">
-        <v>7572894.192658931</v>
+        <v>7572880.31329044</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5892,13 +5892,13 @@
         <v>260.8538305237889</v>
       </c>
       <c r="L111" t="n">
-        <v>89.07076227560174</v>
+        <v>57.06870364083443</v>
       </c>
       <c r="M111" t="n">
-        <v>-138.4894295930862</v>
+        <v>-152.3687980845571</v>
       </c>
       <c r="N111" t="n">
-        <v>164.6600218674076</v>
+        <v>162.7055240764059</v>
       </c>
       <c r="O111" t="n">
         <v>285.0770359534847</v>
@@ -5918,10 +5918,10 @@
         <v>7572929.710734784</v>
       </c>
       <c r="E112" t="n">
-        <v>431705.9076341669</v>
+        <v>431676.6422806504</v>
       </c>
       <c r="F112" t="n">
-        <v>7572984.404290919</v>
+        <v>7572986.771151468</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5941,13 +5941,13 @@
         <v>-80.7858827165328</v>
       </c>
       <c r="L112" t="n">
-        <v>786.671441863291</v>
+        <v>757.4060883468483</v>
       </c>
       <c r="M112" t="n">
-        <v>54.69355613552034</v>
+        <v>57.06041668448597</v>
       </c>
       <c r="N112" t="n">
-        <v>788.570442336015</v>
+        <v>759.5524167673228</v>
       </c>
       <c r="O112" t="n">
         <v>385.939285138126</v>
@@ -5967,10 +5967,10 @@
         <v>7572929.710734784</v>
       </c>
       <c r="E113" t="n">
-        <v>430998.9472589272</v>
+        <v>430999.5554093647</v>
       </c>
       <c r="F113" t="n">
-        <v>7572996.7143357</v>
+        <v>7572977.083959873</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5990,13 +5990,13 @@
         <v>393.8476627832279</v>
       </c>
       <c r="L113" t="n">
-        <v>79.7110666235676</v>
+        <v>80.31921706110006</v>
       </c>
       <c r="M113" t="n">
-        <v>67.00360091682523</v>
+        <v>47.37322508916259</v>
       </c>
       <c r="N113" t="n">
-        <v>104.1313433990363</v>
+        <v>93.24912377420269</v>
       </c>
       <c r="O113" t="n">
         <v>425.1997683243054</v>
@@ -6016,10 +6016,10 @@
         <v>7572815.803453753</v>
       </c>
       <c r="E114" t="n">
-        <v>431511.5453111263</v>
+        <v>431498.4600509852</v>
       </c>
       <c r="F114" t="n">
-        <v>7572841.176114543</v>
+        <v>7572828.542217973</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6039,13 +6039,13 @@
         <v>-36.48198191418002</v>
       </c>
       <c r="L114" t="n">
-        <v>618.6611068028142</v>
+        <v>605.5758466616389</v>
       </c>
       <c r="M114" t="n">
-        <v>25.37266079057008</v>
+        <v>12.73876421991736</v>
       </c>
       <c r="N114" t="n">
-        <v>619.1811826808663</v>
+        <v>605.7098168048884</v>
       </c>
       <c r="O114" t="n">
         <v>333.3625912212354</v>
@@ -6065,10 +6065,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E115" t="n">
-        <v>423459.5300476477</v>
+        <v>423464.2161618721</v>
       </c>
       <c r="F115" t="n">
-        <v>7576064.653372288</v>
+        <v>7576036.286693687</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6088,13 +6088,13 @@
         <v>525.5705926392693</v>
       </c>
       <c r="L115" t="n">
-        <v>269.6918372715591</v>
+        <v>274.3779514959897</v>
       </c>
       <c r="M115" t="n">
-        <v>-238.273493851535</v>
+        <v>-266.6401724526659</v>
       </c>
       <c r="N115" t="n">
-        <v>359.872123070302</v>
+        <v>382.5967091242724</v>
       </c>
       <c r="O115" t="n">
         <v>559.36633687413</v>
@@ -6114,10 +6114,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E116" t="n">
-        <v>423186.6595989961</v>
+        <v>423208.0034194028</v>
       </c>
       <c r="F116" t="n">
-        <v>7576209.955278449</v>
+        <v>7576161.046544239</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -6137,13 +6137,13 @@
         <v>469.0181234727303</v>
       </c>
       <c r="L116" t="n">
-        <v>-3.178611380048096</v>
+        <v>18.16520902665798</v>
       </c>
       <c r="M116" t="n">
-        <v>-92.97158769052476</v>
+        <v>-141.8803219003603</v>
       </c>
       <c r="N116" t="n">
-        <v>93.02590869216117</v>
+        <v>143.0384583303806</v>
       </c>
       <c r="O116" t="n">
         <v>470.2807115501403</v>
@@ -6163,10 +6163,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E117" t="n">
-        <v>423273.2735520946</v>
+        <v>423258.947992663</v>
       </c>
       <c r="F117" t="n">
-        <v>7575895.246755761</v>
+        <v>7575871.266589141</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6186,13 +6186,13 @@
         <v>-115.6515740118921</v>
       </c>
       <c r="L117" t="n">
-        <v>455.0299001986277</v>
+        <v>440.7043407669989</v>
       </c>
       <c r="M117" t="n">
-        <v>89.37104610633105</v>
+        <v>65.39087948668748</v>
       </c>
       <c r="N117" t="n">
-        <v>463.7234024253176</v>
+        <v>445.5292168768706</v>
       </c>
       <c r="O117" t="n">
         <v>283.1290880006463</v>
@@ -6212,10 +6212,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E118" t="n">
-        <v>423053.4831498647</v>
+        <v>423040.5892735954</v>
       </c>
       <c r="F118" t="n">
-        <v>7575780.826668824</v>
+        <v>7575745.477353617</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6235,13 +6235,13 @@
         <v>-28.03303301179161</v>
       </c>
       <c r="L118" t="n">
-        <v>235.2394979687524</v>
+        <v>222.3456216994673</v>
       </c>
       <c r="M118" t="n">
-        <v>-25.04904083069414</v>
+        <v>-60.39835603814572</v>
       </c>
       <c r="N118" t="n">
-        <v>236.569389083052</v>
+        <v>230.4029880471024</v>
       </c>
       <c r="O118" t="n">
         <v>406.9987167323191</v>
@@ -6261,10 +6261,10 @@
         <v>7575776.6722592</v>
       </c>
       <c r="E119" t="n">
-        <v>424071.8108175601</v>
+        <v>424016.042428528</v>
       </c>
       <c r="F119" t="n">
-        <v>7576002.960964354</v>
+        <v>7576021.005152769</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-19.53271329961717</v>
       </c>
       <c r="L119" t="n">
-        <v>1408.458861626452</v>
+        <v>1352.690472594346</v>
       </c>
       <c r="M119" t="n">
-        <v>226.2887051533908</v>
+        <v>244.3328935690224</v>
       </c>
       <c r="N119" t="n">
-        <v>1426.521273228717</v>
+        <v>1374.579964035314</v>
       </c>
       <c r="O119" t="n">
         <v>479.4705944323816</v>
@@ -6310,10 +6310,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E120" t="n">
-        <v>423161.030185362</v>
+        <v>423143.8912887494</v>
       </c>
       <c r="F120" t="n">
-        <v>7575795.290081749</v>
+        <v>7575745.65374139</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>141.0985486549325</v>
       </c>
       <c r="L120" t="n">
-        <v>342.7865334660746</v>
+        <v>325.6476368534495</v>
       </c>
       <c r="M120" t="n">
-        <v>-10.58562790602446</v>
+        <v>-60.22196826525033</v>
       </c>
       <c r="N120" t="n">
-        <v>342.9499424753606</v>
+        <v>331.1692450243183</v>
       </c>
       <c r="O120" t="n">
         <v>563.5321574999282</v>
@@ -6359,10 +6359,10 @@
         <v>7575776.6722592</v>
       </c>
       <c r="E121" t="n">
-        <v>423192.3858030178</v>
+        <v>423191.900394541</v>
       </c>
       <c r="F121" t="n">
-        <v>7575916.346510098</v>
+        <v>7575890.221527137</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6382,13 +6382,13 @@
         <v>-17.2400365495123</v>
       </c>
       <c r="L121" t="n">
-        <v>529.0338470841525</v>
+        <v>528.5484386073658</v>
       </c>
       <c r="M121" t="n">
-        <v>139.6742508979514</v>
+        <v>113.5492679364979</v>
       </c>
       <c r="N121" t="n">
-        <v>547.1615005869495</v>
+        <v>540.607887662767</v>
       </c>
       <c r="O121" t="n">
         <v>491.6866956751285</v>
@@ -6408,10 +6408,10 @@
         <v>7565517.46236733</v>
       </c>
       <c r="E122" t="n">
-        <v>427186.7448996791</v>
+        <v>427175.880298177</v>
       </c>
       <c r="F122" t="n">
-        <v>7565653.233975772</v>
+        <v>7565627.290998346</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6431,13 +6431,13 @@
         <v>62.09785382961854</v>
       </c>
       <c r="L122" t="n">
-        <v>-158.5343532069237</v>
+        <v>-169.3989547090023</v>
       </c>
       <c r="M122" t="n">
-        <v>135.7716084420681</v>
+        <v>109.8286310164258</v>
       </c>
       <c r="N122" t="n">
-        <v>208.7272641647082</v>
+        <v>201.8869338205046</v>
       </c>
       <c r="O122" t="n">
         <v>129.5386813690366</v>
@@ -6457,10 +6457,10 @@
         <v>7565517.46236733</v>
       </c>
       <c r="E123" t="n">
-        <v>427410.6828571724</v>
+        <v>427420.0453956714</v>
       </c>
       <c r="F123" t="n">
-        <v>7565637.196220189</v>
+        <v>7565606.188073288</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6480,13 +6480,13 @@
         <v>5.009220663147668</v>
       </c>
       <c r="L123" t="n">
-        <v>65.40360428637359</v>
+        <v>74.76614278543275</v>
       </c>
       <c r="M123" t="n">
-        <v>119.7338528595865</v>
+        <v>88.72570595797151</v>
       </c>
       <c r="N123" t="n">
-        <v>136.4324996994838</v>
+        <v>116.0268374332083</v>
       </c>
       <c r="O123" t="n">
         <v>30.70166198199909</v>
@@ -6506,10 +6506,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E124" t="n">
-        <v>427314.536313398</v>
+        <v>427297.9674442591</v>
       </c>
       <c r="F124" t="n">
-        <v>7565668.66538296</v>
+        <v>7565660.039316849</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6529,13 +6529,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L124" t="n">
-        <v>31.7062589271809</v>
+        <v>15.1373897883459</v>
       </c>
       <c r="M124" t="n">
-        <v>150.82656822633</v>
+        <v>142.2005021153018</v>
       </c>
       <c r="N124" t="n">
-        <v>154.1231343377405</v>
+        <v>143.0039278182535</v>
       </c>
       <c r="O124" t="n">
         <v>92.89570646527693</v>
@@ -6555,10 +6555,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E125" t="n">
-        <v>427336.3184470579</v>
+        <v>427334.2104474111</v>
       </c>
       <c r="F125" t="n">
-        <v>7565586.956821277</v>
+        <v>7565581.367995143</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6578,13 +6578,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L125" t="n">
-        <v>53.48839258711087</v>
+        <v>51.3803929403075</v>
       </c>
       <c r="M125" t="n">
-        <v>69.11800654325634</v>
+        <v>63.52918040938675</v>
       </c>
       <c r="N125" t="n">
-        <v>87.39740825714755</v>
+        <v>81.70619035415132</v>
       </c>
       <c r="O125" t="n">
         <v>92.89570646527693</v>
@@ -6604,10 +6604,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E126" t="n">
-        <v>436592.1357400286</v>
+        <v>436621.0684801129</v>
       </c>
       <c r="F126" t="n">
-        <v>7550723.586189279</v>
+        <v>7550690.795331707</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L126" t="n">
-        <v>-246.7013541887864</v>
+        <v>-217.7686141045415</v>
       </c>
       <c r="M126" t="n">
-        <v>-308.7773502469063</v>
+        <v>-341.5682078190148</v>
       </c>
       <c r="N126" t="n">
-        <v>395.227795308075</v>
+        <v>405.0827198014084</v>
       </c>
       <c r="O126" t="n">
         <v>333.0864405745596</v>
@@ -6653,10 +6653,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E127" t="n">
-        <v>436533.0093592464</v>
+        <v>436559.1748062693</v>
       </c>
       <c r="F127" t="n">
-        <v>7550787.407740937</v>
+        <v>7550784.867896467</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L127" t="n">
-        <v>-305.8277349710115</v>
+        <v>-279.6622879481292</v>
       </c>
       <c r="M127" t="n">
-        <v>-244.9557985896245</v>
+        <v>-247.4956430597231</v>
       </c>
       <c r="N127" t="n">
-        <v>391.8340806262007</v>
+        <v>373.4502492085501</v>
       </c>
       <c r="O127" t="n">
         <v>333.0864405745596</v>
@@ -6702,10 +6702,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E128" t="n">
-        <v>436689.5823266206</v>
+        <v>436676.5920549241</v>
       </c>
       <c r="F128" t="n">
-        <v>7550699.859360468</v>
+        <v>7550638.477280023</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L128" t="n">
-        <v>-149.2547675967799</v>
+        <v>-162.2450392933679</v>
       </c>
       <c r="M128" t="n">
-        <v>-332.5041790585965</v>
+        <v>-393.8862595036626</v>
       </c>
       <c r="N128" t="n">
-        <v>364.4667539595346</v>
+        <v>425.9927677802677</v>
       </c>
       <c r="O128" t="n">
         <v>333.0864405745596</v>
@@ -6751,10 +6751,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E129" t="n">
-        <v>436580.7989206022</v>
+        <v>436571.3495800439</v>
       </c>
       <c r="F129" t="n">
-        <v>7550719.381412973</v>
+        <v>7550669.315862369</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L129" t="n">
-        <v>-258.0381736151758</v>
+        <v>-267.4875141735538</v>
       </c>
       <c r="M129" t="n">
-        <v>-312.9821265535429</v>
+        <v>-363.0476771574467</v>
       </c>
       <c r="N129" t="n">
-        <v>405.6371661776489</v>
+        <v>450.9469881573274</v>
       </c>
       <c r="O129" t="n">
         <v>333.0864405745596</v>
@@ -6800,10 +6800,10 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E130" t="n">
-        <v>436728.9380987628</v>
+        <v>436769.9517545836</v>
       </c>
       <c r="F130" t="n">
-        <v>7551654.963586388</v>
+        <v>7551553.881578492</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-283.2143761767074</v>
       </c>
       <c r="L130" t="n">
-        <v>-109.4932064032182</v>
+        <v>-68.47955058235675</v>
       </c>
       <c r="M130" t="n">
-        <v>624.2620965652168</v>
+        <v>523.1800886690617</v>
       </c>
       <c r="N130" t="n">
-        <v>633.7917066800873</v>
+        <v>527.6427333222061</v>
       </c>
       <c r="O130" t="n">
         <v>334.2767892268462</v>
@@ -6849,10 +6849,10 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E131" t="n">
-        <v>436528.4291327995</v>
+        <v>436541.6495317001</v>
       </c>
       <c r="F131" t="n">
-        <v>7550718.37565562</v>
+        <v>7550683.190143842</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-283.2143761767074</v>
       </c>
       <c r="L131" t="n">
-        <v>-310.0021723664831</v>
+        <v>-296.7817734659184</v>
       </c>
       <c r="M131" t="n">
-        <v>-312.3258342025802</v>
+        <v>-347.5113459806889</v>
       </c>
       <c r="N131" t="n">
-        <v>440.0554210349832</v>
+        <v>456.9940444326225</v>
       </c>
       <c r="O131" t="n">
         <v>334.2767892268462</v>
@@ -6898,10 +6898,10 @@
         <v>7576116.865066407</v>
       </c>
       <c r="E132" t="n">
-        <v>423096.0357171793</v>
+        <v>423073.5751584911</v>
       </c>
       <c r="F132" t="n">
-        <v>7575894.492888925</v>
+        <v>7575849.106262483</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6921,13 +6921,13 @@
         <v>449.0393074074139</v>
       </c>
       <c r="L132" t="n">
-        <v>1149.51937850524</v>
+        <v>1127.05881981703</v>
       </c>
       <c r="M132" t="n">
-        <v>-222.3721774825826</v>
+        <v>-267.7588039245456</v>
       </c>
       <c r="N132" t="n">
-        <v>1170.830554297853</v>
+        <v>1158.428401070372</v>
       </c>
       <c r="O132" t="n">
         <v>1354.661518668292</v>
@@ -6947,10 +6947,10 @@
         <v>7575629.424387895</v>
       </c>
       <c r="E133" t="n">
-        <v>423065.1499969183</v>
+        <v>423064.2335073386</v>
       </c>
       <c r="F133" t="n">
-        <v>7575832.586738072</v>
+        <v>7575821.822033785</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6970,13 +6970,13 @@
         <v>-289.67745510526</v>
       </c>
       <c r="L133" t="n">
-        <v>338.6947411829024</v>
+        <v>337.7782516031875</v>
       </c>
       <c r="M133" t="n">
-        <v>203.1623501777649</v>
+        <v>192.3976458907127</v>
       </c>
       <c r="N133" t="n">
-        <v>394.9545141338506</v>
+        <v>388.7299852087492</v>
       </c>
       <c r="O133" t="n">
         <v>555.1361231185423</v>
@@ -6996,10 +6996,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E134" t="n">
-        <v>423477.9474056111</v>
+        <v>423449.628037385</v>
       </c>
       <c r="F134" t="n">
-        <v>7575363.408523773</v>
+        <v>7575315.416153614</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7019,13 +7019,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L134" t="n">
-        <v>-266.6101141221006</v>
+        <v>-294.9294823482051</v>
       </c>
       <c r="M134" t="n">
-        <v>981.2262649154291</v>
+        <v>933.2338947569951</v>
       </c>
       <c r="N134" t="n">
-        <v>1016.801817421705</v>
+        <v>978.7282063379447</v>
       </c>
       <c r="O134" t="n">
         <v>1386.811356122469</v>
@@ -7045,10 +7045,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E135" t="n">
-        <v>423265.2791655496</v>
+        <v>423257.2097221585</v>
       </c>
       <c r="F135" t="n">
-        <v>7575128.505613385</v>
+        <v>7575103.418315068</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7068,13 +7068,13 @@
         <v>-1282.594902142417</v>
       </c>
       <c r="L135" t="n">
-        <v>-479.2783541835961</v>
+        <v>-487.3477975747082</v>
       </c>
       <c r="M135" t="n">
-        <v>746.3233545273542</v>
+        <v>721.2360562104732</v>
       </c>
       <c r="N135" t="n">
-        <v>886.9646499730976</v>
+        <v>870.4535166101379</v>
       </c>
       <c r="O135" t="n">
         <v>1337.911229030238</v>
@@ -7094,10 +7094,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E136" t="n">
-        <v>423469.8701317631</v>
+        <v>423451.6374992863</v>
       </c>
       <c r="F136" t="n">
-        <v>7575342.567818227</v>
+        <v>7575321.596552798</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7117,13 +7117,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L136" t="n">
-        <v>-274.6873879701016</v>
+        <v>-292.920020446938</v>
       </c>
       <c r="M136" t="n">
-        <v>960.3855593698099</v>
+        <v>939.414293940179</v>
       </c>
       <c r="N136" t="n">
-        <v>998.8961826716027</v>
+        <v>984.0230454810293</v>
       </c>
       <c r="O136" t="n">
         <v>1386.811356122469</v>
@@ -7143,10 +7143,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E137" t="n">
-        <v>423532.2120018513</v>
+        <v>423530.8290671113</v>
       </c>
       <c r="F137" t="n">
-        <v>7575402.93574221</v>
+        <v>7575373.14217294</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7166,13 +7166,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L137" t="n">
-        <v>-212.3455178819131</v>
+        <v>-213.7284526219009</v>
       </c>
       <c r="M137" t="n">
-        <v>1020.753483352251</v>
+        <v>990.9599140826613</v>
       </c>
       <c r="N137" t="n">
-        <v>1042.606489880191</v>
+        <v>1013.746222078715</v>
       </c>
       <c r="O137" t="n">
         <v>1386.811356122469</v>
@@ -7192,10 +7192,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E138" t="n">
-        <v>423475.5982361976</v>
+        <v>423470.7270346647</v>
       </c>
       <c r="F138" t="n">
-        <v>7575325.650684749</v>
+        <v>7575297.502591318</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7215,13 +7215,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L138" t="n">
-        <v>-268.9592835356016</v>
+        <v>-273.8304850685527</v>
       </c>
       <c r="M138" t="n">
-        <v>943.4684258913621</v>
+        <v>915.3203324610367</v>
       </c>
       <c r="N138" t="n">
-        <v>981.0564544682985</v>
+        <v>955.4027661512508</v>
       </c>
       <c r="O138" t="n">
         <v>1386.811356122469</v>
@@ -7241,10 +7241,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E139" t="n">
-        <v>432198.1727037919</v>
+        <v>432184.5182825466</v>
       </c>
       <c r="F139" t="n">
-        <v>7572814.989482833</v>
+        <v>7572750.610559331</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L139" t="n">
-        <v>-29.98783998051658</v>
+        <v>-43.64226122578839</v>
       </c>
       <c r="M139" t="n">
-        <v>-229.854288386181</v>
+        <v>-294.2332118880004</v>
       </c>
       <c r="N139" t="n">
-        <v>231.8022097310867</v>
+        <v>297.452231363002</v>
       </c>
       <c r="O139" t="n">
         <v>1256.392743841148</v>
@@ -7290,10 +7290,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E140" t="n">
-        <v>432268.6554504817</v>
+        <v>432213.1977104368</v>
       </c>
       <c r="F140" t="n">
-        <v>7572708.044446772</v>
+        <v>7572700.92091884</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L140" t="n">
-        <v>40.49490670929663</v>
+        <v>-14.96283333556494</v>
       </c>
       <c r="M140" t="n">
-        <v>-336.7993244472891</v>
+        <v>-343.9228523792699</v>
       </c>
       <c r="N140" t="n">
-        <v>339.2250321210759</v>
+        <v>344.2481877513968</v>
       </c>
       <c r="O140" t="n">
         <v>1256.392743841148</v>
@@ -7339,10 +7339,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E141" t="n">
-        <v>431450.3361673938</v>
+        <v>431456.7474050595</v>
       </c>
       <c r="F141" t="n">
-        <v>7572492.170309111</v>
+        <v>7572510.666217956</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7362,13 +7362,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L141" t="n">
-        <v>-777.8243763785576</v>
+        <v>-771.413138712931</v>
       </c>
       <c r="M141" t="n">
-        <v>-552.6734621087089</v>
+        <v>-534.1775532634929</v>
       </c>
       <c r="N141" t="n">
-        <v>954.1796037475956</v>
+        <v>938.3090583541797</v>
       </c>
       <c r="O141" t="n">
         <v>1045.448340050612</v>
@@ -7388,10 +7388,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E142" t="n">
-        <v>431835.8633355732</v>
+        <v>431829.9804174022</v>
       </c>
       <c r="F142" t="n">
-        <v>7573000.153099886</v>
+        <v>7572972.32706082</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7411,13 +7411,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L142" t="n">
-        <v>-392.2972081992193</v>
+        <v>-398.1801263701636</v>
       </c>
       <c r="M142" t="n">
-        <v>-44.69067133311182</v>
+        <v>-72.51671039965004</v>
       </c>
       <c r="N142" t="n">
-        <v>394.8345927918498</v>
+        <v>404.7296459654842</v>
       </c>
       <c r="O142" t="n">
         <v>960.9726123950555</v>
@@ -7437,10 +7437,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E143" t="n">
-        <v>431648.4505193781</v>
+        <v>431654.0652077703</v>
       </c>
       <c r="F143" t="n">
-        <v>7572844.923423924</v>
+        <v>7572844.346672344</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -7460,13 +7460,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L143" t="n">
-        <v>-535.7827618197771</v>
+        <v>-530.1680734275142</v>
       </c>
       <c r="M143" t="n">
-        <v>-160.7684465125203</v>
+        <v>-161.3451980920509</v>
       </c>
       <c r="N143" t="n">
-        <v>559.3832865373054</v>
+        <v>554.1754767482996</v>
       </c>
       <c r="O143" t="n">
         <v>908.0533939333675</v>
@@ -7486,10 +7486,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E144" t="n">
-        <v>431770.2660647133</v>
+        <v>431769.2206640068</v>
       </c>
       <c r="F144" t="n">
-        <v>7572840.11693712</v>
+        <v>7572809.18137809</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -7509,13 +7509,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L144" t="n">
-        <v>-413.9672164845397</v>
+        <v>-415.0126171910088</v>
       </c>
       <c r="M144" t="n">
-        <v>-165.5749333156273</v>
+        <v>-196.5104923462495</v>
       </c>
       <c r="N144" t="n">
-        <v>445.851897906056</v>
+        <v>459.1860690721095</v>
       </c>
       <c r="O144" t="n">
         <v>852.0503114849387</v>
@@ -7535,10 +7535,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E145" t="n">
-        <v>431881.7634911601</v>
+        <v>431869.807754848</v>
       </c>
       <c r="F145" t="n">
-        <v>7572889.581643307</v>
+        <v>7572902.656185409</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7558,13 +7558,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L145" t="n">
-        <v>-302.4697900377796</v>
+        <v>-314.4255263498635</v>
       </c>
       <c r="M145" t="n">
-        <v>-116.1102271294221</v>
+        <v>-103.0356850270182</v>
       </c>
       <c r="N145" t="n">
-        <v>323.9900596153291</v>
+        <v>330.8772642678484</v>
       </c>
       <c r="O145" t="n">
         <v>908.0533939333675</v>
@@ -7584,10 +7584,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E146" t="n">
-        <v>431866.1171484781</v>
+        <v>431808.1560625997</v>
       </c>
       <c r="F146" t="n">
-        <v>7572926.393633372</v>
+        <v>7572875.136541041</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -7607,13 +7607,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L146" t="n">
-        <v>-318.1161327197333</v>
+        <v>-376.0772185981623</v>
       </c>
       <c r="M146" t="n">
-        <v>-79.29823706392199</v>
+        <v>-130.5553293954581</v>
       </c>
       <c r="N146" t="n">
-        <v>327.8507042816973</v>
+        <v>398.0939190468582</v>
       </c>
       <c r="O146" t="n">
         <v>908.0533939333675</v>
@@ -7633,10 +7633,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E147" t="n">
-        <v>427310.751684062</v>
+        <v>427319.3183585882</v>
       </c>
       <c r="F147" t="n">
-        <v>7565558.451899521</v>
+        <v>7565537.700482224</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7656,13 +7656,13 @@
         <v>-38.19116617490848</v>
       </c>
       <c r="L147" t="n">
-        <v>-28.12052652431885</v>
+        <v>-19.55385199812008</v>
       </c>
       <c r="M147" t="n">
-        <v>84.1899190293625</v>
+        <v>63.4385017324239</v>
       </c>
       <c r="N147" t="n">
-        <v>88.76207792844608</v>
+        <v>66.38370756457593</v>
       </c>
       <c r="O147" t="n">
         <v>52.96467743614704</v>
@@ -7682,10 +7682,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E148" t="n">
-        <v>427503.5736227068</v>
+        <v>427492.8541933828</v>
       </c>
       <c r="F148" t="n">
-        <v>7565463.252732894</v>
+        <v>7565441.121506528</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -7705,13 +7705,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L148" t="n">
-        <v>164.7014121204847</v>
+        <v>153.9819827964529</v>
       </c>
       <c r="M148" t="n">
-        <v>-11.00924759730697</v>
+        <v>-33.14047396369278</v>
       </c>
       <c r="N148" t="n">
-        <v>165.0689513116884</v>
+        <v>157.5079110408913</v>
       </c>
       <c r="O148" t="n">
         <v>136.4852433802381</v>
@@ -7731,10 +7731,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E149" t="n">
-        <v>427354.5378819791</v>
+        <v>427384.37786448</v>
       </c>
       <c r="F149" t="n">
-        <v>7565406.214401822</v>
+        <v>7565366.778839965</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -7754,13 +7754,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L149" t="n">
-        <v>15.6656713928096</v>
+        <v>45.50565389369149</v>
       </c>
       <c r="M149" t="n">
-        <v>-68.04757867008448</v>
+        <v>-107.4831405263394</v>
       </c>
       <c r="N149" t="n">
-        <v>69.8275463055149</v>
+        <v>116.7192787576126</v>
       </c>
       <c r="O149" t="n">
         <v>136.4852433802381</v>
@@ -7780,10 +7780,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E150" t="n">
-        <v>427433.3196320394</v>
+        <v>427446.3714728422</v>
       </c>
       <c r="F150" t="n">
-        <v>7565404.768564031</v>
+        <v>7565380.380509296</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -7803,13 +7803,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L150" t="n">
-        <v>94.44742145307828</v>
+        <v>107.4992622558493</v>
       </c>
       <c r="M150" t="n">
-        <v>-69.49341646116227</v>
+        <v>-93.8814711952582</v>
       </c>
       <c r="N150" t="n">
-        <v>117.2589030759709</v>
+        <v>142.7228854085355</v>
       </c>
       <c r="O150" t="n">
         <v>136.4852433802381</v>
@@ -7829,10 +7829,10 @@
         <v>7575937.169506868</v>
       </c>
       <c r="E151" t="n">
-        <v>424467.5703176042</v>
+        <v>424460.3195472293</v>
       </c>
       <c r="F151" t="n">
-        <v>7576104.46472282</v>
+        <v>7576049.3376568</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>18.68251686822623</v>
       </c>
       <c r="L151" t="n">
-        <v>-146.9330798336305</v>
+        <v>-154.183850208472</v>
       </c>
       <c r="M151" t="n">
-        <v>167.2952159512788</v>
+        <v>112.1681499313563</v>
       </c>
       <c r="N151" t="n">
-        <v>222.6589751830836</v>
+        <v>190.6681764850437</v>
       </c>
       <c r="O151" t="n">
         <v>1275.909000288259</v>
@@ -7878,10 +7878,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E152" t="n">
-        <v>427130.8647954587</v>
+        <v>427142.0353241166</v>
       </c>
       <c r="F152" t="n">
-        <v>7565546.241760635</v>
+        <v>7565566.890211306</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>157.5262054624036</v>
       </c>
       <c r="L152" t="n">
-        <v>-153.3447258670931</v>
+        <v>-142.1741972091259</v>
       </c>
       <c r="M152" t="n">
-        <v>126.1399001721293</v>
+        <v>146.7883508428931</v>
       </c>
       <c r="N152" t="n">
-        <v>198.5595108945645</v>
+        <v>204.353424965758</v>
       </c>
       <c r="O152" t="n">
         <v>170.675818265182</v>
@@ -7927,10 +7927,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E153" t="n">
-        <v>427178.9862224296</v>
+        <v>427164.8773919691</v>
       </c>
       <c r="F153" t="n">
-        <v>7565384.007392707</v>
+        <v>7565353.600669003</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7950,13 +7950,13 @@
         <v>-35.26265303744003</v>
       </c>
       <c r="L153" t="n">
-        <v>-105.2232988962205</v>
+        <v>-119.3321293566842</v>
       </c>
       <c r="M153" t="n">
-        <v>-36.09446775540709</v>
+        <v>-66.50119145959616</v>
       </c>
       <c r="N153" t="n">
-        <v>111.2418681663944</v>
+        <v>136.6110008833339</v>
       </c>
       <c r="O153" t="n">
         <v>63.33838092641357</v>
@@ -7976,10 +7976,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E154" t="n">
-        <v>427566.5134784669</v>
+        <v>427572.0308392493</v>
       </c>
       <c r="F154" t="n">
-        <v>7565546.972441161</v>
+        <v>7565546.658679496</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -7999,13 +7999,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L154" t="n">
-        <v>282.3039571411209</v>
+        <v>287.8213179234881</v>
       </c>
       <c r="M154" t="n">
-        <v>126.8705806983635</v>
+        <v>126.556819033809</v>
       </c>
       <c r="N154" t="n">
-        <v>309.5022915331578</v>
+        <v>314.4165063974376</v>
       </c>
       <c r="O154" t="n">
         <v>183.5392890509451</v>
@@ -8025,10 +8025,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E155" t="n">
-        <v>427534.3700001501</v>
+        <v>427522.0528310966</v>
       </c>
       <c r="F155" t="n">
-        <v>7565276.515172204</v>
+        <v>7565263.23567968</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -8048,13 +8048,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L155" t="n">
-        <v>250.1604788242839</v>
+        <v>237.8433097708039</v>
       </c>
       <c r="M155" t="n">
-        <v>-143.5866882586852</v>
+        <v>-156.8661807822064</v>
       </c>
       <c r="N155" t="n">
-        <v>288.4395988949712</v>
+        <v>284.9147919570453</v>
       </c>
       <c r="O155" t="n">
         <v>183.5392890509451</v>
@@ -8074,10 +8074,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E156" t="n">
-        <v>427462.154567519</v>
+        <v>427420.3347311916</v>
       </c>
       <c r="F156" t="n">
-        <v>7565359.39462177</v>
+        <v>7565334.940120895</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -8097,13 +8097,13 @@
         <v>57.31467079588523</v>
       </c>
       <c r="L156" t="n">
-        <v>177.9450461932574</v>
+        <v>136.1252098658006</v>
       </c>
       <c r="M156" t="n">
-        <v>-60.70723869279027</v>
+        <v>-85.16173956729472</v>
       </c>
       <c r="N156" t="n">
-        <v>188.015446956956</v>
+        <v>160.5695944042208</v>
       </c>
       <c r="O156" t="n">
         <v>131.1928458876789</v>
@@ -8123,10 +8123,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E157" t="n">
-        <v>427628.7281508577</v>
+        <v>427569.2726292927</v>
       </c>
       <c r="F157" t="n">
-        <v>7565496.215534439</v>
+        <v>7565497.852534251</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -8146,13 +8146,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L157" t="n">
-        <v>344.5186295319581</v>
+        <v>285.063107966911</v>
       </c>
       <c r="M157" t="n">
-        <v>76.11367397662252</v>
+        <v>77.75067378859967</v>
       </c>
       <c r="N157" t="n">
-        <v>352.8262709334414</v>
+        <v>295.4761289822513</v>
       </c>
       <c r="O157" t="n">
         <v>183.5392890509451</v>
@@ -8172,10 +8172,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E158" t="n">
-        <v>427622.7610754549</v>
+        <v>427607.6052602682</v>
       </c>
       <c r="F158" t="n">
-        <v>7565365.644316498</v>
+        <v>7565326.867133106</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -8195,13 +8195,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L158" t="n">
-        <v>338.5515541291679</v>
+        <v>323.3957389424322</v>
       </c>
       <c r="M158" t="n">
-        <v>-54.45754396449775</v>
+        <v>-93.23472735658288</v>
       </c>
       <c r="N158" t="n">
-        <v>342.903454193626</v>
+        <v>336.5672568022298</v>
       </c>
       <c r="O158" t="n">
         <v>183.5392890509451</v>
@@ -8221,10 +8221,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E159" t="n">
-        <v>427603.9781574081</v>
+        <v>427606.2065903066</v>
       </c>
       <c r="F159" t="n">
-        <v>7565159.397996644</v>
+        <v>7565146.702700288</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -8244,13 +8244,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L159" t="n">
-        <v>334.320057355566</v>
+        <v>336.548490254092</v>
       </c>
       <c r="M159" t="n">
-        <v>-81.09014548640698</v>
+        <v>-93.78544184286147</v>
       </c>
       <c r="N159" t="n">
-        <v>344.0138259506957</v>
+        <v>349.3717152174306</v>
       </c>
       <c r="O159" t="n">
         <v>273.1318658866988</v>
@@ -8270,10 +8270,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E160" t="n">
-        <v>427281.904841417</v>
+        <v>427314.2079230794</v>
       </c>
       <c r="F160" t="n">
-        <v>7565260.603815307</v>
+        <v>7565208.543270631</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -8293,13 +8293,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L160" t="n">
-        <v>12.24674136453541</v>
+        <v>44.54982302687131</v>
       </c>
       <c r="M160" t="n">
-        <v>20.11567317601293</v>
+        <v>-31.94487150013447</v>
       </c>
       <c r="N160" t="n">
-        <v>23.55043484469</v>
+        <v>54.81935376202146</v>
       </c>
       <c r="O160" t="n">
         <v>273.1318658866988</v>
@@ -8319,10 +8319,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E161" t="n">
-        <v>427428.6074553634</v>
+        <v>427476.403897781</v>
       </c>
       <c r="F161" t="n">
-        <v>7565205.147657672</v>
+        <v>7565193.623644899</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -8342,13 +8342,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L161" t="n">
-        <v>158.9493553108769</v>
+        <v>206.7457977285376</v>
       </c>
       <c r="M161" t="n">
-        <v>-35.34048445895314</v>
+        <v>-46.86449723225087</v>
       </c>
       <c r="N161" t="n">
-        <v>162.8307323435502</v>
+        <v>211.990815789838</v>
       </c>
       <c r="O161" t="n">
         <v>273.1318658866988</v>
@@ -8368,10 +8368,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E162" t="n">
-        <v>427300.4725296271</v>
+        <v>427298.2124416729</v>
       </c>
       <c r="F162" t="n">
-        <v>7565237.74372905</v>
+        <v>7565225.975348466</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8391,13 +8391,13 @@
         <v>-122.2016804317633</v>
       </c>
       <c r="L162" t="n">
-        <v>33.70495863514952</v>
+        <v>31.44487068086164</v>
       </c>
       <c r="M162" t="n">
-        <v>-2.84178018476814</v>
+        <v>-14.6101607689634</v>
       </c>
       <c r="N162" t="n">
-        <v>33.82454657812402</v>
+        <v>34.67328495875563</v>
       </c>
       <c r="O162" t="n">
         <v>182.4301152444259</v>
@@ -8417,10 +8417,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E163" t="n">
-        <v>427314.3360958629</v>
+        <v>427295.3612362827</v>
       </c>
       <c r="F163" t="n">
-        <v>7565195.460676766</v>
+        <v>7565159.887083264</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -8440,13 +8440,13 @@
         <v>-188.1624862649478</v>
       </c>
       <c r="L163" t="n">
-        <v>47.56852487090509</v>
+        <v>28.59366529074032</v>
       </c>
       <c r="M163" t="n">
-        <v>-45.12483246903867</v>
+        <v>-80.69842597097158</v>
       </c>
       <c r="N163" t="n">
-        <v>65.56687474443724</v>
+        <v>85.61444766481455</v>
       </c>
       <c r="O163" t="n">
         <v>275.1667060338995</v>
@@ -8466,10 +8466,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E164" t="n">
-        <v>427059.2275653958</v>
+        <v>427065.6953643728</v>
       </c>
       <c r="F164" t="n">
-        <v>7564894.31021054</v>
+        <v>7564874.70109591</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-21.99014576524496</v>
       </c>
       <c r="L164" t="n">
-        <v>-207.5400055962382</v>
+        <v>-201.0722066191956</v>
       </c>
       <c r="M164" t="n">
-        <v>-346.27529869508</v>
+        <v>-365.8844133252278</v>
       </c>
       <c r="N164" t="n">
-        <v>403.707117114937</v>
+        <v>417.4942349171527</v>
       </c>
       <c r="O164" t="n">
         <v>53.0268544996143</v>
@@ -8515,10 +8515,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E165" t="n">
-        <v>427320.5761941827</v>
+        <v>427305.4988921998</v>
       </c>
       <c r="F165" t="n">
-        <v>7565154.539442437</v>
+        <v>7565148.329776687</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -8538,13 +8538,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L165" t="n">
-        <v>181.022883123951</v>
+        <v>165.9455811410444</v>
       </c>
       <c r="M165" t="n">
-        <v>-7.640653993934393</v>
+        <v>-13.85031974408776</v>
       </c>
       <c r="N165" t="n">
-        <v>181.1840605791874</v>
+        <v>166.5225728159772</v>
       </c>
       <c r="O165" t="n">
         <v>422.6547333935085</v>
@@ -8564,10 +8564,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E166" t="n">
-        <v>427321.181244323</v>
+        <v>427329.1568945003</v>
       </c>
       <c r="F166" t="n">
-        <v>7565165.650055233</v>
+        <v>7565147.299853049</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -8587,13 +8587,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L166" t="n">
-        <v>181.6279332641861</v>
+        <v>189.6035834414652</v>
       </c>
       <c r="M166" t="n">
-        <v>3.469958802685142</v>
+        <v>-14.88024338148534</v>
       </c>
       <c r="N166" t="n">
-        <v>181.6610766122231</v>
+        <v>190.1865938938307</v>
       </c>
       <c r="O166" t="n">
         <v>422.6547333935085</v>
@@ -8613,10 +8613,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E167" t="n">
-        <v>427289.5349730121</v>
+        <v>427268.8453522089</v>
       </c>
       <c r="F167" t="n">
-        <v>7565123.927712369</v>
+        <v>7565131.398153165</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -8636,13 +8636,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L167" t="n">
-        <v>149.9816619532648</v>
+        <v>129.2920411501545</v>
       </c>
       <c r="M167" t="n">
-        <v>-38.25238406192511</v>
+        <v>-30.78194326534867</v>
       </c>
       <c r="N167" t="n">
-        <v>154.7828924935971</v>
+        <v>132.9058310833817</v>
       </c>
       <c r="O167" t="n">
         <v>422.6547333935085</v>
@@ -8662,10 +8662,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E168" t="n">
-        <v>427317.1167349724</v>
+        <v>427289.9155984955</v>
       </c>
       <c r="F168" t="n">
-        <v>7565245.344784074</v>
+        <v>7565248.559657615</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8685,13 +8685,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L168" t="n">
-        <v>177.5634239136125</v>
+        <v>150.3622874366702</v>
       </c>
       <c r="M168" t="n">
-        <v>83.16468764375895</v>
+        <v>86.37956118397415</v>
       </c>
       <c r="N168" t="n">
-        <v>196.0743093391106</v>
+        <v>173.4077451370721</v>
       </c>
       <c r="O168" t="n">
         <v>422.6547333935085</v>
@@ -8711,10 +8711,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E169" t="n">
-        <v>427336.5994023472</v>
+        <v>427321.8157537809</v>
       </c>
       <c r="F169" t="n">
-        <v>7565040.017039025</v>
+        <v>7565045.41657661</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -8734,13 +8734,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L169" t="n">
-        <v>197.0460912883864</v>
+        <v>182.2624427221017</v>
       </c>
       <c r="M169" t="n">
-        <v>-122.1630574055016</v>
+        <v>-116.7635198207572</v>
       </c>
       <c r="N169" t="n">
-        <v>231.842564441241</v>
+        <v>216.4562717685948</v>
       </c>
       <c r="O169" t="n">
         <v>422.6547333935085</v>
@@ -8760,10 +8760,10 @@
         <v>7573998.691380767</v>
       </c>
       <c r="E170" t="n">
-        <v>421258.7818331369</v>
+        <v>421244.4942606566</v>
       </c>
       <c r="F170" t="n">
-        <v>7573863.038016718</v>
+        <v>7573843.613292246</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>11.65999576728791</v>
       </c>
       <c r="L170" t="n">
-        <v>-10.55790855042869</v>
+        <v>-24.84548103064299</v>
       </c>
       <c r="M170" t="n">
-        <v>-135.6533640492707</v>
+        <v>-155.0780885210261</v>
       </c>
       <c r="N170" t="n">
-        <v>136.0636050192821</v>
+        <v>157.0557591015982</v>
       </c>
       <c r="O170" t="n">
         <v>140.0880183230696</v>
@@ -8809,10 +8809,10 @@
         <v>7573998.691380767</v>
       </c>
       <c r="E171" t="n">
-        <v>421171.1591347008</v>
+        <v>421180.5913139471</v>
       </c>
       <c r="F171" t="n">
-        <v>7574072.481192576</v>
+        <v>7574047.797359525</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>11.65999576728791</v>
       </c>
       <c r="L171" t="n">
-        <v>-98.18060698651243</v>
+        <v>-88.7484277401818</v>
       </c>
       <c r="M171" t="n">
-        <v>73.78981180861592</v>
+        <v>49.10597875807434</v>
       </c>
       <c r="N171" t="n">
-        <v>122.818434752243</v>
+        <v>101.4282040467183</v>
       </c>
       <c r="O171" t="n">
         <v>140.0880183230696</v>
@@ -8858,10 +8858,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E172" t="n">
-        <v>424983.5396051218</v>
+        <v>425017.565755661</v>
       </c>
       <c r="F172" t="n">
-        <v>7577044.039320375</v>
+        <v>7577075.984160873</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8881,13 +8881,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L172" t="n">
-        <v>65.81080373434816</v>
+        <v>99.83695427351631</v>
       </c>
       <c r="M172" t="n">
-        <v>228.7357899136841</v>
+        <v>260.6806304119527</v>
       </c>
       <c r="N172" t="n">
-        <v>238.0149648143955</v>
+        <v>279.1447805540797</v>
       </c>
       <c r="O172" t="n">
         <v>172.7870594228591</v>
@@ -8907,10 +8907,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E173" t="n">
-        <v>425103.8862291105</v>
+        <v>425155.4771034151</v>
       </c>
       <c r="F173" t="n">
-        <v>7576997.851744268</v>
+        <v>7576952.052772084</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8930,13 +8930,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L173" t="n">
-        <v>186.1574277229956</v>
+        <v>237.7483020275831</v>
       </c>
       <c r="M173" t="n">
-        <v>182.5482138069347</v>
+        <v>136.7492416230962</v>
       </c>
       <c r="N173" t="n">
-        <v>260.7267501821489</v>
+        <v>274.2710524307857</v>
       </c>
       <c r="O173" t="n">
         <v>172.7870594228591</v>
@@ -8956,10 +8956,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E174" t="n">
-        <v>424935.6343760588</v>
+        <v>424940.0479850951</v>
       </c>
       <c r="F174" t="n">
-        <v>7577051.403352475</v>
+        <v>7577020.59086739</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8979,13 +8979,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L174" t="n">
-        <v>17.90557467134204</v>
+        <v>22.31918370758649</v>
       </c>
       <c r="M174" t="n">
-        <v>236.0998220136389</v>
+        <v>205.2873369287699</v>
       </c>
       <c r="N174" t="n">
-        <v>236.77781897632</v>
+        <v>206.497062121182</v>
       </c>
       <c r="O174" t="n">
         <v>172.7870594228591</v>
@@ -9005,10 +9005,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E175" t="n">
-        <v>424976.9075632012</v>
+        <v>425010.240363529</v>
       </c>
       <c r="F175" t="n">
-        <v>7577122.336708535</v>
+        <v>7577127.502884962</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -9028,13 +9028,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L175" t="n">
-        <v>59.17876181367319</v>
+        <v>92.51156214153161</v>
       </c>
       <c r="M175" t="n">
-        <v>307.0331780733541</v>
+        <v>312.1993545005098</v>
       </c>
       <c r="N175" t="n">
-        <v>312.6843428885165</v>
+        <v>325.6176071412623</v>
       </c>
       <c r="O175" t="n">
         <v>172.7870594228591</v>
@@ -9054,10 +9054,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E176" t="n">
-        <v>425034.8656924395</v>
+        <v>425021.7983803491</v>
       </c>
       <c r="F176" t="n">
-        <v>7576776.12522791</v>
+        <v>7576781.121398667</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9077,13 +9077,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L176" t="n">
-        <v>117.1368910520687</v>
+        <v>104.0695789615856</v>
       </c>
       <c r="M176" t="n">
-        <v>-39.17830255068839</v>
+        <v>-34.1821317942813</v>
       </c>
       <c r="N176" t="n">
-        <v>123.5151433472733</v>
+        <v>109.5394695954081</v>
       </c>
       <c r="O176" t="n">
         <v>172.7870594228591</v>
@@ -9103,10 +9103,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E177" t="n">
-        <v>424977.323707513</v>
+        <v>425017.8663196953</v>
       </c>
       <c r="F177" t="n">
-        <v>7576904.629563883</v>
+        <v>7576908.62796679</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -9126,13 +9126,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L177" t="n">
-        <v>59.59490612556692</v>
+        <v>100.1375183077762</v>
       </c>
       <c r="M177" t="n">
-        <v>89.32603342179209</v>
+        <v>93.32443632837385</v>
       </c>
       <c r="N177" t="n">
-        <v>107.3810648251648</v>
+        <v>136.8830631920871</v>
       </c>
       <c r="O177" t="n">
         <v>172.7870594228591</v>
@@ -9152,10 +9152,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E178" t="n">
-        <v>424868.2147397652</v>
+        <v>424907.9177033651</v>
       </c>
       <c r="F178" t="n">
-        <v>7577102.760944597</v>
+        <v>7577099.22321947</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9175,13 +9175,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L178" t="n">
-        <v>-78.89138579269638</v>
+        <v>-39.18842219281942</v>
       </c>
       <c r="M178" t="n">
-        <v>230.8645441802219</v>
+        <v>227.3268190529197</v>
       </c>
       <c r="N178" t="n">
-        <v>243.9719010702537</v>
+        <v>230.679897465474</v>
       </c>
       <c r="O178" t="n">
         <v>461.3656302132206</v>
@@ -9201,10 +9201,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E179" t="n">
-        <v>424868.7925169939</v>
+        <v>424863.8618821413</v>
       </c>
       <c r="F179" t="n">
-        <v>7577112.297878732</v>
+        <v>7577108.8675574</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9224,13 +9224,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L179" t="n">
-        <v>-78.31360856402898</v>
+        <v>-83.24424341664417</v>
       </c>
       <c r="M179" t="n">
-        <v>240.4014783147722</v>
+        <v>236.971156982705</v>
       </c>
       <c r="N179" t="n">
-        <v>252.8357017160509</v>
+        <v>251.1671421657923</v>
       </c>
       <c r="O179" t="n">
         <v>461.3656302132206</v>
@@ -9250,10 +9250,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E180" t="n">
-        <v>424660.0002375</v>
+        <v>424676.3673454925</v>
       </c>
       <c r="F180" t="n">
-        <v>7576332.129775311</v>
+        <v>7576315.470065616</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -9273,13 +9273,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L180" t="n">
-        <v>-287.1058880579076</v>
+        <v>-270.7387800653814</v>
       </c>
       <c r="M180" t="n">
-        <v>-539.7666251063347</v>
+        <v>-556.42633480113</v>
       </c>
       <c r="N180" t="n">
-        <v>611.3736995784185</v>
+        <v>618.7970209135708</v>
       </c>
       <c r="O180" t="n">
         <v>926.5222753325139</v>
@@ -9299,10 +9299,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E181" t="n">
-        <v>424986.7877751184</v>
+        <v>424989.5810948663</v>
       </c>
       <c r="F181" t="n">
-        <v>7576315.860774782</v>
+        <v>7576305.469802208</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -9322,13 +9322,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L181" t="n">
-        <v>39.68164956045803</v>
+        <v>42.47496930841589</v>
       </c>
       <c r="M181" t="n">
-        <v>-556.035625634715</v>
+        <v>-566.4265982089564</v>
       </c>
       <c r="N181" t="n">
-        <v>557.4497737795109</v>
+        <v>568.0169136357838</v>
       </c>
       <c r="O181" t="n">
         <v>695.4513517348389</v>
@@ -9348,10 +9348,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E182" t="n">
-        <v>424862.7612444436</v>
+        <v>424825.4052785133</v>
       </c>
       <c r="F182" t="n">
-        <v>7576287.162933233</v>
+        <v>7576243.081415442</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -9371,13 +9371,13 @@
         <v>311.9932252077386</v>
       </c>
       <c r="L182" t="n">
-        <v>-53.18170667125378</v>
+        <v>-90.53767260152381</v>
       </c>
       <c r="M182" t="n">
-        <v>-141.8109061745927</v>
+        <v>-185.8924239659682</v>
       </c>
       <c r="N182" t="n">
-        <v>151.4550330445522</v>
+        <v>206.7681393446388</v>
       </c>
       <c r="O182" t="n">
         <v>582.8104246553874</v>
@@ -9397,10 +9397,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E183" t="n">
-        <v>424629.5840018603</v>
+        <v>424621.0859501029</v>
       </c>
       <c r="F183" t="n">
-        <v>7576179.094908101</v>
+        <v>7576128.259380668</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -9420,13 +9420,13 @@
         <v>254.3402890078723</v>
       </c>
       <c r="L183" t="n">
-        <v>-286.358949254558</v>
+        <v>-294.8570010119001</v>
       </c>
       <c r="M183" t="n">
-        <v>-249.8789313072339</v>
+        <v>-300.714458739385</v>
       </c>
       <c r="N183" t="n">
-        <v>380.0538489864559</v>
+        <v>421.1529849599228</v>
       </c>
       <c r="O183" t="n">
         <v>627.3353900038757</v>
@@ -9446,10 +9446,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E184" t="n">
-        <v>424621.6094764136</v>
+        <v>424603.5205955074</v>
       </c>
       <c r="F184" t="n">
-        <v>7576212.426709066</v>
+        <v>7576188.66140823</v>
       </c>
       <c r="G184" t="n">
         <v>6</v>
@@ -9469,13 +9469,13 @@
         <v>381.6013254079347</v>
       </c>
       <c r="L184" t="n">
-        <v>-294.3334747012705</v>
+        <v>-312.422355607443</v>
       </c>
       <c r="M184" t="n">
-        <v>-216.5471303416416</v>
+        <v>-240.3124311780557</v>
       </c>
       <c r="N184" t="n">
-        <v>365.4105280214616</v>
+        <v>394.1545291659241</v>
       </c>
       <c r="O184" t="n">
         <v>825.8420674232218</v>
@@ -9495,10 +9495,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E185" t="n">
-        <v>424230.8743952464</v>
+        <v>424230.0520773539</v>
       </c>
       <c r="F185" t="n">
-        <v>7576256.013899448</v>
+        <v>7576250.760497478</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -9518,13 +9518,13 @@
         <v>156.2064815745689</v>
       </c>
       <c r="L185" t="n">
-        <v>-685.0685558684054</v>
+        <v>-685.8908737609163</v>
       </c>
       <c r="M185" t="n">
-        <v>-172.959939959459</v>
+        <v>-178.2133419299498</v>
       </c>
       <c r="N185" t="n">
-        <v>706.5649772458313</v>
+        <v>708.6651437388143</v>
       </c>
       <c r="O185" t="n">
         <v>1056.794012444648</v>
@@ -9544,10 +9544,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E186" t="n">
-        <v>425082.0100555366</v>
+        <v>425121.3278511224</v>
       </c>
       <c r="F186" t="n">
-        <v>7576808.718200795</v>
+        <v>7576768.347161327</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9567,13 +9567,13 @@
         <v>18.38335740752518</v>
       </c>
       <c r="L186" t="n">
-        <v>166.0671044217888</v>
+        <v>205.3849000075716</v>
       </c>
       <c r="M186" t="n">
-        <v>379.7443613875657</v>
+        <v>339.373321919702</v>
       </c>
       <c r="N186" t="n">
-        <v>414.468410348349</v>
+        <v>396.6827558414076</v>
       </c>
       <c r="O186" t="n">
         <v>30.02606654521618</v>
@@ -9593,10 +9593,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E187" t="n">
-        <v>424336.7934406236</v>
+        <v>424305.1161539623</v>
       </c>
       <c r="F187" t="n">
-        <v>7576075.768900651</v>
+        <v>7576043.855018468</v>
       </c>
       <c r="G187" t="n">
         <v>8</v>
@@ -9616,13 +9616,13 @@
         <v>467.1735055824975</v>
       </c>
       <c r="L187" t="n">
-        <v>-554.9312464649556</v>
+        <v>-586.6085331262439</v>
       </c>
       <c r="M187" t="n">
-        <v>-363.3847518060356</v>
+        <v>-395.298633989878</v>
       </c>
       <c r="N187" t="n">
-        <v>663.322821971537</v>
+        <v>707.3687731097458</v>
       </c>
       <c r="O187" t="n">
         <v>973.0869012650965</v>
@@ -9642,10 +9642,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E188" t="n">
-        <v>424656.4102149166</v>
+        <v>424642.6252399727</v>
       </c>
       <c r="F188" t="n">
-        <v>7576159.151250614</v>
+        <v>7576126.687249675</v>
       </c>
       <c r="G188" t="n">
         <v>9</v>
@@ -9665,13 +9665,13 @@
         <v>417.4090739019836</v>
       </c>
       <c r="L188" t="n">
-        <v>-235.3144721719436</v>
+        <v>-249.0994471158483</v>
       </c>
       <c r="M188" t="n">
-        <v>-280.002401843667</v>
+        <v>-312.4664027821273</v>
       </c>
       <c r="N188" t="n">
-        <v>365.751617702209</v>
+        <v>399.6070412555613</v>
       </c>
       <c r="O188" t="n">
         <v>1016.280378186309</v>
@@ -9691,10 +9691,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E189" t="n">
-        <v>424755.2319206638</v>
+        <v>424768.8832235828</v>
       </c>
       <c r="F189" t="n">
-        <v>7576092.631556416</v>
+        <v>7576087.869158627</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -9714,13 +9714,13 @@
         <v>495.7723283146375</v>
       </c>
       <c r="L189" t="n">
-        <v>-136.4927664247225</v>
+        <v>-122.8414635056979</v>
       </c>
       <c r="M189" t="n">
-        <v>-346.52209604159</v>
+        <v>-351.284493830055</v>
       </c>
       <c r="N189" t="n">
-        <v>372.4350122253958</v>
+        <v>372.1435485960487</v>
       </c>
       <c r="O189" t="n">
         <v>855.7219542318107</v>
@@ -9740,10 +9740,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E190" t="n">
-        <v>427414.2603693518</v>
+        <v>427400.9629198796</v>
       </c>
       <c r="F190" t="n">
-        <v>7564991.307625467</v>
+        <v>7564982.896451569</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -9763,13 +9763,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L190" t="n">
-        <v>-136.1097596552572</v>
+        <v>-149.4072091274429</v>
       </c>
       <c r="M190" t="n">
-        <v>34.56621203012764</v>
+        <v>26.15503813233227</v>
       </c>
       <c r="N190" t="n">
-        <v>140.4303730947249</v>
+        <v>151.6792673998501</v>
       </c>
       <c r="O190" t="n">
         <v>479.21832990863</v>
@@ -9789,10 +9789,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E191" t="n">
-        <v>427465.2340361953</v>
+        <v>427448.8519166718</v>
       </c>
       <c r="F191" t="n">
-        <v>7565119.683497169</v>
+        <v>7565117.985439471</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9812,13 +9812,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L191" t="n">
-        <v>-85.13609281176468</v>
+        <v>-101.5182123352424</v>
       </c>
       <c r="M191" t="n">
-        <v>162.942083732225</v>
+        <v>161.2440260341391</v>
       </c>
       <c r="N191" t="n">
-        <v>183.8430769712388</v>
+        <v>190.5402408087108</v>
       </c>
       <c r="O191" t="n">
         <v>527.3973946174215</v>
@@ -9838,10 +9838,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E192" t="n">
-        <v>425136.3532878034</v>
+        <v>425154.4066295348</v>
       </c>
       <c r="F192" t="n">
-        <v>7576718.616032382</v>
+        <v>7576726.174200777</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9861,13 +9861,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L192" t="n">
-        <v>-287.3209685524344</v>
+        <v>-269.2676268210053</v>
       </c>
       <c r="M192" t="n">
-        <v>126.1865742765367</v>
+        <v>133.7447426710278</v>
       </c>
       <c r="N192" t="n">
-        <v>313.8094812104263</v>
+        <v>300.6538059728425</v>
       </c>
       <c r="O192" t="n">
         <v>737.6384903303916</v>
@@ -9887,10 +9887,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E193" t="n">
-        <v>425126.7844294645</v>
+        <v>425076.8016379297</v>
       </c>
       <c r="F193" t="n">
-        <v>7576714.441366157</v>
+        <v>7576688.556254905</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9910,13 +9910,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L193" t="n">
-        <v>-296.8898268913617</v>
+        <v>-346.8726184261031</v>
       </c>
       <c r="M193" t="n">
-        <v>122.0119080506265</v>
+        <v>96.12679679878056</v>
       </c>
       <c r="N193" t="n">
-        <v>320.9836055279728</v>
+        <v>359.9457938031434</v>
       </c>
       <c r="O193" t="n">
         <v>737.6384903303916</v>
@@ -9936,10 +9936,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E194" t="n">
-        <v>425069.7336966018</v>
+        <v>425074.2660715258</v>
       </c>
       <c r="F194" t="n">
-        <v>7576745.147799594</v>
+        <v>7576705.517909572</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9959,13 +9959,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L194" t="n">
-        <v>-353.9405597540899</v>
+        <v>-349.4081848300993</v>
       </c>
       <c r="M194" t="n">
-        <v>152.7183414883912</v>
+        <v>113.0884514655918</v>
       </c>
       <c r="N194" t="n">
-        <v>385.4825698601733</v>
+        <v>367.2534240564005</v>
       </c>
       <c r="O194" t="n">
         <v>737.6384903303916</v>
@@ -9985,10 +9985,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E195" t="n">
-        <v>425056.3029528949</v>
+        <v>425013.7605032739</v>
       </c>
       <c r="F195" t="n">
-        <v>7576757.489112434</v>
+        <v>7576742.329954764</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L195" t="n">
-        <v>-367.3713034609682</v>
+        <v>-409.913753081928</v>
       </c>
       <c r="M195" t="n">
-        <v>165.0596543280408</v>
+        <v>149.9004966579378</v>
       </c>
       <c r="N195" t="n">
-        <v>402.7485122176159</v>
+        <v>436.4624197614364</v>
       </c>
       <c r="O195" t="n">
         <v>737.6384903303916</v>
@@ -10034,10 +10034,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E196" t="n">
-        <v>424356.677765291</v>
+        <v>424364.5865871295</v>
       </c>
       <c r="F196" t="n">
-        <v>7576773.301918198</v>
+        <v>7576740.304694636</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -10057,13 +10057,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L196" t="n">
-        <v>-1137.799643475446</v>
+        <v>-1129.890821636945</v>
       </c>
       <c r="M196" t="n">
-        <v>81.24742471147329</v>
+        <v>48.25020114891231</v>
       </c>
       <c r="N196" t="n">
-        <v>1140.696792629443</v>
+        <v>1130.920576667664</v>
       </c>
       <c r="O196" t="n">
         <v>1579.666606178597</v>
@@ -10083,10 +10083,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E197" t="n">
-        <v>424567.4877138895</v>
+        <v>424536.7575925413</v>
       </c>
       <c r="F197" t="n">
-        <v>7576512.537320821</v>
+        <v>7576504.93096522</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -10106,13 +10106,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L197" t="n">
-        <v>-926.9896948769456</v>
+        <v>-957.7198162251152</v>
       </c>
       <c r="M197" t="n">
-        <v>-179.5171726662666</v>
+        <v>-187.1235282672569</v>
       </c>
       <c r="N197" t="n">
-        <v>944.2120046314508</v>
+        <v>975.8291147641862</v>
       </c>
       <c r="O197" t="n">
         <v>1579.666606178597</v>
@@ -10132,10 +10132,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E198" t="n">
-        <v>424635.2004797903</v>
+        <v>424645.9626429843</v>
       </c>
       <c r="F198" t="n">
-        <v>7576645.910441917</v>
+        <v>7576612.771756616</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -10155,13 +10155,13 @@
         <v>144.4630178203806</v>
       </c>
       <c r="L198" t="n">
-        <v>-859.27692897612</v>
+        <v>-848.5147657821071</v>
       </c>
       <c r="M198" t="n">
-        <v>-46.14405156951398</v>
+        <v>-79.28273687046021</v>
       </c>
       <c r="N198" t="n">
-        <v>860.5150284369715</v>
+        <v>852.2106899798516</v>
       </c>
       <c r="O198" t="n">
         <v>1517.780143646836</v>
@@ -10181,10 +10181,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E199" t="n">
-        <v>424682.685575634</v>
+        <v>424639.759717803</v>
       </c>
       <c r="F199" t="n">
-        <v>7576596.719924969</v>
+        <v>7576574.706000492</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -10204,13 +10204,13 @@
         <v>73.42689748698224</v>
       </c>
       <c r="L199" t="n">
-        <v>-811.791833132389</v>
+        <v>-854.7176909634145</v>
       </c>
       <c r="M199" t="n">
-        <v>-95.33456851821393</v>
+        <v>-117.3484929949045</v>
       </c>
       <c r="N199" t="n">
-        <v>817.3705770915653</v>
+        <v>862.7357649095151</v>
       </c>
       <c r="O199" t="n">
         <v>1363.402226775267</v>
@@ -10230,10 +10230,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E200" t="n">
-        <v>424474.5903337331</v>
+        <v>424451.0882210713</v>
       </c>
       <c r="F200" t="n">
-        <v>7576518.893744531</v>
+        <v>7576508.158388547</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -10253,13 +10253,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L200" t="n">
-        <v>-1019.887075033272</v>
+        <v>-1043.389187695109</v>
       </c>
       <c r="M200" t="n">
-        <v>-173.1607489557937</v>
+        <v>-183.8961049402133</v>
       </c>
       <c r="N200" t="n">
-        <v>1034.482619863115</v>
+        <v>1059.470987998842</v>
       </c>
       <c r="O200" t="n">
         <v>1579.666606178597</v>
@@ -10279,10 +10279,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E201" t="n">
-        <v>424806.5375730567</v>
+        <v>424774.1840320748</v>
       </c>
       <c r="F201" t="n">
-        <v>7576644.93981863</v>
+        <v>7576600.73334692</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -10302,13 +10302,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L201" t="n">
-        <v>-687.9398357096943</v>
+        <v>-720.2933766915812</v>
       </c>
       <c r="M201" t="n">
-        <v>-47.11467485688627</v>
+        <v>-91.32114656642079</v>
       </c>
       <c r="N201" t="n">
-        <v>689.551310739927</v>
+        <v>726.0592953168259</v>
       </c>
       <c r="O201" t="n">
         <v>1579.666606178597</v>
@@ -10328,10 +10328,10 @@
         <v>7574245.787594238</v>
       </c>
       <c r="E202" t="n">
-        <v>421948.3486215376</v>
+        <v>421892.341068709</v>
       </c>
       <c r="F202" t="n">
-        <v>7573963.383650741</v>
+        <v>7573953.992671581</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10351,13 +10351,13 @@
         <v>258.7562092384323</v>
       </c>
       <c r="L202" t="n">
-        <v>-109.421682235843</v>
+        <v>-165.4292350643664</v>
       </c>
       <c r="M202" t="n">
-        <v>-282.4039434976876</v>
+        <v>-291.794922657311</v>
       </c>
       <c r="N202" t="n">
-        <v>302.8615060491625</v>
+        <v>335.4267560922465</v>
       </c>
       <c r="O202" t="n">
         <v>963.4308861180651</v>
@@ -10377,10 +10377,10 @@
         <v>7574245.787594238</v>
       </c>
       <c r="E203" t="n">
-        <v>421985.3600622922</v>
+        <v>421928.0330762628</v>
       </c>
       <c r="F203" t="n">
-        <v>7574000.616834214</v>
+        <v>7573985.173163963</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10400,13 +10400,13 @@
         <v>258.7562092384323</v>
       </c>
       <c r="L203" t="n">
-        <v>-72.41024148120778</v>
+        <v>-129.7372275106027</v>
       </c>
       <c r="M203" t="n">
-        <v>-245.170760024339</v>
+        <v>-260.6144302748144</v>
       </c>
       <c r="N203" t="n">
-        <v>255.6402641257414</v>
+        <v>291.1213311827286</v>
       </c>
       <c r="O203" t="n">
         <v>963.4308861180651</v>
@@ -10426,10 +10426,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E204" t="n">
-        <v>421929.4065821307</v>
+        <v>421889.6942495425</v>
       </c>
       <c r="F204" t="n">
-        <v>7574051.159640548</v>
+        <v>7573998.03788688</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10449,13 +10449,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L204" t="n">
-        <v>168.2541062928503</v>
+        <v>128.5417737046955</v>
       </c>
       <c r="M204" t="n">
-        <v>243.3042297335342</v>
+        <v>190.1824760660529</v>
       </c>
       <c r="N204" t="n">
-        <v>295.8147942389531</v>
+        <v>229.5481687789383</v>
       </c>
       <c r="O204" t="n">
         <v>656.3448035298604</v>
@@ -10475,10 +10475,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E205" t="n">
-        <v>422000.4169064912</v>
+        <v>421912.8796305005</v>
       </c>
       <c r="F205" t="n">
-        <v>7574059.179926876</v>
+        <v>7574038.905634963</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10498,13 +10498,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L205" t="n">
-        <v>239.2644306533621</v>
+        <v>151.7271546625998</v>
       </c>
       <c r="M205" t="n">
-        <v>251.3245160616934</v>
+        <v>231.0502241486683</v>
       </c>
       <c r="N205" t="n">
-        <v>347.0035736840788</v>
+        <v>276.4151507084197</v>
       </c>
       <c r="O205" t="n">
         <v>656.3448035298604</v>
@@ -10524,10 +10524,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E206" t="n">
-        <v>421974.6024449743</v>
+        <v>421861.984449971</v>
       </c>
       <c r="F206" t="n">
-        <v>7573980.141703717</v>
+        <v>7573991.759738381</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10547,13 +10547,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L206" t="n">
-        <v>213.4499691364472</v>
+        <v>100.8319741331507</v>
       </c>
       <c r="M206" t="n">
-        <v>172.2862929031253</v>
+        <v>183.9043275667354</v>
       </c>
       <c r="N206" t="n">
-        <v>274.3054065210012</v>
+        <v>209.7328984812862</v>
       </c>
       <c r="O206" t="n">
         <v>656.3448035298604</v>
@@ -10573,10 +10573,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E207" t="n">
-        <v>421857.516205704</v>
+        <v>421860.7909168123</v>
       </c>
       <c r="F207" t="n">
-        <v>7574025.685377893</v>
+        <v>7573995.742062728</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10596,13 +10596,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L207" t="n">
-        <v>96.36372986616334</v>
+        <v>99.63844097446417</v>
       </c>
       <c r="M207" t="n">
-        <v>217.8299670787528</v>
+        <v>187.8866519136354</v>
       </c>
       <c r="N207" t="n">
-        <v>238.1929112951295</v>
+        <v>212.671608088944</v>
       </c>
       <c r="O207" t="n">
         <v>656.3448035298604</v>
@@ -10622,10 +10622,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E208" t="n">
-        <v>427864.2710998694</v>
+        <v>427850.5411955192</v>
       </c>
       <c r="F208" t="n">
-        <v>7565109.493442062</v>
+        <v>7565094.717974235</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -10645,13 +10645,13 @@
         <v>-426.1484427840139</v>
       </c>
       <c r="L208" t="n">
-        <v>299.8416440108558</v>
+        <v>286.1117396606714</v>
       </c>
       <c r="M208" t="n">
-        <v>180.02901484631</v>
+        <v>165.2535470193252</v>
       </c>
       <c r="N208" t="n">
-        <v>349.736268736409</v>
+        <v>330.4068134499108</v>
       </c>
       <c r="O208" t="n">
         <v>426.746991743381</v>
@@ -10671,10 +10671,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E209" t="n">
-        <v>427515.8873931571</v>
+        <v>427517.0099973681</v>
       </c>
       <c r="F209" t="n">
-        <v>7565077.064803872</v>
+        <v>7565076.040059842</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -10694,13 +10694,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L209" t="n">
-        <v>-48.54206270148279</v>
+        <v>-47.41945849044714</v>
       </c>
       <c r="M209" t="n">
-        <v>147.600376656279</v>
+        <v>146.5756326261908</v>
       </c>
       <c r="N209" t="n">
-        <v>155.3776143477242</v>
+        <v>154.0552534751583</v>
       </c>
       <c r="O209" t="n">
         <v>508.5967658551147</v>
@@ -10720,10 +10720,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E210" t="n">
-        <v>427581.3654295014</v>
+        <v>427577.2048700494</v>
       </c>
       <c r="F210" t="n">
-        <v>7565089.491904924</v>
+        <v>7565092.57122381</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -10743,13 +10743,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L210" t="n">
-        <v>16.93597364285961</v>
+        <v>12.77541419083718</v>
       </c>
       <c r="M210" t="n">
-        <v>160.0274777077138</v>
+        <v>163.1067965943366</v>
       </c>
       <c r="N210" t="n">
-        <v>160.9211633835789</v>
+        <v>163.6063516585274</v>
       </c>
       <c r="O210" t="n">
         <v>508.5967658551147</v>
@@ -10769,10 +10769,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E211" t="n">
-        <v>427566.7568992842</v>
+        <v>427550.3752922225</v>
       </c>
       <c r="F211" t="n">
-        <v>7565099.584836083</v>
+        <v>7565095.281011115</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -10792,13 +10792,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L211" t="n">
-        <v>2.327443425660022</v>
+        <v>-14.05416363605764</v>
       </c>
       <c r="M211" t="n">
-        <v>170.1204088665545</v>
+        <v>165.8165838988498</v>
       </c>
       <c r="N211" t="n">
-        <v>170.1363291769966</v>
+        <v>166.4111144467021</v>
       </c>
       <c r="O211" t="n">
         <v>508.5967658551147</v>
@@ -10818,10 +10818,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E212" t="n">
-        <v>427574.578373902</v>
+        <v>427566.5446058054</v>
       </c>
       <c r="F212" t="n">
-        <v>7565182.97059841</v>
+        <v>7565181.281032689</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -10841,13 +10841,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L212" t="n">
-        <v>10.1489180434146</v>
+        <v>2.115149946825113</v>
       </c>
       <c r="M212" t="n">
-        <v>253.5061711939052</v>
+        <v>251.8166054729372</v>
       </c>
       <c r="N212" t="n">
-        <v>253.7092417923429</v>
+        <v>251.8254884859959</v>
       </c>
       <c r="O212" t="n">
         <v>508.5967658551147</v>
@@ -10867,10 +10867,10 @@
         <v>7564945.536025301</v>
       </c>
       <c r="E213" t="n">
-        <v>427396.8773493029</v>
+        <v>427384.0919410713</v>
       </c>
       <c r="F213" t="n">
-        <v>7565012.049246387</v>
+        <v>7564985.219201106</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -10890,13 +10890,13 @@
         <v>-417.2511643661807</v>
       </c>
       <c r="L213" t="n">
-        <v>-220.3244468704797</v>
+        <v>-233.1098551020841</v>
       </c>
       <c r="M213" t="n">
-        <v>66.51322108600289</v>
+        <v>39.6831758050248</v>
       </c>
       <c r="N213" t="n">
-        <v>230.1453246712137</v>
+        <v>236.4634411229084</v>
       </c>
       <c r="O213" t="n">
         <v>469.3777704997882</v>
@@ -10916,10 +10916,10 @@
         <v>7564945.536025301</v>
       </c>
       <c r="E214" t="n">
-        <v>427610.7459236438</v>
+        <v>427586.330217261</v>
       </c>
       <c r="F214" t="n">
-        <v>7565117.105335808</v>
+        <v>7565105.741368223</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -10939,13 +10939,13 @@
         <v>-483.2119701993652</v>
       </c>
       <c r="L214" t="n">
-        <v>-6.455872529593762</v>
+        <v>-30.87157891236711</v>
       </c>
       <c r="M214" t="n">
-        <v>171.5693105077371</v>
+        <v>160.2053429223597</v>
       </c>
       <c r="N214" t="n">
-        <v>171.690729505756</v>
+        <v>163.1527084832286</v>
       </c>
       <c r="O214" t="n">
         <v>505.8566503636082</v>
@@ -10965,10 +10965,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E215" t="n">
-        <v>421123.1992842065</v>
+        <v>421138.8393219477</v>
       </c>
       <c r="F215" t="n">
-        <v>7573993.998380701</v>
+        <v>7574015.21736646</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10988,13 +10988,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L215" t="n">
-        <v>-4.511380066745915</v>
+        <v>11.12865767447511</v>
       </c>
       <c r="M215" t="n">
-        <v>174.3413782417774</v>
+        <v>195.5603640004992</v>
       </c>
       <c r="N215" t="n">
-        <v>174.399738294956</v>
+        <v>195.8767545923799</v>
       </c>
       <c r="O215" t="n">
         <v>167.3866580077973</v>
@@ -11014,10 +11014,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E216" t="n">
-        <v>421008.3752807687</v>
+        <v>420981.1878874234</v>
       </c>
       <c r="F216" t="n">
-        <v>7573569.627886997</v>
+        <v>7573538.886193031</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -11037,13 +11037,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L216" t="n">
-        <v>-119.3353835045127</v>
+        <v>-146.5227768498007</v>
       </c>
       <c r="M216" t="n">
-        <v>-250.0291154626757</v>
+        <v>-280.7708094287664</v>
       </c>
       <c r="N216" t="n">
-        <v>277.0478159726532</v>
+        <v>316.7036020683395</v>
       </c>
       <c r="O216" t="n">
         <v>167.3866580077973</v>
@@ -11063,10 +11063,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E217" t="n">
-        <v>420946.6068663743</v>
+        <v>420924.5517793865</v>
       </c>
       <c r="F217" t="n">
-        <v>7573524.78620788</v>
+        <v>7573483.849434</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -11086,13 +11086,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L217" t="n">
-        <v>-181.1037978989189</v>
+        <v>-203.1588848867104</v>
       </c>
       <c r="M217" t="n">
-        <v>-294.8707945793867</v>
+        <v>-335.8075684588403</v>
       </c>
       <c r="N217" t="n">
-        <v>346.0453310034559</v>
+        <v>392.4796243662215</v>
       </c>
       <c r="O217" t="n">
         <v>167.3866580077973</v>
@@ -11112,10 +11112,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E218" t="n">
-        <v>421059.4488814849</v>
+        <v>421068.6340864305</v>
       </c>
       <c r="F218" t="n">
-        <v>7573647.477725823</v>
+        <v>7573627.720466996</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -11135,13 +11135,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L218" t="n">
-        <v>-68.26178278832231</v>
+        <v>-59.07657784275943</v>
       </c>
       <c r="M218" t="n">
-        <v>-172.1792766358703</v>
+        <v>-191.9365354636684</v>
       </c>
       <c r="N218" t="n">
-        <v>185.2171004316061</v>
+        <v>200.8224979811964</v>
       </c>
       <c r="O218" t="n">
         <v>167.3866580077973</v>
@@ -11161,10 +11161,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E219" t="n">
-        <v>420981.9634013355</v>
+        <v>420971.1065391091</v>
       </c>
       <c r="F219" t="n">
-        <v>7573501.170758207</v>
+        <v>7573473.515277206</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -11184,13 +11184,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L219" t="n">
-        <v>-143.2581177717657</v>
+        <v>-154.1149799981504</v>
       </c>
       <c r="M219" t="n">
-        <v>-237.6664694314823</v>
+        <v>-265.3219504328445</v>
       </c>
       <c r="N219" t="n">
-        <v>277.5035837598044</v>
+        <v>306.8340992153888</v>
       </c>
       <c r="O219" t="n">
         <v>248.2352446668662</v>
@@ -11210,10 +11210,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E220" t="n">
-        <v>420959.3897999936</v>
+        <v>420960.1396209008</v>
       </c>
       <c r="F220" t="n">
-        <v>7573449.437107665</v>
+        <v>7573417.272292332</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -11233,13 +11233,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L220" t="n">
-        <v>-165.8317191136885</v>
+        <v>-165.0818982064957</v>
       </c>
       <c r="M220" t="n">
-        <v>-289.4001199733466</v>
+        <v>-321.5649353070185</v>
       </c>
       <c r="N220" t="n">
-        <v>333.5454819133197</v>
+        <v>361.463747469185</v>
       </c>
       <c r="O220" t="n">
         <v>248.2352446668662</v>
@@ -11259,10 +11259,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E221" t="n">
-        <v>420967.9299111293</v>
+        <v>420927.2662874331</v>
       </c>
       <c r="F221" t="n">
-        <v>7573456.510544526</v>
+        <v>7573438.51493366</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -11282,13 +11282,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L221" t="n">
-        <v>-157.291607977997</v>
+        <v>-197.9552316741901</v>
       </c>
       <c r="M221" t="n">
-        <v>-282.3266831124201</v>
+        <v>-300.3222939791158</v>
       </c>
       <c r="N221" t="n">
-        <v>323.1857143154147</v>
+        <v>359.6939727157806</v>
       </c>
       <c r="O221" t="n">
         <v>248.2352446668662</v>
@@ -11308,10 +11308,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E222" t="n">
-        <v>420968.2210253649</v>
+        <v>420955.5414570689</v>
       </c>
       <c r="F222" t="n">
-        <v>7573492.328680258</v>
+        <v>7573453.901828103</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -11331,13 +11331,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L222" t="n">
-        <v>-157.0004937424092</v>
+        <v>-169.6800620383583</v>
       </c>
       <c r="M222" t="n">
-        <v>-246.5085473805666</v>
+        <v>-284.9353995360434</v>
       </c>
       <c r="N222" t="n">
-        <v>292.259506204738</v>
+        <v>331.6315807671305</v>
       </c>
       <c r="O222" t="n">
         <v>248.2352446668662</v>
@@ -11357,10 +11357,10 @@
         <v>7573803.847646404</v>
       </c>
       <c r="E223" t="n">
-        <v>421178.9506528168</v>
+        <v>421192.8796864864</v>
       </c>
       <c r="F223" t="n">
-        <v>7573940.739904138</v>
+        <v>7573929.152747706</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -11380,13 +11380,13 @@
         <v>-183.1837385958061</v>
       </c>
       <c r="L223" t="n">
-        <v>69.44086139911087</v>
+        <v>83.36989506869577</v>
       </c>
       <c r="M223" t="n">
-        <v>136.8922577342018</v>
+        <v>125.3051013015211</v>
       </c>
       <c r="N223" t="n">
-        <v>153.497633400055</v>
+        <v>150.5055075934093</v>
       </c>
       <c r="O223" t="n">
         <v>184.2971923413266</v>
@@ -11406,10 +11406,10 @@
         <v>7573803.847646404</v>
       </c>
       <c r="E224" t="n">
-        <v>421235.048386226</v>
+        <v>421182.8937367607</v>
       </c>
       <c r="F224" t="n">
-        <v>7573720.258987932</v>
+        <v>7573752.489984613</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -11429,13 +11429,13 @@
         <v>-183.1837385958061</v>
       </c>
       <c r="L224" t="n">
-        <v>125.5385948083131</v>
+        <v>73.38394534296822</v>
       </c>
       <c r="M224" t="n">
-        <v>-83.58865847159177</v>
+        <v>-51.3576617911458</v>
       </c>
       <c r="N224" t="n">
-        <v>150.8210947166417</v>
+        <v>89.57015607194991</v>
       </c>
       <c r="O224" t="n">
         <v>184.2971923413266</v>
@@ -11455,10 +11455,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E225" t="n">
-        <v>421143.2731859552</v>
+        <v>421140.0455827654</v>
       </c>
       <c r="F225" t="n">
-        <v>7573753.154563772</v>
+        <v>7573780.348271279</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -11478,13 +11478,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L225" t="n">
-        <v>44.85844258707948</v>
+        <v>41.63083939725766</v>
       </c>
       <c r="M225" t="n">
-        <v>64.70643402542919</v>
+        <v>91.90014153160155</v>
       </c>
       <c r="N225" t="n">
-        <v>78.73501429240694</v>
+        <v>100.8898548043789</v>
       </c>
       <c r="O225" t="n">
         <v>300.2217434815566</v>
@@ -11504,10 +11504,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E226" t="n">
-        <v>421192.8000976753</v>
+        <v>421210.315383066</v>
       </c>
       <c r="F226" t="n">
-        <v>7573760.82709432</v>
+        <v>7573756.166961109</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -11527,13 +11527,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L226" t="n">
-        <v>94.38535430713091</v>
+        <v>111.9006396978511</v>
       </c>
       <c r="M226" t="n">
-        <v>72.37896457314491</v>
+        <v>67.71883136220276</v>
       </c>
       <c r="N226" t="n">
-        <v>118.9424634870289</v>
+        <v>130.795998737923</v>
       </c>
       <c r="O226" t="n">
         <v>300.2217434815566</v>
@@ -11553,10 +11553,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E227" t="n">
-        <v>421122.2742410842</v>
+        <v>421137.3278119927</v>
       </c>
       <c r="F227" t="n">
-        <v>7573961.418908719</v>
+        <v>7573935.586842116</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -11576,13 +11576,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L227" t="n">
-        <v>23.85949771601008</v>
+        <v>38.91306862450438</v>
       </c>
       <c r="M227" t="n">
-        <v>272.9707789719105</v>
+        <v>247.1387123689055</v>
       </c>
       <c r="N227" t="n">
-        <v>274.0115358954653</v>
+        <v>250.183472797737</v>
       </c>
       <c r="O227" t="n">
         <v>300.2217434815566</v>
@@ -11602,10 +11602,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E228" t="n">
-        <v>421123.1645407269</v>
+        <v>421124.0554602183</v>
       </c>
       <c r="F228" t="n">
-        <v>7573891.6462148</v>
+        <v>7573876.195221476</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -11625,13 +11625,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L228" t="n">
-        <v>24.74979735875968</v>
+        <v>25.64071685017552</v>
       </c>
       <c r="M228" t="n">
-        <v>203.1980850528926</v>
+        <v>187.7470917291939</v>
       </c>
       <c r="N228" t="n">
-        <v>204.6998149448656</v>
+        <v>189.489885781171</v>
       </c>
       <c r="O228" t="n">
         <v>300.2217434815566</v>
@@ -11651,10 +11651,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E229" t="n">
-        <v>421154.6861584011</v>
+        <v>421162.4589169053</v>
       </c>
       <c r="F229" t="n">
-        <v>7573976.423591509</v>
+        <v>7573989.120890209</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -11674,13 +11674,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L229" t="n">
-        <v>141.0256466342253</v>
+        <v>148.7984051384265</v>
       </c>
       <c r="M229" t="n">
-        <v>232.6076760748401</v>
+        <v>245.30497477483</v>
       </c>
       <c r="N229" t="n">
-        <v>272.0194183832087</v>
+        <v>286.9067723512627</v>
       </c>
       <c r="O229" t="n">
         <v>269.4952790421774</v>
@@ -11700,10 +11700,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E230" t="n">
-        <v>421224.4557555809</v>
+        <v>421234.3487395871</v>
       </c>
       <c r="F230" t="n">
-        <v>7573789.18563321</v>
+        <v>7573773.511584534</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -11723,13 +11723,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L230" t="n">
-        <v>210.7952438140055</v>
+        <v>220.688227820152</v>
       </c>
       <c r="M230" t="n">
-        <v>45.36971777584404</v>
+        <v>29.69566909968853</v>
       </c>
       <c r="N230" t="n">
-        <v>215.6224619692155</v>
+        <v>222.6771803793049</v>
       </c>
       <c r="O230" t="n">
         <v>269.4952790421774</v>
@@ -11749,10 +11749,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E231" t="n">
-        <v>421156.4064043253</v>
+        <v>421154.1160037279</v>
       </c>
       <c r="F231" t="n">
-        <v>7573846.8635524</v>
+        <v>7573853.419217962</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -11772,13 +11772,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L231" t="n">
-        <v>142.7458925583633</v>
+        <v>140.45549196098</v>
       </c>
       <c r="M231" t="n">
-        <v>103.0476369652897</v>
+        <v>109.6033025272191</v>
       </c>
       <c r="N231" t="n">
-        <v>176.0545521320421</v>
+        <v>178.1589996235779</v>
       </c>
       <c r="O231" t="n">
         <v>269.4952790421774</v>
@@ -11798,10 +11798,10 @@
         <v>7573665.394633945</v>
       </c>
       <c r="E232" t="n">
-        <v>421063.5444128108</v>
+        <v>421053.1339806497</v>
       </c>
       <c r="F232" t="n">
-        <v>7573810.401792943</v>
+        <v>7573800.909509242</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -11821,13 +11821,13 @@
         <v>-321.6367510547861</v>
       </c>
       <c r="L232" t="n">
-        <v>-73.5063058983651</v>
+        <v>-83.91673805948813</v>
       </c>
       <c r="M232" t="n">
-        <v>145.0071589974687</v>
+        <v>135.5148752965033</v>
       </c>
       <c r="N232" t="n">
-        <v>162.5738391234616</v>
+        <v>159.3935392453897</v>
       </c>
       <c r="O232" t="n">
         <v>321.7198752960197</v>
@@ -11847,10 +11847,10 @@
         <v>7573665.394633945</v>
       </c>
       <c r="E233" t="n">
-        <v>421096.9458273745</v>
+        <v>421106.8853371955</v>
       </c>
       <c r="F233" t="n">
-        <v>7573656.263548249</v>
+        <v>7573655.853102748</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11870,13 +11870,13 @@
         <v>-321.6367510547861</v>
       </c>
       <c r="L233" t="n">
-        <v>-40.10489133471856</v>
+        <v>-30.16538151365239</v>
       </c>
       <c r="M233" t="n">
-        <v>-9.131085695698857</v>
+        <v>-9.541531196795404</v>
       </c>
       <c r="N233" t="n">
-        <v>41.13124159263589</v>
+        <v>31.63844274681707</v>
       </c>
       <c r="O233" t="n">
         <v>321.7198752960197</v>
@@ -11896,10 +11896,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E234" t="n">
-        <v>421128.4457138082</v>
+        <v>421107.3093427686</v>
       </c>
       <c r="F234" t="n">
-        <v>7573738.240590475</v>
+        <v>7573739.531677793</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11919,13 +11919,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L234" t="n">
-        <v>0.9742346127750352</v>
+        <v>-20.16213642677758</v>
       </c>
       <c r="M234" t="n">
-        <v>57.17496988456696</v>
+        <v>58.46605720277876</v>
       </c>
       <c r="N234" t="n">
-        <v>57.18326953210938</v>
+        <v>61.84489946738202</v>
       </c>
       <c r="O234" t="n">
         <v>305.9741578597057</v>
@@ -11945,10 +11945,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E235" t="n">
-        <v>421094.3057082829</v>
+        <v>421100.1738611254</v>
       </c>
       <c r="F235" t="n">
-        <v>7573556.092241324</v>
+        <v>7573611.85853451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11968,13 +11968,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L235" t="n">
-        <v>-33.16577091254294</v>
+        <v>-27.29761806997703</v>
       </c>
       <c r="M235" t="n">
-        <v>-124.973379265517</v>
+        <v>-69.20708607975394</v>
       </c>
       <c r="N235" t="n">
-        <v>129.2993189667526</v>
+        <v>74.39610686013621</v>
       </c>
       <c r="O235" t="n">
         <v>305.9741578597057</v>
@@ -11994,10 +11994,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E236" t="n">
-        <v>421100.0098370174</v>
+        <v>421108.5274250012</v>
       </c>
       <c r="F236" t="n">
-        <v>7573635.797394327</v>
+        <v>7573637.538175316</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -12017,13 +12017,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L236" t="n">
-        <v>-27.46164217800833</v>
+        <v>-18.94405419420218</v>
       </c>
       <c r="M236" t="n">
-        <v>-45.26822626311332</v>
+        <v>-43.52744527440518</v>
       </c>
       <c r="N236" t="n">
-        <v>52.94671000280744</v>
+        <v>47.47120897374752</v>
       </c>
       <c r="O236" t="n">
         <v>305.9741578597057</v>
@@ -12043,10 +12043,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E237" t="n">
-        <v>421084.121040432</v>
+        <v>421073.1834108006</v>
       </c>
       <c r="F237" t="n">
-        <v>7573646.168287157</v>
+        <v>7573683.786224133</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -12066,13 +12066,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L237" t="n">
-        <v>-43.3504387633875</v>
+        <v>-54.28806839475874</v>
       </c>
       <c r="M237" t="n">
-        <v>-34.89733343292028</v>
+        <v>2.720603543333709</v>
       </c>
       <c r="N237" t="n">
-        <v>55.65145480314621</v>
+        <v>54.35619609275471</v>
       </c>
       <c r="O237" t="n">
         <v>305.9741578597057</v>
@@ -12092,10 +12092,10 @@
         <v>7573651.006895196</v>
       </c>
       <c r="E238" t="n">
-        <v>421000.7332477971</v>
+        <v>420998.6947007451</v>
       </c>
       <c r="F238" t="n">
-        <v>7573494.7795526</v>
+        <v>7573466.177527254</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -12115,13 +12115,13 @@
         <v>-336.024489804171</v>
       </c>
       <c r="L238" t="n">
-        <v>-47.98687664582394</v>
+        <v>-50.02542369783623</v>
       </c>
       <c r="M238" t="n">
-        <v>-156.2273425953463</v>
+        <v>-184.8293679421768</v>
       </c>
       <c r="N238" t="n">
-        <v>163.4310952806265</v>
+        <v>191.4796027519709</v>
       </c>
       <c r="O238" t="n">
         <v>345.6534742417982</v>
@@ -12141,10 +12141,10 @@
         <v>7573813.923836576</v>
       </c>
       <c r="E239" t="n">
-        <v>421148.496467459</v>
+        <v>421171.2974623149</v>
       </c>
       <c r="F239" t="n">
-        <v>7573792.993581539</v>
+        <v>7573752.973364922</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -12164,13 +12164,13 @@
         <v>-173.1075484240428</v>
       </c>
       <c r="L239" t="n">
-        <v>105.029420730134</v>
+        <v>127.8304155860096</v>
       </c>
       <c r="M239" t="n">
-        <v>-20.9302550368011</v>
+        <v>-60.95047165360302</v>
       </c>
       <c r="N239" t="n">
-        <v>107.0946067494206</v>
+        <v>141.6177077334914</v>
       </c>
       <c r="O239" t="n">
         <v>193.4137252744931</v>
@@ -12190,10 +12190,10 @@
         <v>7573813.923836576</v>
       </c>
       <c r="E240" t="n">
-        <v>421174.2008677534</v>
+        <v>421164.3486488552</v>
       </c>
       <c r="F240" t="n">
-        <v>7573716.328360743</v>
+        <v>7573735.595031447</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -12213,13 +12213,13 @@
         <v>-173.1075484240428</v>
       </c>
       <c r="L240" t="n">
-        <v>130.7338210245362</v>
+        <v>120.8816021263483</v>
       </c>
       <c r="M240" t="n">
-        <v>-97.5954758329317</v>
+        <v>-78.32880512904376</v>
       </c>
       <c r="N240" t="n">
-        <v>163.1447481923087</v>
+        <v>144.0408395059418</v>
       </c>
       <c r="O240" t="n">
         <v>193.4137252744931</v>
@@ -12239,10 +12239,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E241" t="n">
-        <v>424308.6907224734</v>
+        <v>424283.9397447188</v>
       </c>
       <c r="F241" t="n">
-        <v>7576070.759054263</v>
+        <v>7576047.387348344</v>
       </c>
       <c r="G241" t="n">
         <v>7</v>
@@ -12262,13 +12262,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L241" t="n">
-        <v>-292.9215815757052</v>
+        <v>-317.6725593302399</v>
       </c>
       <c r="M241" t="n">
-        <v>116.0505266310647</v>
+        <v>92.67882071156055</v>
       </c>
       <c r="N241" t="n">
-        <v>315.072654611853</v>
+        <v>330.9157275801656</v>
       </c>
       <c r="O241" t="n">
         <v>750.2996260564154</v>
@@ -12288,10 +12288,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E242" t="n">
-        <v>424477.0759208002</v>
+        <v>424418.0586111249</v>
       </c>
       <c r="F242" t="n">
-        <v>7576087.497589281</v>
+        <v>7576047.130198432</v>
       </c>
       <c r="G242" t="n">
         <v>8</v>
@@ -12311,13 +12311,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L242" t="n">
-        <v>-124.5363832489238</v>
+        <v>-183.553692924208</v>
       </c>
       <c r="M242" t="n">
-        <v>132.7890616487712</v>
+        <v>92.42167080007493</v>
       </c>
       <c r="N242" t="n">
-        <v>182.0501185011533</v>
+        <v>205.5084509687908</v>
       </c>
       <c r="O242" t="n">
         <v>1060.240461805684</v>
@@ -12337,10 +12337,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E243" t="n">
-        <v>424575.7189622931</v>
+        <v>424521.2636271673</v>
       </c>
       <c r="F243" t="n">
-        <v>7576135.019811645</v>
+        <v>7576084.298154642</v>
       </c>
       <c r="G243" t="n">
         <v>7</v>
@@ -12360,13 +12360,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L243" t="n">
-        <v>-25.89334175596014</v>
+        <v>-80.34867688181112</v>
       </c>
       <c r="M243" t="n">
-        <v>180.3112840130925</v>
+        <v>129.5896270098165</v>
       </c>
       <c r="N243" t="n">
-        <v>182.1609845431811</v>
+        <v>152.4774780261041</v>
       </c>
       <c r="O243" t="n">
         <v>971.8355815744785</v>
@@ -12386,10 +12386,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E244" t="n">
-        <v>421189.2905978214</v>
+        <v>421208.9908450934</v>
       </c>
       <c r="F244" t="n">
-        <v>7573928.805655821</v>
+        <v>7573905.73247101</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -12409,13 +12409,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L244" t="n">
-        <v>-43.95762342127273</v>
+        <v>-24.25737614929676</v>
       </c>
       <c r="M244" t="n">
-        <v>107.2950303172693</v>
+        <v>84.22184550575912</v>
       </c>
       <c r="N244" t="n">
-        <v>115.9504039994262</v>
+        <v>87.64553358867997</v>
       </c>
       <c r="O244" t="n">
         <v>195.2217344728356</v>
@@ -12435,10 +12435,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E245" t="n">
-        <v>421159.1241416158</v>
+        <v>421178.5548304505</v>
       </c>
       <c r="F245" t="n">
-        <v>7573903.097813379</v>
+        <v>7573891.254537251</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -12458,13 +12458,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L245" t="n">
-        <v>-74.12407962692669</v>
+        <v>-54.69339079217752</v>
       </c>
       <c r="M245" t="n">
-        <v>81.58718787506223</v>
+        <v>69.74391174688935</v>
       </c>
       <c r="N245" t="n">
-        <v>110.2308868053762</v>
+        <v>88.63171115409958</v>
       </c>
       <c r="O245" t="n">
         <v>195.2217344728356</v>
@@ -12484,10 +12484,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E246" t="n">
-        <v>421173.8395164232</v>
+        <v>421170.1140526814</v>
       </c>
       <c r="F246" t="n">
-        <v>7573921.811364951</v>
+        <v>7573907.859850107</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -12507,13 +12507,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L246" t="n">
-        <v>-59.40870481944876</v>
+        <v>-63.13416856125696</v>
       </c>
       <c r="M246" t="n">
-        <v>100.3007394466549</v>
+        <v>86.34922460280359</v>
       </c>
       <c r="N246" t="n">
-        <v>116.5745793124305</v>
+        <v>106.9678074442336</v>
       </c>
       <c r="O246" t="n">
         <v>195.2217344728356</v>
@@ -12533,10 +12533,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E247" t="n">
-        <v>421189.0645724203</v>
+        <v>421199.5842531266</v>
       </c>
       <c r="F247" t="n">
-        <v>7573890.010343661</v>
+        <v>7573895.260249099</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -12556,13 +12556,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L247" t="n">
-        <v>-44.18364882242167</v>
+        <v>-33.66396811610321</v>
       </c>
       <c r="M247" t="n">
-        <v>68.49971815664321</v>
+        <v>73.7496235948056</v>
       </c>
       <c r="N247" t="n">
-        <v>81.51322721376353</v>
+        <v>81.06953638511521</v>
       </c>
       <c r="O247" t="n">
         <v>195.2217344728356</v>
@@ -12582,10 +12582,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E248" t="n">
-        <v>421187.1743762631</v>
+        <v>421222.9775891221</v>
       </c>
       <c r="F248" t="n">
-        <v>7573937.727649407</v>
+        <v>7573922.648378865</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -12605,13 +12605,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L248" t="n">
-        <v>-46.07384497957537</v>
+        <v>-10.27063212060602</v>
       </c>
       <c r="M248" t="n">
-        <v>116.2170239025727</v>
+        <v>101.1377533609048</v>
       </c>
       <c r="N248" t="n">
-        <v>125.0167822173211</v>
+        <v>101.6579118369447</v>
       </c>
       <c r="O248" t="n">
         <v>195.2217344728356</v>
@@ -12631,10 +12631,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E249" t="n">
-        <v>421300.6384213921</v>
+        <v>421255.2540525181</v>
       </c>
       <c r="F249" t="n">
-        <v>7573902.136103511</v>
+        <v>7573905.689902854</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -12654,13 +12654,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L249" t="n">
-        <v>67.39020014938433</v>
+        <v>22.00583127536811</v>
       </c>
       <c r="M249" t="n">
-        <v>80.62547800689936</v>
+        <v>84.17927735019475</v>
       </c>
       <c r="N249" t="n">
-        <v>105.0804776350731</v>
+        <v>87.00808781556448</v>
       </c>
       <c r="O249" t="n">
         <v>195.2217344728356</v>

--- a/UTM_predictions.xlsx
+++ b/UTM_predictions.xlsx
@@ -528,10 +528,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E2" t="n">
-        <v>423078.5670261455</v>
+        <v>423105.1774000516</v>
       </c>
       <c r="F2" t="n">
-        <v>7575923.443573439</v>
+        <v>7575952.690201746</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -551,13 +551,13 @@
         <v>49.1766725871712</v>
       </c>
       <c r="L2" t="n">
-        <v>-124.6431683651172</v>
+        <v>-98.03279445908265</v>
       </c>
       <c r="M2" t="n">
-        <v>78.06192835234106</v>
+        <v>107.3085566591471</v>
       </c>
       <c r="N2" t="n">
-        <v>147.0699972060276</v>
+        <v>145.3463282017339</v>
       </c>
       <c r="O2" t="n">
         <v>78.18723072556141</v>
@@ -577,10 +577,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E3" t="n">
-        <v>423045.2970824868</v>
+        <v>423075.0438578984</v>
       </c>
       <c r="F3" t="n">
-        <v>7575761.875066478</v>
+        <v>7575769.887170516</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -600,13 +600,13 @@
         <v>49.1766725871712</v>
       </c>
       <c r="L3" t="n">
-        <v>-157.9131120238453</v>
+        <v>-128.1663366121938</v>
       </c>
       <c r="M3" t="n">
-        <v>-83.50657860934734</v>
+        <v>-75.49447457119823</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6334224609007</v>
+        <v>148.7481950524828</v>
       </c>
       <c r="O3" t="n">
         <v>78.18723072556141</v>
@@ -626,10 +626,10 @@
         <v>7565190.14474496</v>
       </c>
       <c r="E4" t="n">
-        <v>427414.1388457234</v>
+        <v>427423.484501723</v>
       </c>
       <c r="F4" t="n">
-        <v>7565271.700783777</v>
+        <v>7565288.4958777</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -649,13 +649,13 @@
         <v>-238.6032505403273</v>
       </c>
       <c r="L4" t="n">
-        <v>115.554352975043</v>
+        <v>124.9000089746551</v>
       </c>
       <c r="M4" t="n">
-        <v>81.5560388173908</v>
+        <v>98.35113274026662</v>
       </c>
       <c r="N4" t="n">
-        <v>141.436190414846</v>
+        <v>158.9747072749702</v>
       </c>
       <c r="O4" t="n">
         <v>292.3682268329195</v>
@@ -675,10 +675,10 @@
         <v>7565190.14474496</v>
       </c>
       <c r="E5" t="n">
-        <v>427355.6353443302</v>
+        <v>427376.5980196722</v>
       </c>
       <c r="F5" t="n">
-        <v>7565183.392725361</v>
+        <v>7565215.591811666</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -698,13 +698,13 @@
         <v>-238.6032505403273</v>
       </c>
       <c r="L5" t="n">
-        <v>57.05085158185102</v>
+        <v>78.01352692383807</v>
       </c>
       <c r="M5" t="n">
-        <v>-6.752019599080086</v>
+        <v>25.44706670660526</v>
       </c>
       <c r="N5" t="n">
-        <v>57.44901596094362</v>
+        <v>82.058903155397</v>
       </c>
       <c r="O5" t="n">
         <v>292.3682268329195</v>
@@ -724,10 +724,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E6" t="n">
-        <v>423353.5116568918</v>
+        <v>423350.0486788563</v>
       </c>
       <c r="F6" t="n">
-        <v>7575975.130855825</v>
+        <v>7575972.96145898</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -747,13 +747,13 @@
         <v>51.46934933727607</v>
       </c>
       <c r="L6" t="n">
-        <v>150.3014623811468</v>
+        <v>146.8384843456442</v>
       </c>
       <c r="M6" t="n">
-        <v>129.7492107376456</v>
+        <v>127.5798138929531</v>
       </c>
       <c r="N6" t="n">
-        <v>198.5582717515271</v>
+        <v>194.5203058754704</v>
       </c>
       <c r="O6" t="n">
         <v>70.70226986800864</v>
@@ -773,10 +773,10 @@
         <v>7575845.381645087</v>
       </c>
       <c r="E7" t="n">
-        <v>423137.5854939703</v>
+        <v>423138.8050433258</v>
       </c>
       <c r="F7" t="n">
-        <v>7575829.747756956</v>
+        <v>7575863.445647752</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -796,13 +796,13 @@
         <v>51.46934933727607</v>
       </c>
       <c r="L7" t="n">
-        <v>-65.62470054038567</v>
+        <v>-64.4051511848229</v>
       </c>
       <c r="M7" t="n">
-        <v>-15.63388813100755</v>
+        <v>18.06400266475976</v>
       </c>
       <c r="N7" t="n">
-        <v>67.46124649832787</v>
+        <v>66.89044544187415</v>
       </c>
       <c r="O7" t="n">
         <v>70.70226986800864</v>
@@ -822,10 +822,10 @@
         <v>7575873.846506964</v>
       </c>
       <c r="E8" t="n">
-        <v>423202.3045262014</v>
+        <v>423184.4564084297</v>
       </c>
       <c r="F8" t="n">
-        <v>7575888.929046118</v>
+        <v>7575912.833746402</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -845,13 +845,13 @@
         <v>79.93421121453866</v>
       </c>
       <c r="L8" t="n">
-        <v>18.54702356329653</v>
+        <v>0.6989057915052399</v>
       </c>
       <c r="M8" t="n">
-        <v>15.08253915328532</v>
+        <v>38.98723943717778</v>
       </c>
       <c r="N8" t="n">
-        <v>23.90554476199741</v>
+        <v>38.99350341066098</v>
       </c>
       <c r="O8" t="n">
         <v>85.03944663178758</v>
@@ -871,10 +871,10 @@
         <v>7575799.685660966</v>
       </c>
       <c r="E9" t="n">
-        <v>423085.2376868458</v>
+        <v>423081.6968628358</v>
       </c>
       <c r="F9" t="n">
-        <v>7575631.643760839</v>
+        <v>7575676.837499744</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -894,13 +894,13 @@
         <v>8.066041965968907</v>
       </c>
       <c r="L9" t="n">
-        <v>-53.74274938175222</v>
+        <v>-57.2835733917891</v>
       </c>
       <c r="M9" t="n">
-        <v>-168.0419001262635</v>
+        <v>-122.8481612214819</v>
       </c>
       <c r="N9" t="n">
-        <v>176.4266513573132</v>
+        <v>135.5473293577992</v>
       </c>
       <c r="O9" t="n">
         <v>29.20368380048389</v>
@@ -920,10 +920,10 @@
         <v>7575799.685660966</v>
       </c>
       <c r="E10" t="n">
-        <v>423058.2304140095</v>
+        <v>423098.8466749252</v>
       </c>
       <c r="F10" t="n">
-        <v>7575825.042518184</v>
+        <v>7575853.316582584</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>-118.8013290343806</v>
       </c>
       <c r="L10" t="n">
-        <v>-80.75002221803879</v>
+        <v>-40.13376130233519</v>
       </c>
       <c r="M10" t="n">
-        <v>25.3568572178483</v>
+        <v>53.63092161808163</v>
       </c>
       <c r="N10" t="n">
-        <v>84.63767657597947</v>
+        <v>66.98503228242585</v>
       </c>
       <c r="O10" t="n">
         <v>232.409373769579</v>
@@ -969,10 +969,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E11" t="n">
-        <v>436728.6144300997</v>
+        <v>436731.4262795027</v>
       </c>
       <c r="F11" t="n">
-        <v>7551692.749935652</v>
+        <v>7551717.337578077</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -992,13 +992,13 @@
         <v>374.6397789372131</v>
       </c>
       <c r="L11" t="n">
-        <v>357.1696282197954</v>
+        <v>359.9814776227577</v>
       </c>
       <c r="M11" t="n">
-        <v>-188.9625409515575</v>
+        <v>-164.3748985268176</v>
       </c>
       <c r="N11" t="n">
-        <v>404.0754696904229</v>
+        <v>395.7344709488492</v>
       </c>
       <c r="O11" t="n">
         <v>501.0799395822819</v>
@@ -1018,10 +1018,10 @@
         <v>7551881.712476604</v>
       </c>
       <c r="E12" t="n">
-        <v>436672.2016220834</v>
+        <v>436643.2602244338</v>
       </c>
       <c r="F12" t="n">
-        <v>7551533.199732701</v>
+        <v>7551563.524277945</v>
       </c>
       <c r="G12" t="n">
         <v>4</v>
@@ -1041,13 +1041,13 @@
         <v>291.3290823537391</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7568202034454</v>
+        <v>271.8154225539183</v>
       </c>
       <c r="M12" t="n">
-        <v>-348.5127439023927</v>
+        <v>-318.1881986586377</v>
       </c>
       <c r="N12" t="n">
-        <v>460.3431302422817</v>
+        <v>418.4822023740005</v>
       </c>
       <c r="O12" t="n">
         <v>493.3693883152939</v>
@@ -1067,10 +1067,10 @@
         <v>7551175.717375342</v>
       </c>
       <c r="E13" t="n">
-        <v>436855.8192415875</v>
+        <v>436801.2871396462</v>
       </c>
       <c r="F13" t="n">
-        <v>7551338.74790269</v>
+        <v>7551342.534325865</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>-138.1984906578436</v>
       </c>
       <c r="L13" t="n">
-        <v>15.80674534913851</v>
+        <v>-38.72535659215646</v>
       </c>
       <c r="M13" t="n">
-        <v>163.0305273476988</v>
+        <v>166.8169505232945</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7950122738824</v>
+        <v>171.2528780052498</v>
       </c>
       <c r="O13" t="n">
         <v>226.2596993081239</v>
@@ -1116,10 +1116,10 @@
         <v>7551175.717375342</v>
       </c>
       <c r="E14" t="n">
-        <v>436768.2080330563</v>
+        <v>436767.022601406</v>
       </c>
       <c r="F14" t="n">
-        <v>7551311.339026383</v>
+        <v>7551338.27613144</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1139,13 +1139,13 @@
         <v>-157.9199971579947</v>
       </c>
       <c r="L14" t="n">
-        <v>-71.80446318205213</v>
+        <v>-72.98989483236801</v>
       </c>
       <c r="M14" t="n">
-        <v>135.6216510413215</v>
+        <v>162.5587560981512</v>
       </c>
       <c r="N14" t="n">
-        <v>153.457203037318</v>
+        <v>178.1933610767201</v>
       </c>
       <c r="O14" t="n">
         <v>159.356240622995</v>
@@ -1165,10 +1165,10 @@
         <v>7575991.503320962</v>
       </c>
       <c r="E15" t="n">
-        <v>423576.5032011128</v>
+        <v>423575.1758638581</v>
       </c>
       <c r="F15" t="n">
-        <v>7575953.662054488</v>
+        <v>7575969.977634259</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1188,13 +1188,13 @@
         <v>172.3460876288203</v>
       </c>
       <c r="L15" t="n">
-        <v>440.7252333562355</v>
+        <v>439.3978961014654</v>
       </c>
       <c r="M15" t="n">
-        <v>-37.84126647468656</v>
+        <v>-21.52568670362234</v>
       </c>
       <c r="N15" t="n">
-        <v>442.3468014638701</v>
+        <v>439.9248416337235</v>
       </c>
       <c r="O15" t="n">
         <v>295.9951381360138</v>
@@ -1214,10 +1214,10 @@
         <v>7575991.503320962</v>
       </c>
       <c r="E16" t="n">
-        <v>423139.2488383075</v>
+        <v>423129.944151377</v>
       </c>
       <c r="F16" t="n">
-        <v>7576021.202765297</v>
+        <v>7576051.905924169</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1237,13 +1237,13 @@
         <v>197.591025212314</v>
       </c>
       <c r="L16" t="n">
-        <v>3.470870550838299</v>
+        <v>-5.833816379657947</v>
       </c>
       <c r="M16" t="n">
-        <v>29.69944433495402</v>
+        <v>60.40260320715606</v>
       </c>
       <c r="N16" t="n">
-        <v>29.90157079796493</v>
+        <v>60.68367068456477</v>
       </c>
       <c r="O16" t="n">
         <v>198.4984437110167</v>
@@ -1263,10 +1263,10 @@
         <v>7576139.073012095</v>
       </c>
       <c r="E17" t="n">
-        <v>423532.2933577883</v>
+        <v>423543.3827974481</v>
       </c>
       <c r="F17" t="n">
-        <v>7575977.837116087</v>
+        <v>7576000.415012213</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -1286,13 +1286,13 @@
         <v>290.8689230948686</v>
       </c>
       <c r="L17" t="n">
-        <v>-41.43862915539648</v>
+        <v>-30.3491894955514</v>
       </c>
       <c r="M17" t="n">
-        <v>-161.2358960080892</v>
+        <v>-138.6579998815432</v>
       </c>
       <c r="N17" t="n">
-        <v>166.475746425147</v>
+        <v>141.9405306252831</v>
       </c>
       <c r="O17" t="n">
         <v>311.4175416521936</v>
@@ -1312,10 +1312,10 @@
         <v>7576139.073012095</v>
       </c>
       <c r="E18" t="n">
-        <v>423559.1807201523</v>
+        <v>423546.1237230086</v>
       </c>
       <c r="F18" t="n">
-        <v>7575984.737861137</v>
+        <v>7576001.317937977</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1335,13 +1335,13 @@
         <v>319.9157787615744</v>
       </c>
       <c r="L18" t="n">
-        <v>-14.55126679135719</v>
+        <v>-27.60826393507887</v>
       </c>
       <c r="M18" t="n">
-        <v>-154.3351509580389</v>
+        <v>-137.755074118264</v>
       </c>
       <c r="N18" t="n">
-        <v>155.0196058131806</v>
+        <v>140.494400894973</v>
       </c>
       <c r="O18" t="n">
         <v>375.8683418793818</v>
@@ -1361,10 +1361,10 @@
         <v>7576078.907450005</v>
       </c>
       <c r="E19" t="n">
-        <v>423301.1074041504</v>
+        <v>423298.4606784328</v>
       </c>
       <c r="F19" t="n">
-        <v>7575967.060583315</v>
+        <v>7575997.649987935</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1384,13 +1384,13 @@
         <v>231.7180640054867</v>
       </c>
       <c r="L19" t="n">
-        <v>-352.343746197992</v>
+        <v>-354.9904719155747</v>
       </c>
       <c r="M19" t="n">
-        <v>-111.8468666905537</v>
+        <v>-81.25746207032353</v>
       </c>
       <c r="N19" t="n">
-        <v>369.6699028502719</v>
+        <v>364.1716769505181</v>
       </c>
       <c r="O19" t="n">
         <v>450.737986047245</v>
@@ -1410,10 +1410,10 @@
         <v>7576078.907450005</v>
       </c>
       <c r="E20" t="n">
-        <v>423564.2986237979</v>
+        <v>423561.6439692925</v>
       </c>
       <c r="F20" t="n">
-        <v>7575862.796868904</v>
+        <v>7575891.450281139</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1433,13 +1433,13 @@
         <v>259.7502166720417</v>
       </c>
       <c r="L20" t="n">
-        <v>-89.15252655051881</v>
+        <v>-91.8071810559486</v>
       </c>
       <c r="M20" t="n">
-        <v>-216.1105811009184</v>
+        <v>-187.4571688668802</v>
       </c>
       <c r="N20" t="n">
-        <v>233.7775785958046</v>
+        <v>208.731283359792</v>
       </c>
       <c r="O20" t="n">
         <v>379.7563264253996</v>
@@ -1459,10 +1459,10 @@
         <v>7575777.812245356</v>
       </c>
       <c r="E21" t="n">
-        <v>423129.7949695459</v>
+        <v>423104.3102703622</v>
       </c>
       <c r="F21" t="n">
-        <v>7575715.610932454</v>
+        <v>7575744.58765877</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-13.80737364385277</v>
       </c>
       <c r="L21" t="n">
-        <v>27.37534395232797</v>
+        <v>1.890644768602215</v>
       </c>
       <c r="M21" t="n">
-        <v>-62.20131290145218</v>
+        <v>-33.2245865855366</v>
       </c>
       <c r="N21" t="n">
-        <v>67.95890510575211</v>
+        <v>33.27833666848242</v>
       </c>
       <c r="O21" t="n">
         <v>66.08694357596609</v>
@@ -1508,10 +1508,10 @@
         <v>7575777.812245356</v>
       </c>
       <c r="E22" t="n">
-        <v>423156.1429416027</v>
+        <v>423196.7234302664</v>
       </c>
       <c r="F22" t="n">
-        <v>7575874.071536951</v>
+        <v>7575880.365888124</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-140.6747446442023</v>
       </c>
       <c r="L22" t="n">
-        <v>53.72331600915641</v>
+        <v>94.30380467284704</v>
       </c>
       <c r="M22" t="n">
-        <v>96.25929159484804</v>
+        <v>102.5536427684128</v>
       </c>
       <c r="N22" t="n">
-        <v>110.2363184316388</v>
+        <v>139.3214169496051</v>
       </c>
       <c r="O22" t="n">
         <v>275.0137022353057</v>
@@ -1557,10 +1557,10 @@
         <v>7572588.418815132</v>
       </c>
       <c r="E23" t="n">
-        <v>431573.1829613493</v>
+        <v>431578.2571753217</v>
       </c>
       <c r="F23" t="n">
-        <v>7572627.86799368</v>
+        <v>7572650.269652246</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>52.55574313178658</v>
       </c>
       <c r="L23" t="n">
-        <v>-259.1587985329679</v>
+        <v>-254.0845845604781</v>
       </c>
       <c r="M23" t="n">
-        <v>39.44917854759842</v>
+        <v>61.85083711333573</v>
       </c>
       <c r="N23" t="n">
-        <v>262.1440835592742</v>
+        <v>261.5043062033418</v>
       </c>
       <c r="O23" t="n">
         <v>754.6914960042363</v>
@@ -1606,10 +1606,10 @@
         <v>7572588.418815132</v>
       </c>
       <c r="E24" t="n">
-        <v>431581.5454415124</v>
+        <v>431692.6305756048</v>
       </c>
       <c r="F24" t="n">
-        <v>7572683.221778878</v>
+        <v>7572620.520584811</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>52.55574313178658</v>
       </c>
       <c r="L24" t="n">
-        <v>-250.7963183698594</v>
+        <v>-139.711184277432</v>
       </c>
       <c r="M24" t="n">
-        <v>94.80296374578029</v>
+        <v>32.10176967829466</v>
       </c>
       <c r="N24" t="n">
-        <v>268.1163837643265</v>
+        <v>143.3518002282526</v>
       </c>
       <c r="O24" t="n">
         <v>754.6914960042363</v>
@@ -1655,10 +1655,10 @@
         <v>7572432.194261415</v>
       </c>
       <c r="E25" t="n">
-        <v>431343.8920045323</v>
+        <v>431354.2767463085</v>
       </c>
       <c r="F25" t="n">
-        <v>7572489.716513563</v>
+        <v>7572515.306344704</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1678,13 +1678,13 @@
         <v>-342.3371700854041</v>
       </c>
       <c r="L25" t="n">
-        <v>-146.5990056775045</v>
+        <v>-136.2142639012891</v>
       </c>
       <c r="M25" t="n">
-        <v>57.52225214801729</v>
+        <v>83.11208328884095</v>
       </c>
       <c r="N25" t="n">
-        <v>157.4804049963457</v>
+        <v>159.5679920246578</v>
       </c>
       <c r="O25" t="n">
         <v>386.858176231054</v>
@@ -1704,10 +1704,10 @@
         <v>7572432.194261415</v>
       </c>
       <c r="E26" t="n">
-        <v>431463.8377862002</v>
+        <v>431495.7031902766</v>
       </c>
       <c r="F26" t="n">
-        <v>7572833.734863682</v>
+        <v>7572838.876653883</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1727,13 +1727,13 @@
         <v>-339.633996585384</v>
       </c>
       <c r="L26" t="n">
-        <v>-26.65322400961304</v>
+        <v>5.212180066853762</v>
       </c>
       <c r="M26" t="n">
-        <v>401.5406022667885</v>
+        <v>406.6823924677446</v>
       </c>
       <c r="N26" t="n">
-        <v>402.4242159946166</v>
+        <v>406.7157916338361</v>
       </c>
       <c r="O26" t="n">
         <v>543.7986522844539</v>
@@ -1753,10 +1753,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E27" t="n">
-        <v>431360.949949498</v>
+        <v>431382.6667757411</v>
       </c>
       <c r="F27" t="n">
-        <v>7572556.145744511</v>
+        <v>7572572.317068436</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L27" t="n">
-        <v>-38.12254152848618</v>
+        <v>-16.40571528539294</v>
       </c>
       <c r="M27" t="n">
-        <v>-49.88295859657228</v>
+        <v>-33.71163467131555</v>
       </c>
       <c r="N27" t="n">
-        <v>62.78246356219623</v>
+        <v>37.49162314754618</v>
       </c>
       <c r="O27" t="n">
         <v>327.2017929472251</v>
@@ -1802,10 +1802,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E28" t="n">
-        <v>431822.4865063087</v>
+        <v>431856.3088786084</v>
       </c>
       <c r="F28" t="n">
-        <v>7572616.57535896</v>
+        <v>7572582.84250488</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L28" t="n">
-        <v>423.4140152822365</v>
+        <v>457.2363875819137</v>
       </c>
       <c r="M28" t="n">
-        <v>10.54665585234761</v>
+        <v>-23.18619822710752</v>
       </c>
       <c r="N28" t="n">
-        <v>423.5453461993106</v>
+        <v>457.8238896313567</v>
       </c>
       <c r="O28" t="n">
         <v>327.2017929472251</v>
@@ -1851,10 +1851,10 @@
         <v>7572606.028703107</v>
       </c>
       <c r="E29" t="n">
-        <v>431573.1829613493</v>
+        <v>431578.2571753217</v>
       </c>
       <c r="F29" t="n">
-        <v>7572627.86799368</v>
+        <v>7572650.269652246</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1874,13 +1874,13 @@
         <v>70.16563110705465</v>
       </c>
       <c r="L29" t="n">
-        <v>174.1104703227757</v>
+        <v>179.1846842952655</v>
       </c>
       <c r="M29" t="n">
-        <v>21.83929057233036</v>
+        <v>44.24094913806766</v>
       </c>
       <c r="N29" t="n">
-        <v>175.4748144000181</v>
+        <v>184.5654698653869</v>
       </c>
       <c r="O29" t="n">
         <v>327.2017929472251</v>
@@ -1900,10 +1900,10 @@
         <v>7572811.891299687</v>
       </c>
       <c r="E30" t="n">
-        <v>431428.360636994</v>
+        <v>431412.7975544659</v>
       </c>
       <c r="F30" t="n">
-        <v>7572736.86083356</v>
+        <v>7572743.302543123</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-40.39413597962508</v>
       </c>
       <c r="L30" t="n">
-        <v>-41.382669665094</v>
+        <v>-56.94575219310354</v>
       </c>
       <c r="M30" t="n">
-        <v>-75.03046612720937</v>
+        <v>-68.58875656407326</v>
       </c>
       <c r="N30" t="n">
-        <v>85.68603267672394</v>
+        <v>89.14727264389001</v>
       </c>
       <c r="O30" t="n">
         <v>248.7997651205121</v>
@@ -1949,10 +1949,10 @@
         <v>7572811.891299687</v>
       </c>
       <c r="E31" t="n">
-        <v>431407.3418239824</v>
+        <v>431423.256761268</v>
       </c>
       <c r="F31" t="n">
-        <v>7572848.735938698</v>
+        <v>7572877.267618093</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1972,13 +1972,13 @@
         <v>-198.6053178128786</v>
       </c>
       <c r="L31" t="n">
-        <v>-62.40148267662153</v>
+        <v>-46.48654539103154</v>
       </c>
       <c r="M31" t="n">
-        <v>36.84463901072741</v>
+        <v>65.37631840538234</v>
       </c>
       <c r="N31" t="n">
-        <v>72.46704398601831</v>
+        <v>80.21883762953917</v>
       </c>
       <c r="O31" t="n">
         <v>263.4650052416124</v>
@@ -1998,10 +1998,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E32" t="n">
-        <v>431429.1654762634</v>
+        <v>431441.3772122837</v>
       </c>
       <c r="F32" t="n">
-        <v>7572988.280392429</v>
+        <v>7573001.705291098</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2021,13 +2021,13 @@
         <v>-1.736544883344322</v>
       </c>
       <c r="L32" t="n">
-        <v>-53.76981318066828</v>
+        <v>-41.55807716038544</v>
       </c>
       <c r="M32" t="n">
-        <v>-20.4796801880002</v>
+        <v>-7.054781518876553</v>
       </c>
       <c r="N32" t="n">
-        <v>57.53790150923768</v>
+        <v>42.15262411223804</v>
       </c>
       <c r="O32" t="n">
         <v>186.3177717137041</v>
@@ -2047,10 +2047,10 @@
         <v>7573010.178347088</v>
       </c>
       <c r="E33" t="n">
-        <v>431321.994604104</v>
+        <v>431300.3132761401</v>
       </c>
       <c r="F33" t="n">
-        <v>7572860.576207945</v>
+        <v>7572867.678398138</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2070,13 +2070,13 @@
         <v>235.6469155880623</v>
       </c>
       <c r="L33" t="n">
-        <v>-232.9115641352255</v>
+        <v>-254.5928920990555</v>
       </c>
       <c r="M33" t="n">
-        <v>-149.6021391432732</v>
+        <v>-142.4999489504844</v>
       </c>
       <c r="N33" t="n">
-        <v>276.8187073594567</v>
+        <v>291.7597918806702</v>
       </c>
       <c r="O33" t="n">
         <v>339.6407266060326</v>
@@ -2096,10 +2096,10 @@
         <v>7573008.760072617</v>
       </c>
       <c r="E34" t="n">
-        <v>431559.3632616213</v>
+        <v>431551.1380167516</v>
       </c>
       <c r="F34" t="n">
-        <v>7572992.838871538</v>
+        <v>7573010.812115353</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-4.439718383364379</v>
       </c>
       <c r="L34" t="n">
-        <v>76.42797217727639</v>
+        <v>68.2027273075073</v>
       </c>
       <c r="M34" t="n">
-        <v>-15.92120107915252</v>
+        <v>2.052042735740542</v>
       </c>
       <c r="N34" t="n">
-        <v>78.0686849827339</v>
+        <v>68.23359063959266</v>
       </c>
       <c r="O34" t="n">
         <v>58.37514866546023</v>
@@ -2145,10 +2145,10 @@
         <v>7573010.178347088</v>
       </c>
       <c r="E35" t="n">
-        <v>431410.8811740221</v>
+        <v>431406.4540326556</v>
       </c>
       <c r="F35" t="n">
-        <v>7573008.06072898</v>
+        <v>7573040.586724685</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2168,13 +2168,13 @@
         <v>-0.3182704118080437</v>
       </c>
       <c r="L35" t="n">
-        <v>-144.0249942170922</v>
+        <v>-148.4521355835604</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.117618108168244</v>
+        <v>30.40837759617716</v>
       </c>
       <c r="N35" t="n">
-        <v>144.0405611822083</v>
+        <v>151.5345042798884</v>
       </c>
       <c r="O35" t="n">
         <v>258.2807538360374</v>
@@ -2194,10 +2194,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E36" t="n">
-        <v>431625.8138198419</v>
+        <v>431635.825567123</v>
       </c>
       <c r="F36" t="n">
-        <v>7573016.970387177</v>
+        <v>7573035.011275916</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2217,13 +2217,13 @@
         <v>-2.505089542518059</v>
       </c>
       <c r="L36" t="n">
-        <v>4.91179258673219</v>
+        <v>14.92353986779926</v>
       </c>
       <c r="M36" t="n">
-        <v>8.720682034268975</v>
+        <v>26.76157077401876</v>
       </c>
       <c r="N36" t="n">
-        <v>10.00879620923011</v>
+        <v>30.64137256192368</v>
       </c>
       <c r="O36" t="n">
         <v>220.7867586573993</v>
@@ -2243,10 +2243,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E37" t="n">
-        <v>431423.7878298023</v>
+        <v>431452.9003484068</v>
       </c>
       <c r="F37" t="n">
-        <v>7572851.192490887</v>
+        <v>7572854.737708059</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -2266,13 +2266,13 @@
         <v>155.9642694753905</v>
       </c>
       <c r="L37" t="n">
-        <v>-197.1141974529019</v>
+        <v>-168.0016788484063</v>
       </c>
       <c r="M37" t="n">
-        <v>-157.0572142554447</v>
+        <v>-153.511997083202</v>
       </c>
       <c r="N37" t="n">
-        <v>252.0336790732188</v>
+        <v>227.5752564413717</v>
       </c>
       <c r="O37" t="n">
         <v>426.2182579201024</v>
@@ -2292,10 +2292,10 @@
         <v>7573008.249705142</v>
       </c>
       <c r="E38" t="n">
-        <v>431270.807153857</v>
+        <v>431249.3234329106</v>
       </c>
       <c r="F38" t="n">
-        <v>7573007.026914005</v>
+        <v>7573021.737836844</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2315,13 +2315,13 @@
         <v>-4.950085857883096</v>
       </c>
       <c r="L38" t="n">
-        <v>-350.0948733981932</v>
+        <v>-371.5785943446099</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.222791137173772</v>
+        <v>13.48813170194626</v>
       </c>
       <c r="N38" t="n">
-        <v>350.0970088387818</v>
+        <v>371.8233202368098</v>
       </c>
       <c r="O38" t="n">
         <v>79.91412310693956</v>
@@ -2341,10 +2341,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E39" t="n">
-        <v>431198.7382709545</v>
+        <v>431149.3772762415</v>
       </c>
       <c r="F39" t="n">
-        <v>7572989.380434804</v>
+        <v>7573002.994298688</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L39" t="n">
-        <v>-609.2470728266053</v>
+        <v>-658.6080675395788</v>
       </c>
       <c r="M39" t="n">
-        <v>-3.293775053694844</v>
+        <v>10.32008883077651</v>
       </c>
       <c r="N39" t="n">
-        <v>609.2559763366226</v>
+        <v>658.688918125767</v>
       </c>
       <c r="O39" t="n">
         <v>267.6322291765587</v>
@@ -2390,10 +2390,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E40" t="n">
-        <v>431198.7668130188</v>
+        <v>431162.824737218</v>
       </c>
       <c r="F40" t="n">
-        <v>7572978.159810477</v>
+        <v>7572977.902187805</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L40" t="n">
-        <v>-609.2185307623004</v>
+        <v>-645.1606065630913</v>
       </c>
       <c r="M40" t="n">
-        <v>-14.51439938042313</v>
+        <v>-14.77202205266804</v>
       </c>
       <c r="N40" t="n">
-        <v>609.3914062518032</v>
+        <v>645.329699375738</v>
       </c>
       <c r="O40" t="n">
         <v>267.6322291765587</v>
@@ -2439,10 +2439,10 @@
         <v>7572992.674209857</v>
       </c>
       <c r="E41" t="n">
-        <v>431172.7515213756</v>
+        <v>431221.3370283384</v>
       </c>
       <c r="F41" t="n">
-        <v>7572919.322711043</v>
+        <v>7572958.894258182</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>-20.52558114286512</v>
       </c>
       <c r="L41" t="n">
-        <v>-635.2338224054547</v>
+        <v>-586.6483154426678</v>
       </c>
       <c r="M41" t="n">
-        <v>-73.3514988142997</v>
+        <v>-33.77995167579502</v>
       </c>
       <c r="N41" t="n">
-        <v>639.45480802489</v>
+        <v>587.6200567943022</v>
       </c>
       <c r="O41" t="n">
         <v>267.6322291765587</v>
@@ -2488,10 +2488,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E42" t="n">
-        <v>431447.76615669</v>
+        <v>431442.0403053286</v>
       </c>
       <c r="F42" t="n">
-        <v>7573059.902991344</v>
+        <v>7573074.718362805</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>81.3883237731643</v>
       </c>
       <c r="L42" t="n">
-        <v>-85.10058256587945</v>
+        <v>-90.82643392722821</v>
       </c>
       <c r="M42" t="n">
-        <v>-31.98194992914796</v>
+        <v>-17.16657846793532</v>
       </c>
       <c r="N42" t="n">
-        <v>90.91179392313515</v>
+        <v>92.43447688083128</v>
       </c>
       <c r="O42" t="n">
         <v>249.8678253846014</v>
@@ -2537,10 +2537,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E43" t="n">
-        <v>431498.191169219</v>
+        <v>431511.5341150017</v>
       </c>
       <c r="F43" t="n">
-        <v>7573001.221903446</v>
+        <v>7573051.203191355</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2560,13 +2560,13 @@
         <v>239.5995056064179</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.67557003680849</v>
+        <v>-21.33262425410794</v>
       </c>
       <c r="M43" t="n">
-        <v>-90.66303782723844</v>
+        <v>-40.6817499184981</v>
       </c>
       <c r="N43" t="n">
-        <v>97.06792253592779</v>
+        <v>45.93566842877302</v>
       </c>
       <c r="O43" t="n">
         <v>390.7116270293674</v>
@@ -2586,10 +2586,10 @@
         <v>7573091.884941273</v>
       </c>
       <c r="E44" t="n">
-        <v>431682.3739984427</v>
+        <v>431661.1951659772</v>
       </c>
       <c r="F44" t="n">
-        <v>7572756.564538092</v>
+        <v>7572811.701708995</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2609,13 +2609,13 @@
         <v>78.68515027314425</v>
       </c>
       <c r="L44" t="n">
-        <v>149.5072591868229</v>
+        <v>128.3284267213312</v>
       </c>
       <c r="M44" t="n">
-        <v>-335.3204031810164</v>
+        <v>-280.1832322785631</v>
       </c>
       <c r="N44" t="n">
-        <v>367.1405634617827</v>
+        <v>308.1733745066814</v>
       </c>
       <c r="O44" t="n">
         <v>79.11903851201573</v>
@@ -2635,10 +2635,10 @@
         <v>7573097.266546663</v>
       </c>
       <c r="E45" t="n">
-        <v>431590.1321231126</v>
+        <v>431605.7453098935</v>
       </c>
       <c r="F45" t="n">
-        <v>7573149.754730494</v>
+        <v>7573164.9067536</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>244.9811109959458</v>
       </c>
       <c r="L45" t="n">
-        <v>322.4795440014568</v>
+        <v>338.092730782344</v>
       </c>
       <c r="M45" t="n">
-        <v>52.48818383086473</v>
+        <v>67.64020693674684</v>
       </c>
       <c r="N45" t="n">
-        <v>326.7232249798752</v>
+        <v>344.7925350153458</v>
       </c>
       <c r="O45" t="n">
         <v>248.7971086510134</v>
@@ -2684,10 +2684,10 @@
         <v>7573097.266546663</v>
       </c>
       <c r="E46" t="n">
-        <v>431494.4406450361</v>
+        <v>431514.4785077295</v>
       </c>
       <c r="F46" t="n">
-        <v>7573091.148151097</v>
+        <v>7573114.774217439</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2707,13 +2707,13 @@
         <v>244.9811109959458</v>
       </c>
       <c r="L46" t="n">
-        <v>226.7880659248913</v>
+        <v>246.8259286183165</v>
       </c>
       <c r="M46" t="n">
-        <v>-6.118395566008985</v>
+        <v>17.50767077598721</v>
       </c>
       <c r="N46" t="n">
-        <v>226.8705833955892</v>
+        <v>247.4460700320267</v>
       </c>
       <c r="O46" t="n">
         <v>248.7971086510134</v>
@@ -2733,10 +2733,10 @@
         <v>7572724.478707412</v>
       </c>
       <c r="E47" t="n">
-        <v>431087.983816359</v>
+        <v>431090.1756230279</v>
       </c>
       <c r="F47" t="n">
-        <v>7572637.381977076</v>
+        <v>7572652.237492999</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2756,13 +2756,13 @@
         <v>-47.34955058805645</v>
       </c>
       <c r="L47" t="n">
-        <v>-185.5212886202498</v>
+        <v>-183.3294819513685</v>
       </c>
       <c r="M47" t="n">
-        <v>-87.0967303365469</v>
+        <v>-72.24121441319585</v>
       </c>
       <c r="N47" t="n">
-        <v>204.9487471702016</v>
+        <v>197.0494659024746</v>
       </c>
       <c r="O47" t="n">
         <v>213.0375297656174</v>
@@ -2782,10 +2782,10 @@
         <v>7572724.478707412</v>
       </c>
       <c r="E48" t="n">
-        <v>430982.2689927752</v>
+        <v>430980.1207724155</v>
       </c>
       <c r="F48" t="n">
-        <v>7572682.783141512</v>
+        <v>7572696.636962339</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2805,13 +2805,13 @@
         <v>-47.34955058805645</v>
       </c>
       <c r="L48" t="n">
-        <v>-291.2361122040311</v>
+        <v>-293.3843325637281</v>
       </c>
       <c r="M48" t="n">
-        <v>-41.69556589983404</v>
+        <v>-27.84174507297575</v>
       </c>
       <c r="N48" t="n">
-        <v>294.2056989037201</v>
+        <v>294.702442070935</v>
       </c>
       <c r="O48" t="n">
         <v>213.0375297656174</v>
@@ -2831,10 +2831,10 @@
         <v>7572713.370176846</v>
       </c>
       <c r="E49" t="n">
-        <v>431254.2182293824</v>
+        <v>431247.3406086553</v>
       </c>
       <c r="F49" t="n">
-        <v>7572502.762897204</v>
+        <v>7572521.272486369</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2854,13 +2854,13 @@
         <v>177.5071048457175</v>
       </c>
       <c r="L49" t="n">
-        <v>-10.24778942659032</v>
+        <v>-17.12541015364695</v>
       </c>
       <c r="M49" t="n">
-        <v>-210.6072796424851</v>
+        <v>-192.0976904770359</v>
       </c>
       <c r="N49" t="n">
-        <v>210.8564521814299</v>
+        <v>192.8595404939609</v>
       </c>
       <c r="O49" t="n">
         <v>256.3741306174417</v>
@@ -2880,10 +2880,10 @@
         <v>7572713.370176846</v>
       </c>
       <c r="E50" t="n">
-        <v>431526.4789429475</v>
+        <v>431502.29177602</v>
       </c>
       <c r="F50" t="n">
-        <v>7572523.371481149</v>
+        <v>7572578.28358376</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2903,13 +2903,13 @@
         <v>177.5071048457175</v>
       </c>
       <c r="L50" t="n">
-        <v>262.012924138573</v>
+        <v>237.8257572110742</v>
       </c>
       <c r="M50" t="n">
-        <v>-189.9986956967041</v>
+        <v>-135.0865930858999</v>
       </c>
       <c r="N50" t="n">
-        <v>323.6514742467495</v>
+        <v>273.5132143509274</v>
       </c>
       <c r="O50" t="n">
         <v>256.3741306174417</v>
@@ -2929,10 +2929,10 @@
         <v>7572708.605144259</v>
       </c>
       <c r="E51" t="n">
-        <v>431987.2174370969</v>
+        <v>431996.0229140696</v>
       </c>
       <c r="F51" t="n">
-        <v>7572590.006013445</v>
+        <v>7572625.2519942</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2952,13 +2952,13 @@
         <v>172.7420722581446</v>
       </c>
       <c r="L51" t="n">
-        <v>263.6148825667333</v>
+        <v>272.4203595394501</v>
       </c>
       <c r="M51" t="n">
-        <v>-118.5991308139637</v>
+        <v>-83.35315005853772</v>
       </c>
       <c r="N51" t="n">
-        <v>289.0649756378317</v>
+        <v>284.8869949932506</v>
       </c>
       <c r="O51" t="n">
         <v>666.8812030858763</v>
@@ -2978,10 +2978,10 @@
         <v>7572895.116790422</v>
       </c>
       <c r="E52" t="n">
-        <v>431659.7714047306</v>
+        <v>431726.5580268509</v>
       </c>
       <c r="F52" t="n">
-        <v>7573001.820899831</v>
+        <v>7573027.458401296</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>-115.3798270779662</v>
       </c>
       <c r="L52" t="n">
-        <v>65.64293355506379</v>
+        <v>132.4295556754223</v>
       </c>
       <c r="M52" t="n">
-        <v>106.7041094088927</v>
+        <v>132.3416108740494</v>
       </c>
       <c r="N52" t="n">
-        <v>125.2787359868364</v>
+        <v>187.2214976575289</v>
       </c>
       <c r="O52" t="n">
         <v>319.0931785648741</v>
@@ -3027,10 +3027,10 @@
         <v>7572925.248191401</v>
       </c>
       <c r="E53" t="n">
-        <v>431778.6216853223</v>
+        <v>431771.7189162375</v>
       </c>
       <c r="F53" t="n">
-        <v>7572970.887775124</v>
+        <v>7573001.435542382</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3050,13 +3050,13 @@
         <v>-85.24842609884217</v>
       </c>
       <c r="L53" t="n">
-        <v>613.2820922503015</v>
+        <v>606.3793231655145</v>
       </c>
       <c r="M53" t="n">
-        <v>45.63958372268826</v>
+        <v>76.18735098093748</v>
       </c>
       <c r="N53" t="n">
-        <v>614.9779640582967</v>
+        <v>611.1467876150214</v>
       </c>
       <c r="O53" t="n">
         <v>156.5353395385589</v>
@@ -3076,10 +3076,10 @@
         <v>7572897.190743474</v>
       </c>
       <c r="E54" t="n">
-        <v>431485.640384702</v>
+        <v>431499.9996141678</v>
       </c>
       <c r="F54" t="n">
-        <v>7572935.039131017</v>
+        <v>7572960.335217176</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3099,13 +3099,13 @@
         <v>-114.3428505519405</v>
       </c>
       <c r="L54" t="n">
-        <v>-24.9368179172161</v>
+        <v>-10.57758845138596</v>
       </c>
       <c r="M54" t="n">
-        <v>37.84838754311204</v>
+        <v>63.14447370171547</v>
       </c>
       <c r="N54" t="n">
-        <v>45.32488640305665</v>
+        <v>64.02429176893354</v>
       </c>
       <c r="O54" t="n">
         <v>280.1262247509526</v>
@@ -3125,10 +3125,10 @@
         <v>7572897.190743474</v>
       </c>
       <c r="E55" t="n">
-        <v>431472.6824886345</v>
+        <v>431455.756816334</v>
       </c>
       <c r="F55" t="n">
-        <v>7572968.759890504</v>
+        <v>7572973.370413698</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3148,13 +3148,13 @@
         <v>-113.3058740259148</v>
       </c>
       <c r="L55" t="n">
-        <v>-37.89471398468595</v>
+        <v>-54.82038628519513</v>
       </c>
       <c r="M55" t="n">
-        <v>71.56914702989161</v>
+        <v>76.17967022396624</v>
       </c>
       <c r="N55" t="n">
-        <v>80.98241879918996</v>
+        <v>93.85423223217086</v>
       </c>
       <c r="O55" t="n">
         <v>242.1022611606921</v>
@@ -3174,10 +3174,10 @@
         <v>7572838.982630525</v>
       </c>
       <c r="E56" t="n">
-        <v>431128.5256189479</v>
+        <v>431112.7240315124</v>
       </c>
       <c r="F56" t="n">
-        <v>7572756.126800856</v>
+        <v>7572799.042506497</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3197,13 +3197,13 @@
         <v>67.15437252447009</v>
       </c>
       <c r="L56" t="n">
-        <v>-54.02144097088603</v>
+        <v>-69.82302840636112</v>
       </c>
       <c r="M56" t="n">
-        <v>-82.85582966916263</v>
+        <v>-39.94012402743101</v>
       </c>
       <c r="N56" t="n">
-        <v>98.91109439661567</v>
+        <v>80.43922428244869</v>
       </c>
       <c r="O56" t="n">
         <v>134.6866149586132</v>
@@ -3223,10 +3223,10 @@
         <v>7572838.982630525</v>
       </c>
       <c r="E57" t="n">
-        <v>431332.9242936096</v>
+        <v>431355.7496651549</v>
       </c>
       <c r="F57" t="n">
-        <v>7572972.011183403</v>
+        <v>7573009.242614151</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>-13.30280514216671</v>
       </c>
       <c r="L57" t="n">
-        <v>150.377233690815</v>
+        <v>173.2026052361471</v>
       </c>
       <c r="M57" t="n">
-        <v>133.028552878648</v>
+        <v>170.2599836261943</v>
       </c>
       <c r="N57" t="n">
-        <v>200.7732758448924</v>
+        <v>242.8736389256367</v>
       </c>
       <c r="O57" t="n">
         <v>43.76809052837175</v>
@@ -3272,10 +3272,10 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E58" t="n">
-        <v>431308.0001016723</v>
+        <v>431315.4264792734</v>
       </c>
       <c r="F58" t="n">
-        <v>7572865.558560899</v>
+        <v>7572903.478009895</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3295,13 +3295,13 @@
         <v>-16.60757092169176</v>
       </c>
       <c r="L58" t="n">
-        <v>223.5412165403832</v>
+        <v>230.967594141548</v>
       </c>
       <c r="M58" t="n">
-        <v>29.88069615419954</v>
+        <v>67.80014515016228</v>
       </c>
       <c r="N58" t="n">
-        <v>225.5294470684794</v>
+        <v>240.7132925825201</v>
       </c>
       <c r="O58" t="n">
         <v>140.7687643108115</v>
@@ -3321,10 +3321,10 @@
         <v>7572900.330810694</v>
       </c>
       <c r="E59" t="n">
-        <v>431478.9143147684</v>
+        <v>431473.4869590503</v>
       </c>
       <c r="F59" t="n">
-        <v>7572974.28554637</v>
+        <v>7572991.771185336</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3344,13 +3344,13 @@
         <v>-110.1658068061806</v>
       </c>
       <c r="L59" t="n">
-        <v>137.8105132845812</v>
+        <v>132.3831575664808</v>
       </c>
       <c r="M59" t="n">
-        <v>73.95473567582667</v>
+        <v>91.44037464167923</v>
       </c>
       <c r="N59" t="n">
-        <v>156.4002573547791</v>
+        <v>160.8932643769848</v>
       </c>
       <c r="O59" t="n">
         <v>118.8057846337766</v>
@@ -3370,10 +3370,10 @@
         <v>7572835.677864745</v>
       </c>
       <c r="E60" t="n">
-        <v>431481.5963135737</v>
+        <v>431454.7377590718</v>
       </c>
       <c r="F60" t="n">
-        <v>7572962.528926465</v>
+        <v>7573027.115288153</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3393,13 +3393,13 @@
         <v>-16.60757092169176</v>
       </c>
       <c r="L60" t="n">
-        <v>397.1374284417834</v>
+        <v>370.2788739399402</v>
       </c>
       <c r="M60" t="n">
-        <v>126.8510617194697</v>
+        <v>191.4374234080315</v>
       </c>
       <c r="N60" t="n">
-        <v>416.9044601928712</v>
+        <v>416.8389755857003</v>
       </c>
       <c r="O60" t="n">
         <v>140.7687643108115</v>
@@ -3419,10 +3419,10 @@
         <v>7572900.330810694</v>
       </c>
       <c r="E61" t="n">
-        <v>431458.2838305371</v>
+        <v>431494.8801353159</v>
       </c>
       <c r="F61" t="n">
-        <v>7572993.931262863</v>
+        <v>7573006.060865618</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3442,13 +3442,13 @@
         <v>-110.1658068061806</v>
       </c>
       <c r="L61" t="n">
-        <v>117.1800290532992</v>
+        <v>153.7763338321238</v>
       </c>
       <c r="M61" t="n">
-        <v>93.60045216884464</v>
+        <v>105.7300549242646</v>
       </c>
       <c r="N61" t="n">
-        <v>149.9740105989842</v>
+        <v>186.6172697290816</v>
       </c>
       <c r="O61" t="n">
         <v>118.8057846337766</v>
@@ -3468,10 +3468,10 @@
         <v>7572764.126975277</v>
       </c>
       <c r="E62" t="n">
-        <v>431495.5987206724</v>
+        <v>431489.0677626514</v>
       </c>
       <c r="F62" t="n">
-        <v>7573164.270031508</v>
+        <v>7573183.54825571</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3491,13 +3491,13 @@
         <v>-10.40445622289553</v>
       </c>
       <c r="L62" t="n">
-        <v>319.335196093889</v>
+        <v>312.8042380728875</v>
       </c>
       <c r="M62" t="n">
-        <v>400.1430562306195</v>
+        <v>419.4212804324925</v>
       </c>
       <c r="N62" t="n">
-        <v>511.9467090566197</v>
+        <v>523.2214653815258</v>
       </c>
       <c r="O62" t="n">
         <v>134.4515548470226</v>
@@ -3517,10 +3517,10 @@
         <v>7572764.126975277</v>
       </c>
       <c r="E63" t="n">
-        <v>431197.7550020618</v>
+        <v>431173.3781434821</v>
       </c>
       <c r="F63" t="n">
-        <v>7572640.573876415</v>
+        <v>7572639.875223299</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3540,13 +3540,13 @@
         <v>228.2639032769948</v>
       </c>
       <c r="L63" t="n">
-        <v>21.49147748330142</v>
+        <v>-2.885381096391939</v>
       </c>
       <c r="M63" t="n">
-        <v>-123.5530988620594</v>
+        <v>-124.2517519788817</v>
       </c>
       <c r="N63" t="n">
-        <v>125.4083404037908</v>
+        <v>124.2852497036271</v>
       </c>
       <c r="O63" t="n">
         <v>247.9334324040024</v>
@@ -3566,10 +3566,10 @@
         <v>7572571.746698914</v>
       </c>
       <c r="E64" t="n">
-        <v>431110.9615175441</v>
+        <v>431096.1002748976</v>
       </c>
       <c r="F64" t="n">
-        <v>7572602.593794607</v>
+        <v>7572613.95730177</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>35.88362691365182</v>
       </c>
       <c r="L64" t="n">
-        <v>-40.73556658963207</v>
+        <v>-55.59680923609994</v>
       </c>
       <c r="M64" t="n">
-        <v>30.84709569253027</v>
+        <v>42.21060285624117</v>
       </c>
       <c r="N64" t="n">
-        <v>51.09725724579029</v>
+        <v>69.80501551265928</v>
       </c>
       <c r="O64" t="n">
         <v>80.63863085208803</v>
@@ -3615,10 +3615,10 @@
         <v>7572571.746698914</v>
       </c>
       <c r="E65" t="n">
-        <v>431112.4566815916</v>
+        <v>431094.8535504394</v>
       </c>
       <c r="F65" t="n">
-        <v>7572824.474957219</v>
+        <v>7572857.684120324</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3638,13 +3638,13 @@
         <v>35.88362691365182</v>
       </c>
       <c r="L65" t="n">
-        <v>-39.24040254217107</v>
+        <v>-56.84353369433666</v>
       </c>
       <c r="M65" t="n">
-        <v>252.7282583052292</v>
+        <v>285.9374214103445</v>
       </c>
       <c r="N65" t="n">
-        <v>255.7564891408746</v>
+        <v>291.5328391204945</v>
       </c>
       <c r="O65" t="n">
         <v>80.63863085208803</v>
@@ -3664,10 +3664,10 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E66" t="n">
-        <v>437168.4616861833</v>
+        <v>437165.612547477</v>
       </c>
       <c r="F66" t="n">
-        <v>7551807.012100852</v>
+        <v>7551813.471814219</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3687,13 +3687,13 @@
         <v>-82.08894705399871</v>
       </c>
       <c r="L66" t="n">
-        <v>-94.08488454151666</v>
+        <v>-96.93402324785711</v>
       </c>
       <c r="M66" t="n">
-        <v>48.78556390572339</v>
+        <v>55.24527727253735</v>
       </c>
       <c r="N66" t="n">
-        <v>105.9811150384348</v>
+        <v>111.5717057498703</v>
       </c>
       <c r="O66" t="n">
         <v>307.828237626313</v>
@@ -3713,10 +3713,10 @@
         <v>7551758.226536946</v>
       </c>
       <c r="E67" t="n">
-        <v>437196.5675510662</v>
+        <v>437221.0108941029</v>
       </c>
       <c r="F67" t="n">
-        <v>7551862.400827857</v>
+        <v>7551865.652324653</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3736,13 +3736,13 @@
         <v>-82.08894705399871</v>
       </c>
       <c r="L67" t="n">
-        <v>-65.97901965858182</v>
+        <v>-41.53567662189016</v>
       </c>
       <c r="M67" t="n">
-        <v>104.1742909103632</v>
+        <v>107.4257877068594</v>
       </c>
       <c r="N67" t="n">
-        <v>123.3106399374543</v>
+        <v>115.1760057341696</v>
       </c>
       <c r="O67" t="n">
         <v>307.828237626313</v>
@@ -3762,10 +3762,10 @@
         <v>7551656.590566898</v>
       </c>
       <c r="E68" t="n">
-        <v>436972.5584072375</v>
+        <v>436994.4064311741</v>
       </c>
       <c r="F68" t="n">
-        <v>7551715.349832088</v>
+        <v>7551759.374343965</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3785,13 +3785,13 @@
         <v>154.0604905644432</v>
       </c>
       <c r="L68" t="n">
-        <v>-91.980875000183</v>
+        <v>-70.13285106356489</v>
       </c>
       <c r="M68" t="n">
-        <v>58.7592651899904</v>
+        <v>102.7837770674378</v>
       </c>
       <c r="N68" t="n">
-        <v>109.1472977744612</v>
+        <v>124.4311923375844</v>
       </c>
       <c r="O68" t="n">
         <v>249.9352273960128</v>
@@ -3811,10 +3811,10 @@
         <v>7551656.590566898</v>
       </c>
       <c r="E69" t="n">
-        <v>436901.9815308369</v>
+        <v>436903.8088856984</v>
       </c>
       <c r="F69" t="n">
-        <v>7551596.068623727</v>
+        <v>7551637.196226365</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3834,13 +3834,13 @@
         <v>59.7533853976056</v>
       </c>
       <c r="L69" t="n">
-        <v>-162.5577514008037</v>
+        <v>-160.7303965392639</v>
       </c>
       <c r="M69" t="n">
-        <v>-60.52194317057729</v>
+        <v>-19.39434053283185</v>
       </c>
       <c r="N69" t="n">
-        <v>173.4587217341004</v>
+        <v>161.8962656035415</v>
       </c>
       <c r="O69" t="n">
         <v>110.8550100644146</v>
@@ -3860,10 +3860,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E70" t="n">
-        <v>437163.8086714132</v>
+        <v>437143.3716183548</v>
       </c>
       <c r="F70" t="n">
-        <v>7551773.747882385</v>
+        <v>7551784.126797702</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3883,13 +3883,13 @@
         <v>-3.104766381904483</v>
       </c>
       <c r="L70" t="n">
-        <v>226.8247827859013</v>
+        <v>206.3877297274303</v>
       </c>
       <c r="M70" t="n">
-        <v>94.31341176666319</v>
+        <v>104.6923270840198</v>
       </c>
       <c r="N70" t="n">
-        <v>245.6511789610208</v>
+        <v>231.4225104269465</v>
       </c>
       <c r="O70" t="n">
         <v>131.1528658289487</v>
@@ -3909,10 +3909,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E71" t="n">
-        <v>437172.8755321009</v>
+        <v>437168.696621476</v>
       </c>
       <c r="F71" t="n">
-        <v>7551850.276129906</v>
+        <v>7551881.297577626</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-3.104766381904483</v>
       </c>
       <c r="L71" t="n">
-        <v>235.8916434735875</v>
+        <v>231.7127328487113</v>
       </c>
       <c r="M71" t="n">
-        <v>170.8416592879221</v>
+        <v>201.8631070079282</v>
       </c>
       <c r="N71" t="n">
-        <v>291.2588882917061</v>
+        <v>307.3101113453844</v>
       </c>
       <c r="O71" t="n">
         <v>131.1528658289487</v>
@@ -3958,10 +3958,10 @@
         <v>7551679.434470618</v>
       </c>
       <c r="E72" t="n">
-        <v>436831.0762098479</v>
+        <v>436858.3037863771</v>
       </c>
       <c r="F72" t="n">
-        <v>7551703.351837537</v>
+        <v>7551740.272160281</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3981,13 +3981,13 @@
         <v>176.904394284822</v>
       </c>
       <c r="L72" t="n">
-        <v>-105.9076787794475</v>
+        <v>-78.68010225018952</v>
       </c>
       <c r="M72" t="n">
-        <v>23.91736691910774</v>
+        <v>60.83768966328353</v>
       </c>
       <c r="N72" t="n">
-        <v>108.5747524279648</v>
+        <v>99.457443027992</v>
       </c>
       <c r="O72" t="n">
         <v>189.9761707271458</v>
@@ -4007,10 +4007,10 @@
         <v>7551621.677978849</v>
       </c>
       <c r="E73" t="n">
-        <v>436573.4861788786</v>
+        <v>436540.3054049152</v>
       </c>
       <c r="F73" t="n">
-        <v>7552101.432851181</v>
+        <v>7552127.757128003</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4030,13 +4030,13 @@
         <v>307.762112849392</v>
       </c>
       <c r="L73" t="n">
-        <v>-122.7254547955235</v>
+        <v>-155.9062287588604</v>
       </c>
       <c r="M73" t="n">
-        <v>479.7548723323271</v>
+        <v>506.0791491540149</v>
       </c>
       <c r="N73" t="n">
-        <v>495.2032661255129</v>
+        <v>529.5496741329011</v>
       </c>
       <c r="O73" t="n">
         <v>309.7855082423109</v>
@@ -4056,10 +4056,10 @@
         <v>7551621.677978849</v>
       </c>
       <c r="E74" t="n">
-        <v>436821.9380179661</v>
+        <v>436807.1941578388</v>
       </c>
       <c r="F74" t="n">
-        <v>7551991.829654825</v>
+        <v>7552003.268185738</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4079,13 +4079,13 @@
         <v>44.56230384903029</v>
       </c>
       <c r="L74" t="n">
-        <v>125.7263842920074</v>
+        <v>110.9825241647195</v>
       </c>
       <c r="M74" t="n">
-        <v>370.1516759758815</v>
+        <v>381.5902068885043</v>
       </c>
       <c r="N74" t="n">
-        <v>390.9212029743277</v>
+        <v>397.401820155852</v>
       </c>
       <c r="O74" t="n">
         <v>125.3415805943317</v>
@@ -4105,10 +4105,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E75" t="n">
-        <v>436435.2932259033</v>
+        <v>436450.2801165296</v>
       </c>
       <c r="F75" t="n">
-        <v>7551776.048545738</v>
+        <v>7551797.917996089</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L75" t="n">
-        <v>41.17812112398678</v>
+        <v>56.16501175024314</v>
       </c>
       <c r="M75" t="n">
-        <v>-84.61330642178655</v>
+        <v>-62.7438560705632</v>
       </c>
       <c r="N75" t="n">
-        <v>94.10127142036323</v>
+        <v>84.20985702106672</v>
       </c>
       <c r="O75" t="n">
         <v>81.43167391216005</v>
@@ -4154,10 +4154,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E76" t="n">
-        <v>436432.0904209253</v>
+        <v>436435.3736630446</v>
       </c>
       <c r="F76" t="n">
-        <v>7551790.235237506</v>
+        <v>7551819.635798778</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L76" t="n">
-        <v>37.9753161460394</v>
+        <v>41.25855826528277</v>
       </c>
       <c r="M76" t="n">
-        <v>-70.42661465331912</v>
+        <v>-41.02605338115245</v>
       </c>
       <c r="N76" t="n">
-        <v>80.01270329090715</v>
+        <v>58.18423915600258</v>
       </c>
       <c r="O76" t="n">
         <v>81.43167391216005</v>
@@ -4203,10 +4203,10 @@
         <v>7551860.66185216</v>
       </c>
       <c r="E77" t="n">
-        <v>436432.9332531295</v>
+        <v>436447.4048997985</v>
       </c>
       <c r="F77" t="n">
-        <v>7551756.689673586</v>
+        <v>7551795.415945782</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4226,13 +4226,13 @@
         <v>6.718504159711301</v>
       </c>
       <c r="L77" t="n">
-        <v>38.81814835022669</v>
+        <v>53.28979501919821</v>
       </c>
       <c r="M77" t="n">
-        <v>-103.9721785737202</v>
+        <v>-65.24590637721121</v>
       </c>
       <c r="N77" t="n">
-        <v>110.9822623607293</v>
+        <v>84.24268841966033</v>
       </c>
       <c r="O77" t="n">
         <v>81.43167391216005</v>
@@ -4252,10 +4252,10 @@
         <v>7572493.236638571</v>
       </c>
       <c r="E78" t="n">
-        <v>425441.2310195445</v>
+        <v>425461.1463451231</v>
       </c>
       <c r="F78" t="n">
-        <v>7572527.154053349</v>
+        <v>7572594.307618995</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-412.293681928888</v>
       </c>
       <c r="L78" t="n">
-        <v>-175.6368881106027</v>
+        <v>-155.7215625320096</v>
       </c>
       <c r="M78" t="n">
-        <v>33.9174147779122</v>
+        <v>101.0709804240614</v>
       </c>
       <c r="N78" t="n">
-        <v>178.881825489325</v>
+        <v>185.64629843143</v>
       </c>
       <c r="O78" t="n">
         <v>478.1128851638249</v>
@@ -4301,10 +4301,10 @@
         <v>7572493.236638571</v>
       </c>
       <c r="E79" t="n">
-        <v>425326.7952183071</v>
+        <v>425325.8357892947</v>
       </c>
       <c r="F79" t="n">
-        <v>7572689.362062474</v>
+        <v>7572680.286338873</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4324,13 +4324,13 @@
         <v>-166.5992644289508</v>
       </c>
       <c r="L79" t="n">
-        <v>-290.0726893479587</v>
+        <v>-291.0321183603955</v>
       </c>
       <c r="M79" t="n">
-        <v>196.1254239026457</v>
+        <v>187.0497003020719</v>
       </c>
       <c r="N79" t="n">
-        <v>350.1533192853522</v>
+        <v>345.9585008356265</v>
       </c>
       <c r="O79" t="n">
         <v>293.8117658722834</v>
@@ -4350,10 +4350,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E80" t="n">
-        <v>423192.4685568436</v>
+        <v>423192.8706773578</v>
       </c>
       <c r="F80" t="n">
-        <v>7575819.077254251</v>
+        <v>7575854.843672332</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>94.45873334025964</v>
       </c>
       <c r="L80" t="n">
-        <v>140.7831297212979</v>
+        <v>141.1852502354886</v>
       </c>
       <c r="M80" t="n">
-        <v>-69.29377483949065</v>
+        <v>-33.5273567577824</v>
       </c>
       <c r="N80" t="n">
-        <v>156.9124496196201</v>
+        <v>145.1115382566843</v>
       </c>
       <c r="O80" t="n">
         <v>139.7924808191794</v>
@@ -4399,10 +4399,10 @@
         <v>7575888.37102909</v>
       </c>
       <c r="E81" t="n">
-        <v>423085.9348731439</v>
+        <v>423076.1968533462</v>
       </c>
       <c r="F81" t="n">
-        <v>7575773.618005523</v>
+        <v>7575798.131583249</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>94.45873334025964</v>
       </c>
       <c r="L81" t="n">
-        <v>34.24944602162577</v>
+        <v>24.51142622396583</v>
       </c>
       <c r="M81" t="n">
-        <v>-114.7530235666782</v>
+        <v>-90.23944584093988</v>
       </c>
       <c r="N81" t="n">
-        <v>119.7550874513599</v>
+        <v>93.50918458211922</v>
       </c>
       <c r="O81" t="n">
         <v>139.7924808191794</v>
@@ -4448,10 +4448,10 @@
         <v>7575826.05698428</v>
       </c>
       <c r="E82" t="n">
-        <v>422918.08377909</v>
+        <v>422937.4263889052</v>
       </c>
       <c r="F82" t="n">
-        <v>7575816.244358095</v>
+        <v>7575838.663895753</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4471,13 +4471,13 @@
         <v>-95.47029938641936</v>
       </c>
       <c r="L82" t="n">
-        <v>-112.2138180045877</v>
+        <v>-92.87120818946278</v>
       </c>
       <c r="M82" t="n">
-        <v>-9.812626184895635</v>
+        <v>12.60691147297621</v>
       </c>
       <c r="N82" t="n">
-        <v>112.6420373742025</v>
+        <v>93.72297225044667</v>
       </c>
       <c r="O82" t="n">
         <v>106.138811689697</v>
@@ -4497,10 +4497,10 @@
         <v>7575826.05698428</v>
       </c>
       <c r="E83" t="n">
-        <v>422873.3561650333</v>
+        <v>422903.3418710094</v>
       </c>
       <c r="F83" t="n">
-        <v>7575886.118649274</v>
+        <v>7575917.777024864</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4520,13 +4520,13 @@
         <v>-95.47029938641936</v>
       </c>
       <c r="L83" t="n">
-        <v>-156.9414320613141</v>
+        <v>-126.9557260852307</v>
       </c>
       <c r="M83" t="n">
-        <v>60.06166499387473</v>
+        <v>91.72004058398306</v>
       </c>
       <c r="N83" t="n">
-        <v>168.0417111888965</v>
+        <v>156.6215892862655</v>
       </c>
       <c r="O83" t="n">
         <v>106.138811689697</v>
@@ -4546,10 +4546,10 @@
         <v>7575872.449505922</v>
       </c>
       <c r="E84" t="n">
-        <v>423010.5339001071</v>
+        <v>423040.5550747288</v>
       </c>
       <c r="F84" t="n">
-        <v>7575841.030465642</v>
+        <v>7575874.934769638</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -4569,13 +4569,13 @@
         <v>78.53721017250791</v>
       </c>
       <c r="L84" t="n">
-        <v>68.97908591851592</v>
+        <v>99.0002605401678</v>
       </c>
       <c r="M84" t="n">
-        <v>-31.41904028039426</v>
+        <v>2.485263715498149</v>
       </c>
       <c r="N84" t="n">
-        <v>75.7975618756635</v>
+        <v>99.03145016991662</v>
       </c>
       <c r="O84" t="n">
         <v>227.1881278955588</v>
@@ -4595,10 +4595,10 @@
         <v>7575872.449505922</v>
       </c>
       <c r="E85" t="n">
-        <v>423042.2106358422</v>
+        <v>423037.6981995706</v>
       </c>
       <c r="F85" t="n">
-        <v>7575806.724269613</v>
+        <v>7575835.204649701</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4618,13 +4618,13 @@
         <v>120.0621082559228</v>
       </c>
       <c r="L85" t="n">
-        <v>100.6558216536068</v>
+        <v>96.14338538196171</v>
       </c>
       <c r="M85" t="n">
-        <v>-65.72523630969226</v>
+        <v>-37.24485622160137</v>
       </c>
       <c r="N85" t="n">
-        <v>120.2139805543748</v>
+        <v>103.1054308350058</v>
       </c>
       <c r="O85" t="n">
         <v>193.580203088337</v>
@@ -4644,10 +4644,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E86" t="n">
-        <v>423064.9577778354</v>
+        <v>423073.9770645856</v>
       </c>
       <c r="F86" t="n">
-        <v>7575787.565048248</v>
+        <v>7575816.976383921</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -4667,13 +4667,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L86" t="n">
-        <v>116.533862621407</v>
+        <v>125.5531493716408</v>
       </c>
       <c r="M86" t="n">
-        <v>-10.42056304775178</v>
+        <v>18.99077262543142</v>
       </c>
       <c r="N86" t="n">
-        <v>116.9988430357204</v>
+        <v>126.9812693354747</v>
       </c>
       <c r="O86" t="n">
         <v>206.3526059895852</v>
@@ -4693,10 +4693,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E87" t="n">
-        <v>423037.4153194992</v>
+        <v>423056.2266571901</v>
       </c>
       <c r="F87" t="n">
-        <v>7575735.915998206</v>
+        <v>7575757.912076337</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4716,13 +4716,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L87" t="n">
-        <v>88.99140428518876</v>
+        <v>107.8027419761638</v>
       </c>
       <c r="M87" t="n">
-        <v>-62.06961308978498</v>
+        <v>-40.07353495806456</v>
       </c>
       <c r="N87" t="n">
-        <v>108.4993405775607</v>
+        <v>115.0100838257871</v>
       </c>
       <c r="O87" t="n">
         <v>206.3526059895852</v>
@@ -4742,10 +4742,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E88" t="n">
-        <v>423118.3443315195</v>
+        <v>423132.4410722372</v>
       </c>
       <c r="F88" t="n">
-        <v>7575706.261283303</v>
+        <v>7575715.692228815</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4765,13 +4765,13 @@
         <v>255.4904677956365</v>
       </c>
       <c r="L88" t="n">
-        <v>169.9204163055401</v>
+        <v>184.0171570232487</v>
       </c>
       <c r="M88" t="n">
-        <v>-91.72432799264789</v>
+        <v>-82.29338248074055</v>
       </c>
       <c r="N88" t="n">
-        <v>193.0966085231714</v>
+        <v>201.5800458354954</v>
       </c>
       <c r="O88" t="n">
         <v>336.5680026582601</v>
@@ -4791,10 +4791,10 @@
         <v>7575797.985611295</v>
       </c>
       <c r="E89" t="n">
-        <v>423104.6383677852</v>
+        <v>423084.7861039925</v>
       </c>
       <c r="F89" t="n">
-        <v>7575766.967510928</v>
+        <v>7575791.358763112</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -4814,13 +4814,13 @@
         <v>4.073315545450896</v>
       </c>
       <c r="L89" t="n">
-        <v>156.2144525712356</v>
+        <v>136.3621887785266</v>
       </c>
       <c r="M89" t="n">
-        <v>-31.01810036692768</v>
+        <v>-6.626848183572292</v>
       </c>
       <c r="N89" t="n">
-        <v>159.2641759546183</v>
+        <v>136.523117622323</v>
       </c>
       <c r="O89" t="n">
         <v>206.3526059895852</v>
@@ -4840,10 +4840,10 @@
         <v>7575587.294272878</v>
       </c>
       <c r="E90" t="n">
-        <v>423323.6027014913</v>
+        <v>423339.3327631007</v>
       </c>
       <c r="F90" t="n">
-        <v>7575699.220219634</v>
+        <v>7575737.292331349</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4863,13 +4863,13 @@
         <v>44.79912937851623</v>
       </c>
       <c r="L90" t="n">
-        <v>223.8737371357856</v>
+        <v>239.6037987452</v>
       </c>
       <c r="M90" t="n">
-        <v>111.9259467562661</v>
+        <v>149.9980584708974</v>
       </c>
       <c r="N90" t="n">
-        <v>250.2935631142546</v>
+        <v>282.6825037354967</v>
       </c>
       <c r="O90" t="n">
         <v>81.25543868584539</v>
@@ -4889,10 +4889,10 @@
         <v>7575587.294272878</v>
       </c>
       <c r="E91" t="n">
-        <v>423218.4320294851</v>
+        <v>423206.7838496705</v>
       </c>
       <c r="F91" t="n">
-        <v>7575434.574772829</v>
+        <v>7575463.040561744</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>-331.192717121914</v>
       </c>
       <c r="L91" t="n">
-        <v>118.7030651295208</v>
+        <v>107.0548853149521</v>
       </c>
       <c r="M91" t="n">
-        <v>-152.7195000490174</v>
+        <v>-124.2537111341953</v>
       </c>
       <c r="N91" t="n">
-        <v>193.4261186250841</v>
+        <v>164.0113813136686</v>
       </c>
       <c r="O91" t="n">
         <v>408.4246281378758</v>
@@ -4938,10 +4938,10 @@
         <v>7565333.55192534</v>
       </c>
       <c r="E92" t="n">
-        <v>427845.9830695579</v>
+        <v>427819.1032331327</v>
       </c>
       <c r="F92" t="n">
-        <v>7565448.736149863</v>
+        <v>7565473.39569999</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4961,13 +4961,13 @@
         <v>-22.06094466025631</v>
       </c>
       <c r="L92" t="n">
-        <v>-213.6867838617181</v>
+        <v>-240.5666202868451</v>
       </c>
       <c r="M92" t="n">
-        <v>115.1842245236039</v>
+        <v>139.8437746502459</v>
       </c>
       <c r="N92" t="n">
-        <v>242.7538818974243</v>
+        <v>278.2599146565382</v>
       </c>
       <c r="O92" t="n">
         <v>518.3043478409027</v>
@@ -4987,10 +4987,10 @@
         <v>7565333.55192534</v>
       </c>
       <c r="E93" t="n">
-        <v>427709.1946059003</v>
+        <v>427702.9318926775</v>
       </c>
       <c r="F93" t="n">
-        <v>7565433.987898625</v>
+        <v>7565438.778452889</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>-22.06094466025631</v>
       </c>
       <c r="L93" t="n">
-        <v>-350.4752475193236</v>
+        <v>-356.737960742088</v>
       </c>
       <c r="M93" t="n">
-        <v>100.4359732856974</v>
+        <v>105.2265275493264</v>
       </c>
       <c r="N93" t="n">
-        <v>364.5823416645086</v>
+        <v>371.9335891453106</v>
       </c>
       <c r="O93" t="n">
         <v>518.3043478409027</v>
@@ -5036,10 +5036,10 @@
         <v>7565238.27054923</v>
       </c>
       <c r="E94" t="n">
-        <v>427680.1408076626</v>
+        <v>427673.2142229049</v>
       </c>
       <c r="F94" t="n">
-        <v>7565339.236061756</v>
+        <v>7565351.446962333</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5059,13 +5059,13 @@
         <v>-117.3423207697148</v>
       </c>
       <c r="L94" t="n">
-        <v>-361.0748736138339</v>
+        <v>-368.0014583715238</v>
       </c>
       <c r="M94" t="n">
-        <v>100.9655125252903</v>
+        <v>113.1764131030068</v>
       </c>
       <c r="N94" t="n">
-        <v>374.9254580243127</v>
+        <v>385.0116541696248</v>
       </c>
       <c r="O94" t="n">
         <v>512.9815487357787</v>
@@ -5085,10 +5085,10 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E95" t="n">
-        <v>427162.2240700615</v>
+        <v>427175.5118516939</v>
       </c>
       <c r="F95" t="n">
-        <v>7565455.831009674</v>
+        <v>7565493.720820533</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5108,13 +5108,13 @@
         <v>42.73341436171904</v>
       </c>
       <c r="L95" t="n">
-        <v>-208.6394080360187</v>
+        <v>-195.3516264035716</v>
       </c>
       <c r="M95" t="n">
-        <v>-42.26691818796098</v>
+        <v>-4.377107328735292</v>
       </c>
       <c r="N95" t="n">
-        <v>212.8776525582902</v>
+        <v>195.400657642414</v>
       </c>
       <c r="O95" t="n">
         <v>145.6772965295246</v>
@@ -5134,10 +5134,10 @@
         <v>7565498.097927862</v>
       </c>
       <c r="E96" t="n">
-        <v>427365.6796553645</v>
+        <v>427316.0547246205</v>
       </c>
       <c r="F96" t="n">
-        <v>7565466.453537584</v>
+        <v>7565477.28789507</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5157,13 +5157,13 @@
         <v>235.5222728615627</v>
       </c>
       <c r="L96" t="n">
-        <v>-5.183822732942645</v>
+        <v>-54.80875347700203</v>
       </c>
       <c r="M96" t="n">
-        <v>-31.64439027756453</v>
+        <v>-20.81003279145807</v>
       </c>
       <c r="N96" t="n">
-        <v>32.06617305144774</v>
+        <v>58.62641829827524</v>
       </c>
       <c r="O96" t="n">
         <v>280.5008121935434</v>
@@ -5183,10 +5183,10 @@
         <v>7572626.735138185</v>
       </c>
       <c r="E97" t="n">
-        <v>431332.252198318</v>
+        <v>431308.3736722066</v>
       </c>
       <c r="F97" t="n">
-        <v>7572730.557547295</v>
+        <v>7572760.614131958</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5206,13 +5206,13 @@
         <v>-225.5502974816287</v>
       </c>
       <c r="L97" t="n">
-        <v>84.65510712948162</v>
+        <v>60.77658101805719</v>
       </c>
       <c r="M97" t="n">
-        <v>103.8224091092125</v>
+        <v>133.8789937729016</v>
       </c>
       <c r="N97" t="n">
-        <v>133.9611130005446</v>
+        <v>147.0284930681434</v>
       </c>
       <c r="O97" t="n">
         <v>226.7559869659887</v>
@@ -5232,10 +5232,10 @@
         <v>7572626.735138185</v>
       </c>
       <c r="E98" t="n">
-        <v>431273.8629192272</v>
+        <v>431277.6688221067</v>
       </c>
       <c r="F98" t="n">
-        <v>7572642.211960799</v>
+        <v>7572669.963830069</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5255,13 +5255,13 @@
         <v>-225.5502974816287</v>
       </c>
       <c r="L98" t="n">
-        <v>26.26582803862402</v>
+        <v>30.07173091813456</v>
       </c>
       <c r="M98" t="n">
-        <v>15.47682261373848</v>
+        <v>43.22869188338518</v>
       </c>
       <c r="N98" t="n">
-        <v>30.48648488710521</v>
+        <v>52.65955566050042</v>
       </c>
       <c r="O98" t="n">
         <v>226.7559869659887</v>
@@ -5281,10 +5281,10 @@
         <v>7572381.708633943</v>
       </c>
       <c r="E99" t="n">
-        <v>431183.7998903205</v>
+        <v>431150.8907792651</v>
       </c>
       <c r="F99" t="n">
-        <v>7572226.346652228</v>
+        <v>7572270.087094873</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5304,13 +5304,13 @@
         <v>-154.1544380579144</v>
       </c>
       <c r="L99" t="n">
-        <v>-23.76301109726774</v>
+        <v>-56.67212215263862</v>
       </c>
       <c r="M99" t="n">
-        <v>-155.3619817141443</v>
+        <v>-111.6215390693396</v>
       </c>
       <c r="N99" t="n">
-        <v>157.1687820737789</v>
+        <v>125.184253856033</v>
       </c>
       <c r="O99" t="n">
         <v>200.4200441301869</v>
@@ -5330,10 +5330,10 @@
         <v>7572381.708633943</v>
       </c>
       <c r="E100" t="n">
-        <v>431018.5604767881</v>
+        <v>431039.1164996019</v>
       </c>
       <c r="F100" t="n">
-        <v>7572200.30157765</v>
+        <v>7572240.169107302</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5353,13 +5353,13 @@
         <v>-154.1544380579144</v>
       </c>
       <c r="L100" t="n">
-        <v>-189.002424629638</v>
+        <v>-168.4464018159197</v>
       </c>
       <c r="M100" t="n">
-        <v>-181.407056292519</v>
+        <v>-141.5395266404375</v>
       </c>
       <c r="N100" t="n">
-        <v>261.9741143483438</v>
+        <v>220.0173354223012</v>
       </c>
       <c r="O100" t="n">
         <v>200.4200441301869</v>
@@ -5379,10 +5379,10 @@
         <v>7572334.391199527</v>
       </c>
       <c r="E101" t="n">
-        <v>430992.8318475721</v>
+        <v>431004.838228403</v>
       </c>
       <c r="F101" t="n">
-        <v>7572035.805038097</v>
+        <v>7572087.866248078</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5402,13 +5402,13 @@
         <v>-201.4718724731356</v>
       </c>
       <c r="L101" t="n">
-        <v>101.976129179995</v>
+        <v>113.9825100108283</v>
       </c>
       <c r="M101" t="n">
-        <v>-298.5861614299938</v>
+        <v>-246.5249514495954</v>
       </c>
       <c r="N101" t="n">
-        <v>315.5199307809784</v>
+        <v>271.6000078711227</v>
       </c>
       <c r="O101" t="n">
         <v>275.9908646832791</v>
@@ -5428,10 +5428,10 @@
         <v>7573039.895545706</v>
       </c>
       <c r="E102" t="n">
-        <v>431144.5437129373</v>
+        <v>431143.5652239937</v>
       </c>
       <c r="F102" t="n">
-        <v>7572973.690386735</v>
+        <v>7572991.167063464</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5451,13 +5451,13 @@
         <v>187.6101100392019</v>
       </c>
       <c r="L102" t="n">
-        <v>392.2551470856415</v>
+        <v>391.2766581420437</v>
       </c>
       <c r="M102" t="n">
-        <v>-66.20515897125006</v>
+        <v>-48.72848224174231</v>
       </c>
       <c r="N102" t="n">
-        <v>397.8029958278177</v>
+        <v>394.2992368600142</v>
       </c>
       <c r="O102" t="n">
         <v>507.877947342251</v>
@@ -5477,10 +5477,10 @@
         <v>7573039.895545706</v>
       </c>
       <c r="E103" t="n">
-        <v>431179.9674622333</v>
+        <v>431204.9674431004</v>
       </c>
       <c r="F103" t="n">
-        <v>7572965.216276006</v>
+        <v>7572981.793086837</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5500,13 +5500,13 @@
         <v>187.6101100392019</v>
       </c>
       <c r="L103" t="n">
-        <v>427.6788963816944</v>
+        <v>452.678877248778</v>
       </c>
       <c r="M103" t="n">
-        <v>-74.67926970031112</v>
+        <v>-58.10245886910707</v>
       </c>
       <c r="N103" t="n">
-        <v>434.1500106336931</v>
+        <v>456.3924425687289</v>
       </c>
       <c r="O103" t="n">
         <v>507.877947342251</v>
@@ -5526,10 +5526,10 @@
         <v>7573153.018649977</v>
       </c>
       <c r="E104" t="n">
-        <v>431720.1195185881</v>
+        <v>431768.7158193628</v>
       </c>
       <c r="F104" t="n">
-        <v>7573119.337876296</v>
+        <v>7573139.575554004</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5549,13 +5549,13 @@
         <v>142.522032476496</v>
       </c>
       <c r="L104" t="n">
-        <v>918.3440799087402</v>
+        <v>966.940380683518</v>
       </c>
       <c r="M104" t="n">
-        <v>-33.68077368102968</v>
+        <v>-13.44309597276151</v>
       </c>
       <c r="N104" t="n">
-        <v>918.9615027949666</v>
+        <v>967.0338239305385</v>
       </c>
       <c r="O104" t="n">
         <v>514.965263189863</v>
@@ -5575,10 +5575,10 @@
         <v>7573153.018649977</v>
       </c>
       <c r="E105" t="n">
-        <v>430972.687336524</v>
+        <v>430976.8034359822</v>
       </c>
       <c r="F105" t="n">
-        <v>7573236.214113474</v>
+        <v>7573252.002914103</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5598,13 +5598,13 @@
         <v>381.1903919763863</v>
       </c>
       <c r="L105" t="n">
-        <v>170.9118978446932</v>
+        <v>175.027997302881</v>
       </c>
       <c r="M105" t="n">
-        <v>83.19546349719167</v>
+        <v>98.98426412604749</v>
       </c>
       <c r="N105" t="n">
-        <v>190.0851440049626</v>
+        <v>201.0788014297689</v>
       </c>
       <c r="O105" t="n">
         <v>463.6949988920165</v>
@@ -5624,10 +5624,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E106" t="n">
-        <v>431578.3518045131</v>
+        <v>431606.0787863039</v>
       </c>
       <c r="F106" t="n">
-        <v>7573236.473676497</v>
+        <v>7573259.027180315</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5647,13 +5647,13 @@
         <v>214.785443269182</v>
       </c>
       <c r="L106" t="n">
-        <v>704.9141215010895</v>
+        <v>732.6411032918841</v>
       </c>
       <c r="M106" t="n">
-        <v>11.1916157277301</v>
+        <v>33.74511954560876</v>
       </c>
       <c r="N106" t="n">
-        <v>705.0029581173756</v>
+        <v>733.4178340658867</v>
       </c>
       <c r="O106" t="n">
         <v>474.5743446626212</v>
@@ -5673,10 +5673,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E107" t="n">
-        <v>431245.2913764391</v>
+        <v>431264.1696292597</v>
       </c>
       <c r="F107" t="n">
-        <v>7573007.049047557</v>
+        <v>7573026.213313174</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>372.9966251024355</v>
       </c>
       <c r="L107" t="n">
-        <v>371.8536934271106</v>
+        <v>390.731946247688</v>
       </c>
       <c r="M107" t="n">
-        <v>-218.2330132126808</v>
+        <v>-199.0687475949526</v>
       </c>
       <c r="N107" t="n">
-        <v>431.1621706171236</v>
+        <v>438.5200338496852</v>
       </c>
       <c r="O107" t="n">
         <v>512.0468181774938</v>
@@ -5722,10 +5722,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E108" t="n">
-        <v>431008.3597396368</v>
+        <v>431004.037600619</v>
       </c>
       <c r="F108" t="n">
-        <v>7573380.661272394</v>
+        <v>7573413.749498957</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>217.4886167692021</v>
       </c>
       <c r="L108" t="n">
-        <v>134.9220566247823</v>
+        <v>130.5999176069745</v>
       </c>
       <c r="M108" t="n">
-        <v>155.3792116250843</v>
+        <v>188.4674381874502</v>
       </c>
       <c r="N108" t="n">
-        <v>205.7830429580962</v>
+        <v>229.2952544992785</v>
       </c>
       <c r="O108" t="n">
         <v>281.469438654499</v>
@@ -5771,10 +5771,10 @@
         <v>7573225.282060769</v>
       </c>
       <c r="E109" t="n">
-        <v>431262.5869343264</v>
+        <v>431270.211977286</v>
       </c>
       <c r="F109" t="n">
-        <v>7573004.939517484</v>
+        <v>7573029.96789645</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5794,13 +5794,13 @@
         <v>372.9966251024355</v>
       </c>
       <c r="L109" t="n">
-        <v>389.1492513144622</v>
+        <v>396.774294273986</v>
       </c>
       <c r="M109" t="n">
-        <v>-220.3425432853401</v>
+        <v>-195.3141643190756</v>
       </c>
       <c r="N109" t="n">
-        <v>447.2001522585367</v>
+        <v>442.2414084866754</v>
       </c>
       <c r="O109" t="n">
         <v>512.0468181774938</v>
@@ -5820,10 +5820,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E110" t="n">
-        <v>431456.3774510286</v>
+        <v>431470.7149092939</v>
       </c>
       <c r="F110" t="n">
-        <v>7573057.736577378</v>
+        <v>7573102.68863215</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5843,13 +5843,13 @@
         <v>180.3966528571521</v>
       </c>
       <c r="L110" t="n">
-        <v>505.5778012758237</v>
+        <v>519.9152595411288</v>
       </c>
       <c r="M110" t="n">
-        <v>25.05448885355145</v>
+        <v>70.00654362607747</v>
       </c>
       <c r="N110" t="n">
-        <v>506.1982225913175</v>
+        <v>524.6072752585396</v>
       </c>
       <c r="O110" t="n">
         <v>327.5897873103146</v>
@@ -5869,10 +5869,10 @@
         <v>7573032.682088524</v>
       </c>
       <c r="E111" t="n">
-        <v>431007.8683533936</v>
+        <v>431037.8860220909</v>
       </c>
       <c r="F111" t="n">
-        <v>7572880.31329044</v>
+        <v>7572912.773299381</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5892,13 +5892,13 @@
         <v>260.8538305237889</v>
       </c>
       <c r="L111" t="n">
-        <v>57.06870364083443</v>
+        <v>87.08637233811896</v>
       </c>
       <c r="M111" t="n">
-        <v>-152.3687980845571</v>
+        <v>-119.9087891429663</v>
       </c>
       <c r="N111" t="n">
-        <v>162.7055240764059</v>
+        <v>148.1963358546555</v>
       </c>
       <c r="O111" t="n">
         <v>285.0770359534847</v>
@@ -5918,10 +5918,10 @@
         <v>7572929.710734784</v>
       </c>
       <c r="E112" t="n">
-        <v>431676.6422806504</v>
+        <v>431691.9866785835</v>
       </c>
       <c r="F112" t="n">
-        <v>7572986.771151468</v>
+        <v>7573000.393768812</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5941,13 +5941,13 @@
         <v>-80.7858827165328</v>
       </c>
       <c r="L112" t="n">
-        <v>757.4060883468483</v>
+        <v>772.7504862799542</v>
       </c>
       <c r="M112" t="n">
-        <v>57.06041668448597</v>
+        <v>70.68303402792662</v>
       </c>
       <c r="N112" t="n">
-        <v>759.5524167673228</v>
+        <v>775.9764206116696</v>
       </c>
       <c r="O112" t="n">
         <v>385.939285138126</v>
@@ -5967,10 +5967,10 @@
         <v>7572929.710734784</v>
       </c>
       <c r="E113" t="n">
-        <v>430999.5554093647</v>
+        <v>431008.5926171957</v>
       </c>
       <c r="F113" t="n">
-        <v>7572977.083959873</v>
+        <v>7572995.135409868</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5990,13 +5990,13 @@
         <v>393.8476627832279</v>
       </c>
       <c r="L113" t="n">
-        <v>80.31921706110006</v>
+        <v>89.35642489214661</v>
       </c>
       <c r="M113" t="n">
-        <v>47.37322508916259</v>
+        <v>65.42467508465052</v>
       </c>
       <c r="N113" t="n">
-        <v>93.24912377420269</v>
+        <v>110.7472743657284</v>
       </c>
       <c r="O113" t="n">
         <v>425.1997683243054</v>
@@ -6016,10 +6016,10 @@
         <v>7572815.803453753</v>
       </c>
       <c r="E114" t="n">
-        <v>431498.4600509852</v>
+        <v>431523.6515072254</v>
       </c>
       <c r="F114" t="n">
-        <v>7572828.542217973</v>
+        <v>7572846.113795037</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6039,13 +6039,13 @@
         <v>-36.48198191418002</v>
       </c>
       <c r="L114" t="n">
-        <v>605.5758466616389</v>
+        <v>630.7673029018333</v>
       </c>
       <c r="M114" t="n">
-        <v>12.73876421991736</v>
+        <v>30.31034128461033</v>
       </c>
       <c r="N114" t="n">
-        <v>605.7098168048884</v>
+        <v>631.4951363223969</v>
       </c>
       <c r="O114" t="n">
         <v>333.3625912212354</v>
@@ -6065,10 +6065,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E115" t="n">
-        <v>423464.2161618721</v>
+        <v>423468.1830856379</v>
       </c>
       <c r="F115" t="n">
-        <v>7576036.286693687</v>
+        <v>7576048.541353352</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6088,13 +6088,13 @@
         <v>525.5705926392693</v>
       </c>
       <c r="L115" t="n">
-        <v>274.3779514959897</v>
+        <v>278.3448752617114</v>
       </c>
       <c r="M115" t="n">
-        <v>-266.6401724526659</v>
+        <v>-254.3855127869174</v>
       </c>
       <c r="N115" t="n">
-        <v>382.5967091242724</v>
+        <v>377.0780538566526</v>
       </c>
       <c r="O115" t="n">
         <v>559.36633687413</v>
@@ -6114,10 +6114,10 @@
         <v>7576302.926866139</v>
       </c>
       <c r="E116" t="n">
-        <v>423208.0034194028</v>
+        <v>423184.1251816789</v>
       </c>
       <c r="F116" t="n">
-        <v>7576161.046544239</v>
+        <v>7576191.321767422</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -6137,13 +6137,13 @@
         <v>469.0181234727303</v>
       </c>
       <c r="L116" t="n">
-        <v>18.16520902665798</v>
+        <v>-5.713028697296977</v>
       </c>
       <c r="M116" t="n">
-        <v>-141.8803219003603</v>
+        <v>-111.6050987169147</v>
       </c>
       <c r="N116" t="n">
-        <v>143.0384583303806</v>
+        <v>111.7512270917344</v>
       </c>
       <c r="O116" t="n">
         <v>470.2807115501403</v>
@@ -6163,10 +6163,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E117" t="n">
-        <v>423258.947992663</v>
+        <v>423305.8188110897</v>
       </c>
       <c r="F117" t="n">
-        <v>7575871.266589141</v>
+        <v>7575904.726341955</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -6186,13 +6186,13 @@
         <v>-115.6515740118921</v>
       </c>
       <c r="L117" t="n">
-        <v>440.7043407669989</v>
+        <v>487.5751591937733</v>
       </c>
       <c r="M117" t="n">
-        <v>65.39087948668748</v>
+        <v>98.85063230060041</v>
       </c>
       <c r="N117" t="n">
-        <v>445.5292168768706</v>
+        <v>497.4947068754219</v>
       </c>
       <c r="O117" t="n">
         <v>283.1290880006463</v>
@@ -6212,10 +6212,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E118" t="n">
-        <v>423040.5892735954</v>
+        <v>423053.0271507666</v>
       </c>
       <c r="F118" t="n">
-        <v>7575745.477353617</v>
+        <v>7575791.934933365</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6235,13 +6235,13 @@
         <v>-28.03303301179161</v>
       </c>
       <c r="L118" t="n">
-        <v>222.3456216994673</v>
+        <v>234.7834988706745</v>
       </c>
       <c r="M118" t="n">
-        <v>-60.39835603814572</v>
+        <v>-13.94077628944069</v>
       </c>
       <c r="N118" t="n">
-        <v>230.4029880471024</v>
+        <v>235.197016531903</v>
       </c>
       <c r="O118" t="n">
         <v>406.9987167323191</v>
@@ -6261,10 +6261,10 @@
         <v>7575776.6722592</v>
       </c>
       <c r="E119" t="n">
-        <v>424016.042428528</v>
+        <v>424046.7998892085</v>
       </c>
       <c r="F119" t="n">
-        <v>7576021.005152769</v>
+        <v>7576023.189675601</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-19.53271329961717</v>
       </c>
       <c r="L119" t="n">
-        <v>1352.690472594346</v>
+        <v>1383.447933274845</v>
       </c>
       <c r="M119" t="n">
-        <v>244.3328935690224</v>
+        <v>246.5174164008349</v>
       </c>
       <c r="N119" t="n">
-        <v>1374.579964035314</v>
+        <v>1405.239844535937</v>
       </c>
       <c r="O119" t="n">
         <v>479.4705944323816</v>
@@ -6310,10 +6310,10 @@
         <v>7575805.875709655</v>
       </c>
       <c r="E120" t="n">
-        <v>423143.8912887494</v>
+        <v>423168.6830337972</v>
       </c>
       <c r="F120" t="n">
-        <v>7575745.65374139</v>
+        <v>7575770.729793858</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>141.0985486549325</v>
       </c>
       <c r="L120" t="n">
-        <v>325.6476368534495</v>
+        <v>350.439381901233</v>
       </c>
       <c r="M120" t="n">
-        <v>-60.22196826525033</v>
+        <v>-35.14591579698026</v>
       </c>
       <c r="N120" t="n">
-        <v>331.1692450243183</v>
+        <v>352.1973818535945</v>
       </c>
       <c r="O120" t="n">
         <v>563.5321574999282</v>
@@ -6359,10 +6359,10 @@
         <v>7575776.6722592</v>
       </c>
       <c r="E121" t="n">
-        <v>423191.900394541</v>
+        <v>423196.7126818997</v>
       </c>
       <c r="F121" t="n">
-        <v>7575890.221527137</v>
+        <v>7575904.05500125</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6382,13 +6382,13 @@
         <v>-17.2400365495123</v>
       </c>
       <c r="L121" t="n">
-        <v>528.5484386073658</v>
+        <v>533.3607259660494</v>
       </c>
       <c r="M121" t="n">
-        <v>113.5492679364979</v>
+        <v>127.3827420491725</v>
       </c>
       <c r="N121" t="n">
-        <v>540.607887662767</v>
+        <v>548.3612194302194</v>
       </c>
       <c r="O121" t="n">
         <v>491.6866956751285</v>
@@ -6408,10 +6408,10 @@
         <v>7565517.46236733</v>
       </c>
       <c r="E122" t="n">
-        <v>427175.880298177</v>
+        <v>427183.9246622556</v>
       </c>
       <c r="F122" t="n">
-        <v>7565627.290998346</v>
+        <v>7565678.85459653</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6431,13 +6431,13 @@
         <v>62.09785382961854</v>
       </c>
       <c r="L122" t="n">
-        <v>-169.3989547090023</v>
+        <v>-161.3545906304498</v>
       </c>
       <c r="M122" t="n">
-        <v>109.8286310164258</v>
+        <v>161.3922292003408</v>
       </c>
       <c r="N122" t="n">
-        <v>201.8869338205046</v>
+        <v>228.216466460629</v>
       </c>
       <c r="O122" t="n">
         <v>129.5386813690366</v>
@@ -6457,10 +6457,10 @@
         <v>7565517.46236733</v>
       </c>
       <c r="E123" t="n">
-        <v>427420.0453956714</v>
+        <v>427406.2498656227</v>
       </c>
       <c r="F123" t="n">
-        <v>7565606.188073288</v>
+        <v>7565622.167675815</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6480,13 +6480,13 @@
         <v>5.009220663147668</v>
       </c>
       <c r="L123" t="n">
-        <v>74.76614278543275</v>
+        <v>60.97061273665167</v>
       </c>
       <c r="M123" t="n">
-        <v>88.72570595797151</v>
+        <v>104.7053084848449</v>
       </c>
       <c r="N123" t="n">
-        <v>116.0268374332083</v>
+        <v>121.1635970182021</v>
       </c>
       <c r="O123" t="n">
         <v>30.70166198199909</v>
@@ -6506,10 +6506,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E124" t="n">
-        <v>427297.9674442591</v>
+        <v>427346.1035633297</v>
       </c>
       <c r="F124" t="n">
-        <v>7565660.039316849</v>
+        <v>7565706.322500166</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6529,13 +6529,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L124" t="n">
-        <v>15.1373897883459</v>
+        <v>63.27350885886699</v>
       </c>
       <c r="M124" t="n">
-        <v>142.2005021153018</v>
+        <v>188.4836854320019</v>
       </c>
       <c r="N124" t="n">
-        <v>143.0039278182535</v>
+        <v>198.8206141156972</v>
       </c>
       <c r="O124" t="n">
         <v>92.89570646527693</v>
@@ -6555,10 +6555,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E125" t="n">
-        <v>427334.2104474111</v>
+        <v>427353.1520442922</v>
       </c>
       <c r="F125" t="n">
-        <v>7565581.367995143</v>
+        <v>7565576.778230314</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6578,13 +6578,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L125" t="n">
-        <v>51.3803929403075</v>
+        <v>70.32198982144473</v>
       </c>
       <c r="M125" t="n">
-        <v>63.52918040938675</v>
+        <v>58.93941558059305</v>
       </c>
       <c r="N125" t="n">
-        <v>81.70619035415132</v>
+        <v>91.75531026283565</v>
       </c>
       <c r="O125" t="n">
         <v>92.89570646527693</v>
@@ -6604,10 +6604,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E126" t="n">
-        <v>436621.0684801129</v>
+        <v>436596.7493918408</v>
       </c>
       <c r="F126" t="n">
-        <v>7550690.795331707</v>
+        <v>7550735.141247937</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L126" t="n">
-        <v>-217.7686141045415</v>
+        <v>-242.0877023766516</v>
       </c>
       <c r="M126" t="n">
-        <v>-341.5682078190148</v>
+        <v>-297.2222915897146</v>
       </c>
       <c r="N126" t="n">
-        <v>405.0827198014084</v>
+        <v>383.3373791581608</v>
       </c>
       <c r="O126" t="n">
         <v>333.0864405745596</v>
@@ -6653,10 +6653,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E127" t="n">
-        <v>436559.1748062693</v>
+        <v>436517.1558239027</v>
       </c>
       <c r="F127" t="n">
-        <v>7550784.867896467</v>
+        <v>7550803.324182799</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L127" t="n">
-        <v>-279.6622879481292</v>
+        <v>-321.6812703147298</v>
       </c>
       <c r="M127" t="n">
-        <v>-247.4956430597231</v>
+        <v>-229.0393567271531</v>
       </c>
       <c r="N127" t="n">
-        <v>373.4502492085501</v>
+        <v>394.889689155448</v>
       </c>
       <c r="O127" t="n">
         <v>333.0864405745596</v>
@@ -6702,10 +6702,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E128" t="n">
-        <v>436676.5920549241</v>
+        <v>436705.7056956543</v>
       </c>
       <c r="F128" t="n">
-        <v>7550638.477280023</v>
+        <v>7550702.550854648</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L128" t="n">
-        <v>-162.2450392933679</v>
+        <v>-133.1313985631568</v>
       </c>
       <c r="M128" t="n">
-        <v>-393.8862595036626</v>
+        <v>-329.8126848777756</v>
       </c>
       <c r="N128" t="n">
-        <v>425.9927677802677</v>
+        <v>355.6689140052432</v>
       </c>
       <c r="O128" t="n">
         <v>333.0864405745596</v>
@@ -6751,10 +6751,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E129" t="n">
-        <v>436571.3495800439</v>
+        <v>436605.4780345664</v>
       </c>
       <c r="F129" t="n">
-        <v>7550669.315862369</v>
+        <v>7550716.082540981</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L129" t="n">
-        <v>-267.4875141735538</v>
+        <v>-233.359059651033</v>
       </c>
       <c r="M129" t="n">
-        <v>-363.0476771574467</v>
+        <v>-316.2809985447675</v>
       </c>
       <c r="N129" t="n">
-        <v>450.9469881573274</v>
+        <v>393.0523130089551</v>
       </c>
       <c r="O129" t="n">
         <v>333.0864405745596</v>
@@ -6800,10 +6800,10 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E130" t="n">
-        <v>436769.9517545836</v>
+        <v>436699.6256579521</v>
       </c>
       <c r="F130" t="n">
-        <v>7551553.881578492</v>
+        <v>7551594.19847419</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-283.2143761767074</v>
       </c>
       <c r="L130" t="n">
-        <v>-68.47955058235675</v>
+        <v>-138.8056472138851</v>
       </c>
       <c r="M130" t="n">
-        <v>523.1800886690617</v>
+        <v>563.4969843672588</v>
       </c>
       <c r="N130" t="n">
-        <v>527.6427333222061</v>
+        <v>580.3411575008791</v>
       </c>
       <c r="O130" t="n">
         <v>334.2767892268462</v>
@@ -6849,10 +6849,10 @@
         <v>7551030.701489823</v>
       </c>
       <c r="E131" t="n">
-        <v>436541.6495317001</v>
+        <v>436553.3096727647</v>
       </c>
       <c r="F131" t="n">
-        <v>7550683.190143842</v>
+        <v>7550731.309121044</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-283.2143761767074</v>
       </c>
       <c r="L131" t="n">
-        <v>-296.7817734659184</v>
+        <v>-285.1216324012494</v>
       </c>
       <c r="M131" t="n">
-        <v>-347.5113459806889</v>
+        <v>-299.3923687785864</v>
       </c>
       <c r="N131" t="n">
-        <v>456.9940444326225</v>
+        <v>413.4369791709569</v>
       </c>
       <c r="O131" t="n">
         <v>334.2767892268462</v>
@@ -6898,10 +6898,10 @@
         <v>7576116.865066407</v>
       </c>
       <c r="E132" t="n">
-        <v>423073.5751584911</v>
+        <v>423064.4332890177</v>
       </c>
       <c r="F132" t="n">
-        <v>7575849.106262483</v>
+        <v>7575856.824620306</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6921,13 +6921,13 @@
         <v>449.0393074074139</v>
       </c>
       <c r="L132" t="n">
-        <v>1127.05881981703</v>
+        <v>1117.916950343642</v>
       </c>
       <c r="M132" t="n">
-        <v>-267.7588039245456</v>
+        <v>-260.0404461016878</v>
       </c>
       <c r="N132" t="n">
-        <v>1158.428401070372</v>
+        <v>1147.762754873321</v>
       </c>
       <c r="O132" t="n">
         <v>1354.661518668292</v>
@@ -6947,10 +6947,10 @@
         <v>7575629.424387895</v>
       </c>
       <c r="E133" t="n">
-        <v>423064.2335073386</v>
+        <v>423073.26967858</v>
       </c>
       <c r="F133" t="n">
-        <v>7575821.822033785</v>
+        <v>7575837.090053556</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6970,13 +6970,13 @@
         <v>-289.67745510526</v>
       </c>
       <c r="L133" t="n">
-        <v>337.7782516031875</v>
+        <v>346.8144228445599</v>
       </c>
       <c r="M133" t="n">
-        <v>192.3976458907127</v>
+        <v>207.6656656619161</v>
       </c>
       <c r="N133" t="n">
-        <v>388.7299852087492</v>
+        <v>404.2341803803977</v>
       </c>
       <c r="O133" t="n">
         <v>555.1361231185423</v>
@@ -6996,10 +6996,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E134" t="n">
-        <v>423449.628037385</v>
+        <v>423486.6260933311</v>
       </c>
       <c r="F134" t="n">
-        <v>7575315.416153614</v>
+        <v>7575349.882923939</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7019,13 +7019,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L134" t="n">
-        <v>-294.9294823482051</v>
+        <v>-257.9314264021232</v>
       </c>
       <c r="M134" t="n">
-        <v>933.2338947569951</v>
+        <v>967.7006650818512</v>
       </c>
       <c r="N134" t="n">
-        <v>978.7282063379447</v>
+        <v>1001.485495614236</v>
       </c>
       <c r="O134" t="n">
         <v>1386.811356122469</v>
@@ -7045,10 +7045,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E135" t="n">
-        <v>423257.2097221585</v>
+        <v>423260.5928461763</v>
       </c>
       <c r="F135" t="n">
-        <v>7575103.418315068</v>
+        <v>7575100.68930717</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7068,13 +7068,13 @@
         <v>-1282.594902142417</v>
       </c>
       <c r="L135" t="n">
-        <v>-487.3477975747082</v>
+        <v>-483.9646735569113</v>
       </c>
       <c r="M135" t="n">
-        <v>721.2360562104732</v>
+        <v>718.5070483125746</v>
       </c>
       <c r="N135" t="n">
-        <v>870.4535166101379</v>
+        <v>866.2991306274619</v>
       </c>
       <c r="O135" t="n">
         <v>1337.911229030238</v>
@@ -7094,10 +7094,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E136" t="n">
-        <v>423451.6374992863</v>
+        <v>423465.0266568877</v>
       </c>
       <c r="F136" t="n">
-        <v>7575321.596552798</v>
+        <v>7575339.102139956</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7117,13 +7117,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L136" t="n">
-        <v>-292.920020446938</v>
+        <v>-279.5308628454804</v>
       </c>
       <c r="M136" t="n">
-        <v>939.414293940179</v>
+        <v>956.9198810989037</v>
       </c>
       <c r="N136" t="n">
-        <v>984.0230454810293</v>
+        <v>996.9118126120678</v>
       </c>
       <c r="O136" t="n">
         <v>1386.811356122469</v>
@@ -7143,10 +7143,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E137" t="n">
-        <v>423530.8290671113</v>
+        <v>423514.6018512097</v>
       </c>
       <c r="F137" t="n">
-        <v>7575373.14217294</v>
+        <v>7575370.292819399</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7166,13 +7166,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L137" t="n">
-        <v>-213.7284526219009</v>
+        <v>-229.9556685235002</v>
       </c>
       <c r="M137" t="n">
-        <v>990.9599140826613</v>
+        <v>988.1105605419725</v>
       </c>
       <c r="N137" t="n">
-        <v>1013.746222078715</v>
+        <v>1014.515692013022</v>
       </c>
       <c r="O137" t="n">
         <v>1386.811356122469</v>
@@ -7192,10 +7192,10 @@
         <v>7574382.182258857</v>
       </c>
       <c r="E138" t="n">
-        <v>423470.7270346647</v>
+        <v>423485.5541450146</v>
       </c>
       <c r="F138" t="n">
-        <v>7575297.502591318</v>
+        <v>7575342.134527877</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7215,13 +7215,13 @@
         <v>-1285.64350014242</v>
       </c>
       <c r="L138" t="n">
-        <v>-273.8304850685527</v>
+        <v>-259.0033747185953</v>
       </c>
       <c r="M138" t="n">
-        <v>915.3203324610367</v>
+        <v>959.952269019559</v>
       </c>
       <c r="N138" t="n">
-        <v>955.4027661512508</v>
+        <v>994.2791896200085</v>
       </c>
       <c r="O138" t="n">
         <v>1386.811356122469</v>
@@ -7241,10 +7241,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E139" t="n">
-        <v>432184.5182825466</v>
+        <v>432192.9258052676</v>
       </c>
       <c r="F139" t="n">
-        <v>7572750.610559331</v>
+        <v>7572796.503645699</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L139" t="n">
-        <v>-43.64226122578839</v>
+        <v>-35.23473850474693</v>
       </c>
       <c r="M139" t="n">
-        <v>-294.2332118880004</v>
+        <v>-248.3401255197823</v>
       </c>
       <c r="N139" t="n">
-        <v>297.452231363002</v>
+        <v>250.8272408265879</v>
       </c>
       <c r="O139" t="n">
         <v>1256.392743841148</v>
@@ -7290,10 +7290,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E140" t="n">
-        <v>432213.1977104368</v>
+        <v>432298.2326439899</v>
       </c>
       <c r="F140" t="n">
-        <v>7572700.92091884</v>
+        <v>7572719.444420934</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L140" t="n">
-        <v>-14.96283333556494</v>
+        <v>70.07210021751234</v>
       </c>
       <c r="M140" t="n">
-        <v>-343.9228523792699</v>
+        <v>-325.3993502855301</v>
       </c>
       <c r="N140" t="n">
-        <v>344.2481877513968</v>
+        <v>332.8585831778087</v>
       </c>
       <c r="O140" t="n">
         <v>1256.392743841148</v>
@@ -7339,10 +7339,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E141" t="n">
-        <v>431456.7474050595</v>
+        <v>431469.5223554365</v>
       </c>
       <c r="F141" t="n">
-        <v>7572510.666217956</v>
+        <v>7572516.812170209</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7362,13 +7362,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L141" t="n">
-        <v>-771.413138712931</v>
+        <v>-758.6381883359281</v>
       </c>
       <c r="M141" t="n">
-        <v>-534.1775532634929</v>
+        <v>-528.0316010098904</v>
       </c>
       <c r="N141" t="n">
-        <v>938.3090583541797</v>
+        <v>924.3101603177838</v>
       </c>
       <c r="O141" t="n">
         <v>1045.448340050612</v>
@@ -7388,10 +7388,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E142" t="n">
-        <v>431829.9804174022</v>
+        <v>431840.4030433398</v>
       </c>
       <c r="F142" t="n">
-        <v>7572972.32706082</v>
+        <v>7573003.637052942</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -7411,13 +7411,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L142" t="n">
-        <v>-398.1801263701636</v>
+        <v>-387.7575004325481</v>
       </c>
       <c r="M142" t="n">
-        <v>-72.51671039965004</v>
+        <v>-41.20671827718616</v>
       </c>
       <c r="N142" t="n">
-        <v>404.7296459654842</v>
+        <v>389.9408580450027</v>
       </c>
       <c r="O142" t="n">
         <v>960.9726123950555</v>
@@ -7437,10 +7437,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E143" t="n">
-        <v>431654.0652077703</v>
+        <v>431646.4170052587</v>
       </c>
       <c r="F143" t="n">
-        <v>7572844.346672344</v>
+        <v>7572869.884272507</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -7460,13 +7460,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L143" t="n">
-        <v>-530.1680734275142</v>
+        <v>-537.8162759391707</v>
       </c>
       <c r="M143" t="n">
-        <v>-161.3451980920509</v>
+        <v>-135.8075979286805</v>
       </c>
       <c r="N143" t="n">
-        <v>554.1754767482996</v>
+        <v>554.6981614538093</v>
       </c>
       <c r="O143" t="n">
         <v>908.0533939333675</v>
@@ -7486,10 +7486,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E144" t="n">
-        <v>431769.2206640068</v>
+        <v>431745.5301826303</v>
       </c>
       <c r="F144" t="n">
-        <v>7572809.18137809</v>
+        <v>7572830.676041863</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -7509,13 +7509,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L144" t="n">
-        <v>-415.0126171910088</v>
+        <v>-438.7030985674937</v>
       </c>
       <c r="M144" t="n">
-        <v>-196.5104923462495</v>
+        <v>-175.015828573145</v>
       </c>
       <c r="N144" t="n">
-        <v>459.1860690721095</v>
+        <v>472.3250458570502</v>
       </c>
       <c r="O144" t="n">
         <v>852.0503114849387</v>
@@ -7535,10 +7535,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E145" t="n">
-        <v>431869.807754848</v>
+        <v>431855.1567520735</v>
       </c>
       <c r="F145" t="n">
-        <v>7572902.656185409</v>
+        <v>7572907.974238871</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7558,13 +7558,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L145" t="n">
-        <v>-314.4255263498635</v>
+        <v>-329.0765291243442</v>
       </c>
       <c r="M145" t="n">
-        <v>-103.0356850270182</v>
+        <v>-97.71763156540692</v>
       </c>
       <c r="N145" t="n">
-        <v>330.8772642678484</v>
+        <v>343.2784548136949</v>
       </c>
       <c r="O145" t="n">
         <v>908.0533939333675</v>
@@ -7584,10 +7584,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E146" t="n">
-        <v>431808.1560625997</v>
+        <v>431883.583237724</v>
       </c>
       <c r="F146" t="n">
-        <v>7572875.136541041</v>
+        <v>7572894.027975157</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -7607,13 +7607,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L146" t="n">
-        <v>-376.0772185981623</v>
+        <v>-300.65004347387</v>
       </c>
       <c r="M146" t="n">
-        <v>-130.5553293954581</v>
+        <v>-111.6638952791691</v>
       </c>
       <c r="N146" t="n">
-        <v>398.0939190468582</v>
+        <v>320.7168130138443</v>
       </c>
       <c r="O146" t="n">
         <v>908.0533939333675</v>
@@ -7633,10 +7633,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E147" t="n">
-        <v>427319.3183585882</v>
+        <v>427328.418384985</v>
       </c>
       <c r="F147" t="n">
-        <v>7565537.700482224</v>
+        <v>7565553.533771128</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7656,13 +7656,13 @@
         <v>-38.19116617490848</v>
       </c>
       <c r="L147" t="n">
-        <v>-19.55385199812008</v>
+        <v>-10.45382560131839</v>
       </c>
       <c r="M147" t="n">
-        <v>63.4385017324239</v>
+        <v>79.27179063670337</v>
       </c>
       <c r="N147" t="n">
-        <v>66.38370756457593</v>
+        <v>79.95810941019124</v>
       </c>
       <c r="O147" t="n">
         <v>52.96467743614704</v>
@@ -7682,10 +7682,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E148" t="n">
-        <v>427492.8541933828</v>
+        <v>427501.0899147579</v>
       </c>
       <c r="F148" t="n">
-        <v>7565441.121506528</v>
+        <v>7565472.251512944</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -7705,13 +7705,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L148" t="n">
-        <v>153.9819827964529</v>
+        <v>162.2177041715477</v>
       </c>
       <c r="M148" t="n">
-        <v>-33.14047396369278</v>
+        <v>-2.010467547923326</v>
       </c>
       <c r="N148" t="n">
-        <v>157.5079110408913</v>
+        <v>162.2301621969509</v>
       </c>
       <c r="O148" t="n">
         <v>136.4852433802381</v>
@@ -7731,10 +7731,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E149" t="n">
-        <v>427384.37786448</v>
+        <v>427352.2340621639</v>
       </c>
       <c r="F149" t="n">
-        <v>7565366.778839965</v>
+        <v>7565387.326675868</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -7754,13 +7754,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L149" t="n">
-        <v>45.50565389369149</v>
+        <v>13.36185157753062</v>
       </c>
       <c r="M149" t="n">
-        <v>-107.4831405263394</v>
+        <v>-86.9353046240285</v>
       </c>
       <c r="N149" t="n">
-        <v>116.7192787576126</v>
+        <v>87.95616105567926</v>
       </c>
       <c r="O149" t="n">
         <v>136.4852433802381</v>
@@ -7780,10 +7780,10 @@
         <v>7565474.261980492</v>
       </c>
       <c r="E150" t="n">
-        <v>427446.3714728422</v>
+        <v>427456.3859516791</v>
       </c>
       <c r="F150" t="n">
-        <v>7565380.380509296</v>
+        <v>7565399.05109339</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -7803,13 +7803,13 @@
         <v>45.51398499170318</v>
       </c>
       <c r="L150" t="n">
-        <v>107.4992622558493</v>
+        <v>117.5137410927564</v>
       </c>
       <c r="M150" t="n">
-        <v>-93.8814711952582</v>
+        <v>-75.21088710147887</v>
       </c>
       <c r="N150" t="n">
-        <v>142.7228854085355</v>
+        <v>139.5211700216379</v>
       </c>
       <c r="O150" t="n">
         <v>136.4852433802381</v>
@@ -7829,10 +7829,10 @@
         <v>7575937.169506868</v>
       </c>
       <c r="E151" t="n">
-        <v>424460.3195472293</v>
+        <v>424447.9028730644</v>
       </c>
       <c r="F151" t="n">
-        <v>7576049.3376568</v>
+        <v>7576026.734614987</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>18.68251686822623</v>
       </c>
       <c r="L151" t="n">
-        <v>-154.183850208472</v>
+        <v>-166.6005243734107</v>
       </c>
       <c r="M151" t="n">
-        <v>112.1681499313563</v>
+        <v>89.56510811857879</v>
       </c>
       <c r="N151" t="n">
-        <v>190.6681764850437</v>
+        <v>189.1497906786791</v>
       </c>
       <c r="O151" t="n">
         <v>1275.909000288259</v>
@@ -7878,10 +7878,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E152" t="n">
-        <v>427142.0353241166</v>
+        <v>427151.5361035278</v>
       </c>
       <c r="F152" t="n">
-        <v>7565566.890211306</v>
+        <v>7565521.302232143</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>157.5262054624036</v>
       </c>
       <c r="L152" t="n">
-        <v>-142.1741972091259</v>
+        <v>-132.6734177980106</v>
       </c>
       <c r="M152" t="n">
-        <v>146.7883508428931</v>
+        <v>101.2003716798499</v>
       </c>
       <c r="N152" t="n">
-        <v>204.353424965758</v>
+        <v>166.8644690110667</v>
       </c>
       <c r="O152" t="n">
         <v>170.675818265182</v>
@@ -7927,10 +7927,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E153" t="n">
-        <v>427164.8773919691</v>
+        <v>427151.6663993479</v>
       </c>
       <c r="F153" t="n">
-        <v>7565353.600669003</v>
+        <v>7565402.98210627</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7950,13 +7950,13 @@
         <v>-35.26265303744003</v>
       </c>
       <c r="L153" t="n">
-        <v>-119.3321293566842</v>
+        <v>-132.5431219778256</v>
       </c>
       <c r="M153" t="n">
-        <v>-66.50119145959616</v>
+        <v>-17.11975419241935</v>
       </c>
       <c r="N153" t="n">
-        <v>136.6110008833339</v>
+        <v>133.6441737122784</v>
       </c>
       <c r="O153" t="n">
         <v>63.33838092641357</v>
@@ -7976,10 +7976,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E154" t="n">
-        <v>427572.0308392493</v>
+        <v>427584.6754779842</v>
       </c>
       <c r="F154" t="n">
-        <v>7565546.658679496</v>
+        <v>7565568.674049648</v>
       </c>
       <c r="G154" t="n">
         <v>4</v>
@@ -7999,13 +7999,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L154" t="n">
-        <v>287.8213179234881</v>
+        <v>300.4659566584742</v>
       </c>
       <c r="M154" t="n">
-        <v>126.556819033809</v>
+        <v>148.572189184837</v>
       </c>
       <c r="N154" t="n">
-        <v>314.4165063974376</v>
+        <v>335.1917160519739</v>
       </c>
       <c r="O154" t="n">
         <v>183.5392890509451</v>
@@ -8025,10 +8025,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E155" t="n">
-        <v>427522.0528310966</v>
+        <v>427526.7328872296</v>
       </c>
       <c r="F155" t="n">
-        <v>7565263.23567968</v>
+        <v>7565301.624749125</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -8048,13 +8048,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L155" t="n">
-        <v>237.8433097708039</v>
+        <v>242.5233659038786</v>
       </c>
       <c r="M155" t="n">
-        <v>-156.8661807822064</v>
+        <v>-118.4771113377064</v>
       </c>
       <c r="N155" t="n">
-        <v>284.9147919570453</v>
+        <v>269.9155588703139</v>
       </c>
       <c r="O155" t="n">
         <v>183.5392890509451</v>
@@ -8074,10 +8074,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E156" t="n">
-        <v>427420.3347311916</v>
+        <v>427426.2484934948</v>
       </c>
       <c r="F156" t="n">
-        <v>7565334.940120895</v>
+        <v>7565373.034583348</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -8097,13 +8097,13 @@
         <v>57.31467079588523</v>
       </c>
       <c r="L156" t="n">
-        <v>136.1252098658006</v>
+        <v>142.0389721689862</v>
       </c>
       <c r="M156" t="n">
-        <v>-85.16173956729472</v>
+        <v>-47.06727711483836</v>
       </c>
       <c r="N156" t="n">
-        <v>160.5695944042208</v>
+        <v>149.6342146363158</v>
       </c>
       <c r="O156" t="n">
         <v>131.1928458876789</v>
@@ -8123,10 +8123,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E157" t="n">
-        <v>427569.2726292927</v>
+        <v>427615.3945751033</v>
       </c>
       <c r="F157" t="n">
-        <v>7565497.852534251</v>
+        <v>7565524.815003209</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -8146,13 +8146,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L157" t="n">
-        <v>285.063107966911</v>
+        <v>331.1850537775317</v>
       </c>
       <c r="M157" t="n">
-        <v>77.75067378859967</v>
+        <v>104.7131427461281</v>
       </c>
       <c r="N157" t="n">
-        <v>295.4761289822513</v>
+        <v>347.3447597264101</v>
       </c>
       <c r="O157" t="n">
         <v>183.5392890509451</v>
@@ -8172,10 +8172,10 @@
         <v>7565420.101860463</v>
       </c>
       <c r="E158" t="n">
-        <v>427607.6052602682</v>
+        <v>427619.4874414972</v>
       </c>
       <c r="F158" t="n">
-        <v>7565326.867133106</v>
+        <v>7565341.764304105</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -8195,13 +8195,13 @@
         <v>-8.646135037299246</v>
       </c>
       <c r="L158" t="n">
-        <v>323.3957389424322</v>
+        <v>335.2779201713856</v>
       </c>
       <c r="M158" t="n">
-        <v>-93.23472735658288</v>
+        <v>-78.33755635749549</v>
       </c>
       <c r="N158" t="n">
-        <v>336.5672568022298</v>
+        <v>344.3080836845307</v>
       </c>
       <c r="O158" t="n">
         <v>183.5392890509451</v>
@@ -8221,10 +8221,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E159" t="n">
-        <v>427606.2065903066</v>
+        <v>427608.7029189821</v>
       </c>
       <c r="F159" t="n">
-        <v>7565146.702700288</v>
+        <v>7565176.584134161</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -8244,13 +8244,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L159" t="n">
-        <v>336.548490254092</v>
+        <v>339.0448189296294</v>
       </c>
       <c r="M159" t="n">
-        <v>-93.78544184286147</v>
+        <v>-63.90400796942413</v>
       </c>
       <c r="N159" t="n">
-        <v>349.3717152174306</v>
+        <v>345.0146540041182</v>
       </c>
       <c r="O159" t="n">
         <v>273.1318658866988</v>
@@ -8270,10 +8270,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E160" t="n">
-        <v>427314.2079230794</v>
+        <v>427288.3641867547</v>
       </c>
       <c r="F160" t="n">
-        <v>7565208.543270631</v>
+        <v>7565235.600390663</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -8293,13 +8293,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L160" t="n">
-        <v>44.54982302687131</v>
+        <v>18.70608670217916</v>
       </c>
       <c r="M160" t="n">
-        <v>-31.94487150013447</v>
+        <v>-4.887751467525959</v>
       </c>
       <c r="N160" t="n">
-        <v>54.81935376202146</v>
+        <v>19.33410960240337</v>
       </c>
       <c r="O160" t="n">
         <v>273.1318658866988</v>
@@ -8319,10 +8319,10 @@
         <v>7565240.488142131</v>
       </c>
       <c r="E161" t="n">
-        <v>427476.403897781</v>
+        <v>427438.9849476199</v>
       </c>
       <c r="F161" t="n">
-        <v>7565193.623644899</v>
+        <v>7565214.111336311</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -8342,13 +8342,13 @@
         <v>-188.2598533690907</v>
       </c>
       <c r="L161" t="n">
-        <v>206.7457977285376</v>
+        <v>169.3268475673976</v>
       </c>
       <c r="M161" t="n">
-        <v>-46.86449723225087</v>
+        <v>-26.37680581957102</v>
       </c>
       <c r="N161" t="n">
-        <v>211.990815789838</v>
+        <v>171.3689504909103</v>
       </c>
       <c r="O161" t="n">
         <v>273.1318658866988</v>
@@ -8368,10 +8368,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E162" t="n">
-        <v>427298.2124416729</v>
+        <v>427312.8230929284</v>
       </c>
       <c r="F162" t="n">
-        <v>7565225.975348466</v>
+        <v>7565260.233629897</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8391,13 +8391,13 @@
         <v>-122.2016804317633</v>
       </c>
       <c r="L162" t="n">
-        <v>31.44487068086164</v>
+        <v>46.05552193638869</v>
       </c>
       <c r="M162" t="n">
-        <v>-14.6101607689634</v>
+        <v>19.64812066219747</v>
       </c>
       <c r="N162" t="n">
-        <v>34.67328495875563</v>
+        <v>50.07154627519956</v>
       </c>
       <c r="O162" t="n">
         <v>182.4301152444259</v>
@@ -8417,10 +8417,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E163" t="n">
-        <v>427295.3612362827</v>
+        <v>427301.1642820613</v>
       </c>
       <c r="F163" t="n">
-        <v>7565159.887083264</v>
+        <v>7565217.083783059</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -8440,13 +8440,13 @@
         <v>-188.1624862649478</v>
       </c>
       <c r="L163" t="n">
-        <v>28.59366529074032</v>
+        <v>34.39671106933383</v>
       </c>
       <c r="M163" t="n">
-        <v>-80.69842597097158</v>
+        <v>-23.5017261756584</v>
       </c>
       <c r="N163" t="n">
-        <v>85.61444766481455</v>
+        <v>41.65891099900308</v>
       </c>
       <c r="O163" t="n">
         <v>275.1667060338995</v>
@@ -8466,10 +8466,10 @@
         <v>7565240.585509235</v>
       </c>
       <c r="E164" t="n">
-        <v>427065.6953643728</v>
+        <v>427045.5916844509</v>
       </c>
       <c r="F164" t="n">
-        <v>7564874.70109591</v>
+        <v>7564917.002104769</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-21.99014576524496</v>
       </c>
       <c r="L164" t="n">
-        <v>-201.0722066191956</v>
+        <v>-221.1758865411393</v>
       </c>
       <c r="M164" t="n">
-        <v>-365.8844133252278</v>
+        <v>-323.5834044665098</v>
       </c>
       <c r="N164" t="n">
-        <v>417.4942349171527</v>
+        <v>391.9502422928143</v>
       </c>
       <c r="O164" t="n">
         <v>53.0268544996143</v>
@@ -8515,10 +8515,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E165" t="n">
-        <v>427305.4988921998</v>
+        <v>427315.4214523712</v>
       </c>
       <c r="F165" t="n">
-        <v>7565148.329776687</v>
+        <v>7565172.520537334</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -8538,13 +8538,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L165" t="n">
-        <v>165.9455811410444</v>
+        <v>175.868141312385</v>
       </c>
       <c r="M165" t="n">
-        <v>-13.85031974408776</v>
+        <v>10.3404409037903</v>
       </c>
       <c r="N165" t="n">
-        <v>166.5225728159772</v>
+        <v>176.1718701914633</v>
       </c>
       <c r="O165" t="n">
         <v>422.6547333935085</v>
@@ -8564,10 +8564,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E166" t="n">
-        <v>427329.1568945003</v>
+        <v>427337.0821048591</v>
       </c>
       <c r="F166" t="n">
-        <v>7565147.299853049</v>
+        <v>7565185.082323857</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -8587,13 +8587,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L166" t="n">
-        <v>189.6035834414652</v>
+        <v>197.528793800273</v>
       </c>
       <c r="M166" t="n">
-        <v>-14.88024338148534</v>
+        <v>22.90222742594779</v>
       </c>
       <c r="N166" t="n">
-        <v>190.1865938938307</v>
+        <v>198.8520465101141</v>
       </c>
       <c r="O166" t="n">
         <v>422.6547333935085</v>
@@ -8613,10 +8613,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E167" t="n">
-        <v>427268.8453522089</v>
+        <v>427276.4176603007</v>
       </c>
       <c r="F167" t="n">
-        <v>7565131.398153165</v>
+        <v>7565146.59178938</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -8636,13 +8636,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L167" t="n">
-        <v>129.2920411501545</v>
+        <v>136.8643492418923</v>
       </c>
       <c r="M167" t="n">
-        <v>-30.78194326534867</v>
+        <v>-15.58830705098808</v>
       </c>
       <c r="N167" t="n">
-        <v>132.9058310833817</v>
+        <v>137.7492120127101</v>
       </c>
       <c r="O167" t="n">
         <v>422.6547333935085</v>
@@ -8662,10 +8662,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E168" t="n">
-        <v>427289.9155984955</v>
+        <v>427314.391480021</v>
       </c>
       <c r="F168" t="n">
-        <v>7565248.559657615</v>
+        <v>7565258.240447373</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8685,13 +8685,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L168" t="n">
-        <v>150.3622874366702</v>
+        <v>174.8381689622183</v>
       </c>
       <c r="M168" t="n">
-        <v>86.37956118397415</v>
+        <v>96.06035094242543</v>
       </c>
       <c r="N168" t="n">
-        <v>173.4077451370721</v>
+        <v>199.4892888083045</v>
       </c>
       <c r="O168" t="n">
         <v>422.6547333935085</v>
@@ -8711,10 +8711,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E169" t="n">
-        <v>427321.8157537809</v>
+        <v>427336.1432598366</v>
       </c>
       <c r="F169" t="n">
-        <v>7565045.41657661</v>
+        <v>7565063.666177839</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -8734,13 +8734,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L169" t="n">
-        <v>182.2624427221017</v>
+        <v>196.5899487778079</v>
       </c>
       <c r="M169" t="n">
-        <v>-116.7635198207572</v>
+        <v>-98.51391859166324</v>
       </c>
       <c r="N169" t="n">
-        <v>216.4562717685948</v>
+        <v>219.8922466044357</v>
       </c>
       <c r="O169" t="n">
         <v>422.6547333935085</v>
@@ -8760,10 +8760,10 @@
         <v>7573998.691380767</v>
       </c>
       <c r="E170" t="n">
-        <v>421244.4942606566</v>
+        <v>421264.3755411769</v>
       </c>
       <c r="F170" t="n">
-        <v>7573843.613292246</v>
+        <v>7573870.312645532</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>11.65999576728791</v>
       </c>
       <c r="L170" t="n">
-        <v>-24.84548103064299</v>
+        <v>-4.964200510352384</v>
       </c>
       <c r="M170" t="n">
-        <v>-155.0780885210261</v>
+        <v>-128.3787352349609</v>
       </c>
       <c r="N170" t="n">
-        <v>157.0557591015982</v>
+        <v>128.4746782336316</v>
       </c>
       <c r="O170" t="n">
         <v>140.0880183230696</v>
@@ -8809,10 +8809,10 @@
         <v>7573998.691380767</v>
       </c>
       <c r="E171" t="n">
-        <v>421180.5913139471</v>
+        <v>421147.2938515669</v>
       </c>
       <c r="F171" t="n">
-        <v>7574047.797359525</v>
+        <v>7574059.429327038</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>11.65999576728791</v>
       </c>
       <c r="L171" t="n">
-        <v>-88.7484277401818</v>
+        <v>-122.045890120382</v>
       </c>
       <c r="M171" t="n">
-        <v>49.10597875807434</v>
+        <v>60.73794627096504</v>
       </c>
       <c r="N171" t="n">
-        <v>101.4282040467183</v>
+        <v>136.3242363356237</v>
       </c>
       <c r="O171" t="n">
         <v>140.0880183230696</v>
@@ -8858,10 +8858,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E172" t="n">
-        <v>425017.565755661</v>
+        <v>425000.4989647509</v>
       </c>
       <c r="F172" t="n">
-        <v>7577075.984160873</v>
+        <v>7577053.768003307</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8881,13 +8881,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L172" t="n">
-        <v>99.83695427351631</v>
+        <v>82.77016336342786</v>
       </c>
       <c r="M172" t="n">
-        <v>260.6806304119527</v>
+        <v>238.464472846128</v>
       </c>
       <c r="N172" t="n">
-        <v>279.1447805540797</v>
+        <v>252.4206900255807</v>
       </c>
       <c r="O172" t="n">
         <v>172.7870594228591</v>
@@ -8907,10 +8907,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E173" t="n">
-        <v>425155.4771034151</v>
+        <v>425113.6364820688</v>
       </c>
       <c r="F173" t="n">
-        <v>7576952.052772084</v>
+        <v>7576972.339943619</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8930,13 +8930,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L173" t="n">
-        <v>237.7483020275831</v>
+        <v>195.9076806813246</v>
       </c>
       <c r="M173" t="n">
-        <v>136.7492416230962</v>
+        <v>157.0364131582901</v>
       </c>
       <c r="N173" t="n">
-        <v>274.2710524307857</v>
+        <v>251.0781838542668</v>
       </c>
       <c r="O173" t="n">
         <v>172.7870594228591</v>
@@ -8956,10 +8956,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E174" t="n">
-        <v>424940.0479850951</v>
+        <v>424885.9230899039</v>
       </c>
       <c r="F174" t="n">
-        <v>7577020.59086739</v>
+        <v>7577030.703281298</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8979,13 +8979,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L174" t="n">
-        <v>22.31918370758649</v>
+        <v>-31.80571148358285</v>
       </c>
       <c r="M174" t="n">
-        <v>205.2873369287699</v>
+        <v>215.3997508371249</v>
       </c>
       <c r="N174" t="n">
-        <v>206.497062121182</v>
+        <v>217.7352886963259</v>
       </c>
       <c r="O174" t="n">
         <v>172.7870594228591</v>
@@ -9005,10 +9005,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E175" t="n">
-        <v>425010.240363529</v>
+        <v>424995.2113302966</v>
       </c>
       <c r="F175" t="n">
-        <v>7577127.502884962</v>
+        <v>7577098.16471567</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -9028,13 +9028,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L175" t="n">
-        <v>92.51156214153161</v>
+        <v>77.48252890916774</v>
       </c>
       <c r="M175" t="n">
-        <v>312.1993545005098</v>
+        <v>282.8611852088943</v>
       </c>
       <c r="N175" t="n">
-        <v>325.6176071412623</v>
+        <v>293.2814218186014</v>
       </c>
       <c r="O175" t="n">
         <v>172.7870594228591</v>
@@ -9054,10 +9054,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E176" t="n">
-        <v>425021.7983803491</v>
+        <v>425027.2436891721</v>
       </c>
       <c r="F176" t="n">
-        <v>7576781.121398667</v>
+        <v>7576789.863337725</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9077,13 +9077,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L176" t="n">
-        <v>104.0695789615856</v>
+        <v>109.5148877846659</v>
       </c>
       <c r="M176" t="n">
-        <v>-34.1821317942813</v>
+        <v>-25.44019273575395</v>
       </c>
       <c r="N176" t="n">
-        <v>109.5394695954081</v>
+        <v>112.4309301434453</v>
       </c>
       <c r="O176" t="n">
         <v>172.7870594228591</v>
@@ -9103,10 +9103,10 @@
         <v>7576815.303530461</v>
       </c>
       <c r="E177" t="n">
-        <v>425017.8663196953</v>
+        <v>425019.4202534623</v>
       </c>
       <c r="F177" t="n">
-        <v>7576908.62796679</v>
+        <v>7576914.938856462</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -9126,13 +9126,13 @@
         <v>-42.20541303884238</v>
       </c>
       <c r="L177" t="n">
-        <v>100.1375183077762</v>
+        <v>101.691452074796</v>
       </c>
       <c r="M177" t="n">
-        <v>93.32443632837385</v>
+        <v>99.63532600086182</v>
       </c>
       <c r="N177" t="n">
-        <v>136.8830631920871</v>
+        <v>142.3669540742462</v>
       </c>
       <c r="O177" t="n">
         <v>172.7870594228591</v>
@@ -9152,10 +9152,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E178" t="n">
-        <v>424907.9177033651</v>
+        <v>424917.9053515195</v>
       </c>
       <c r="F178" t="n">
-        <v>7577099.22321947</v>
+        <v>7577111.660295086</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9175,13 +9175,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L178" t="n">
-        <v>-39.18842219281942</v>
+        <v>-29.20077403844334</v>
       </c>
       <c r="M178" t="n">
-        <v>227.3268190529197</v>
+        <v>239.7638946687803</v>
       </c>
       <c r="N178" t="n">
-        <v>230.679897465474</v>
+        <v>241.5355261471616</v>
       </c>
       <c r="O178" t="n">
         <v>461.3656302132206</v>
@@ -9201,10 +9201,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E179" t="n">
-        <v>424863.8618821413</v>
+        <v>424868.8697400665</v>
       </c>
       <c r="F179" t="n">
-        <v>7577108.8675574</v>
+        <v>7577146.347175987</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9224,13 +9224,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L179" t="n">
-        <v>-83.24424341664417</v>
+        <v>-78.2363854914438</v>
       </c>
       <c r="M179" t="n">
-        <v>236.971156982705</v>
+        <v>274.4507755693048</v>
       </c>
       <c r="N179" t="n">
-        <v>251.1671421657923</v>
+        <v>285.3842326151862</v>
       </c>
       <c r="O179" t="n">
         <v>461.3656302132206</v>
@@ -9250,10 +9250,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E180" t="n">
-        <v>424676.3673454925</v>
+        <v>424667.9323827593</v>
       </c>
       <c r="F180" t="n">
-        <v>7576315.470065616</v>
+        <v>7576331.534646106</v>
       </c>
       <c r="G180" t="n">
         <v>5</v>
@@ -9273,13 +9273,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L180" t="n">
-        <v>-270.7387800653814</v>
+        <v>-279.1737427986227</v>
       </c>
       <c r="M180" t="n">
-        <v>-556.42633480113</v>
+        <v>-540.3617543112487</v>
       </c>
       <c r="N180" t="n">
-        <v>618.7970209135708</v>
+        <v>608.2177276194125</v>
       </c>
       <c r="O180" t="n">
         <v>926.5222753325139</v>
@@ -9299,10 +9299,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E181" t="n">
-        <v>424989.5810948663</v>
+        <v>425002.7450756758</v>
       </c>
       <c r="F181" t="n">
-        <v>7576305.469802208</v>
+        <v>7576311.705647703</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -9322,13 +9322,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L181" t="n">
-        <v>42.47496930841589</v>
+        <v>55.63895011792192</v>
       </c>
       <c r="M181" t="n">
-        <v>-566.4265982089564</v>
+        <v>-560.190752713941</v>
       </c>
       <c r="N181" t="n">
-        <v>568.0169136357838</v>
+        <v>562.9470420887177</v>
       </c>
       <c r="O181" t="n">
         <v>695.4513517348389</v>
@@ -9348,10 +9348,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E182" t="n">
-        <v>424825.4052785133</v>
+        <v>424866.1734366947</v>
       </c>
       <c r="F182" t="n">
-        <v>7576243.081415442</v>
+        <v>7576274.560562765</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -9371,13 +9371,13 @@
         <v>311.9932252077386</v>
       </c>
       <c r="L182" t="n">
-        <v>-90.53767260152381</v>
+        <v>-49.76951442018617</v>
       </c>
       <c r="M182" t="n">
-        <v>-185.8924239659682</v>
+        <v>-154.413276642561</v>
       </c>
       <c r="N182" t="n">
-        <v>206.7681393446388</v>
+        <v>162.2358301027032</v>
       </c>
       <c r="O182" t="n">
         <v>582.8104246553874</v>
@@ -9397,10 +9397,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E183" t="n">
-        <v>424621.0859501029</v>
+        <v>424625.9997163714</v>
       </c>
       <c r="F183" t="n">
-        <v>7576128.259380668</v>
+        <v>7576178.729117448</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -9420,13 +9420,13 @@
         <v>254.3402890078723</v>
       </c>
       <c r="L183" t="n">
-        <v>-294.8570010119001</v>
+        <v>-289.943234743434</v>
       </c>
       <c r="M183" t="n">
-        <v>-300.714458739385</v>
+        <v>-250.2447219602764</v>
       </c>
       <c r="N183" t="n">
-        <v>421.1529849599228</v>
+        <v>383.0006530574877</v>
       </c>
       <c r="O183" t="n">
         <v>627.3353900038757</v>
@@ -9446,10 +9446,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E184" t="n">
-        <v>424603.5205955074</v>
+        <v>424626.5500390784</v>
       </c>
       <c r="F184" t="n">
-        <v>7576188.66140823</v>
+        <v>7576219.504523587</v>
       </c>
       <c r="G184" t="n">
         <v>6</v>
@@ -9469,13 +9469,13 @@
         <v>381.6013254079347</v>
       </c>
       <c r="L184" t="n">
-        <v>-312.422355607443</v>
+        <v>-289.3929120364483</v>
       </c>
       <c r="M184" t="n">
-        <v>-240.3124311780557</v>
+        <v>-209.4693158203736</v>
       </c>
       <c r="N184" t="n">
-        <v>394.1545291659241</v>
+        <v>357.2473258223088</v>
       </c>
       <c r="O184" t="n">
         <v>825.8420674232218</v>
@@ -9495,10 +9495,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E185" t="n">
-        <v>424230.0520773539</v>
+        <v>424238.3397593296</v>
       </c>
       <c r="F185" t="n">
-        <v>7576250.760497478</v>
+        <v>7576253.843400433</v>
       </c>
       <c r="G185" t="n">
         <v>6</v>
@@ -9518,13 +9518,13 @@
         <v>156.2064815745689</v>
       </c>
       <c r="L185" t="n">
-        <v>-685.8908737609163</v>
+        <v>-677.6031917852815</v>
       </c>
       <c r="M185" t="n">
-        <v>-178.2133419299498</v>
+        <v>-175.1304389750585</v>
       </c>
       <c r="N185" t="n">
-        <v>708.6651437388143</v>
+        <v>699.8690993130056</v>
       </c>
       <c r="O185" t="n">
         <v>1056.794012444648</v>
@@ -9544,10 +9544,10 @@
         <v>7576428.973839408</v>
       </c>
       <c r="E186" t="n">
-        <v>425121.3278511224</v>
+        <v>425062.0657533715</v>
       </c>
       <c r="F186" t="n">
-        <v>7576768.347161327</v>
+        <v>7576785.322273137</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9567,13 +9567,13 @@
         <v>18.38335740752518</v>
       </c>
       <c r="L186" t="n">
-        <v>205.3849000075716</v>
+        <v>146.1228022566647</v>
       </c>
       <c r="M186" t="n">
-        <v>339.373321919702</v>
+        <v>356.3484337292612</v>
       </c>
       <c r="N186" t="n">
-        <v>396.6827558414076</v>
+        <v>385.1442321528884</v>
       </c>
       <c r="O186" t="n">
         <v>30.02606654521618</v>
@@ -9593,10 +9593,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E187" t="n">
-        <v>424305.1161539623</v>
+        <v>424316.8207068254</v>
       </c>
       <c r="F187" t="n">
-        <v>7576043.855018468</v>
+        <v>7576070.157554471</v>
       </c>
       <c r="G187" t="n">
         <v>8</v>
@@ -9616,13 +9616,13 @@
         <v>467.1735055824975</v>
       </c>
       <c r="L187" t="n">
-        <v>-586.6085331262439</v>
+        <v>-574.9039802631014</v>
       </c>
       <c r="M187" t="n">
-        <v>-395.298633989878</v>
+        <v>-368.9960979865864</v>
       </c>
       <c r="N187" t="n">
-        <v>707.3687731097458</v>
+        <v>683.1344720124164</v>
       </c>
       <c r="O187" t="n">
         <v>973.0869012650965</v>
@@ -9642,10 +9642,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E188" t="n">
-        <v>424642.6252399727</v>
+        <v>424669.768754668</v>
       </c>
       <c r="F188" t="n">
-        <v>7576126.687249675</v>
+        <v>7576167.023768402</v>
       </c>
       <c r="G188" t="n">
         <v>9</v>
@@ -9665,13 +9665,13 @@
         <v>417.4090739019836</v>
       </c>
       <c r="L188" t="n">
-        <v>-249.0994471158483</v>
+        <v>-221.9559324205038</v>
       </c>
       <c r="M188" t="n">
-        <v>-312.4664027821273</v>
+        <v>-272.1298840558156</v>
       </c>
       <c r="N188" t="n">
-        <v>399.6070412555613</v>
+        <v>351.1682071783932</v>
       </c>
       <c r="O188" t="n">
         <v>1016.280378186309</v>
@@ -9691,10 +9691,10 @@
         <v>7576439.153652458</v>
       </c>
       <c r="E189" t="n">
-        <v>424768.8832235828</v>
+        <v>424771.5380920387</v>
       </c>
       <c r="F189" t="n">
-        <v>7576087.869158627</v>
+        <v>7576107.080558016</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -9714,13 +9714,13 @@
         <v>495.7723283146375</v>
       </c>
       <c r="L189" t="n">
-        <v>-122.8414635056979</v>
+        <v>-120.1865950498614</v>
       </c>
       <c r="M189" t="n">
-        <v>-351.284493830055</v>
+        <v>-332.0730944415554</v>
       </c>
       <c r="N189" t="n">
-        <v>372.1435485960487</v>
+        <v>353.1534477839195</v>
       </c>
       <c r="O189" t="n">
         <v>855.7219542318107</v>
@@ -9740,10 +9740,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E190" t="n">
-        <v>427400.9629198796</v>
+        <v>427416.3289677298</v>
       </c>
       <c r="F190" t="n">
-        <v>7564982.896451569</v>
+        <v>7565018.17448371</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -9763,13 +9763,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L190" t="n">
-        <v>-149.4072091274429</v>
+        <v>-134.041161277215</v>
       </c>
       <c r="M190" t="n">
-        <v>26.15503813233227</v>
+        <v>61.43307027313858</v>
       </c>
       <c r="N190" t="n">
-        <v>151.6792673998501</v>
+        <v>147.4484826633653</v>
       </c>
       <c r="O190" t="n">
         <v>479.21832990863</v>
@@ -9789,10 +9789,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E191" t="n">
-        <v>427448.8519166718</v>
+        <v>427457.7114847836</v>
       </c>
       <c r="F191" t="n">
-        <v>7565117.985439471</v>
+        <v>7565136.613378848</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9812,13 +9812,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L191" t="n">
-        <v>-101.5182123352424</v>
+        <v>-92.6586442234111</v>
       </c>
       <c r="M191" t="n">
-        <v>161.2440260341391</v>
+        <v>179.8719654111192</v>
       </c>
       <c r="N191" t="n">
-        <v>190.5402408087108</v>
+        <v>202.3352373912649</v>
       </c>
       <c r="O191" t="n">
         <v>527.3973946174215</v>
@@ -9838,10 +9838,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E192" t="n">
-        <v>425154.4066295348</v>
+        <v>425132.1693790705</v>
       </c>
       <c r="F192" t="n">
-        <v>7576726.174200777</v>
+        <v>7576753.749295863</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9861,13 +9861,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L192" t="n">
-        <v>-269.2676268210053</v>
+        <v>-291.5048772853916</v>
       </c>
       <c r="M192" t="n">
-        <v>133.7447426710278</v>
+        <v>161.3198377573863</v>
       </c>
       <c r="N192" t="n">
-        <v>300.6538059728425</v>
+        <v>333.1653996669531</v>
       </c>
       <c r="O192" t="n">
         <v>737.6384903303916</v>
@@ -9887,10 +9887,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E193" t="n">
-        <v>425076.8016379297</v>
+        <v>425113.0857129409</v>
       </c>
       <c r="F193" t="n">
-        <v>7576688.556254905</v>
+        <v>7576730.465308895</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9910,13 +9910,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L193" t="n">
-        <v>-346.8726184261031</v>
+        <v>-310.5885434149532</v>
       </c>
       <c r="M193" t="n">
-        <v>96.12679679878056</v>
+        <v>138.035850789398</v>
       </c>
       <c r="N193" t="n">
-        <v>359.9457938031434</v>
+        <v>339.8810665567813</v>
       </c>
       <c r="O193" t="n">
         <v>737.6384903303916</v>
@@ -9936,10 +9936,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E194" t="n">
-        <v>425074.2660715258</v>
+        <v>425063.6297277181</v>
       </c>
       <c r="F194" t="n">
-        <v>7576705.517909572</v>
+        <v>7576756.871943145</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9959,13 +9959,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L194" t="n">
-        <v>-349.4081848300993</v>
+        <v>-360.0445286377217</v>
       </c>
       <c r="M194" t="n">
-        <v>113.0884514655918</v>
+        <v>164.4424850391224</v>
       </c>
       <c r="N194" t="n">
-        <v>367.2534240564005</v>
+        <v>395.8199003180628</v>
       </c>
       <c r="O194" t="n">
         <v>737.6384903303916</v>
@@ -9985,10 +9985,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E195" t="n">
-        <v>425013.7605032739</v>
+        <v>425059.5421649311</v>
       </c>
       <c r="F195" t="n">
-        <v>7576742.329954764</v>
+        <v>7576785.166000267</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L195" t="n">
-        <v>-409.913753081928</v>
+        <v>-364.132091424719</v>
       </c>
       <c r="M195" t="n">
-        <v>149.9004966579378</v>
+        <v>192.7365421606228</v>
       </c>
       <c r="N195" t="n">
-        <v>436.4624197614364</v>
+        <v>411.9946051702296</v>
       </c>
       <c r="O195" t="n">
         <v>737.6384903303916</v>
@@ -10034,10 +10034,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E196" t="n">
-        <v>424364.5865871295</v>
+        <v>424364.2599618402</v>
       </c>
       <c r="F196" t="n">
-        <v>7576740.304694636</v>
+        <v>7576765.295462398</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -10057,13 +10057,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L196" t="n">
-        <v>-1129.890821636945</v>
+        <v>-1130.217446926225</v>
       </c>
       <c r="M196" t="n">
-        <v>48.25020114891231</v>
+        <v>73.24096891097724</v>
       </c>
       <c r="N196" t="n">
-        <v>1130.920576667664</v>
+        <v>1132.588061416618</v>
       </c>
       <c r="O196" t="n">
         <v>1579.666606178597</v>
@@ -10083,10 +10083,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E197" t="n">
-        <v>424536.7575925413</v>
+        <v>424572.9638905267</v>
       </c>
       <c r="F197" t="n">
-        <v>7576504.93096522</v>
+        <v>7576497.335889777</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -10106,13 +10106,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L197" t="n">
-        <v>-957.7198162251152</v>
+        <v>-921.5135182396625</v>
       </c>
       <c r="M197" t="n">
-        <v>-187.1235282672569</v>
+        <v>-194.7186037097126</v>
       </c>
       <c r="N197" t="n">
-        <v>975.8291147641862</v>
+        <v>941.861188779483</v>
       </c>
       <c r="O197" t="n">
         <v>1579.666606178597</v>
@@ -10132,10 +10132,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E198" t="n">
-        <v>424645.9626429843</v>
+        <v>424645.1314052357</v>
       </c>
       <c r="F198" t="n">
-        <v>7576612.771756616</v>
+        <v>7576655.1792476</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -10155,13 +10155,13 @@
         <v>144.4630178203806</v>
       </c>
       <c r="L198" t="n">
-        <v>-848.5147657821071</v>
+        <v>-849.3460035306634</v>
       </c>
       <c r="M198" t="n">
-        <v>-79.28273687046021</v>
+        <v>-36.87524588685483</v>
       </c>
       <c r="N198" t="n">
-        <v>852.2106899798516</v>
+        <v>850.1461153664856</v>
       </c>
       <c r="O198" t="n">
         <v>1517.780143646836</v>
@@ -10181,10 +10181,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E199" t="n">
-        <v>424639.759717803</v>
+        <v>424691.5897049431</v>
       </c>
       <c r="F199" t="n">
-        <v>7576574.706000492</v>
+        <v>7576593.50618451</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -10204,13 +10204,13 @@
         <v>73.42689748698224</v>
       </c>
       <c r="L199" t="n">
-        <v>-854.7176909634145</v>
+        <v>-802.8877038232749</v>
       </c>
       <c r="M199" t="n">
-        <v>-117.3484929949045</v>
+        <v>-98.54830897692591</v>
       </c>
       <c r="N199" t="n">
-        <v>862.7357649095151</v>
+        <v>808.913119038641</v>
       </c>
       <c r="O199" t="n">
         <v>1363.402226775267</v>
@@ -10230,10 +10230,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E200" t="n">
-        <v>424451.0882210713</v>
+        <v>424492.0416982011</v>
       </c>
       <c r="F200" t="n">
-        <v>7576508.158388547</v>
+        <v>7576510.459988171</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -10253,13 +10253,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L200" t="n">
-        <v>-1043.389187695109</v>
+        <v>-1002.435710565303</v>
       </c>
       <c r="M200" t="n">
-        <v>-183.8961049402133</v>
+        <v>-181.5945053156465</v>
       </c>
       <c r="N200" t="n">
-        <v>1059.470987998842</v>
+        <v>1018.751156160031</v>
       </c>
       <c r="O200" t="n">
         <v>1579.666606178597</v>
@@ -10279,10 +10279,10 @@
         <v>7576692.054493487</v>
       </c>
       <c r="E201" t="n">
-        <v>424774.1840320748</v>
+        <v>424829.31359266</v>
       </c>
       <c r="F201" t="n">
-        <v>7576600.73334692</v>
+        <v>7576645.539084733</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -10302,13 +10302,13 @@
         <v>248.4620489869267</v>
       </c>
       <c r="L201" t="n">
-        <v>-720.2933766915812</v>
+        <v>-665.1638161063893</v>
       </c>
       <c r="M201" t="n">
-        <v>-91.32114656642079</v>
+        <v>-46.51540875434875</v>
       </c>
       <c r="N201" t="n">
-        <v>726.0592953168259</v>
+        <v>666.7882613759773</v>
       </c>
       <c r="O201" t="n">
         <v>1579.666606178597</v>
@@ -10328,10 +10328,10 @@
         <v>7574245.787594238</v>
       </c>
       <c r="E202" t="n">
-        <v>421892.341068709</v>
+        <v>421908.3974009543</v>
       </c>
       <c r="F202" t="n">
-        <v>7573953.992671581</v>
+        <v>7573986.17790151</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -10351,13 +10351,13 @@
         <v>258.7562092384323</v>
       </c>
       <c r="L202" t="n">
-        <v>-165.4292350643664</v>
+        <v>-149.3729028190719</v>
       </c>
       <c r="M202" t="n">
-        <v>-291.794922657311</v>
+        <v>-259.6096927281469</v>
       </c>
       <c r="N202" t="n">
-        <v>335.4267560922465</v>
+        <v>299.5153696473668</v>
       </c>
       <c r="O202" t="n">
         <v>963.4308861180651</v>
@@ -10377,10 +10377,10 @@
         <v>7574245.787594238</v>
       </c>
       <c r="E203" t="n">
-        <v>421928.0330762628</v>
+        <v>421964.2584638616</v>
       </c>
       <c r="F203" t="n">
-        <v>7573985.173163963</v>
+        <v>7574022.714936327</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10400,13 +10400,13 @@
         <v>258.7562092384323</v>
       </c>
       <c r="L203" t="n">
-        <v>-129.7372275106027</v>
+        <v>-93.51183991180733</v>
       </c>
       <c r="M203" t="n">
-        <v>-260.6144302748144</v>
+        <v>-223.0726579111069</v>
       </c>
       <c r="N203" t="n">
-        <v>291.1213311827286</v>
+        <v>241.8798770282828</v>
       </c>
       <c r="O203" t="n">
         <v>963.4308861180651</v>
@@ -10426,10 +10426,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E204" t="n">
-        <v>421889.6942495425</v>
+        <v>421916.9645461284</v>
       </c>
       <c r="F204" t="n">
-        <v>7573998.03788688</v>
+        <v>7574051.943545116</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -10449,13 +10449,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L204" t="n">
-        <v>128.5417737046955</v>
+        <v>155.8120702904998</v>
       </c>
       <c r="M204" t="n">
-        <v>190.1824760660529</v>
+        <v>244.0881343018264</v>
       </c>
       <c r="N204" t="n">
-        <v>229.5481687789383</v>
+        <v>289.579727458878</v>
       </c>
       <c r="O204" t="n">
         <v>656.3448035298604</v>
@@ -10475,10 +10475,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E205" t="n">
-        <v>421912.8796305005</v>
+        <v>421990.2524706627</v>
       </c>
       <c r="F205" t="n">
-        <v>7574038.905634963</v>
+        <v>7574062.384187873</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10498,13 +10498,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L205" t="n">
-        <v>151.7271546625998</v>
+        <v>229.09999482485</v>
       </c>
       <c r="M205" t="n">
-        <v>231.0502241486683</v>
+        <v>254.5287770591676</v>
       </c>
       <c r="N205" t="n">
-        <v>276.4151507084197</v>
+        <v>342.4495670605845</v>
       </c>
       <c r="O205" t="n">
         <v>656.3448035298604</v>
@@ -10524,10 +10524,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E206" t="n">
-        <v>421861.984449971</v>
+        <v>421965.9432757027</v>
       </c>
       <c r="F206" t="n">
-        <v>7573991.759738381</v>
+        <v>7574030.931319322</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10547,13 +10547,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L206" t="n">
-        <v>100.8319741331507</v>
+        <v>204.7907998648589</v>
       </c>
       <c r="M206" t="n">
-        <v>183.9043275667354</v>
+        <v>223.0759085081518</v>
       </c>
       <c r="N206" t="n">
-        <v>209.7328984812862</v>
+        <v>302.8235999159015</v>
       </c>
       <c r="O206" t="n">
         <v>656.3448035298604</v>
@@ -10573,10 +10573,10 @@
         <v>7573807.855410814</v>
       </c>
       <c r="E207" t="n">
-        <v>421860.7909168123</v>
+        <v>421817.735353931</v>
       </c>
       <c r="F207" t="n">
-        <v>7573995.742062728</v>
+        <v>7574024.935928483</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10596,13 +10596,13 @@
         <v>-179.1759741855785</v>
       </c>
       <c r="L207" t="n">
-        <v>99.63844097446417</v>
+        <v>56.58287809311878</v>
       </c>
       <c r="M207" t="n">
-        <v>187.8866519136354</v>
+        <v>217.0805176692083</v>
       </c>
       <c r="N207" t="n">
-        <v>212.671608088944</v>
+        <v>224.3336204068223</v>
       </c>
       <c r="O207" t="n">
         <v>656.3448035298604</v>
@@ -10622,10 +10622,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E208" t="n">
-        <v>427850.5411955192</v>
+        <v>427867.3341356076</v>
       </c>
       <c r="F208" t="n">
-        <v>7565094.717974235</v>
+        <v>7565122.227827209</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -10645,13 +10645,13 @@
         <v>-426.1484427840139</v>
       </c>
       <c r="L208" t="n">
-        <v>286.1117396606714</v>
+        <v>302.9046797490446</v>
       </c>
       <c r="M208" t="n">
-        <v>165.2535470193252</v>
+        <v>192.7633999930695</v>
       </c>
       <c r="N208" t="n">
-        <v>330.4068134499108</v>
+        <v>359.0389580404324</v>
       </c>
       <c r="O208" t="n">
         <v>426.746991743381</v>
@@ -10671,10 +10671,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E209" t="n">
-        <v>427517.0099973681</v>
+        <v>427518.9067334066</v>
       </c>
       <c r="F209" t="n">
-        <v>7565076.040059842</v>
+        <v>7565087.66835231</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -10694,13 +10694,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L209" t="n">
-        <v>-47.41945849044714</v>
+        <v>-45.52272245188942</v>
       </c>
       <c r="M209" t="n">
-        <v>146.5756326261908</v>
+        <v>158.2039250936359</v>
       </c>
       <c r="N209" t="n">
-        <v>154.0552534751583</v>
+        <v>164.6232066704586</v>
       </c>
       <c r="O209" t="n">
         <v>508.5967658551147</v>
@@ -10720,10 +10720,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E210" t="n">
-        <v>427577.2048700494</v>
+        <v>427597.8087425304</v>
       </c>
       <c r="F210" t="n">
-        <v>7565092.57122381</v>
+        <v>7565092.60076435</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -10743,13 +10743,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L210" t="n">
-        <v>12.77541419083718</v>
+        <v>33.37928667187225</v>
       </c>
       <c r="M210" t="n">
-        <v>163.1067965943366</v>
+        <v>163.1363371340558</v>
       </c>
       <c r="N210" t="n">
-        <v>163.6063516585274</v>
+        <v>166.5161892196652</v>
       </c>
       <c r="O210" t="n">
         <v>508.5967658551147</v>
@@ -10769,10 +10769,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E211" t="n">
-        <v>427550.3752922225</v>
+        <v>427551.029381559</v>
       </c>
       <c r="F211" t="n">
-        <v>7565095.281011115</v>
+        <v>7565117.542939458</v>
       </c>
       <c r="G211" t="n">
         <v>4</v>
@@ -10792,13 +10792,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L211" t="n">
-        <v>-14.05416363605764</v>
+        <v>-13.4000742995413</v>
       </c>
       <c r="M211" t="n">
-        <v>165.8165838988498</v>
+        <v>188.0785122420639</v>
       </c>
       <c r="N211" t="n">
-        <v>166.4111144467021</v>
+        <v>188.5552671192757</v>
       </c>
       <c r="O211" t="n">
         <v>508.5967658551147</v>
@@ -10818,10 +10818,10 @@
         <v>7564929.464427216</v>
       </c>
       <c r="E212" t="n">
-        <v>427566.5446058054</v>
+        <v>427597.1754824542</v>
       </c>
       <c r="F212" t="n">
-        <v>7565181.281032689</v>
+        <v>7565203.685705263</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -10841,13 +10841,13 @@
         <v>-499.2835682840087</v>
       </c>
       <c r="L212" t="n">
-        <v>2.115149946825113</v>
+        <v>32.74602659564698</v>
       </c>
       <c r="M212" t="n">
-        <v>251.8166054729372</v>
+        <v>274.2212780471891</v>
       </c>
       <c r="N212" t="n">
-        <v>251.8254884859959</v>
+        <v>276.1695341482051</v>
       </c>
       <c r="O212" t="n">
         <v>508.5967658551147</v>
@@ -10867,10 +10867,10 @@
         <v>7564945.536025301</v>
       </c>
       <c r="E213" t="n">
-        <v>427384.0919410713</v>
+        <v>427409.6572695789</v>
       </c>
       <c r="F213" t="n">
-        <v>7564985.219201106</v>
+        <v>7565019.307034942</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -10890,13 +10890,13 @@
         <v>-417.2511643661807</v>
       </c>
       <c r="L213" t="n">
-        <v>-233.1098551020841</v>
+        <v>-207.5445265944581</v>
       </c>
       <c r="M213" t="n">
-        <v>39.6831758050248</v>
+        <v>73.77100964169949</v>
       </c>
       <c r="N213" t="n">
-        <v>236.4634411229084</v>
+        <v>220.2655042962321</v>
       </c>
       <c r="O213" t="n">
         <v>469.3777704997882</v>
@@ -10916,10 +10916,10 @@
         <v>7564945.536025301</v>
       </c>
       <c r="E214" t="n">
-        <v>427586.330217261</v>
+        <v>427610.1613769327</v>
       </c>
       <c r="F214" t="n">
-        <v>7565105.741368223</v>
+        <v>7565130.677482176</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -10939,13 +10939,13 @@
         <v>-483.2119701993652</v>
       </c>
       <c r="L214" t="n">
-        <v>-30.87157891236711</v>
+        <v>-7.040419240656774</v>
       </c>
       <c r="M214" t="n">
-        <v>160.2053429223597</v>
+        <v>185.1414568750188</v>
       </c>
       <c r="N214" t="n">
-        <v>163.1527084832286</v>
+        <v>185.2752723837929</v>
       </c>
       <c r="O214" t="n">
         <v>505.8566503636082</v>
@@ -10965,10 +10965,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E215" t="n">
-        <v>421138.8393219477</v>
+        <v>421089.7984380801</v>
       </c>
       <c r="F215" t="n">
-        <v>7574015.21736646</v>
+        <v>7574022.892648079</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -10988,13 +10988,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L215" t="n">
-        <v>11.12865767447511</v>
+        <v>-37.91222619317705</v>
       </c>
       <c r="M215" t="n">
-        <v>195.5603640004992</v>
+        <v>203.235645619221</v>
       </c>
       <c r="N215" t="n">
-        <v>195.8767545923799</v>
+        <v>206.7415404440632</v>
       </c>
       <c r="O215" t="n">
         <v>167.3866580077973</v>
@@ -11014,10 +11014,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E216" t="n">
-        <v>420981.1878874234</v>
+        <v>421012.294079009</v>
       </c>
       <c r="F216" t="n">
-        <v>7573538.886193031</v>
+        <v>7573595.658792852</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -11037,13 +11037,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L216" t="n">
-        <v>-146.5227768498007</v>
+        <v>-115.4165852642036</v>
       </c>
       <c r="M216" t="n">
-        <v>-280.7708094287664</v>
+        <v>-223.9982096068561</v>
       </c>
       <c r="N216" t="n">
-        <v>316.7036020683395</v>
+        <v>251.9844956760757</v>
       </c>
       <c r="O216" t="n">
         <v>167.3866580077973</v>
@@ -11063,10 +11063,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E217" t="n">
-        <v>420924.5517793865</v>
+        <v>420945.9473401132</v>
       </c>
       <c r="F217" t="n">
-        <v>7573483.849434</v>
+        <v>7573510.729244158</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -11086,13 +11086,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L217" t="n">
-        <v>-203.1588848867104</v>
+        <v>-181.7633241600124</v>
       </c>
       <c r="M217" t="n">
-        <v>-335.8075684588403</v>
+        <v>-308.9277583016083</v>
       </c>
       <c r="N217" t="n">
-        <v>392.4796243662215</v>
+        <v>358.4330702641075</v>
       </c>
       <c r="O217" t="n">
         <v>167.3866580077973</v>
@@ -11112,10 +11112,10 @@
         <v>7573819.657002459</v>
       </c>
       <c r="E218" t="n">
-        <v>421068.6340864305</v>
+        <v>421085.4085546872</v>
       </c>
       <c r="F218" t="n">
-        <v>7573627.720466996</v>
+        <v>7573667.041830635</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -11135,13 +11135,13 @@
         <v>-167.3743825405836</v>
       </c>
       <c r="L218" t="n">
-        <v>-59.07657784275943</v>
+        <v>-42.30210958607495</v>
       </c>
       <c r="M218" t="n">
-        <v>-191.9365354636684</v>
+        <v>-152.6151718245819</v>
       </c>
       <c r="N218" t="n">
-        <v>200.8224979811964</v>
+        <v>158.3693756585501</v>
       </c>
       <c r="O218" t="n">
         <v>167.3866580077973</v>
@@ -11161,10 +11161,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E219" t="n">
-        <v>420971.1065391091</v>
+        <v>420976.0486802364</v>
       </c>
       <c r="F219" t="n">
-        <v>7573473.515277206</v>
+        <v>7573510.032451559</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -11184,13 +11184,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L219" t="n">
-        <v>-154.1149799981504</v>
+        <v>-149.1728388709016</v>
       </c>
       <c r="M219" t="n">
-        <v>-265.3219504328445</v>
+        <v>-228.8047760799527</v>
       </c>
       <c r="N219" t="n">
-        <v>306.8340992153888</v>
+        <v>273.1376235779342</v>
       </c>
       <c r="O219" t="n">
         <v>248.2352446668662</v>
@@ -11210,10 +11210,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E220" t="n">
-        <v>420960.1396209008</v>
+        <v>420973.6280048341</v>
       </c>
       <c r="F220" t="n">
-        <v>7573417.272292332</v>
+        <v>7573475.13025532</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -11233,13 +11233,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L220" t="n">
-        <v>-165.0818982064957</v>
+        <v>-151.593514273176</v>
       </c>
       <c r="M220" t="n">
-        <v>-321.5649353070185</v>
+        <v>-263.7069723187014</v>
       </c>
       <c r="N220" t="n">
-        <v>361.463747469185</v>
+        <v>304.1742277366509</v>
       </c>
       <c r="O220" t="n">
         <v>248.2352446668662</v>
@@ -11259,10 +11259,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E221" t="n">
-        <v>420927.2662874331</v>
+        <v>420964.0010947936</v>
       </c>
       <c r="F221" t="n">
-        <v>7573438.51493366</v>
+        <v>7573452.909938581</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -11282,13 +11282,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L221" t="n">
-        <v>-197.9552316741901</v>
+        <v>-161.2204243137385</v>
       </c>
       <c r="M221" t="n">
-        <v>-300.3222939791158</v>
+        <v>-285.927289057523</v>
       </c>
       <c r="N221" t="n">
-        <v>359.6939727157806</v>
+        <v>328.2475283131408</v>
       </c>
       <c r="O221" t="n">
         <v>248.2352446668662</v>
@@ -11308,10 +11308,10 @@
         <v>7573738.837227639</v>
       </c>
       <c r="E222" t="n">
-        <v>420955.5414570689</v>
+        <v>420976.017789774</v>
       </c>
       <c r="F222" t="n">
-        <v>7573453.901828103</v>
+        <v>7573490.036335154</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -11331,13 +11331,13 @@
         <v>-248.1941573610529</v>
       </c>
       <c r="L222" t="n">
-        <v>-169.6800620383583</v>
+        <v>-149.2037293332978</v>
       </c>
       <c r="M222" t="n">
-        <v>-284.9353995360434</v>
+        <v>-248.8008924853057</v>
       </c>
       <c r="N222" t="n">
-        <v>331.6315807671305</v>
+        <v>290.1096981289123</v>
       </c>
       <c r="O222" t="n">
         <v>248.2352446668662</v>
@@ -11357,10 +11357,10 @@
         <v>7573803.847646404</v>
       </c>
       <c r="E223" t="n">
-        <v>421192.8796864864</v>
+        <v>421181.9803067779</v>
       </c>
       <c r="F223" t="n">
-        <v>7573929.152747706</v>
+        <v>7573959.552272991</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -11380,13 +11380,13 @@
         <v>-183.1837385958061</v>
       </c>
       <c r="L223" t="n">
-        <v>83.36989506869577</v>
+        <v>72.47051536018262</v>
       </c>
       <c r="M223" t="n">
-        <v>125.3051013015211</v>
+        <v>155.7046265872195</v>
       </c>
       <c r="N223" t="n">
-        <v>150.5055075934093</v>
+        <v>171.7437228466762</v>
       </c>
       <c r="O223" t="n">
         <v>184.2971923413266</v>
@@ -11406,10 +11406,10 @@
         <v>7573803.847646404</v>
       </c>
       <c r="E224" t="n">
-        <v>421182.8937367607</v>
+        <v>421268.7845477037</v>
       </c>
       <c r="F224" t="n">
-        <v>7573752.489984613</v>
+        <v>7573772.123783194</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -11429,13 +11429,13 @@
         <v>-183.1837385958061</v>
       </c>
       <c r="L224" t="n">
-        <v>73.38394534296822</v>
+        <v>159.2747562860022</v>
       </c>
       <c r="M224" t="n">
-        <v>-51.3576617911458</v>
+        <v>-31.72386321052909</v>
       </c>
       <c r="N224" t="n">
-        <v>89.57015607194991</v>
+        <v>162.4033604546586</v>
       </c>
       <c r="O224" t="n">
         <v>184.2971923413266</v>
@@ -11455,10 +11455,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E225" t="n">
-        <v>421140.0455827654</v>
+        <v>421169.2565910275</v>
       </c>
       <c r="F225" t="n">
-        <v>7573780.348271279</v>
+        <v>7573781.301658121</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -11478,13 +11478,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L225" t="n">
-        <v>41.63083939725766</v>
+        <v>70.8418476593215</v>
       </c>
       <c r="M225" t="n">
-        <v>91.90014153160155</v>
+        <v>92.85352837387472</v>
       </c>
       <c r="N225" t="n">
-        <v>100.8898548043789</v>
+        <v>116.7918880370742</v>
       </c>
       <c r="O225" t="n">
         <v>300.2217434815566</v>
@@ -11504,10 +11504,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E226" t="n">
-        <v>421210.315383066</v>
+        <v>421199.5763094338</v>
       </c>
       <c r="F226" t="n">
-        <v>7573756.166961109</v>
+        <v>7573781.145693026</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -11527,13 +11527,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L226" t="n">
-        <v>111.9006396978511</v>
+        <v>101.1615660656244</v>
       </c>
       <c r="M226" t="n">
-        <v>67.71883136220276</v>
+        <v>92.69756327848881</v>
       </c>
       <c r="N226" t="n">
-        <v>130.795998737923</v>
+        <v>137.2096960371938</v>
       </c>
       <c r="O226" t="n">
         <v>300.2217434815566</v>
@@ -11553,10 +11553,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E227" t="n">
-        <v>421137.3278119927</v>
+        <v>421096.1203625894</v>
       </c>
       <c r="F227" t="n">
-        <v>7573935.586842116</v>
+        <v>7573967.666247561</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -11576,13 +11576,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L227" t="n">
-        <v>38.91306862450438</v>
+        <v>-2.29438077879604</v>
       </c>
       <c r="M227" t="n">
-        <v>247.1387123689055</v>
+        <v>279.2181178135797</v>
       </c>
       <c r="N227" t="n">
-        <v>250.183472797737</v>
+        <v>279.2275443048486</v>
       </c>
       <c r="O227" t="n">
         <v>300.2217434815566</v>
@@ -11602,10 +11602,10 @@
         <v>7573688.448129747</v>
       </c>
       <c r="E228" t="n">
-        <v>421124.0554602183</v>
+        <v>421123.5103736878</v>
       </c>
       <c r="F228" t="n">
-        <v>7573876.195221476</v>
+        <v>7573902.252651828</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -11625,13 +11625,13 @@
         <v>-298.5832552528009</v>
       </c>
       <c r="L228" t="n">
-        <v>25.64071685017552</v>
+        <v>25.09563031961443</v>
       </c>
       <c r="M228" t="n">
-        <v>187.7470917291939</v>
+        <v>213.8045220812783</v>
       </c>
       <c r="N228" t="n">
-        <v>189.489885781171</v>
+        <v>215.2723027320109</v>
       </c>
       <c r="O228" t="n">
         <v>300.2217434815566</v>
@@ -11651,10 +11651,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E229" t="n">
-        <v>421162.4589169053</v>
+        <v>421156.3620625522</v>
       </c>
       <c r="F229" t="n">
-        <v>7573989.120890209</v>
+        <v>7574004.597049307</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -11674,13 +11674,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L229" t="n">
-        <v>148.7984051384265</v>
+        <v>142.7015507852775</v>
       </c>
       <c r="M229" t="n">
-        <v>245.30497477483</v>
+        <v>260.7811338724568</v>
       </c>
       <c r="N229" t="n">
-        <v>286.9067723512627</v>
+        <v>297.2718156508071</v>
       </c>
       <c r="O229" t="n">
         <v>269.4952790421774</v>
@@ -11700,10 +11700,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E230" t="n">
-        <v>421234.3487395871</v>
+        <v>421210.621026641</v>
       </c>
       <c r="F230" t="n">
-        <v>7573773.511584534</v>
+        <v>7573813.208471613</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -11723,13 +11723,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L230" t="n">
-        <v>220.688227820152</v>
+        <v>196.9605148740811</v>
       </c>
       <c r="M230" t="n">
-        <v>29.69566909968853</v>
+        <v>69.39255617838353</v>
       </c>
       <c r="N230" t="n">
-        <v>222.6771803793049</v>
+        <v>208.8271325102015</v>
       </c>
       <c r="O230" t="n">
         <v>269.4952790421774</v>
@@ -11749,10 +11749,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E231" t="n">
-        <v>421154.1160037279</v>
+        <v>421131.6912350714</v>
       </c>
       <c r="F231" t="n">
-        <v>7573853.419217962</v>
+        <v>7573890.377462584</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -11772,13 +11772,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L231" t="n">
-        <v>140.45549196098</v>
+        <v>118.0307233044878</v>
       </c>
       <c r="M231" t="n">
-        <v>109.6033025272191</v>
+        <v>146.5615471489727</v>
       </c>
       <c r="N231" t="n">
-        <v>178.1589996235779</v>
+        <v>188.1795385967378</v>
       </c>
       <c r="O231" t="n">
         <v>269.4952790421774</v>
@@ -11798,10 +11798,10 @@
         <v>7573665.394633945</v>
       </c>
       <c r="E232" t="n">
-        <v>421053.1339806497</v>
+        <v>421088.0304371731</v>
       </c>
       <c r="F232" t="n">
-        <v>7573800.909509242</v>
+        <v>7573751.06091042</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -11821,13 +11821,13 @@
         <v>-321.6367510547861</v>
       </c>
       <c r="L232" t="n">
-        <v>-83.91673805948813</v>
+        <v>-49.02028153609717</v>
       </c>
       <c r="M232" t="n">
-        <v>135.5148752965033</v>
+        <v>85.66627647448331</v>
       </c>
       <c r="N232" t="n">
-        <v>159.3935392453897</v>
+        <v>98.70004522228366</v>
       </c>
       <c r="O232" t="n">
         <v>321.7198752960197</v>
@@ -11847,10 +11847,10 @@
         <v>7573665.394633945</v>
       </c>
       <c r="E233" t="n">
-        <v>421106.8853371955</v>
+        <v>421097.316427883</v>
       </c>
       <c r="F233" t="n">
-        <v>7573655.853102748</v>
+        <v>7573680.222982838</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11870,13 +11870,13 @@
         <v>-321.6367510547861</v>
       </c>
       <c r="L233" t="n">
-        <v>-30.16538151365239</v>
+        <v>-39.73429082619259</v>
       </c>
       <c r="M233" t="n">
-        <v>-9.541531196795404</v>
+        <v>14.82834889274091</v>
       </c>
       <c r="N233" t="n">
-        <v>31.63844274681707</v>
+        <v>42.41101034336842</v>
       </c>
       <c r="O233" t="n">
         <v>321.7198752960197</v>
@@ -11896,10 +11896,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E234" t="n">
-        <v>421107.3093427686</v>
+        <v>421160.8431837548</v>
       </c>
       <c r="F234" t="n">
-        <v>7573739.531677793</v>
+        <v>7573761.506446937</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11919,13 +11919,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L234" t="n">
-        <v>-20.16213642677758</v>
+        <v>33.37170455942396</v>
       </c>
       <c r="M234" t="n">
-        <v>58.46605720277876</v>
+        <v>80.44082634709775</v>
       </c>
       <c r="N234" t="n">
-        <v>61.84489946738202</v>
+        <v>87.08844474788498</v>
       </c>
       <c r="O234" t="n">
         <v>305.9741578597057</v>
@@ -11945,10 +11945,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E235" t="n">
-        <v>421100.1738611254</v>
+        <v>421099.4866318926</v>
       </c>
       <c r="F235" t="n">
-        <v>7573611.85853451</v>
+        <v>7573615.816464485</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11968,13 +11968,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L235" t="n">
-        <v>-27.29761806997703</v>
+        <v>-27.98484730278142</v>
       </c>
       <c r="M235" t="n">
-        <v>-69.20708607975394</v>
+        <v>-65.24915610533208</v>
       </c>
       <c r="N235" t="n">
-        <v>74.39610686013621</v>
+        <v>70.99721157213138</v>
       </c>
       <c r="O235" t="n">
         <v>305.9741578597057</v>
@@ -11994,10 +11994,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E236" t="n">
-        <v>421108.5274250012</v>
+        <v>421105.1210132788</v>
       </c>
       <c r="F236" t="n">
-        <v>7573637.538175316</v>
+        <v>7573662.85390556</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -12017,13 +12017,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L236" t="n">
-        <v>-18.94405419420218</v>
+        <v>-22.35046591656283</v>
       </c>
       <c r="M236" t="n">
-        <v>-43.52744527440518</v>
+        <v>-18.2117150304839</v>
       </c>
       <c r="N236" t="n">
-        <v>47.47120897374752</v>
+        <v>28.83071090068696</v>
       </c>
       <c r="O236" t="n">
         <v>305.9741578597057</v>
@@ -12043,10 +12043,10 @@
         <v>7573681.06562059</v>
       </c>
       <c r="E237" t="n">
-        <v>421073.1834108006</v>
+        <v>421092.3296659305</v>
       </c>
       <c r="F237" t="n">
-        <v>7573683.786224133</v>
+        <v>7573670.965047095</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -12066,13 +12066,13 @@
         <v>-305.9657644098625</v>
       </c>
       <c r="L237" t="n">
-        <v>-54.28806839475874</v>
+        <v>-35.1418132649269</v>
       </c>
       <c r="M237" t="n">
-        <v>2.720603543333709</v>
+        <v>-10.1005734950304</v>
       </c>
       <c r="N237" t="n">
-        <v>54.35619609275471</v>
+        <v>36.56458155750592</v>
       </c>
       <c r="O237" t="n">
         <v>305.9741578597057</v>
@@ -12092,10 +12092,10 @@
         <v>7573651.006895196</v>
       </c>
       <c r="E238" t="n">
-        <v>420998.6947007451</v>
+        <v>420999.9448553915</v>
       </c>
       <c r="F238" t="n">
-        <v>7573466.177527254</v>
+        <v>7573508.93530901</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -12115,13 +12115,13 @@
         <v>-336.024489804171</v>
       </c>
       <c r="L238" t="n">
-        <v>-50.02542369783623</v>
+        <v>-48.77526905148989</v>
       </c>
       <c r="M238" t="n">
-        <v>-184.8293679421768</v>
+        <v>-142.0715861860663</v>
       </c>
       <c r="N238" t="n">
-        <v>191.4796027519709</v>
+        <v>150.2110597541675</v>
       </c>
       <c r="O238" t="n">
         <v>345.6534742417982</v>
@@ -12141,10 +12141,10 @@
         <v>7573813.923836576</v>
       </c>
       <c r="E239" t="n">
-        <v>421171.2974623149</v>
+        <v>421194.4879709872</v>
       </c>
       <c r="F239" t="n">
-        <v>7573752.973364922</v>
+        <v>7573774.742573922</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -12164,13 +12164,13 @@
         <v>-173.1075484240428</v>
       </c>
       <c r="L239" t="n">
-        <v>127.8304155860096</v>
+        <v>151.0209242582787</v>
       </c>
       <c r="M239" t="n">
-        <v>-60.95047165360302</v>
+        <v>-39.18126265425235</v>
       </c>
       <c r="N239" t="n">
-        <v>141.6177077334914</v>
+        <v>156.0208028020823</v>
       </c>
       <c r="O239" t="n">
         <v>193.4137252744931</v>
@@ -12190,10 +12190,10 @@
         <v>7573813.923836576</v>
       </c>
       <c r="E240" t="n">
-        <v>421164.3486488552</v>
+        <v>421200.5847757788</v>
       </c>
       <c r="F240" t="n">
-        <v>7573735.595031447</v>
+        <v>7573744.951697667</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -12213,13 +12213,13 @@
         <v>-173.1075484240428</v>
       </c>
       <c r="L240" t="n">
-        <v>120.8816021263483</v>
+        <v>157.1177290498745</v>
       </c>
       <c r="M240" t="n">
-        <v>-78.32880512904376</v>
+        <v>-68.9721389086917</v>
       </c>
       <c r="N240" t="n">
-        <v>144.0408395059418</v>
+        <v>171.5900251396614</v>
       </c>
       <c r="O240" t="n">
         <v>193.4137252744931</v>
@@ -12239,10 +12239,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E241" t="n">
-        <v>424283.9397447188</v>
+        <v>424305.2029450134</v>
       </c>
       <c r="F241" t="n">
-        <v>7576047.387348344</v>
+        <v>7576069.789384954</v>
       </c>
       <c r="G241" t="n">
         <v>7</v>
@@ -12262,13 +12262,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L241" t="n">
-        <v>-317.6725593302399</v>
+        <v>-296.4093590357224</v>
       </c>
       <c r="M241" t="n">
-        <v>92.67882071156055</v>
+        <v>115.08085732162</v>
       </c>
       <c r="N241" t="n">
-        <v>330.9157275801656</v>
+        <v>317.9655828007913</v>
       </c>
       <c r="O241" t="n">
         <v>750.2996260564154</v>
@@ -12288,10 +12288,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E242" t="n">
-        <v>424418.0586111249</v>
+        <v>424490.9324589204</v>
       </c>
       <c r="F242" t="n">
-        <v>7576047.130198432</v>
+        <v>7576067.709047285</v>
       </c>
       <c r="G242" t="n">
         <v>8</v>
@@ -12311,13 +12311,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L242" t="n">
-        <v>-183.553692924208</v>
+        <v>-110.6798451286741</v>
       </c>
       <c r="M242" t="n">
-        <v>92.42167080007493</v>
+        <v>113.0005196528509</v>
       </c>
       <c r="N242" t="n">
-        <v>205.5084509687908</v>
+        <v>158.1744149966158</v>
       </c>
       <c r="O242" t="n">
         <v>1060.240461805684</v>
@@ -12337,10 +12337,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E243" t="n">
-        <v>424521.2636271673</v>
+        <v>424589.6844046287</v>
       </c>
       <c r="F243" t="n">
-        <v>7576084.298154642</v>
+        <v>7576121.031897662</v>
       </c>
       <c r="G243" t="n">
         <v>7</v>
@@ -12360,13 +12360,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L243" t="n">
-        <v>-80.34867688181112</v>
+        <v>-11.9278994203778</v>
       </c>
       <c r="M243" t="n">
-        <v>129.5896270098165</v>
+        <v>166.3233700301498</v>
       </c>
       <c r="N243" t="n">
-        <v>152.4774780261041</v>
+        <v>166.7505268440516</v>
       </c>
       <c r="O243" t="n">
         <v>971.8355815744785</v>
@@ -12386,10 +12386,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E244" t="n">
-        <v>421208.9908450934</v>
+        <v>421189.5764507123</v>
       </c>
       <c r="F244" t="n">
-        <v>7573905.73247101</v>
+        <v>7573940.782911527</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -12409,13 +12409,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L244" t="n">
-        <v>-24.25737614929676</v>
+        <v>-43.67177053040359</v>
       </c>
       <c r="M244" t="n">
-        <v>84.22184550575912</v>
+        <v>119.2722860230133</v>
       </c>
       <c r="N244" t="n">
-        <v>87.64553358867997</v>
+        <v>127.0161476128753</v>
       </c>
       <c r="O244" t="n">
         <v>195.2217344728356</v>
@@ -12435,10 +12435,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E245" t="n">
-        <v>421178.5548304505</v>
+        <v>421143.720914394</v>
       </c>
       <c r="F245" t="n">
-        <v>7573891.254537251</v>
+        <v>7573932.892395806</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -12458,13 +12458,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L245" t="n">
-        <v>-54.69339079217752</v>
+        <v>-89.52730684867129</v>
       </c>
       <c r="M245" t="n">
-        <v>69.74391174688935</v>
+        <v>111.3817703016102</v>
       </c>
       <c r="N245" t="n">
-        <v>88.63171115409958</v>
+        <v>142.902195319375</v>
       </c>
       <c r="O245" t="n">
         <v>195.2217344728356</v>
@@ -12484,10 +12484,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E246" t="n">
-        <v>421170.1140526814</v>
+        <v>421161.1004565921</v>
       </c>
       <c r="F246" t="n">
-        <v>7573907.859850107</v>
+        <v>7573941.612364043</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -12507,13 +12507,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L246" t="n">
-        <v>-63.13416856125696</v>
+        <v>-72.14776465058094</v>
       </c>
       <c r="M246" t="n">
-        <v>86.34922460280359</v>
+        <v>120.1017385395244</v>
       </c>
       <c r="N246" t="n">
-        <v>106.9678074442336</v>
+        <v>140.1061295743048</v>
       </c>
       <c r="O246" t="n">
         <v>195.2217344728356</v>
@@ -12533,10 +12533,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E247" t="n">
-        <v>421199.5842531266</v>
+        <v>421193.875293778</v>
       </c>
       <c r="F247" t="n">
-        <v>7573895.260249099</v>
+        <v>7573933.00654442</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -12556,13 +12556,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L247" t="n">
-        <v>-33.66396811610321</v>
+        <v>-39.37292746466119</v>
       </c>
       <c r="M247" t="n">
-        <v>73.7496235948056</v>
+        <v>111.495918915607</v>
       </c>
       <c r="N247" t="n">
-        <v>81.06953638511521</v>
+        <v>118.2436778520234</v>
       </c>
       <c r="O247" t="n">
         <v>195.2217344728356</v>
@@ -12582,10 +12582,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E248" t="n">
-        <v>421222.9775891221</v>
+        <v>421199.4301523785</v>
       </c>
       <c r="F248" t="n">
-        <v>7573922.648378865</v>
+        <v>7573944.040551549</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -12605,13 +12605,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L248" t="n">
-        <v>-10.27063212060602</v>
+        <v>-33.81806886417326</v>
       </c>
       <c r="M248" t="n">
-        <v>101.1377533609048</v>
+        <v>122.5299260448664</v>
       </c>
       <c r="N248" t="n">
-        <v>101.6579118369447</v>
+        <v>127.1111504088544</v>
       </c>
       <c r="O248" t="n">
         <v>195.2217344728356</v>
@@ -12631,10 +12631,10 @@
         <v>7573821.510625504</v>
       </c>
       <c r="E249" t="n">
-        <v>421255.2540525181</v>
+        <v>421302.8439834269</v>
       </c>
       <c r="F249" t="n">
-        <v>7573905.689902854</v>
+        <v>7573914.32137641</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -12654,13 +12654,13 @@
         <v>-165.5207594959065</v>
       </c>
       <c r="L249" t="n">
-        <v>22.00583127536811</v>
+        <v>69.59576218423899</v>
       </c>
       <c r="M249" t="n">
-        <v>84.17927735019475</v>
+        <v>92.81075090635568</v>
       </c>
       <c r="N249" t="n">
-        <v>87.00808781556448</v>
+        <v>116.0060584530254</v>
       </c>
       <c r="O249" t="n">
         <v>195.2217344728356</v>
